--- a/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
+++ b/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
@@ -294,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="172" formatCode="0.00,&quot;K&quot;"/>
@@ -302,7 +302,8 @@
     <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -338,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -348,7 +349,8 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23147,115 +23149,115 @@
       <c r="N2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="10" t="n">
         <v>42111675000</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="P2" s="10" t="n">
         <v>43815582000</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="10" t="n">
         <v>39545885055</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="10" t="n">
         <v>39957971414</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="10" t="n">
         <v>44026483825</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="10" t="n">
         <v>37789260369</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="10" t="n">
         <v>39393811712.51</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="10" t="n">
         <v>43071214393</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="10" t="n">
         <v>41278050273</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="10" t="n">
         <v>45233341240.67</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="10" t="n">
         <v>37958921676.9792</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="10" t="n">
         <v>40633046619.5646</v>
       </c>
-      <c r="AA2" s="9" t="n">
+      <c r="AA2" s="10" t="n">
         <v>47413884724.7769</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="10" t="n">
         <v>55557135024.1209</v>
       </c>
-      <c r="AC2" s="9" t="n">
+      <c r="AC2" s="10" t="n">
         <v>55056695772.8358</v>
       </c>
-      <c r="AD2" s="9" t="n">
+      <c r="AD2" s="10" t="n">
         <v>55580069095.4808</v>
       </c>
-      <c r="AE2" s="9" t="n">
+      <c r="AE2" s="10" t="n">
         <v>63139443613.8063</v>
       </c>
-      <c r="AF2" s="9" t="n">
+      <c r="AF2" s="10" t="n">
         <v>69877137081.497</v>
       </c>
-      <c r="AG2" s="9" t="n">
+      <c r="AG2" s="10" t="n">
         <v>63650832496.9105</v>
       </c>
-      <c r="AH2" s="9" t="n">
+      <c r="AH2" s="10" t="n">
         <v>67807653951.5146</v>
       </c>
-      <c r="AI2" s="9" t="n">
+      <c r="AI2" s="10" t="n">
         <v>64907616713.9658</v>
       </c>
-      <c r="AJ2" s="9" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>65476225773.1615</v>
       </c>
-      <c r="AK2" s="9" t="n">
+      <c r="AK2" s="10" t="n">
         <v>71494774011.2722</v>
       </c>
-      <c r="AL2" s="9" t="n">
+      <c r="AL2" s="10" t="n">
         <v>55167411502.4674</v>
       </c>
-      <c r="AM2" s="9" t="n">
+      <c r="AM2" s="10" t="n">
         <v>55803091054.8974</v>
       </c>
-      <c r="AN2" s="9" t="n">
+      <c r="AN2" s="10" t="n">
         <v>52855821371.6412</v>
       </c>
-      <c r="AO2" s="9" t="n">
+      <c r="AO2" s="10" t="n">
         <v>65049036181.0832</v>
       </c>
-      <c r="AP2" s="9" t="n">
+      <c r="AP2" s="10" t="n">
         <v>61393940204.3139</v>
       </c>
-      <c r="AQ2" s="9" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>71867887528.2911</v>
       </c>
-      <c r="AR2" s="9" t="n">
+      <c r="AR2" s="10" t="n">
         <v>75814574410.8732</v>
       </c>
-      <c r="AS2" s="9" t="n">
+      <c r="AS2" s="10" t="n">
         <v>77957034534.0625</v>
       </c>
-      <c r="AT2" s="9" t="n">
+      <c r="AT2" s="10" t="n">
         <v>79169868543.378</v>
       </c>
-      <c r="AU2" s="9" t="n">
+      <c r="AU2" s="10" t="n">
         <v>78784472831.3931</v>
       </c>
-      <c r="AV2" s="9" t="n">
+      <c r="AV2" s="10" t="n">
         <v>92746612140.7301</v>
       </c>
-      <c r="AW2" s="9" t="n">
+      <c r="AW2" s="10" t="n">
         <v>99846951842.2436</v>
       </c>
-      <c r="AX2" s="9" t="n">
+      <c r="AX2" s="10" t="n">
         <v>43729601308.87</v>
       </c>
-      <c r="AY2" s="9"/>
+      <c r="AY2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -23270,115 +23272,115 @@
       <c r="N3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="10" t="n">
         <v>23216088134.53</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="10" t="n">
         <v>35268260000</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="10" t="n">
         <v>31428914998</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="10" t="n">
         <v>30957822464</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="10" t="n">
         <v>20798814908</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="10" t="n">
         <v>29761242814</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="10" t="n">
         <v>32029210551</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="10" t="n">
         <v>37067947798.21</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="10" t="n">
         <v>37638355362</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="10" t="n">
         <v>43607320822.52</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="10" t="n">
         <v>36832500828.7767</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="10" t="n">
         <v>40556105509.793</v>
       </c>
-      <c r="AA3" s="9" t="n">
+      <c r="AA3" s="10" t="n">
         <v>46178863972.4357</v>
       </c>
-      <c r="AB3" s="9" t="n">
+      <c r="AB3" s="10" t="n">
         <v>64206590729.1569</v>
       </c>
-      <c r="AC3" s="9" t="n">
+      <c r="AC3" s="10" t="n">
         <v>76070511906.1153</v>
       </c>
-      <c r="AD3" s="9" t="n">
+      <c r="AD3" s="10" t="n">
         <v>95626896372.1701</v>
       </c>
-      <c r="AE3" s="9" t="n">
+      <c r="AE3" s="10" t="n">
         <v>101677927943.18</v>
       </c>
-      <c r="AF3" s="9" t="n">
+      <c r="AF3" s="10" t="n">
         <v>118362647694.287</v>
       </c>
-      <c r="AG3" s="9" t="n">
+      <c r="AG3" s="10" t="n">
         <v>153115860208.619</v>
       </c>
-      <c r="AH3" s="9" t="n">
+      <c r="AH3" s="10" t="n">
         <v>147184981504.119</v>
       </c>
-      <c r="AI3" s="9" t="n">
+      <c r="AI3" s="10" t="n">
         <v>141175890062.453</v>
       </c>
-      <c r="AJ3" s="9" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>125525303443.94</v>
       </c>
-      <c r="AK3" s="9" t="n">
+      <c r="AK3" s="10" t="n">
         <v>109148363176.855</v>
       </c>
-      <c r="AL3" s="9" t="n">
+      <c r="AL3" s="10" t="n">
         <v>87698991048.9785</v>
       </c>
-      <c r="AM3" s="9" t="n">
+      <c r="AM3" s="10" t="n">
         <v>75373911966.1301</v>
       </c>
-      <c r="AN3" s="9" t="n">
+      <c r="AN3" s="10" t="n">
         <v>72930300832.3044</v>
       </c>
-      <c r="AO3" s="9" t="n">
+      <c r="AO3" s="10" t="n">
         <v>74197001335.624</v>
       </c>
-      <c r="AP3" s="9" t="n">
+      <c r="AP3" s="10" t="n">
         <v>78622025172.4383</v>
       </c>
-      <c r="AQ3" s="9" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>91452191509.7659</v>
       </c>
-      <c r="AR3" s="9" t="n">
+      <c r="AR3" s="10" t="n">
         <v>95041873714.4263</v>
       </c>
-      <c r="AS3" s="9" t="n">
+      <c r="AS3" s="10" t="n">
         <v>100479498333.367</v>
       </c>
-      <c r="AT3" s="9" t="n">
+      <c r="AT3" s="10" t="n">
         <v>109800145453.743</v>
       </c>
-      <c r="AU3" s="9" t="n">
+      <c r="AU3" s="10" t="n">
         <v>112542723059.68</v>
       </c>
-      <c r="AV3" s="9" t="n">
+      <c r="AV3" s="10" t="n">
         <v>111974432319.734</v>
       </c>
-      <c r="AW3" s="9" t="n">
+      <c r="AW3" s="10" t="n">
         <v>104140748165.532</v>
       </c>
-      <c r="AX3" s="9" t="n">
+      <c r="AX3" s="10" t="n">
         <v>37572844796.39</v>
       </c>
-      <c r="AY3" s="9"/>
+      <c r="AY3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -23393,115 +23395,115 @@
       <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="10" t="n">
         <v>9209787000</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="10" t="n">
         <v>11713307000</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="10" t="n">
         <v>6907467039</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="10" t="n">
         <v>7931460004</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="10" t="n">
         <v>6692479944</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="10" t="n">
         <v>6644824451</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="10" t="n">
         <v>7292808729</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="10" t="n">
         <v>8059156410</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="10" t="n">
         <v>7839796546</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="10" t="n">
         <v>9009714445</v>
       </c>
-      <c r="Y4" s="9" t="n">
+      <c r="Y4" s="10" t="n">
         <v>9580614163.6178</v>
       </c>
-      <c r="Z4" s="9" t="n">
+      <c r="Z4" s="10" t="n">
         <v>11426471526.7901</v>
       </c>
-      <c r="AA4" s="9" t="n">
+      <c r="AA4" s="10" t="n">
         <v>14591296027.8973</v>
       </c>
-      <c r="AB4" s="9" t="n">
+      <c r="AB4" s="10" t="n">
         <v>17678992692.3501</v>
       </c>
-      <c r="AC4" s="9" t="n">
+      <c r="AC4" s="10" t="n">
         <v>19619731983.3795</v>
       </c>
-      <c r="AD4" s="9" t="n">
+      <c r="AD4" s="10" t="n">
         <v>27914804283.873</v>
       </c>
-      <c r="AE4" s="9" t="n">
+      <c r="AE4" s="10" t="n">
         <v>32598809893.9407</v>
       </c>
-      <c r="AF4" s="9" t="n">
+      <c r="AF4" s="10" t="n">
         <v>30639765053.0485</v>
       </c>
-      <c r="AG4" s="9" t="n">
+      <c r="AG4" s="10" t="n">
         <v>35718777232.1161</v>
       </c>
-      <c r="AH4" s="9" t="n">
+      <c r="AH4" s="10" t="n">
         <v>38025569516.8387</v>
       </c>
-      <c r="AI4" s="9" t="n">
+      <c r="AI4" s="10" t="n">
         <v>35241646622.5091</v>
       </c>
-      <c r="AJ4" s="9" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>36127582505.7365</v>
       </c>
-      <c r="AK4" s="9" t="n">
+      <c r="AK4" s="10" t="n">
         <v>43150233026.2928</v>
       </c>
-      <c r="AL4" s="9" t="n">
+      <c r="AL4" s="10" t="n">
         <v>34083497069.31</v>
       </c>
-      <c r="AM4" s="9" t="n">
+      <c r="AM4" s="10" t="n">
         <v>32346458659.2243</v>
       </c>
-      <c r="AN4" s="9" t="n">
+      <c r="AN4" s="10" t="n">
         <v>30903602561.5569</v>
       </c>
-      <c r="AO4" s="9" t="n">
+      <c r="AO4" s="10" t="n">
         <v>30228928099.4841</v>
       </c>
-      <c r="AP4" s="9" t="n">
+      <c r="AP4" s="10" t="n">
         <v>35610833121.5627</v>
       </c>
-      <c r="AQ4" s="9" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>45449953575.4856</v>
       </c>
-      <c r="AR4" s="9" t="n">
+      <c r="AR4" s="10" t="n">
         <v>44237628421.1817</v>
       </c>
-      <c r="AS4" s="9" t="n">
+      <c r="AS4" s="10" t="n">
         <v>42123907348.3116</v>
       </c>
-      <c r="AT4" s="9" t="n">
+      <c r="AT4" s="10" t="n">
         <v>39109538688.5545</v>
       </c>
-      <c r="AU4" s="9" t="n">
+      <c r="AU4" s="10" t="n">
         <v>48302959663.6637</v>
       </c>
-      <c r="AV4" s="9" t="n">
+      <c r="AV4" s="10" t="n">
         <v>50530369524.0174</v>
       </c>
-      <c r="AW4" s="9" t="n">
+      <c r="AW4" s="10" t="n">
         <v>53082768297.25</v>
       </c>
-      <c r="AX4" s="9" t="n">
+      <c r="AX4" s="10" t="n">
         <v>23568245018.5</v>
       </c>
-      <c r="AY4" s="9"/>
+      <c r="AY4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -23516,101 +23518,101 @@
       <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9" t="n">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10" t="n">
         <v>101268812</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="W5" s="10" t="n">
         <v>651152375</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="10" t="n">
         <v>695421838</v>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="10" t="n">
         <v>178031456</v>
       </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Z5" s="10" t="n">
         <v>268635741</v>
       </c>
-      <c r="AA5" s="9" t="n">
+      <c r="AA5" s="10" t="n">
         <v>6554622</v>
       </c>
-      <c r="AB5" s="9" t="n">
+      <c r="AB5" s="10" t="n">
         <v>239927692</v>
       </c>
-      <c r="AC5" s="9" t="n">
+      <c r="AC5" s="10" t="n">
         <v>196180520.0938</v>
       </c>
-      <c r="AD5" s="9" t="n">
+      <c r="AD5" s="10" t="n">
         <v>297828365</v>
       </c>
-      <c r="AE5" s="9" t="n">
+      <c r="AE5" s="10" t="n">
         <v>634208177</v>
       </c>
-      <c r="AF5" s="9" t="n">
+      <c r="AF5" s="10" t="n">
         <v>1065862779.7227</v>
       </c>
-      <c r="AG5" s="9" t="n">
+      <c r="AG5" s="10" t="n">
         <v>2725377093.3307</v>
       </c>
-      <c r="AH5" s="9" t="n">
+      <c r="AH5" s="10" t="n">
         <v>3681464083.0004</v>
       </c>
-      <c r="AI5" s="9" t="n">
+      <c r="AI5" s="10" t="n">
         <v>1874856013.4357</v>
       </c>
-      <c r="AJ5" s="9" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>4877655064.5174</v>
       </c>
-      <c r="AK5" s="9" t="n">
+      <c r="AK5" s="10" t="n">
         <v>4691798600.1318</v>
       </c>
-      <c r="AL5" s="9" t="n">
+      <c r="AL5" s="10" t="n">
         <v>12181359822.95</v>
       </c>
-      <c r="AM5" s="9" t="n">
+      <c r="AM5" s="10" t="n">
         <v>3796342018.2</v>
       </c>
-      <c r="AN5" s="9" t="n">
+      <c r="AN5" s="10" t="n">
         <v>11232863388.03</v>
       </c>
-      <c r="AO5" s="9" t="n">
+      <c r="AO5" s="10" t="n">
         <v>10403767371.5552</v>
       </c>
-      <c r="AP5" s="9" t="n">
+      <c r="AP5" s="10" t="n">
         <v>24164351660.1826</v>
       </c>
-      <c r="AQ5" s="9" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>15993414874.2596</v>
       </c>
-      <c r="AR5" s="9" t="n">
+      <c r="AR5" s="10" t="n">
         <v>17024265421.013</v>
       </c>
-      <c r="AS5" s="9" t="n">
+      <c r="AS5" s="10" t="n">
         <v>35959135988.6485</v>
       </c>
-      <c r="AT5" s="9" t="n">
+      <c r="AT5" s="10" t="n">
         <v>9846932188.5915</v>
       </c>
-      <c r="AU5" s="9" t="n">
+      <c r="AU5" s="10" t="n">
         <v>20737931625.7908</v>
       </c>
-      <c r="AV5" s="9" t="n">
+      <c r="AV5" s="10" t="n">
         <v>36167249992.413</v>
       </c>
-      <c r="AW5" s="9" t="n">
+      <c r="AW5" s="10" t="n">
         <v>12083973125.57</v>
       </c>
-      <c r="AX5" s="9" t="n">
+      <c r="AX5" s="10" t="n">
         <v>13781647277.79</v>
       </c>
-      <c r="AY5" s="9"/>
+      <c r="AY5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -23625,113 +23627,113 @@
       <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="10" t="n">
         <v>74831000</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="10" t="n">
         <v>68100000</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="10" t="n">
         <v>1661000</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9" t="n">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10" t="n">
         <v>343747860</v>
       </c>
-      <c r="T6" s="9" t="n">
+      <c r="T6" s="10" t="n">
         <v>251594273</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="10" t="n">
         <v>310476090</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="10" t="n">
         <v>431242526</v>
       </c>
-      <c r="W6" s="9" t="n">
+      <c r="W6" s="10" t="n">
         <v>747389215</v>
       </c>
-      <c r="X6" s="9" t="n">
+      <c r="X6" s="10" t="n">
         <v>945575248.63</v>
       </c>
-      <c r="Y6" s="9" t="n">
+      <c r="Y6" s="10" t="n">
         <v>1373879916</v>
       </c>
-      <c r="Z6" s="9" t="n">
+      <c r="Z6" s="10" t="n">
         <v>1673010916</v>
       </c>
-      <c r="AA6" s="9" t="n">
+      <c r="AA6" s="10" t="n">
         <v>2485964875.825</v>
       </c>
-      <c r="AB6" s="9" t="n">
+      <c r="AB6" s="10" t="n">
         <v>2671495076.0938</v>
       </c>
-      <c r="AC6" s="9" t="n">
+      <c r="AC6" s="10" t="n">
         <v>3382922964.5797</v>
       </c>
-      <c r="AD6" s="9" t="n">
+      <c r="AD6" s="10" t="n">
         <v>3841746261.1375</v>
       </c>
-      <c r="AE6" s="9" t="n">
+      <c r="AE6" s="10" t="n">
         <v>3492627141.4845</v>
       </c>
-      <c r="AF6" s="9" t="n">
+      <c r="AF6" s="10" t="n">
         <v>4929029621.6667</v>
       </c>
-      <c r="AG6" s="9" t="n">
+      <c r="AG6" s="10" t="n">
         <v>5760262873.5729</v>
       </c>
-      <c r="AH6" s="9" t="n">
+      <c r="AH6" s="10" t="n">
         <v>5673422751.5254</v>
       </c>
-      <c r="AI6" s="9" t="n">
+      <c r="AI6" s="10" t="n">
         <v>5356951769.0357</v>
       </c>
-      <c r="AJ6" s="9" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>5382146529.484</v>
       </c>
-      <c r="AK6" s="9" t="n">
+      <c r="AK6" s="10" t="n">
         <v>6877002431.1045</v>
       </c>
-      <c r="AL6" s="9" t="n">
+      <c r="AL6" s="10" t="n">
         <v>7706159819.8678</v>
       </c>
-      <c r="AM6" s="9" t="n">
+      <c r="AM6" s="10" t="n">
         <v>6050847486.8864</v>
       </c>
-      <c r="AN6" s="9" t="n">
+      <c r="AN6" s="10" t="n">
         <v>4690777698.051</v>
       </c>
-      <c r="AO6" s="9" t="n">
+      <c r="AO6" s="10" t="n">
         <v>6589241607.8602</v>
       </c>
-      <c r="AP6" s="9" t="n">
+      <c r="AP6" s="10" t="n">
         <v>5412284919.1863</v>
       </c>
-      <c r="AQ6" s="9" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>8293301633.6555</v>
       </c>
-      <c r="AR6" s="9" t="n">
+      <c r="AR6" s="10" t="n">
         <v>8819106629.0813</v>
       </c>
-      <c r="AS6" s="9" t="n">
+      <c r="AS6" s="10" t="n">
         <v>12327823652.2867</v>
       </c>
-      <c r="AT6" s="9" t="n">
+      <c r="AT6" s="10" t="n">
         <v>8817318506.7073</v>
       </c>
-      <c r="AU6" s="9" t="n">
+      <c r="AU6" s="10" t="n">
         <v>9841222285.8038</v>
       </c>
-      <c r="AV6" s="9" t="n">
+      <c r="AV6" s="10" t="n">
         <v>7078755082.6783</v>
       </c>
-      <c r="AW6" s="9" t="n">
+      <c r="AW6" s="10" t="n">
         <v>8459332539.52</v>
       </c>
-      <c r="AX6" s="9" t="n">
+      <c r="AX6" s="10" t="n">
         <v>4077615844.03</v>
       </c>
-      <c r="AY6" s="9"/>
+      <c r="AY6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -23746,115 +23748,115 @@
       <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="10" t="n">
         <v>44416973487.56</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="10" t="n">
         <v>42246069844</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="10" t="n">
         <v>41220475613</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="10" t="n">
         <v>38245449962</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="10" t="n">
         <v>41252757153.16</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="10" t="n">
         <v>39421018145</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="U7" s="10" t="n">
         <v>36936668644</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="10" t="n">
         <v>45447414678</v>
       </c>
-      <c r="W7" s="9" t="n">
+      <c r="W7" s="10" t="n">
         <v>48153173352.09</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="10" t="n">
         <v>49423055067.05</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="Y7" s="10" t="n">
         <v>40297993522.9593</v>
       </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Z7" s="10" t="n">
         <v>41940611224.7212</v>
       </c>
-      <c r="AA7" s="9" t="n">
+      <c r="AA7" s="10" t="n">
         <v>47787997916.3768</v>
       </c>
-      <c r="AB7" s="9" t="n">
+      <c r="AB7" s="10" t="n">
         <v>56619600366.3633</v>
       </c>
-      <c r="AC7" s="9" t="n">
+      <c r="AC7" s="10" t="n">
         <v>60624157330.322</v>
       </c>
-      <c r="AD7" s="9" t="n">
+      <c r="AD7" s="10" t="n">
         <v>65286569811.4977</v>
       </c>
-      <c r="AE7" s="9" t="n">
+      <c r="AE7" s="10" t="n">
         <v>74295888295.115</v>
       </c>
-      <c r="AF7" s="9" t="n">
+      <c r="AF7" s="10" t="n">
         <v>84706463044.1078</v>
       </c>
-      <c r="AG7" s="9" t="n">
+      <c r="AG7" s="10" t="n">
         <v>93702135950.3244</v>
       </c>
-      <c r="AH7" s="9" t="n">
+      <c r="AH7" s="10" t="n">
         <v>92071694336.7975</v>
       </c>
-      <c r="AI7" s="9" t="n">
+      <c r="AI7" s="10" t="n">
         <v>86215459904.5379</v>
       </c>
-      <c r="AJ7" s="9" t="n">
+      <c r="AJ7" s="10" t="n">
         <v>99202069231.8364</v>
       </c>
-      <c r="AK7" s="9" t="n">
+      <c r="AK7" s="10" t="n">
         <v>89920968641.6829</v>
       </c>
-      <c r="AL7" s="9" t="n">
+      <c r="AL7" s="10" t="n">
         <v>82197957231.9314</v>
       </c>
-      <c r="AM7" s="9" t="n">
+      <c r="AM7" s="10" t="n">
         <v>80332120166.2806</v>
       </c>
-      <c r="AN7" s="9" t="n">
+      <c r="AN7" s="10" t="n">
         <v>73506441024.9478</v>
       </c>
-      <c r="AO7" s="9" t="n">
+      <c r="AO7" s="10" t="n">
         <v>82806903387.9797</v>
       </c>
-      <c r="AP7" s="9" t="n">
+      <c r="AP7" s="10" t="n">
         <v>85448502641.0506</v>
       </c>
-      <c r="AQ7" s="9" t="n">
+      <c r="AQ7" s="10" t="n">
         <v>92309015366.9482</v>
       </c>
-      <c r="AR7" s="9" t="n">
+      <c r="AR7" s="10" t="n">
         <v>104803443564.937</v>
       </c>
-      <c r="AS7" s="9" t="n">
+      <c r="AS7" s="10" t="n">
         <v>114380922794.299</v>
       </c>
-      <c r="AT7" s="9" t="n">
+      <c r="AT7" s="10" t="n">
         <v>101938176059.912</v>
       </c>
-      <c r="AU7" s="9" t="n">
+      <c r="AU7" s="10" t="n">
         <v>103255304471.694</v>
       </c>
-      <c r="AV7" s="9" t="n">
+      <c r="AV7" s="10" t="n">
         <v>115659529630.54</v>
       </c>
-      <c r="AW7" s="9" t="n">
+      <c r="AW7" s="10" t="n">
         <v>122027612322.873</v>
       </c>
-      <c r="AX7" s="9" t="n">
+      <c r="AX7" s="10" t="n">
         <v>54505668220.22</v>
       </c>
-      <c r="AY7" s="9"/>
+      <c r="AY7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -23869,115 +23871,115 @@
       <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="10" t="n">
         <v>3335887000</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="10" t="n">
         <v>4015324000</v>
       </c>
-      <c r="Q8" s="9" t="n">
+      <c r="Q8" s="10" t="n">
         <v>6148282864</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="10" t="n">
         <v>5964388298</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="10" t="n">
         <v>5823333448</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="10" t="n">
         <v>4520245942</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="U8" s="10" t="n">
         <v>4743335584</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="10" t="n">
         <v>5644509758</v>
       </c>
-      <c r="W8" s="9" t="n">
+      <c r="W8" s="10" t="n">
         <v>7004011243.32</v>
       </c>
-      <c r="X8" s="9" t="n">
+      <c r="X8" s="10" t="n">
         <v>7686591749.53</v>
       </c>
-      <c r="Y8" s="9" t="n">
+      <c r="Y8" s="10" t="n">
         <v>5956028175.0544</v>
       </c>
-      <c r="Z8" s="9" t="n">
+      <c r="Z8" s="10" t="n">
         <v>7495657034.3578</v>
       </c>
-      <c r="AA8" s="9" t="n">
+      <c r="AA8" s="10" t="n">
         <v>11345958996.1904</v>
       </c>
-      <c r="AB8" s="9" t="n">
+      <c r="AB8" s="10" t="n">
         <v>14559345718.7002</v>
       </c>
-      <c r="AC8" s="9" t="n">
+      <c r="AC8" s="10" t="n">
         <v>14824923355.3426</v>
       </c>
-      <c r="AD8" s="9" t="n">
+      <c r="AD8" s="10" t="n">
         <v>17116563570.2447</v>
       </c>
-      <c r="AE8" s="9" t="n">
+      <c r="AE8" s="10" t="n">
         <v>19296642324.7179</v>
       </c>
-      <c r="AF8" s="9" t="n">
+      <c r="AF8" s="10" t="n">
         <v>18557674992.8479</v>
       </c>
-      <c r="AG8" s="9" t="n">
+      <c r="AG8" s="10" t="n">
         <v>23312286688.247</v>
       </c>
-      <c r="AH8" s="9" t="n">
+      <c r="AH8" s="10" t="n">
         <v>27105643872.7755</v>
       </c>
-      <c r="AI8" s="9" t="n">
+      <c r="AI8" s="10" t="n">
         <v>27923149890.8522</v>
       </c>
-      <c r="AJ8" s="9" t="n">
+      <c r="AJ8" s="10" t="n">
         <v>32019518639.3583</v>
       </c>
-      <c r="AK8" s="9" t="n">
+      <c r="AK8" s="10" t="n">
         <v>32506857047.9409</v>
       </c>
-      <c r="AL8" s="9" t="n">
+      <c r="AL8" s="10" t="n">
         <v>29165350441.0852</v>
       </c>
-      <c r="AM8" s="9" t="n">
+      <c r="AM8" s="10" t="n">
         <v>29697489809.6262</v>
       </c>
-      <c r="AN8" s="9" t="n">
+      <c r="AN8" s="10" t="n">
         <v>28106546989.0464</v>
       </c>
-      <c r="AO8" s="9" t="n">
+      <c r="AO8" s="10" t="n">
         <v>29077285437.4923</v>
       </c>
-      <c r="AP8" s="9" t="n">
+      <c r="AP8" s="10" t="n">
         <v>31199266828.0627</v>
       </c>
-      <c r="AQ8" s="9" t="n">
+      <c r="AQ8" s="10" t="n">
         <v>33995668832.1166</v>
       </c>
-      <c r="AR8" s="9" t="n">
+      <c r="AR8" s="10" t="n">
         <v>37867618809.4804</v>
       </c>
-      <c r="AS8" s="9" t="n">
+      <c r="AS8" s="10" t="n">
         <v>39306450663.1837</v>
       </c>
-      <c r="AT8" s="9" t="n">
+      <c r="AT8" s="10" t="n">
         <v>38288018121.4004</v>
       </c>
-      <c r="AU8" s="9" t="n">
+      <c r="AU8" s="10" t="n">
         <v>40861266319.2816</v>
       </c>
-      <c r="AV8" s="9" t="n">
+      <c r="AV8" s="10" t="n">
         <v>42925923203.4104</v>
       </c>
-      <c r="AW8" s="9" t="n">
+      <c r="AW8" s="10" t="n">
         <v>45197196127.54</v>
       </c>
-      <c r="AX8" s="9" t="n">
+      <c r="AX8" s="10" t="n">
         <v>21221704527.05</v>
       </c>
-      <c r="AY8" s="9"/>
+      <c r="AY8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -23992,115 +23994,115 @@
       <c r="N9" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="9" t="str">
+      <c r="O9" s="10" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="9" t="str">
+      <c r="P9" s="10" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="9" t="str">
+      <c r="Q9" s="10" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="9" t="str">
+      <c r="R9" s="10" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="9" t="str">
+      <c r="S9" s="10" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="9" t="str">
+      <c r="T9" s="10" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="9" t="str">
+      <c r="U9" s="10" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="V9" s="10" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="W9" s="10" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="9" t="str">
+      <c r="X9" s="10" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="9" t="str">
+      <c r="Y9" s="10" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="9" t="str">
+      <c r="Z9" s="10" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="9" t="str">
+      <c r="AA9" s="10" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="9" t="str">
+      <c r="AB9" s="10" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="9" t="str">
+      <c r="AC9" s="10" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="9" t="str">
+      <c r="AD9" s="10" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="9" t="str">
+      <c r="AE9" s="10" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="9" t="str">
+      <c r="AF9" s="10" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="9" t="str">
+      <c r="AG9" s="10" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="9" t="str">
+      <c r="AH9" s="10" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="9" t="str">
+      <c r="AI9" s="10" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="9" t="str">
+      <c r="AJ9" s="10" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="9" t="str">
+      <c r="AK9" s="10" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="9" t="str">
+      <c r="AL9" s="10" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="9" t="str">
+      <c r="AM9" s="10" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="9" t="str">
+      <c r="AN9" s="10" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="9" t="str">
+      <c r="AO9" s="10" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="9" t="str">
+      <c r="AP9" s="10" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="9" t="str">
+      <c r="AQ9" s="10" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="9" t="str">
+      <c r="AR9" s="10" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="9" t="str">
+      <c r="AS9" s="10" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="9" t="str">
+      <c r="AT9" s="10" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="9" t="str">
+      <c r="AU9" s="10" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="9" t="str">
+      <c r="AV9" s="10" t="str">
         <f>Sum(AV2:AV8)</f>
       </c>
-      <c r="AW9" s="9" t="str">
+      <c r="AW9" s="10" t="str">
         <f>Sum(AW2:AW8)</f>
       </c>
-      <c r="AX9" s="9" t="str">
+      <c r="AX9" s="10" t="str">
         <f>Sum(AX2:AX8)</f>
       </c>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="10"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -24249,16 +24251,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="10" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="10" t="str">
         <f>AV13</f>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="10" t="str">
         <f>AW13</f>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2" t="str">
         <f>AW13/AV13-1</f>
       </c>
@@ -24276,115 +24278,115 @@
       <c r="N13" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="10" t="n">
         <v>87098816748.7271</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="10" t="n">
         <v>87494979464.3834</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="Q13" s="10" t="n">
         <v>77040635004.8672</v>
       </c>
-      <c r="R13" s="9" t="n">
+      <c r="R13" s="10" t="n">
         <v>76059091995.068</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="S13" s="10" t="n">
         <v>82013015156.3103</v>
       </c>
-      <c r="T13" s="9" t="n">
+      <c r="T13" s="10" t="n">
         <v>68932083334.7083</v>
       </c>
-      <c r="U13" s="9" t="n">
+      <c r="U13" s="10" t="n">
         <v>70530985543.9256</v>
       </c>
-      <c r="V13" s="9" t="n">
+      <c r="V13" s="10" t="n">
         <v>75770329196.7893</v>
       </c>
-      <c r="W13" s="9" t="n">
+      <c r="W13" s="10" t="n">
         <v>71716646753.1509</v>
       </c>
-      <c r="X13" s="9" t="n">
+      <c r="X13" s="10" t="n">
         <v>77627357830.4787</v>
       </c>
-      <c r="Y13" s="9" t="n">
+      <c r="Y13" s="10" t="n">
         <v>63815529088.6921</v>
       </c>
-      <c r="Z13" s="9" t="n">
+      <c r="Z13" s="10" t="n">
         <v>66694581122.0798</v>
       </c>
-      <c r="AA13" s="9" t="n">
+      <c r="AA13" s="10" t="n">
         <v>76619180701.0273</v>
       </c>
-      <c r="AB13" s="9" t="n">
+      <c r="AB13" s="10" t="n">
         <v>88087536928.2891</v>
       </c>
-      <c r="AC13" s="9" t="n">
+      <c r="AC13" s="10" t="n">
         <v>85213273149.2519</v>
       </c>
-      <c r="AD13" s="9" t="n">
+      <c r="AD13" s="10" t="n">
         <v>83482946205.8806</v>
       </c>
-      <c r="AE13" s="9" t="n">
+      <c r="AE13" s="10" t="n">
         <v>91853555939.114</v>
       </c>
-      <c r="AF13" s="9" t="n">
+      <c r="AF13" s="10" t="n">
         <v>98931827019.0245</v>
       </c>
-      <c r="AG13" s="9" t="n">
+      <c r="AG13" s="10" t="n">
         <v>88283798656.439</v>
       </c>
-      <c r="AH13" s="9" t="n">
+      <c r="AH13" s="10" t="n">
         <v>93097292915.511</v>
       </c>
-      <c r="AI13" s="9" t="n">
+      <c r="AI13" s="10" t="n">
         <v>88350499212.4189</v>
       </c>
-      <c r="AJ13" s="9" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>87370822969.4415</v>
       </c>
-      <c r="AK13" s="9" t="n">
+      <c r="AK13" s="10" t="n">
         <v>93701600460.5992</v>
       </c>
-      <c r="AL13" s="9" t="n">
+      <c r="AL13" s="10" t="n">
         <v>71014298426.692</v>
       </c>
-      <c r="AM13" s="9" t="n">
+      <c r="AM13" s="10" t="n">
         <v>70545601959.4225</v>
       </c>
-      <c r="AN13" s="9" t="n">
+      <c r="AN13" s="10" t="n">
         <v>66134790023.8735</v>
       </c>
-      <c r="AO13" s="9" t="n">
+      <c r="AO13" s="10" t="n">
         <v>80745737746.8069</v>
       </c>
-      <c r="AP13" s="9" t="n">
+      <c r="AP13" s="10" t="n">
         <v>74943582821.8026</v>
       </c>
-      <c r="AQ13" s="9" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>85823841005.5269</v>
       </c>
-      <c r="AR13" s="9" t="n">
+      <c r="AR13" s="10" t="n">
         <v>88893334954.7501</v>
       </c>
-      <c r="AS13" s="9" t="n">
+      <c r="AS13" s="10" t="n">
         <v>90226748877.9924</v>
       </c>
-      <c r="AT13" s="9" t="n">
+      <c r="AT13" s="10" t="n">
         <v>88581721843.0429</v>
       </c>
-      <c r="AU13" s="9" t="n">
+      <c r="AU13" s="10" t="n">
         <v>82388594180.1319</v>
       </c>
-      <c r="AV13" s="9" t="n">
+      <c r="AV13" s="10" t="n">
         <v>92746612140.7301</v>
       </c>
-      <c r="AW13" s="9" t="n">
+      <c r="AW13" s="10" t="n">
         <v>97249799854.3314</v>
       </c>
-      <c r="AX13" s="9" t="n">
+      <c r="AX13" s="10" t="n">
         <v>41677642348.3212</v>
       </c>
-      <c r="AY13" s="9"/>
+      <c r="AY13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -24393,16 +24395,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="10" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="10" t="str">
         <f>AV14</f>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="10" t="str">
         <f>AW14</f>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2" t="str">
         <f>AW14/AV14-1</f>
       </c>
@@ -24420,115 +24422,115 @@
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="10" t="n">
         <v>48017415741.6376</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="10" t="n">
         <v>70426901654.4053</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="10" t="n">
         <v>61227699559.4457</v>
       </c>
-      <c r="R14" s="9" t="n">
+      <c r="R14" s="10" t="n">
         <v>58927512669.7591</v>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="S14" s="10" t="n">
         <v>38744259683.8608</v>
       </c>
-      <c r="T14" s="9" t="n">
+      <c r="T14" s="10" t="n">
         <v>54288029185.1932</v>
       </c>
-      <c r="U14" s="9" t="n">
+      <c r="U14" s="10" t="n">
         <v>57345346595.0983</v>
       </c>
-      <c r="V14" s="9" t="n">
+      <c r="V14" s="10" t="n">
         <v>65209459424.3955</v>
       </c>
-      <c r="W14" s="9" t="n">
+      <c r="W14" s="10" t="n">
         <v>65393026512.0039</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="X14" s="10" t="n">
         <v>74836857164.8788</v>
       </c>
-      <c r="Y14" s="9" t="n">
+      <c r="Y14" s="10" t="n">
         <v>61921820331.202</v>
       </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Z14" s="10" t="n">
         <v>66568290934.309</v>
       </c>
-      <c r="AA14" s="9" t="n">
+      <c r="AA14" s="10" t="n">
         <v>74623430326.5868</v>
       </c>
-      <c r="AB14" s="9" t="n">
+      <c r="AB14" s="10" t="n">
         <v>101801513512.866</v>
       </c>
-      <c r="AC14" s="9" t="n">
+      <c r="AC14" s="10" t="n">
         <v>117737129311.299</v>
       </c>
-      <c r="AD14" s="9" t="n">
+      <c r="AD14" s="10" t="n">
         <v>143634493004.297</v>
       </c>
-      <c r="AE14" s="9" t="n">
+      <c r="AE14" s="10" t="n">
         <v>147918301263.902</v>
       </c>
-      <c r="AF14" s="9" t="n">
+      <c r="AF14" s="10" t="n">
         <v>167577457753.426</v>
       </c>
-      <c r="AG14" s="9" t="n">
+      <c r="AG14" s="10" t="n">
         <v>212371924191.586</v>
       </c>
-      <c r="AH14" s="9" t="n">
+      <c r="AH14" s="10" t="n">
         <v>202079301337.441</v>
       </c>
-      <c r="AI14" s="9" t="n">
+      <c r="AI14" s="10" t="n">
         <v>192164818171.356</v>
       </c>
-      <c r="AJ14" s="9" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>167499713611.798</v>
       </c>
-      <c r="AK14" s="9" t="n">
+      <c r="AK14" s="10" t="n">
         <v>143050683896.33</v>
       </c>
-      <c r="AL14" s="9" t="n">
+      <c r="AL14" s="10" t="n">
         <v>112890602485.371</v>
       </c>
-      <c r="AM14" s="9" t="n">
+      <c r="AM14" s="10" t="n">
         <v>95286800268.0383</v>
       </c>
-      <c r="AN14" s="9" t="n">
+      <c r="AN14" s="10" t="n">
         <v>91252581205.9406</v>
       </c>
-      <c r="AO14" s="9" t="n">
+      <c r="AO14" s="10" t="n">
         <v>92101158805.302</v>
       </c>
-      <c r="AP14" s="9" t="n">
+      <c r="AP14" s="10" t="n">
         <v>95973906146.432</v>
       </c>
-      <c r="AQ14" s="9" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>109211201465.348</v>
       </c>
-      <c r="AR14" s="9" t="n">
+      <c r="AR14" s="10" t="n">
         <v>111437532697.036</v>
       </c>
-      <c r="AS14" s="9" t="n">
+      <c r="AS14" s="10" t="n">
         <v>116294039629.613</v>
       </c>
-      <c r="AT14" s="9" t="n">
+      <c r="AT14" s="10" t="n">
         <v>122853379977.257</v>
       </c>
-      <c r="AU14" s="9" t="n">
+      <c r="AU14" s="10" t="n">
         <v>117691169400.022</v>
       </c>
-      <c r="AV14" s="9" t="n">
+      <c r="AV14" s="10" t="n">
         <v>111974432319.734</v>
       </c>
-      <c r="AW14" s="9" t="n">
+      <c r="AW14" s="10" t="n">
         <v>101431908825.618</v>
       </c>
-      <c r="AX14" s="9" t="n">
+      <c r="AX14" s="10" t="n">
         <v>35809784232.2494</v>
       </c>
-      <c r="AY14" s="9"/>
+      <c r="AY14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -24537,16 +24539,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="10" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="10" t="str">
         <f>AV15</f>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="10" t="str">
         <f>AW15</f>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2" t="str">
         <f>AW15/AV15-1</f>
       </c>
@@ -24564,115 +24566,115 @@
       <c r="N15" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="10" t="n">
         <v>19048436097.7759</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="P15" s="10" t="n">
         <v>23390207516.2443</v>
       </c>
-      <c r="Q15" s="9" t="n">
+      <c r="Q15" s="10" t="n">
         <v>13456662968.0846</v>
       </c>
-      <c r="R15" s="9" t="n">
+      <c r="R15" s="10" t="n">
         <v>15097354163.682</v>
       </c>
-      <c r="S15" s="9" t="n">
+      <c r="S15" s="10" t="n">
         <v>12466824769.8878</v>
       </c>
-      <c r="T15" s="9" t="n">
+      <c r="T15" s="10" t="n">
         <v>12120946224.6207</v>
       </c>
-      <c r="U15" s="9" t="n">
+      <c r="U15" s="10" t="n">
         <v>13057101221.7223</v>
       </c>
-      <c r="V15" s="9" t="n">
+      <c r="V15" s="10" t="n">
         <v>14177564826.994</v>
       </c>
-      <c r="W15" s="9" t="n">
+      <c r="W15" s="10" t="n">
         <v>13620893326.7814</v>
       </c>
-      <c r="X15" s="9" t="n">
+      <c r="X15" s="10" t="n">
         <v>15462053166.7381</v>
       </c>
-      <c r="Y15" s="9" t="n">
+      <c r="Y15" s="10" t="n">
         <v>16106673604.9216</v>
       </c>
-      <c r="Z15" s="9" t="n">
+      <c r="Z15" s="10" t="n">
         <v>18755269308.6936</v>
       </c>
-      <c r="AA15" s="9" t="n">
+      <c r="AA15" s="10" t="n">
         <v>23579024446.386</v>
       </c>
-      <c r="AB15" s="9" t="n">
+      <c r="AB15" s="10" t="n">
         <v>28030583667.8983</v>
       </c>
-      <c r="AC15" s="9" t="n">
+      <c r="AC15" s="10" t="n">
         <v>30366180845.8855</v>
       </c>
-      <c r="AD15" s="9" t="n">
+      <c r="AD15" s="10" t="n">
         <v>41928881023.4268</v>
       </c>
-      <c r="AE15" s="9" t="n">
+      <c r="AE15" s="10" t="n">
         <v>47423867502.7994</v>
       </c>
-      <c r="AF15" s="9" t="n">
+      <c r="AF15" s="10" t="n">
         <v>43379681291.1272</v>
       </c>
-      <c r="AG15" s="9" t="n">
+      <c r="AG15" s="10" t="n">
         <v>49541996761.274</v>
       </c>
-      <c r="AH15" s="9" t="n">
+      <c r="AH15" s="10" t="n">
         <v>52207639953.4419</v>
       </c>
-      <c r="AI15" s="9" t="n">
+      <c r="AI15" s="10" t="n">
         <v>47969979946.8434</v>
       </c>
-      <c r="AJ15" s="9" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>48208285956.4644</v>
       </c>
-      <c r="AK15" s="9" t="n">
+      <c r="AK15" s="10" t="n">
         <v>56553027136.9759</v>
       </c>
-      <c r="AL15" s="9" t="n">
+      <c r="AL15" s="10" t="n">
         <v>43874011239.3529</v>
       </c>
-      <c r="AM15" s="9" t="n">
+      <c r="AM15" s="10" t="n">
         <v>40892007131.3915</v>
       </c>
-      <c r="AN15" s="9" t="n">
+      <c r="AN15" s="10" t="n">
         <v>38667515012.5729</v>
       </c>
-      <c r="AO15" s="9" t="n">
+      <c r="AO15" s="10" t="n">
         <v>37523339990.6676</v>
       </c>
-      <c r="AP15" s="9" t="n">
+      <c r="AP15" s="10" t="n">
         <v>43470143999.8422</v>
       </c>
-      <c r="AQ15" s="9" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>54275834778.5794</v>
       </c>
-      <c r="AR15" s="9" t="n">
+      <c r="AR15" s="10" t="n">
         <v>51869054880.3489</v>
       </c>
-      <c r="AS15" s="9" t="n">
+      <c r="AS15" s="10" t="n">
         <v>48753819752.0232</v>
       </c>
-      <c r="AT15" s="9" t="n">
+      <c r="AT15" s="10" t="n">
         <v>43758949474.8382</v>
       </c>
-      <c r="AU15" s="9" t="n">
+      <c r="AU15" s="10" t="n">
         <v>50512655583.1077</v>
       </c>
-      <c r="AV15" s="9" t="n">
+      <c r="AV15" s="10" t="n">
         <v>50530369524.0174</v>
       </c>
-      <c r="AW15" s="9" t="n">
+      <c r="AW15" s="10" t="n">
         <v>51702014907.5531</v>
       </c>
-      <c r="AX15" s="9" t="n">
+      <c r="AX15" s="10" t="n">
         <v>22462333459.6788</v>
       </c>
-      <c r="AY15" s="9"/>
+      <c r="AY15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -24681,16 +24683,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="10" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="10" t="str">
         <f>AV16</f>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="10" t="str">
         <f>AW16</f>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2" t="str">
         <f>AW16/AV16-1</f>
       </c>
@@ -24708,101 +24710,101 @@
       <c r="N16" t="s">
         <v>85</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9" t="n">
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10" t="n">
         <v>178150798.177978</v>
       </c>
-      <c r="W16" s="9" t="n">
+      <c r="W16" s="10" t="n">
         <v>1131314695.13461</v>
       </c>
-      <c r="X16" s="9" t="n">
+      <c r="X16" s="10" t="n">
         <v>1193450635.76726</v>
       </c>
-      <c r="Y16" s="9" t="n">
+      <c r="Y16" s="10" t="n">
         <v>299301746.655263</v>
       </c>
-      <c r="Z16" s="9" t="n">
+      <c r="Z16" s="10" t="n">
         <v>440935389.072888</v>
       </c>
-      <c r="AA16" s="9" t="n">
+      <c r="AA16" s="10" t="n">
         <v>10592040.0819318</v>
       </c>
-      <c r="AB16" s="9" t="n">
+      <c r="AB16" s="10" t="n">
         <v>380412694.426977</v>
       </c>
-      <c r="AC16" s="9" t="n">
+      <c r="AC16" s="10" t="n">
         <v>303635806.883335</v>
       </c>
-      <c r="AD16" s="9" t="n">
+      <c r="AD16" s="10" t="n">
         <v>447347219.57915</v>
       </c>
-      <c r="AE16" s="9" t="n">
+      <c r="AE16" s="10" t="n">
         <v>922628913.542959</v>
       </c>
-      <c r="AF16" s="9" t="n">
+      <c r="AF16" s="10" t="n">
         <v>1509045111.94499</v>
       </c>
-      <c r="AG16" s="9" t="n">
+      <c r="AG16" s="10" t="n">
         <v>3780102052.58756</v>
       </c>
-      <c r="AH16" s="9" t="n">
+      <c r="AH16" s="10" t="n">
         <v>5054508158.29863</v>
       </c>
-      <c r="AI16" s="9" t="n">
+      <c r="AI16" s="10" t="n">
         <v>2552003495.49745</v>
       </c>
-      <c r="AJ16" s="9" t="n">
+      <c r="AJ16" s="10" t="n">
         <v>6508694295.00063</v>
       </c>
-      <c r="AK16" s="9" t="n">
+      <c r="AK16" s="10" t="n">
         <v>6149107315.19809</v>
       </c>
-      <c r="AL16" s="9" t="n">
+      <c r="AL16" s="10" t="n">
         <v>15680466024.2433</v>
       </c>
-      <c r="AM16" s="9" t="n">
+      <c r="AM16" s="10" t="n">
         <v>4799290287.59893</v>
       </c>
-      <c r="AN16" s="9" t="n">
+      <c r="AN16" s="10" t="n">
         <v>14054895794.937</v>
       </c>
-      <c r="AO16" s="9" t="n">
+      <c r="AO16" s="10" t="n">
         <v>12914255476.8041</v>
       </c>
-      <c r="AP16" s="9" t="n">
+      <c r="AP16" s="10" t="n">
         <v>29497424077.2514</v>
       </c>
-      <c r="AQ16" s="9" t="n">
+      <c r="AQ16" s="10" t="n">
         <v>19099160174.4736</v>
       </c>
-      <c r="AR16" s="9" t="n">
+      <c r="AR16" s="10" t="n">
         <v>19961118824.2935</v>
       </c>
-      <c r="AS16" s="9" t="n">
+      <c r="AS16" s="10" t="n">
         <v>41618770545.9695</v>
       </c>
-      <c r="AT16" s="9" t="n">
+      <c r="AT16" s="10" t="n">
         <v>11017552816.3117</v>
       </c>
-      <c r="AU16" s="9" t="n">
+      <c r="AU16" s="10" t="n">
         <v>21686621379.1785</v>
       </c>
-      <c r="AV16" s="9" t="n">
+      <c r="AV16" s="10" t="n">
         <v>36167249992.413</v>
       </c>
-      <c r="AW16" s="9" t="n">
+      <c r="AW16" s="10" t="n">
         <v>11769652916.0303</v>
       </c>
-      <c r="AX16" s="9" t="n">
+      <c r="AX16" s="10" t="n">
         <v>13134960050.4576</v>
       </c>
-      <c r="AY16" s="9"/>
+      <c r="AY16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -24811,16 +24813,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="10" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="10" t="str">
         <f>AV17</f>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="10" t="str">
         <f>AW17</f>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2" t="str">
         <f>AW17/AV17-1</f>
       </c>
@@ -24838,113 +24840,113 @@
       <c r="N17" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="10" t="n">
         <v>154771605.644373</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="P17" s="10" t="n">
         <v>135988336.330315</v>
       </c>
-      <c r="Q17" s="9" t="n">
+      <c r="Q17" s="10" t="n">
         <v>3235848.54821463</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9" t="n">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10" t="n">
         <v>640337269.816692</v>
       </c>
-      <c r="T17" s="9" t="n">
+      <c r="T17" s="10" t="n">
         <v>458937730.551573</v>
       </c>
-      <c r="U17" s="9" t="n">
+      <c r="U17" s="10" t="n">
         <v>555878795.769603</v>
       </c>
-      <c r="V17" s="9" t="n">
+      <c r="V17" s="10" t="n">
         <v>758636333.318371</v>
       </c>
-      <c r="W17" s="9" t="n">
+      <c r="W17" s="10" t="n">
         <v>1298516959.129</v>
       </c>
-      <c r="X17" s="9" t="n">
+      <c r="X17" s="10" t="n">
         <v>1622752292.1753</v>
       </c>
-      <c r="Y17" s="9" t="n">
+      <c r="Y17" s="10" t="n">
         <v>2309730357.72614</v>
       </c>
-      <c r="Z17" s="9" t="n">
+      <c r="Z17" s="10" t="n">
         <v>2746059464.84853</v>
       </c>
-      <c r="AA17" s="9" t="n">
+      <c r="AA17" s="10" t="n">
         <v>4017232360.15943</v>
       </c>
-      <c r="AB17" s="9" t="n">
+      <c r="AB17" s="10" t="n">
         <v>4235737157.19836</v>
       </c>
-      <c r="AC17" s="9" t="n">
+      <c r="AC17" s="10" t="n">
         <v>5235874303.33651</v>
       </c>
-      <c r="AD17" s="9" t="n">
+      <c r="AD17" s="10" t="n">
         <v>5770419174.97836</v>
       </c>
-      <c r="AE17" s="9" t="n">
+      <c r="AE17" s="10" t="n">
         <v>5080979561.31918</v>
       </c>
-      <c r="AF17" s="9" t="n">
+      <c r="AF17" s="10" t="n">
         <v>6978504361.64336</v>
       </c>
-      <c r="AG17" s="9" t="n">
+      <c r="AG17" s="10" t="n">
         <v>7989493110.92442</v>
       </c>
-      <c r="AH17" s="9" t="n">
+      <c r="AH17" s="10" t="n">
         <v>7789390562.16214</v>
       </c>
-      <c r="AI17" s="9" t="n">
+      <c r="AI17" s="10" t="n">
         <v>7291738427.81566</v>
       </c>
-      <c r="AJ17" s="9" t="n">
+      <c r="AJ17" s="10" t="n">
         <v>7181882676.80957</v>
       </c>
-      <c r="AK17" s="9" t="n">
+      <c r="AK17" s="10" t="n">
         <v>9013052255.60019</v>
       </c>
-      <c r="AL17" s="9" t="n">
+      <c r="AL17" s="10" t="n">
         <v>9919760928.92085</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="10" t="n">
         <v>7649409204.00139</v>
       </c>
-      <c r="AN17" s="9" t="n">
+      <c r="AN17" s="10" t="n">
         <v>5869241836.73204</v>
       </c>
-      <c r="AO17" s="9" t="n">
+      <c r="AO17" s="10" t="n">
         <v>8179262999.95439</v>
       </c>
-      <c r="AP17" s="9" t="n">
+      <c r="AP17" s="10" t="n">
         <v>6606776202.11988</v>
       </c>
-      <c r="AQ17" s="9" t="n">
+      <c r="AQ17" s="10" t="n">
         <v>9903769615.28941</v>
       </c>
-      <c r="AR17" s="9" t="n">
+      <c r="AR17" s="10" t="n">
         <v>10340489354.0911</v>
       </c>
-      <c r="AS17" s="9" t="n">
+      <c r="AS17" s="10" t="n">
         <v>14268108779.8567</v>
       </c>
-      <c r="AT17" s="9" t="n">
+      <c r="AT17" s="10" t="n">
         <v>9865536847.95767</v>
       </c>
-      <c r="AU17" s="9" t="n">
+      <c r="AU17" s="10" t="n">
         <v>10291424693.2484</v>
       </c>
-      <c r="AV17" s="9" t="n">
+      <c r="AV17" s="10" t="n">
         <v>7078755082.6783</v>
       </c>
-      <c r="AW17" s="9" t="n">
+      <c r="AW17" s="10" t="n">
         <v>8239294051.45341</v>
       </c>
-      <c r="AX17" s="9" t="n">
+      <c r="AX17" s="10" t="n">
         <v>3886278623.51123</v>
       </c>
-      <c r="AY17" s="9"/>
+      <c r="AY17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -24953,16 +24955,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="10" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="10" t="str">
         <f>AV18</f>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="10" t="str">
         <f>AW18</f>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2" t="str">
         <f>AW18/AV18-1</f>
       </c>
@@ -24980,115 +24982,115 @@
       <c r="N18" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="O18" s="10" t="n">
         <v>91866823970.4561</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="P18" s="10" t="n">
         <v>84360833400.5853</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="Q18" s="10" t="n">
         <v>80302959764.6254</v>
       </c>
-      <c r="R18" s="9" t="n">
+      <c r="R18" s="10" t="n">
         <v>72799346265.9452</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="S18" s="10" t="n">
         <v>76846086802.8836</v>
       </c>
-      <c r="T18" s="9" t="n">
+      <c r="T18" s="10" t="n">
         <v>71908602639.3719</v>
       </c>
-      <c r="U18" s="9" t="n">
+      <c r="U18" s="10" t="n">
         <v>66131697566.6873</v>
       </c>
-      <c r="V18" s="9" t="n">
+      <c r="V18" s="10" t="n">
         <v>79950510330.972</v>
       </c>
-      <c r="W18" s="9" t="n">
+      <c r="W18" s="10" t="n">
         <v>83661512607.681</v>
       </c>
-      <c r="X18" s="9" t="n">
+      <c r="X18" s="10" t="n">
         <v>84817549965.0203</v>
       </c>
-      <c r="Y18" s="9" t="n">
+      <c r="Y18" s="10" t="n">
         <v>67747914436.6723</v>
       </c>
-      <c r="Z18" s="9" t="n">
+      <c r="Z18" s="10" t="n">
         <v>68840801523.6037</v>
       </c>
-      <c r="AA18" s="9" t="n">
+      <c r="AA18" s="10" t="n">
         <v>77223734544.194</v>
       </c>
-      <c r="AB18" s="9" t="n">
+      <c r="AB18" s="10" t="n">
         <v>89772108226.4522</v>
       </c>
-      <c r="AC18" s="9" t="n">
+      <c r="AC18" s="10" t="n">
         <v>93830238184.7763</v>
       </c>
-      <c r="AD18" s="9" t="n">
+      <c r="AD18" s="10" t="n">
         <v>98062404099.8699</v>
       </c>
-      <c r="AE18" s="9" t="n">
+      <c r="AE18" s="10" t="n">
         <v>108083650107.89</v>
       </c>
-      <c r="AF18" s="9" t="n">
+      <c r="AF18" s="10" t="n">
         <v>119927139251.56</v>
       </c>
-      <c r="AG18" s="9" t="n">
+      <c r="AG18" s="10" t="n">
         <v>129965000918.381</v>
       </c>
-      <c r="AH18" s="9" t="n">
+      <c r="AH18" s="10" t="n">
         <v>126410884279.071</v>
       </c>
-      <c r="AI18" s="9" t="n">
+      <c r="AI18" s="10" t="n">
         <v>117354161314.557</v>
       </c>
-      <c r="AJ18" s="9" t="n">
+      <c r="AJ18" s="10" t="n">
         <v>132374252283.335</v>
       </c>
-      <c r="AK18" s="9" t="n">
+      <c r="AK18" s="10" t="n">
         <v>117851112801.12</v>
       </c>
-      <c r="AL18" s="9" t="n">
+      <c r="AL18" s="10" t="n">
         <v>105809391921.021</v>
       </c>
-      <c r="AM18" s="9" t="n">
+      <c r="AM18" s="10" t="n">
         <v>101554907921.352</v>
       </c>
-      <c r="AN18" s="9" t="n">
+      <c r="AN18" s="10" t="n">
         <v>91973465106.2565</v>
       </c>
-      <c r="AO18" s="9" t="n">
+      <c r="AO18" s="10" t="n">
         <v>102788679081.696</v>
       </c>
-      <c r="AP18" s="9" t="n">
+      <c r="AP18" s="10" t="n">
         <v>104306987193.968</v>
       </c>
-      <c r="AQ18" s="9" t="n">
+      <c r="AQ18" s="10" t="n">
         <v>110234411093.704</v>
       </c>
-      <c r="AR18" s="9" t="n">
+      <c r="AR18" s="10" t="n">
         <v>122883069457.594</v>
       </c>
-      <c r="AS18" s="9" t="n">
+      <c r="AS18" s="10" t="n">
         <v>132383419393.473</v>
       </c>
-      <c r="AT18" s="9" t="n">
+      <c r="AT18" s="10" t="n">
         <v>114056765825.987</v>
       </c>
-      <c r="AU18" s="9" t="n">
+      <c r="AU18" s="10" t="n">
         <v>107978883037.909</v>
       </c>
-      <c r="AV18" s="9" t="n">
+      <c r="AV18" s="10" t="n">
         <v>115659529630.54</v>
       </c>
-      <c r="AW18" s="9" t="n">
+      <c r="AW18" s="10" t="n">
         <v>118853511861.346</v>
       </c>
-      <c r="AX18" s="9" t="n">
+      <c r="AX18" s="10" t="n">
         <v>51948055277.0969</v>
       </c>
-      <c r="AY18" s="9"/>
+      <c r="AY18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -25097,16 +25099,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="10" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="10" t="str">
         <f>AV19</f>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="10" t="str">
         <f>AW19</f>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2" t="str">
         <f>AW19/AV19-1</f>
       </c>
@@ -25124,115 +25126,115 @@
       <c r="N19" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="10" t="n">
         <v>6899554826.71874</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="P19" s="10" t="n">
         <v>8018167850.03211</v>
       </c>
-      <c r="Q19" s="9" t="n">
+      <c r="Q19" s="10" t="n">
         <v>11977671390.4198</v>
       </c>
-      <c r="R19" s="9" t="n">
+      <c r="R19" s="10" t="n">
         <v>11353077801.4658</v>
       </c>
-      <c r="S19" s="9" t="n">
+      <c r="S19" s="10" t="n">
         <v>10847769179.7835</v>
       </c>
-      <c r="T19" s="9" t="n">
+      <c r="T19" s="10" t="n">
         <v>8245463576.81375</v>
       </c>
-      <c r="U19" s="9" t="n">
+      <c r="U19" s="10" t="n">
         <v>8492504760.55991</v>
       </c>
-      <c r="V19" s="9" t="n">
+      <c r="V19" s="10" t="n">
         <v>9929749335.9662</v>
       </c>
-      <c r="W19" s="9" t="n">
+      <c r="W19" s="10" t="n">
         <v>12168796657.5504</v>
       </c>
-      <c r="X19" s="9" t="n">
+      <c r="X19" s="10" t="n">
         <v>13191371494.3763</v>
       </c>
-      <c r="Y19" s="9" t="n">
+      <c r="Y19" s="10" t="n">
         <v>10013116086.1918</v>
       </c>
-      <c r="Z19" s="9" t="n">
+      <c r="Z19" s="10" t="n">
         <v>12303278925.2026</v>
       </c>
-      <c r="AA19" s="9" t="n">
+      <c r="AA19" s="10" t="n">
         <v>18334673220.7598</v>
       </c>
-      <c r="AB19" s="9" t="n">
+      <c r="AB19" s="10" t="n">
         <v>23084287969.3296</v>
       </c>
-      <c r="AC19" s="9" t="n">
+      <c r="AC19" s="10" t="n">
         <v>22945079169.0775</v>
       </c>
-      <c r="AD19" s="9" t="n">
+      <c r="AD19" s="10" t="n">
         <v>25709596605.7455</v>
       </c>
-      <c r="AE19" s="9" t="n">
+      <c r="AE19" s="10" t="n">
         <v>28072233674.5929</v>
       </c>
-      <c r="AF19" s="9" t="n">
+      <c r="AF19" s="10" t="n">
         <v>26273896855.941</v>
       </c>
-      <c r="AG19" s="9" t="n">
+      <c r="AG19" s="10" t="n">
         <v>32334176058.2044</v>
       </c>
-      <c r="AH19" s="9" t="n">
+      <c r="AH19" s="10" t="n">
         <v>37215003325.3132</v>
       </c>
-      <c r="AI19" s="9" t="n">
+      <c r="AI19" s="10" t="n">
         <v>38008239361.3626</v>
       </c>
-      <c r="AJ19" s="9" t="n">
+      <c r="AJ19" s="10" t="n">
         <v>42726526484.5614</v>
       </c>
-      <c r="AK19" s="9" t="n">
+      <c r="AK19" s="10" t="n">
         <v>42603736755.0212</v>
       </c>
-      <c r="AL19" s="9" t="n">
+      <c r="AL19" s="10" t="n">
         <v>37543122715.6569</v>
       </c>
-      <c r="AM19" s="9" t="n">
+      <c r="AM19" s="10" t="n">
         <v>37543212314.9392</v>
       </c>
-      <c r="AN19" s="9" t="n">
+      <c r="AN19" s="10" t="n">
         <v>35167755134.2345</v>
       </c>
-      <c r="AO19" s="9" t="n">
+      <c r="AO19" s="10" t="n">
         <v>36093799419.0847</v>
       </c>
-      <c r="AP19" s="9" t="n">
+      <c r="AP19" s="10" t="n">
         <v>38084945024.3323</v>
       </c>
-      <c r="AQ19" s="9" t="n">
+      <c r="AQ19" s="10" t="n">
         <v>40597253892.7846</v>
       </c>
-      <c r="AR19" s="9" t="n">
+      <c r="AR19" s="10" t="n">
         <v>44400155892.5478</v>
       </c>
-      <c r="AS19" s="9" t="n">
+      <c r="AS19" s="10" t="n">
         <v>45492921510.7929</v>
       </c>
-      <c r="AT19" s="9" t="n">
+      <c r="AT19" s="10" t="n">
         <v>42839765096.9064</v>
       </c>
-      <c r="AU19" s="9" t="n">
+      <c r="AU19" s="10" t="n">
         <v>42730530109.2799</v>
       </c>
-      <c r="AV19" s="9" t="n">
+      <c r="AV19" s="10" t="n">
         <v>42925923203.4104</v>
       </c>
-      <c r="AW19" s="9" t="n">
+      <c r="AW19" s="10" t="n">
         <v>44021556955.7387</v>
       </c>
-      <c r="AX19" s="9" t="n">
+      <c r="AX19" s="10" t="n">
         <v>20225901559.2885</v>
       </c>
-      <c r="AY19" s="9"/>
+      <c r="AY19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -25241,16 +25243,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="10" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="10" t="str">
         <f>AV20</f>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="10" t="str">
         <f>AW20</f>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2" t="str">
         <f>AW20/AV20-1</f>
       </c>
@@ -25268,115 +25270,115 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="10" t="str">
         <f>Sum(O13:O19)</f>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" s="10" t="str">
         <f>Sum(P13:P19)</f>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="10" t="str">
         <f>Sum(Q13:Q19)</f>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="10" t="str">
         <f>Sum(R13:R19)</f>
       </c>
-      <c r="S20" s="9" t="str">
+      <c r="S20" s="10" t="str">
         <f>Sum(S13:S19)</f>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="T20" s="10" t="str">
         <f>Sum(T13:T19)</f>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="U20" s="10" t="str">
         <f>Sum(U13:U19)</f>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="V20" s="10" t="str">
         <f>Sum(V13:V19)</f>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="W20" s="10" t="str">
         <f>Sum(W13:W19)</f>
       </c>
-      <c r="X20" s="9" t="str">
+      <c r="X20" s="10" t="str">
         <f>Sum(X13:X19)</f>
       </c>
-      <c r="Y20" s="9" t="str">
+      <c r="Y20" s="10" t="str">
         <f>Sum(Y13:Y19)</f>
       </c>
-      <c r="Z20" s="9" t="str">
+      <c r="Z20" s="10" t="str">
         <f>Sum(Z13:Z19)</f>
       </c>
-      <c r="AA20" s="9" t="str">
+      <c r="AA20" s="10" t="str">
         <f>Sum(AA13:AA19)</f>
       </c>
-      <c r="AB20" s="9" t="str">
+      <c r="AB20" s="10" t="str">
         <f>Sum(AB13:AB19)</f>
       </c>
-      <c r="AC20" s="9" t="str">
+      <c r="AC20" s="10" t="str">
         <f>Sum(AC13:AC19)</f>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="10" t="str">
         <f>Sum(AD13:AD19)</f>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AE20" s="10" t="str">
         <f>Sum(AE13:AE19)</f>
       </c>
-      <c r="AF20" s="9" t="str">
+      <c r="AF20" s="10" t="str">
         <f>Sum(AF13:AF19)</f>
       </c>
-      <c r="AG20" s="9" t="str">
+      <c r="AG20" s="10" t="str">
         <f>Sum(AG13:AG19)</f>
       </c>
-      <c r="AH20" s="9" t="str">
+      <c r="AH20" s="10" t="str">
         <f>Sum(AH13:AH19)</f>
       </c>
-      <c r="AI20" s="9" t="str">
+      <c r="AI20" s="10" t="str">
         <f>Sum(AI13:AI19)</f>
       </c>
-      <c r="AJ20" s="9" t="str">
+      <c r="AJ20" s="10" t="str">
         <f>Sum(AJ13:AJ19)</f>
       </c>
-      <c r="AK20" s="9" t="str">
+      <c r="AK20" s="10" t="str">
         <f>Sum(AK13:AK19)</f>
       </c>
-      <c r="AL20" s="9" t="str">
+      <c r="AL20" s="10" t="str">
         <f>Sum(AL13:AL19)</f>
       </c>
-      <c r="AM20" s="9" t="str">
+      <c r="AM20" s="10" t="str">
         <f>Sum(AM13:AM19)</f>
       </c>
-      <c r="AN20" s="9" t="str">
+      <c r="AN20" s="10" t="str">
         <f>Sum(AN13:AN19)</f>
       </c>
-      <c r="AO20" s="9" t="str">
+      <c r="AO20" s="10" t="str">
         <f>Sum(AO13:AO19)</f>
       </c>
-      <c r="AP20" s="9" t="str">
+      <c r="AP20" s="10" t="str">
         <f>Sum(AP13:AP19)</f>
       </c>
-      <c r="AQ20" s="9" t="str">
+      <c r="AQ20" s="10" t="str">
         <f>Sum(AQ13:AQ19)</f>
       </c>
-      <c r="AR20" s="9" t="str">
+      <c r="AR20" s="10" t="str">
         <f>Sum(AR13:AR19)</f>
       </c>
-      <c r="AS20" s="9" t="str">
+      <c r="AS20" s="10" t="str">
         <f>Sum(AS13:AS19)</f>
       </c>
-      <c r="AT20" s="9" t="str">
+      <c r="AT20" s="10" t="str">
         <f>Sum(AT13:AT19)</f>
       </c>
-      <c r="AU20" s="9" t="str">
+      <c r="AU20" s="10" t="str">
         <f>Sum(AU13:AU19)</f>
       </c>
-      <c r="AV20" s="9" t="str">
+      <c r="AV20" s="10" t="str">
         <f>Sum(AV13:AV19)</f>
       </c>
-      <c r="AW20" s="9" t="str">
+      <c r="AW20" s="10" t="str">
         <f>Sum(AW13:AW19)</f>
       </c>
-      <c r="AX20" s="9" t="str">
+      <c r="AX20" s="10" t="str">
         <f>Sum(AX13:AX19)</f>
       </c>
-      <c r="AY20" s="9"/>
+      <c r="AY20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
+++ b/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
@@ -16,12 +16,13 @@
     <sheet name="4 Cust" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="8-2 PriceUCA" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="6-6 PSRcomp" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="9 Dur" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">VendorSize_NTDC</t>
   </si>
@@ -351,23 +352,45 @@
   <si>
     <t xml:space="preserve">Services (Non-R&amp;D)</t>
   </si>
+  <si>
+    <t xml:space="preserve">UnmodifiedUltimateDurationCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;=2 Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;1-2 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2-4 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2-7 Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;7-12 Months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="209" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -403,20 +426,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7704,6 +7728,2301 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>L1</f>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>L2</f>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="n">
+        <v>164535000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>211684000</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>341269000</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>180798000</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>54702636</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>162438391.82</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>107085153.08</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>262978454.9615</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>828817673.6266</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>2669622554.6534</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>659448759.5322</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>1120496768.8151</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>2209105200.965</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>9211922661.7023</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>29017078557.3694</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>33114595975.6061</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>28313304484.3334</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>27040780349.586</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>25570886032.5712</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>24134459350.3238</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>19617764566.1743</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>30793276939.7103</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>27562857342.1274</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>26861758499.4359</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>29380990092.0082</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>33639125678.9273</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>28400793827.5007</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>28270462165.3301</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>28368730200.156</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>36214569159.337</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>35868257244.7168</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>35695507669.3283</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>14199421118.99</v>
+      </c>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>L3</f>
+      </c>
+      <c r="L3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>22503134.53</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="n">
+        <v>51240000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>15867000</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>11369021</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>294019000</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>871268162.06</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>791281609</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>792925193.12</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>2695178740.7284</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>4937591793.4718</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>3805386681.6658</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>6313208892.4843</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>6403115123.4787</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>10348030044.2081</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>17307336102.1037</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>49913500949.3858</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>65013899106.5634</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>72491334778.9601</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>67821031280.1026</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>64606187849.4088</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>67570021663.6716</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>51508421082.7475</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>41632236603.2459</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>43186916136.4182</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>49252209707.5782</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>57487831788.0978</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>65302203351.8866</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>73096063161.7735</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>93594603810.7955</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>60124710817.5674</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>65072125321.0337</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>68368429308.71</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>65952311741.5812</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>27366607798.56</v>
+      </c>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>L4</f>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>10637000</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>11879000</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>24484000</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>230333000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>112546894</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>205680912</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>603103650</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>917689663</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>848387150</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>1271825434</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>4844563239.5</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>4661188073.1738</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>6904603549.0035</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>8302857158.3555</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>13226186549.5843</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>12823637485.284</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>18481743270.4742</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>43095961115.3224</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>61503317079.1286</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>64952608510.5273</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>63627853128.4586</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>63752841759.6987</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>65999029595.0061</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>67137268741.9981</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>58274916474.2777</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>58236606990.1741</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>65711565439.6513</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>68239552913.5508</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>80183833712.6751</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>85492287446.657</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>81836587046.7324</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>72677435599.4421</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>80832416375.1877</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>90032375322.3939</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>90877679292.5498</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>30078689284.02</v>
+      </c>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>L5</f>
+      </c>
+      <c r="L5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>17092000</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>25485000</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>9999000</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>245318000</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>335426000</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>132546000</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>195137000</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>104689073</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>89775583</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>636622436</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>1758427630.6616</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>1039309207.1612</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>2127295006.2752</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>3650562148.025</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>3922287919.2774</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>7447262129.7434</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>13498351372.2827</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>32878395010.4411</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>41448044479.7198</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>38911943215.2649</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>41837135321.0391</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>45959804111.8921</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>41290498796.666</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>27694650022.4174</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>24149464711.7501</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>26134929553.8423</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>24482894300.1592</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>33294152540.4114</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>28207075337.1893</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>25017451552.3682</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>28385967235.8844</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>33137167231.9131</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>34881606502.7737</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>28112278575.5092</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>26742591399.2736</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>10329366899.9</v>
+      </c>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>L6</f>
+      </c>
+      <c r="L6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>241095082.56</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>183688000</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>127759238</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>620937436</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>888027954.16</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>570724485</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>947107326.51</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>4960081025.15</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>5209067590.02</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>4757715834.5</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>11243282953.3739</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>13915986488.4799</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>24599216655.2157</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>37198831153.5553</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>45011870514.2988</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>54431116371.7577</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>69150701956.0822</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>83787405618.5716</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>96642315432.6931</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>94315415520.7773</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>84161653378.8532</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>92569687711.6144</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>92636463287.6801</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>87833685801.6747</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>74872326317.3709</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>68842121915.796</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>79962744151.8308</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>82629957008.0385</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>96550882101.1895</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>117263951535.822</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>126730624443.902</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>120635238769.462</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>129284845786.544</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>170214819645.57</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>165482815380.62</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>88935623259.87</v>
+      </c>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>L7</f>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="n">
+        <v>26513000</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>23120000</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>11885000</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>56234076</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>120110139</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>214534579</v>
+      </c>
+      <c r="V7" s="12" t="n">
+        <v>208054343.08</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>2190163664.845</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>2473502039.6535</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>4190603734.2755</v>
+      </c>
+      <c r="Z7" s="12" t="n">
+        <v>8602552780.5639</v>
+      </c>
+      <c r="AA7" s="12" t="n">
+        <v>6714735832.6084</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>9502841511.4641</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>14385690924.9819</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>41226017026.475</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>53111693359.5407</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>62119214856.0369</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>66251039319.5489</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>67146014267.9668</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>62571718457.6998</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>50859806062.3116</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>51576411414.3309</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>48769227946.4264</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>50178959620.8567</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>49692618755.8186</v>
+      </c>
+      <c r="AO7" s="12" t="n">
+        <v>55219048557.7313</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>54404044978.6169</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>63474093257.122</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>71620261593.4366</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>67934705541.4539</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>64294293247.0492</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>60511698640.9441</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>27726675620.62</v>
+      </c>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>L8</f>
+      </c>
+      <c r="L8"/>
+      <c r="M8" s="12" t="n">
+        <v>122073914405</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>136905590844</v>
+      </c>
+      <c r="O8" s="12" t="n">
+        <v>125090444331</v>
+      </c>
+      <c r="P8" s="12" t="n">
+        <v>121718215706</v>
+      </c>
+      <c r="Q8" s="12" t="n">
+        <v>117350945290</v>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>117114711576</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <v>118429912258</v>
+      </c>
+      <c r="T8" s="12" t="n">
+        <v>132794373677</v>
+      </c>
+      <c r="U8" s="12" t="n">
+        <v>135996443463.57</v>
+      </c>
+      <c r="V8" s="12" t="n">
+        <v>148826792017.62</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>109183375055.317</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>116137143296.66</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>125513792954.413</v>
+      </c>
+      <c r="Z8" s="12" t="n">
+        <v>146805626407.269</v>
+      </c>
+      <c r="AA8" s="12" t="n">
+        <v>153376431124.606</v>
+      </c>
+      <c r="AB8" s="12" t="n">
+        <v>168902485015.591</v>
+      </c>
+      <c r="AC8" s="12" t="n">
+        <v>153099801101.748</v>
+      </c>
+      <c r="AD8" s="12" t="n">
+        <v>48220085542.6464</v>
+      </c>
+      <c r="AE8" s="12" t="n">
+        <v>27151667111.0685</v>
+      </c>
+      <c r="AF8" s="12" t="n">
+        <v>20442341074.0438</v>
+      </c>
+      <c r="AG8" s="12" t="n">
+        <v>11956006419.6912</v>
+      </c>
+      <c r="AH8" s="12" t="n">
+        <v>9005079451.994</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>3587694391.7589</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
+        <v>3549081212.3179</v>
+      </c>
+      <c r="AK8" s="12" t="n">
+        <v>2097612715.8821</v>
+      </c>
+      <c r="AL8" s="12" t="n">
+        <v>1491430589.4474</v>
+      </c>
+      <c r="AM8" s="12" t="n">
+        <v>1901725697.5015</v>
+      </c>
+      <c r="AN8" s="12" t="n">
+        <v>1149312110.5601</v>
+      </c>
+      <c r="AO8" s="12" t="n">
+        <v>259434769.2724</v>
+      </c>
+      <c r="AP8" s="12" t="n">
+        <v>-66216062.7616</v>
+      </c>
+      <c r="AQ8" s="12" t="n">
+        <v>242407061.3547</v>
+      </c>
+      <c r="AR8" s="12" t="n">
+        <v>410431128.8742</v>
+      </c>
+      <c r="AS8" s="12" t="n">
+        <v>132175756.7193</v>
+      </c>
+      <c r="AT8" s="12" t="n">
+        <v>231203312.7757</v>
+      </c>
+      <c r="AU8" s="12" t="n">
+        <v>26997788.17</v>
+      </c>
+      <c r="AV8" s="12" t="n">
+        <v>-2956450.67</v>
+      </c>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>L9</f>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f>Sum(M2:M8)</f>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f>Sum(N2:N8)</f>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f>Sum(O2:O8)</f>
+      </c>
+      <c r="P9" s="12" t="str">
+        <f>Sum(P2:P8)</f>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f>Sum(Q2:Q8)</f>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f>Sum(R2:R8)</f>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f>Sum(S2:S8)</f>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f>Sum(T2:T8)</f>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f>Sum(U2:U8)</f>
+      </c>
+      <c r="V9" s="12" t="str">
+        <f>Sum(V2:V8)</f>
+      </c>
+      <c r="W9" s="12" t="str">
+        <f>Sum(W2:W8)</f>
+      </c>
+      <c r="X9" s="12" t="str">
+        <f>Sum(X2:X8)</f>
+      </c>
+      <c r="Y9" s="12" t="str">
+        <f>Sum(Y2:Y8)</f>
+      </c>
+      <c r="Z9" s="12" t="str">
+        <f>Sum(Z2:Z8)</f>
+      </c>
+      <c r="AA9" s="12" t="str">
+        <f>Sum(AA2:AA8)</f>
+      </c>
+      <c r="AB9" s="12" t="str">
+        <f>Sum(AB2:AB8)</f>
+      </c>
+      <c r="AC9" s="12" t="str">
+        <f>Sum(AC2:AC8)</f>
+      </c>
+      <c r="AD9" s="12" t="str">
+        <f>Sum(AD2:AD8)</f>
+      </c>
+      <c r="AE9" s="12" t="str">
+        <f>Sum(AE2:AE8)</f>
+      </c>
+      <c r="AF9" s="12" t="str">
+        <f>Sum(AF2:AF8)</f>
+      </c>
+      <c r="AG9" s="12" t="str">
+        <f>Sum(AG2:AG8)</f>
+      </c>
+      <c r="AH9" s="12" t="str">
+        <f>Sum(AH2:AH8)</f>
+      </c>
+      <c r="AI9" s="12" t="str">
+        <f>Sum(AI2:AI8)</f>
+      </c>
+      <c r="AJ9" s="12" t="str">
+        <f>Sum(AJ2:AJ8)</f>
+      </c>
+      <c r="AK9" s="12" t="str">
+        <f>Sum(AK2:AK8)</f>
+      </c>
+      <c r="AL9" s="12" t="str">
+        <f>Sum(AL2:AL8)</f>
+      </c>
+      <c r="AM9" s="12" t="str">
+        <f>Sum(AM2:AM8)</f>
+      </c>
+      <c r="AN9" s="12" t="str">
+        <f>Sum(AN2:AN8)</f>
+      </c>
+      <c r="AO9" s="12" t="str">
+        <f>Sum(AO2:AO8)</f>
+      </c>
+      <c r="AP9" s="12" t="str">
+        <f>Sum(AP2:AP8)</f>
+      </c>
+      <c r="AQ9" s="12" t="str">
+        <f>Sum(AQ2:AQ8)</f>
+      </c>
+      <c r="AR9" s="12" t="str">
+        <f>Sum(AR2:AR8)</f>
+      </c>
+      <c r="AS9" s="12" t="str">
+        <f>Sum(AS2:AS8)</f>
+      </c>
+      <c r="AT9" s="12" t="str">
+        <f>Sum(AT2:AT8)</f>
+      </c>
+      <c r="AU9" s="12" t="str">
+        <f>Sum(AU2:AU8)</f>
+      </c>
+      <c r="AV9" s="12" t="str">
+        <f>Sum(AV2:AV8)</f>
+      </c>
+      <c r="AW9" s="12" t="str">
+        <f>Sum(AW2:AW8)</f>
+      </c>
+      <c r="AX9" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>L12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>AQ12</f>
+      </c>
+      <c r="C12" t="str">
+        <f>AT12</f>
+      </c>
+      <c r="D12" t="str">
+        <f>AU12</f>
+      </c>
+      <c r="F12" t="str">
+        <f>AT12&amp;"-"&amp;AU12</f>
+      </c>
+      <c r="G12" t="str">
+        <f>AQ12&amp;"-"&amp;AU12</f>
+      </c>
+      <c r="I12" t="str">
+        <f>"Share "&amp;AU12</f>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>L13</f>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f>AQ13</f>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>AT13</f>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>AU13</f>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="2" t="str">
+        <f>AU13/AT13-1</f>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>AU13/AQ13-1</f>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="str">
+        <f>AU13/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="n">
+        <v>313188639.426872</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>394327268.317762</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>622515045.752272</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>323702139.245417</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>96232177.2456401</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>282221100.276261</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>183774562.490171</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>442112380.986646</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>1360411098.0565</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>4314016750.7017</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>1045576179.05219</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>1734234063.33448</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>3318142882.09094</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>13401256094.1928</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>41082286944.3983</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>45929993513.3077</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>38873074754.4932</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>36807181713.4714</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>34121535417.5059</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>31630807966.7482</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>25252984496.1926</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>38928493331.6327</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>34487474330.6439</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>33343653258.3748</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>35865374612.2041</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>40171473979.9009</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>33300210392.3535</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>32719970759.5535</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>31741254771.1087</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>37871262377.579</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>35868257244.7168</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>34767020049.1012</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>13533130356.4944</v>
+      </c>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>L14</f>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f>AQ14</f>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>AT14</f>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>AU14</f>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="2" t="str">
+        <f>AU14/AT14-1</f>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>AU14/AQ14-1</f>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="str">
+        <f>AU14/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>46542826.6793098</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="n">
+        <v>97534177.4347885</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>29557220.982209</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>20738439.8464951</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>526413894.39484</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>1532723801.4607</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>1374775776.94693</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>1360781361.9522</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>4531062783.91692</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>8104502217.14016</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>6149371887.41829</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>10009785803.5924</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>9910336796.71533</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>15543054364.2074</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>25178244751.9701</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>70667374882.279</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>90174374056.6547</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>99527805999.2882</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>92316160630.3266</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>86209853036.9923</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>88557789860.9085</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>66304259827.2777</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>52630976825.3479</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>54036765607.6776</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>61137047402.6388</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>70175396277.2117</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>77983173160.289</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>85705853749.16</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>108325526552.476</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>67272442250.1346</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>68048953465.575</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>68368429308.71</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>64236804413.7493</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>26082462633.4704</v>
+      </c>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>L15</f>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f>AQ15</f>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f>AT15</f>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>AU15</f>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2" t="str">
+        <f>AU15/AT15-1</f>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>AU15/AQ15-1</f>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="str">
+        <f>AU15/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="12" t="n">
+        <v>22000314.9662465</v>
+      </c>
+      <c r="N15" s="12" t="n">
+        <v>23721078.5208196</v>
+      </c>
+      <c r="O15" s="12" t="n">
+        <v>47698082.9948748</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>438433639.560639</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>209653583.967937</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>375186326.165134</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>1079801445.21355</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>1614387911.87883</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>1473991168.28588</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>2182647696.47955</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>8144550811.08942</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>7650816562.74024</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>11157598034.0122</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>13164433987.2712</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>20470655409.8867</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>19261491678.0433</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>26886740556.8274</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>61015123806.6198</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>85305191601.0755</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>89177425670.1887</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>86608519497.5928</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>85071156521.4963</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>86498835578.157</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>86422507566.5193</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>73670454164.7822</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>72867390479.423</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>81568139075.1372</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>83300022257.5734</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>95754652494.29</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>100240548774.399</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>94716906981.2577</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>81317457045.0127</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>84530224167.2311</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>90032375322.3939</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>88513830010.4565</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>28667282956.2566</v>
+      </c>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>L16</f>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f>AQ16</f>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>AT16</f>
+      </c>
+      <c r="D16" s="12" t="str">
+        <f>AU16</f>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="2" t="str">
+        <f>AU16/AT16-1</f>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>AU16/AQ16-1</f>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="str">
+        <f>AU16/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="12" t="n">
+        <v>35351074.8710243</v>
+      </c>
+      <c r="N16" s="12" t="n">
+        <v>50890789.3007061</v>
+      </c>
+      <c r="O16" s="12" t="n">
+        <v>19479379.6710404</v>
+      </c>
+      <c r="P16" s="12" t="n">
+        <v>466957247.071574</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>624835218.073892</v>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>241779591.038977</v>
+      </c>
+      <c r="S16" s="12" t="n">
+        <v>349374795.882327</v>
+      </c>
+      <c r="T16" s="12" t="n">
+        <v>184167677.561603</v>
+      </c>
+      <c r="U16" s="12" t="n">
+        <v>155976450.692017</v>
+      </c>
+      <c r="V16" s="12" t="n">
+        <v>1092541835.00045</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <v>2956221743.32997</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>1705909302.76347</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>3437634385.71441</v>
+      </c>
+      <c r="Z16" s="12" t="n">
+        <v>5788077946.84793</v>
+      </c>
+      <c r="AA16" s="12" t="n">
+        <v>6070669282.70513</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <v>11186013149.6132</v>
+      </c>
+      <c r="AC16" s="12" t="n">
+        <v>19637036722.1397</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>46549126419.4539</v>
+      </c>
+      <c r="AE16" s="12" t="n">
+        <v>57488498893.2128</v>
+      </c>
+      <c r="AF16" s="12" t="n">
+        <v>53424596845.8599</v>
+      </c>
+      <c r="AG16" s="12" t="n">
+        <v>56947581475.9966</v>
+      </c>
+      <c r="AH16" s="12" t="n">
+        <v>61328304454.8407</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>54115645158.2607</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
+        <v>35649962322.8974</v>
+      </c>
+      <c r="AK16" s="12" t="n">
+        <v>30529465176.2615</v>
+      </c>
+      <c r="AL16" s="12" t="n">
+        <v>32700808226.5739</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>30390755628.4184</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>40642172013.8876</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>33684579194.2455</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>29333208262.9215</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>32853655257.1402</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>37076571988.9432</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>36477321218.5909</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>28112278575.5092</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>26046981036.2824</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>9844673778.2468</v>
+      </c>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>L17</f>
+      </c>
+      <c r="B17" s="12" t="str">
+        <f>AQ17</f>
+      </c>
+      <c r="C17" s="12" t="str">
+        <f>AT17</f>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f>AU17</f>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="2" t="str">
+        <f>AU17/AT17-1</f>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>AU17/AQ17-1</f>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="str">
+        <f>AU17/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="12" t="n">
+        <v>498652604.41226</v>
+      </c>
+      <c r="N17" s="12" t="n">
+        <v>366805073.771556</v>
+      </c>
+      <c r="O17" s="12" t="n">
+        <v>248891959.544436</v>
+      </c>
+      <c r="P17" s="12" t="n">
+        <v>1181940321.20856</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>1654228176.68659</v>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>1041069006.82956</v>
+      </c>
+      <c r="S17" s="12" t="n">
+        <v>1695708291.49822</v>
+      </c>
+      <c r="T17" s="12" t="n">
+        <v>8725711067.46978</v>
+      </c>
+      <c r="U17" s="12" t="n">
+        <v>9050254500.78267</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>8164970780.63286</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>18901908132.9322</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>22841528434.7102</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>39751474424.6377</v>
+      </c>
+      <c r="Z17" s="12" t="n">
+        <v>58979884608.9768</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>69666527626.7112</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>81757184435.7234</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>100598572093.896</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>118625940690.182</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>134043034201.73</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>129491426903.877</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>114558575202.844</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>123524068497.9</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>121410060960.492</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>113063988422.902</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>94652701674.9852</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>86137329050.0377</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>99258208082.0499</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>100866388539.089</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>115300001702.901</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>137493137737.596</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>146676849564.55</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>134976568254.506</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>135199187230.002</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>170214819645.57</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>161178387303.435</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>84762426075.4021</v>
+      </c>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>L18</f>
+      </c>
+      <c r="B18" s="12" t="str">
+        <f>AQ18</f>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>AT18</f>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>AU18</f>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="2" t="str">
+        <f>AU18/AT18-1</f>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>AU18/AQ18-1</f>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="str">
+        <f>AU18/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12" t="n">
+        <v>50466893.956451</v>
+      </c>
+      <c r="Q18" s="12" t="n">
+        <v>43068188.6373399</v>
+      </c>
+      <c r="R18" s="12" t="n">
+        <v>21679646.6094657</v>
+      </c>
+      <c r="S18" s="12" t="n">
+        <v>100681925.130197</v>
+      </c>
+      <c r="T18" s="12" t="n">
+        <v>211296219.532208</v>
+      </c>
+      <c r="U18" s="12" t="n">
+        <v>372733220.603269</v>
+      </c>
+      <c r="V18" s="12" t="n">
+        <v>357053193.407145</v>
+      </c>
+      <c r="W18" s="12" t="n">
+        <v>3682044876.09763</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>4059975713.45951</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>6771869181.92063</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <v>13639610563.1883</v>
+      </c>
+      <c r="AA18" s="12" t="n">
+        <v>10392643630.3037</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>14273555603.9291</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>20927914319.0247</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>58367662950.899</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>73665997111.4095</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>85287285492.4197</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>90179129870.3518</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>89598972091.5591</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>82006975252.9337</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
+        <v>65469329578.2264</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>65202283983.7199</v>
+      </c>
+      <c r="AL18" s="12" t="n">
+        <v>61021521682.2613</v>
+      </c>
+      <c r="AM18" s="12" t="n">
+        <v>62287427329.0399</v>
+      </c>
+      <c r="AN18" s="12" t="n">
+        <v>60659779726.8805</v>
+      </c>
+      <c r="AO18" s="12" t="n">
+        <v>65941980582.4907</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>63789278390.83</v>
+      </c>
+      <c r="AQ18" s="12" t="n">
+        <v>73464326943.6608</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>80134604332.7038</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>71042486983.1884</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>64294293247.0492</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>58937708894.4611</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>26425634705.9291</v>
+      </c>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>L19</f>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f>AQ19</f>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>AT19</f>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>AU19</f>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2" t="str">
+        <f>AU19/AT19-1</f>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>AU19/AQ19-1</f>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="str">
+        <f>AU19/Sum(AU$12:AU$19)</f>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="L19"/>
+      <c r="M19" s="12" t="n">
+        <v>252483272170.031</v>
+      </c>
+      <c r="N19" s="12" t="n">
+        <v>273385661280.388</v>
+      </c>
+      <c r="O19" s="12" t="n">
+        <v>243692795113.781</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>231687861977.261</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>218602623205.877</v>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>213631094635.017</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <v>212037831992.398</v>
+      </c>
+      <c r="T19" s="12" t="n">
+        <v>233610162861.417</v>
+      </c>
+      <c r="U19" s="12" t="n">
+        <v>236280755293.844</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>255409623119.472</v>
+      </c>
+      <c r="W19" s="12" t="n">
+        <v>183556184923.708</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>190626073338.94</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>202825902974.79</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>232764811069.117</v>
+      </c>
+      <c r="AA19" s="12" t="n">
+        <v>237386343960.853</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>253696645219.584</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>222725452425.299</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>68269842769.6583</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>37659402373.6701</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>28066545647.0424</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>16274193834.9328</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>12016288253.2613</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>4702059851.51198</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>4568557876.61592</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>2651776970.0977</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>1866122714.74806</v>
+      </c>
+      <c r="AM19" s="12" t="n">
+        <v>2360622900.07419</v>
+      </c>
+      <c r="AN19" s="12" t="n">
+        <v>1402965293.63022</v>
+      </c>
+      <c r="AO19" s="12" t="n">
+        <v>309814148.642883</v>
+      </c>
+      <c r="AP19" s="12" t="n">
+        <v>-77638985.5405886</v>
+      </c>
+      <c r="AQ19" s="12" t="n">
+        <v>280559684.983221</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>459223903.772687</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>138222347.493566</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>231203312.7757</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>26295539.7996568</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>-2817722.7771734</v>
+      </c>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>L20</f>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f>AQ20</f>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f>AT20</f>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f>AU20</f>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="2" t="str">
+        <f>AU20/AT20-1</f>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>AU20/AQ20-1</f>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="str">
+        <f>Sum(I$12:I$19)</f>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="12" t="str">
+        <f>Sum(M13:M19)</f>
+      </c>
+      <c r="N20" s="12" t="str">
+        <f>Sum(N13:N19)</f>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f>Sum(O13:O19)</f>
+      </c>
+      <c r="P20" s="12" t="str">
+        <f>Sum(P13:P19)</f>
+      </c>
+      <c r="Q20" s="12" t="str">
+        <f>Sum(Q13:Q19)</f>
+      </c>
+      <c r="R20" s="12" t="str">
+        <f>Sum(R13:R19)</f>
+      </c>
+      <c r="S20" s="12" t="str">
+        <f>Sum(S13:S19)</f>
+      </c>
+      <c r="T20" s="12" t="str">
+        <f>Sum(T13:T19)</f>
+      </c>
+      <c r="U20" s="12" t="str">
+        <f>Sum(U13:U19)</f>
+      </c>
+      <c r="V20" s="12" t="str">
+        <f>Sum(V13:V19)</f>
+      </c>
+      <c r="W20" s="12" t="str">
+        <f>Sum(W13:W19)</f>
+      </c>
+      <c r="X20" s="12" t="str">
+        <f>Sum(X13:X19)</f>
+      </c>
+      <c r="Y20" s="12" t="str">
+        <f>Sum(Y13:Y19)</f>
+      </c>
+      <c r="Z20" s="12" t="str">
+        <f>Sum(Z13:Z19)</f>
+      </c>
+      <c r="AA20" s="12" t="str">
+        <f>Sum(AA13:AA19)</f>
+      </c>
+      <c r="AB20" s="12" t="str">
+        <f>Sum(AB13:AB19)</f>
+      </c>
+      <c r="AC20" s="12" t="str">
+        <f>Sum(AC13:AC19)</f>
+      </c>
+      <c r="AD20" s="12" t="str">
+        <f>Sum(AD13:AD19)</f>
+      </c>
+      <c r="AE20" s="12" t="str">
+        <f>Sum(AE13:AE19)</f>
+      </c>
+      <c r="AF20" s="12" t="str">
+        <f>Sum(AF13:AF19)</f>
+      </c>
+      <c r="AG20" s="12" t="str">
+        <f>Sum(AG13:AG19)</f>
+      </c>
+      <c r="AH20" s="12" t="str">
+        <f>Sum(AH13:AH19)</f>
+      </c>
+      <c r="AI20" s="12" t="str">
+        <f>Sum(AI13:AI19)</f>
+      </c>
+      <c r="AJ20" s="12" t="str">
+        <f>Sum(AJ13:AJ19)</f>
+      </c>
+      <c r="AK20" s="12" t="str">
+        <f>Sum(AK13:AK19)</f>
+      </c>
+      <c r="AL20" s="12" t="str">
+        <f>Sum(AL13:AL19)</f>
+      </c>
+      <c r="AM20" s="12" t="str">
+        <f>Sum(AM13:AM19)</f>
+      </c>
+      <c r="AN20" s="12" t="str">
+        <f>Sum(AN13:AN19)</f>
+      </c>
+      <c r="AO20" s="12" t="str">
+        <f>Sum(AO13:AO19)</f>
+      </c>
+      <c r="AP20" s="12" t="str">
+        <f>Sum(AP13:AP19)</f>
+      </c>
+      <c r="AQ20" s="12" t="str">
+        <f>Sum(AQ13:AQ19)</f>
+      </c>
+      <c r="AR20" s="12" t="str">
+        <f>Sum(AR13:AR19)</f>
+      </c>
+      <c r="AS20" s="12" t="str">
+        <f>Sum(AS13:AS19)</f>
+      </c>
+      <c r="AT20" s="12" t="str">
+        <f>Sum(AT13:AT19)</f>
+      </c>
+      <c r="AU20" s="12" t="str">
+        <f>Sum(AU13:AU19)</f>
+      </c>
+      <c r="AV20" s="12" t="str">
+        <f>Sum(AV13:AV19)</f>
+      </c>
+      <c r="AW20" s="12" t="str">
+        <f>Sum(AW13:AW19)</f>
+      </c>
+      <c r="AX20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -12006,64 +14325,64 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="5" t="n">
         <v>1603713321.2095</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="5" t="n">
         <v>1749370702.7036</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="5" t="n">
         <v>1506027116.1951</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="5" t="n">
         <v>1396515618.9719</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="5" t="n">
         <v>1394952123.3586</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="5" t="n">
         <v>1277990855.0224</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="5" t="n">
         <v>1045708992.3594</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="5" t="n">
         <v>1073107916.6352</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="5" t="n">
         <v>1046811089.6594</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="5" t="n">
         <v>1087022430.2634</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="5" t="n">
         <v>1071645707.0943</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1097112219.6142</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="5" t="n">
         <v>1189301458.9544</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="5" t="n">
         <v>922779313.4705</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="5" t="n">
         <v>972231964.0083</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="5" t="n">
         <v>984525920.6648</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="5" t="n">
         <v>925383212.9216</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="5" t="n">
         <v>1232250195.6401</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="5" t="n">
         <v>771088453.3</v>
       </c>
-      <c r="AH2" s="12"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -12078,64 +14397,64 @@
       <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="5" t="n">
         <v>1178460868.4359</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="5" t="n">
         <v>1199226981.5447</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="5" t="n">
         <v>1135988181.9147</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="5" t="n">
         <v>1017232986.1506</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="5" t="n">
         <v>871714640.1024</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="5" t="n">
         <v>945761004.0222</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="5" t="n">
         <v>867741468.9302</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="5" t="n">
         <v>737908698.6439</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="5" t="n">
         <v>803292483.6121</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="5" t="n">
         <v>827259949.0949</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="5" t="n">
         <v>761776562.2455</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="5" t="n">
         <v>803643068.4669</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="5" t="n">
         <v>662537419.5803</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="5" t="n">
         <v>539564929.3426</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="5" t="n">
         <v>550460986.4459</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="5" t="n">
         <v>730781385.4379</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="5" t="n">
         <v>634305495.9726</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="5" t="n">
         <v>732395210.7046</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="5" t="n">
         <v>564841155.51</v>
       </c>
-      <c r="AH3" s="12"/>
+      <c r="AH3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -12150,64 +14469,64 @@
       <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="5" t="n">
         <v>5999982656.0989</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="5" t="n">
         <v>6046841018.1236</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="5" t="n">
         <v>6751809683.3162</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="5" t="n">
         <v>6066338117.1134</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="5" t="n">
         <v>5230386996.1996</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="5" t="n">
         <v>5028436766.7599</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="5" t="n">
         <v>3533406811.1536</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="5" t="n">
         <v>4123223364.355</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="5" t="n">
         <v>3540965916.1068</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="5" t="n">
         <v>3465395080.791</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="5" t="n">
         <v>3649490144.793</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="5" t="n">
         <v>3889193797.8711</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="5" t="n">
         <v>3830838548.5789</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="5" t="n">
         <v>4014135910.2841</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="5" t="n">
         <v>3462027407.5753</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="5" t="n">
         <v>3657698278.8895</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="5" t="n">
         <v>3867543143.6415</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="5" t="n">
         <v>4343106613.7604</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="5" t="n">
         <v>1742366295.84</v>
       </c>
-      <c r="AH4" s="12"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -12222,64 +14541,64 @@
       <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="5" t="n">
         <v>5453967621.685</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="5" t="n">
         <v>5488289388.1671</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="5" t="n">
         <v>5123685268.2764</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="5" t="n">
         <v>4827283654.9535</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="5" t="n">
         <v>4158612530.2826</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="5" t="n">
         <v>3789869348.9368</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="5" t="n">
         <v>3044671387.1023</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="5" t="n">
         <v>2550123603.7925</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="5" t="n">
         <v>3008088905.1815</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="5" t="n">
         <v>3003988651.992</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="5" t="n">
         <v>2967959410.2609</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="5" t="n">
         <v>3270884590.9479</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="5" t="n">
         <v>3222268092.5278</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="5" t="n">
         <v>2849662624.9818</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="5" t="n">
         <v>2848050073.0005</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="5" t="n">
         <v>3133767191.2426</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="5" t="n">
         <v>3459183716.0211</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="5" t="n">
         <v>3833893607.6158</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="5" t="n">
         <v>2081972059.03</v>
       </c>
-      <c r="AH5" s="12"/>
+      <c r="AH5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -12294,64 +14613,64 @@
       <c r="N6" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="5" t="n">
         <v>3718111313.4572</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="5" t="n">
         <v>3610592314.4973</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="5" t="n">
         <v>3137557516.3095</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="5" t="n">
         <v>2981608669.6882</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="5" t="n">
         <v>3028019481.5055</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="5" t="n">
         <v>2469695513.1072</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="5" t="n">
         <v>1955875473.4952</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="5" t="n">
         <v>2083799227.2093</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="5" t="n">
         <v>1923822847.9198</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="5" t="n">
         <v>1900837801.3426</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="5" t="n">
         <v>1868540499.68</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="5" t="n">
         <v>2188931429.3429</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="5" t="n">
         <v>2194889970.2331</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="5" t="n">
         <v>2397347812.7466</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="5" t="n">
         <v>2131127300.4322</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="5" t="n">
         <v>2678315029.8218</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="5" t="n">
         <v>2553972151.0207</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="5" t="n">
         <v>3211908764.84</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="5" t="n">
         <v>1426713506.43</v>
       </c>
-      <c r="AH6" s="12"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -12366,64 +14685,64 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="5" t="n">
         <v>3231447069.5941</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="5" t="n">
         <v>3070233826.3334</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="5" t="n">
         <v>3185303448.5923</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="5" t="n">
         <v>2673847804.1681</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="5" t="n">
         <v>2505265716.9186</v>
       </c>
-      <c r="T7" s="12" t="n">
+      <c r="T7" s="5" t="n">
         <v>2269318527.9162</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="5" t="n">
         <v>2017106481.6782</v>
       </c>
-      <c r="V7" s="12" t="n">
+      <c r="V7" s="5" t="n">
         <v>1785005784.2355</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="5" t="n">
         <v>2012042558.3397</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="5" t="n">
         <v>2075097978.3987</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="5" t="n">
         <v>1964377807.7329</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="5" t="n">
         <v>2812551982.7554</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="5" t="n">
         <v>2437134954.3202</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="5" t="n">
         <v>1723114299.3683</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="5" t="n">
         <v>1711904256.1557</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="5" t="n">
         <v>2143513750.6174</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="5" t="n">
         <v>2012026029.8876</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="5" t="n">
         <v>2665923382.9198</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="5" t="n">
         <v>1559797904.05</v>
       </c>
-      <c r="AH7" s="12"/>
+      <c r="AH7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -12438,64 +14757,64 @@
       <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="12" t="n">
+      <c r="O8" s="5" t="n">
         <v>16232600406.2299</v>
       </c>
-      <c r="P8" s="12" t="n">
+      <c r="P8" s="5" t="n">
         <v>18013318202.9621</v>
       </c>
-      <c r="Q8" s="12" t="n">
+      <c r="Q8" s="5" t="n">
         <v>21359436179.4041</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="5" t="n">
         <v>22503657652.4199</v>
       </c>
-      <c r="S8" s="12" t="n">
+      <c r="S8" s="5" t="n">
         <v>21565136493.3633</v>
       </c>
-      <c r="T8" s="12" t="n">
+      <c r="T8" s="5" t="n">
         <v>24197412366.222</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="5" t="n">
         <v>20762854716.936</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="5" t="n">
         <v>24865750776.2857</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="5" t="n">
         <v>22677464972.5479</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="5" t="n">
         <v>24171570915.8529</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="5" t="n">
         <v>24535075416.5126</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="5" t="n">
         <v>30446369323.9432</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="5" t="n">
         <v>29836018893.081</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="5" t="n">
         <v>33750456437.2664</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="5" t="n">
         <v>39533121849.6505</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="5" t="n">
         <v>38006795509.8669</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="5" t="n">
         <v>41323209288.0265</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="5" t="n">
         <v>45262933926.611</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="5" t="n">
         <v>15623599795.75</v>
       </c>
-      <c r="AH8" s="12"/>
+      <c r="AH8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -12510,64 +14829,64 @@
       <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="5" t="n">
         <v>296184552141.297</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="5" t="n">
         <v>344535256724.079</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="5" t="n">
         <v>345115774373.335</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="5" t="n">
         <v>327134805579.901</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="5" t="n">
         <v>335616663292.43</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="5" t="n">
         <v>323478130191.268</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="5" t="n">
         <v>275995030917.57</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="5" t="n">
         <v>247196996625.705</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="5" t="n">
         <v>239156341008.849</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="5" t="n">
         <v>261821707468.751</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="5" t="n">
         <v>285087288047.885</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="5" t="n">
         <v>314790769967.597</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="5" t="n">
         <v>340149233230.903</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="5" t="n">
         <v>376266638908.401</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="5" t="n">
         <v>335774032955.627</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="5" t="n">
         <v>363078451353.951</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="5" t="n">
         <v>402360947452.223</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="5" t="n">
         <v>383726616903.297</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="5" t="n">
         <v>177492394503.2</v>
       </c>
-      <c r="AH9" s="12"/>
+      <c r="AH9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -12582,64 +14901,64 @@
       <c r="N10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="12" t="str">
+      <c r="O10" s="5" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="5" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="5" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="5" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="5" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="5" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="5" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="5" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="5" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="5" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="5" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="5" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="5" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="5" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="5" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="5" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="5" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="5" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="5" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12"/>
+      <c r="AH10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27841,115 +30160,115 @@
       <c r="N2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="O2" s="13" t="n">
         <v>42111675000</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="P2" s="13" t="n">
         <v>43815582000</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="Q2" s="13" t="n">
         <v>39545885055</v>
       </c>
-      <c r="R2" s="9" t="n">
+      <c r="R2" s="13" t="n">
         <v>39957971414</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="13" t="n">
         <v>44026483825</v>
       </c>
-      <c r="T2" s="9" t="n">
+      <c r="T2" s="13" t="n">
         <v>37789260369</v>
       </c>
-      <c r="U2" s="9" t="n">
+      <c r="U2" s="13" t="n">
         <v>39393811712.51</v>
       </c>
-      <c r="V2" s="9" t="n">
+      <c r="V2" s="13" t="n">
         <v>43071214393</v>
       </c>
-      <c r="W2" s="9" t="n">
+      <c r="W2" s="13" t="n">
         <v>41278050273</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="X2" s="13" t="n">
         <v>45233341240.67</v>
       </c>
-      <c r="Y2" s="9" t="n">
+      <c r="Y2" s="13" t="n">
         <v>37958921676.9792</v>
       </c>
-      <c r="Z2" s="9" t="n">
+      <c r="Z2" s="13" t="n">
         <v>40633046619.5646</v>
       </c>
-      <c r="AA2" s="9" t="n">
+      <c r="AA2" s="13" t="n">
         <v>47413884724.7769</v>
       </c>
-      <c r="AB2" s="9" t="n">
+      <c r="AB2" s="13" t="n">
         <v>55557135024.1209</v>
       </c>
-      <c r="AC2" s="9" t="n">
+      <c r="AC2" s="13" t="n">
         <v>55056695772.8358</v>
       </c>
-      <c r="AD2" s="9" t="n">
+      <c r="AD2" s="13" t="n">
         <v>55580069095.4808</v>
       </c>
-      <c r="AE2" s="9" t="n">
+      <c r="AE2" s="13" t="n">
         <v>63139443613.8063</v>
       </c>
-      <c r="AF2" s="9" t="n">
+      <c r="AF2" s="13" t="n">
         <v>69877137081.497</v>
       </c>
-      <c r="AG2" s="9" t="n">
-        <v>63650832496.9105</v>
-      </c>
-      <c r="AH2" s="9" t="n">
-        <v>67807653951.5146</v>
-      </c>
-      <c r="AI2" s="9" t="n">
-        <v>64907616713.9658</v>
-      </c>
-      <c r="AJ2" s="9" t="n">
-        <v>65476225773.1615</v>
-      </c>
-      <c r="AK2" s="9" t="n">
-        <v>71494774011.2722</v>
-      </c>
-      <c r="AL2" s="9" t="n">
-        <v>55167411502.4674</v>
-      </c>
-      <c r="AM2" s="9" t="n">
-        <v>55803091054.8974</v>
-      </c>
-      <c r="AN2" s="9" t="n">
-        <v>52855821371.6412</v>
-      </c>
-      <c r="AO2" s="9" t="n">
-        <v>65049036181.0832</v>
-      </c>
-      <c r="AP2" s="9" t="n">
-        <v>61393940204.3139</v>
-      </c>
-      <c r="AQ2" s="9" t="n">
-        <v>71867887528.2911</v>
-      </c>
-      <c r="AR2" s="9" t="n">
-        <v>75814574410.8732</v>
-      </c>
-      <c r="AS2" s="9" t="n">
-        <v>77957034534.0625</v>
-      </c>
-      <c r="AT2" s="9" t="n">
-        <v>79169868543.378</v>
-      </c>
-      <c r="AU2" s="9" t="n">
-        <v>78784472831.3931</v>
-      </c>
-      <c r="AV2" s="9" t="n">
-        <v>92746612140.7301</v>
-      </c>
-      <c r="AW2" s="9" t="n">
-        <v>99846951842.2436</v>
-      </c>
-      <c r="AX2" s="9" t="n">
-        <v>43729601308.87</v>
-      </c>
-      <c r="AY2" s="9"/>
+      <c r="AG2" s="13" t="n">
+        <v>63650832496.9106</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>67807653951.5052</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>64907616713.9148</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>65476225770.1632</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>71494774005.5241</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>55167411498.5824</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>55803091071.5235</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>52855821371.6358</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>65049835659.9361</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>61419004040.2801</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>71868165429.6598</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>75814473840.6195</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>77957034535.1725</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>79169767074.4894</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>78801239912.0811</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>92753103729.3151</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>99859354794.5536</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>43817022708.15</v>
+      </c>
+      <c r="AY2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -27964,115 +30283,115 @@
       <c r="N3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="13" t="n">
         <v>23216088134.53</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="P3" s="13" t="n">
         <v>35268260000</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="Q3" s="13" t="n">
         <v>31428914998</v>
       </c>
-      <c r="R3" s="9" t="n">
+      <c r="R3" s="13" t="n">
         <v>30957822464</v>
       </c>
-      <c r="S3" s="9" t="n">
+      <c r="S3" s="13" t="n">
         <v>20798814908</v>
       </c>
-      <c r="T3" s="9" t="n">
+      <c r="T3" s="13" t="n">
         <v>29761242814</v>
       </c>
-      <c r="U3" s="9" t="n">
+      <c r="U3" s="13" t="n">
         <v>32029210551</v>
       </c>
-      <c r="V3" s="9" t="n">
+      <c r="V3" s="13" t="n">
         <v>37067947798.21</v>
       </c>
-      <c r="W3" s="9" t="n">
+      <c r="W3" s="13" t="n">
         <v>37638355362</v>
       </c>
-      <c r="X3" s="9" t="n">
+      <c r="X3" s="13" t="n">
         <v>43607320822.52</v>
       </c>
-      <c r="Y3" s="9" t="n">
+      <c r="Y3" s="13" t="n">
         <v>36832500828.7767</v>
       </c>
-      <c r="Z3" s="9" t="n">
+      <c r="Z3" s="13" t="n">
         <v>40556105509.793</v>
       </c>
-      <c r="AA3" s="9" t="n">
+      <c r="AA3" s="13" t="n">
         <v>46178863972.4357</v>
       </c>
-      <c r="AB3" s="9" t="n">
+      <c r="AB3" s="13" t="n">
         <v>64206590729.1569</v>
       </c>
-      <c r="AC3" s="9" t="n">
+      <c r="AC3" s="13" t="n">
         <v>76070511906.1153</v>
       </c>
-      <c r="AD3" s="9" t="n">
+      <c r="AD3" s="13" t="n">
         <v>95626896372.1701</v>
       </c>
-      <c r="AE3" s="9" t="n">
-        <v>101677927943.18</v>
-      </c>
-      <c r="AF3" s="9" t="n">
-        <v>118362647694.287</v>
-      </c>
-      <c r="AG3" s="9" t="n">
-        <v>153115860208.619</v>
-      </c>
-      <c r="AH3" s="9" t="n">
-        <v>147184981504.119</v>
-      </c>
-      <c r="AI3" s="9" t="n">
-        <v>141175890062.453</v>
-      </c>
-      <c r="AJ3" s="9" t="n">
-        <v>125525303443.94</v>
-      </c>
-      <c r="AK3" s="9" t="n">
-        <v>109148363176.855</v>
-      </c>
-      <c r="AL3" s="9" t="n">
-        <v>87698991048.9785</v>
-      </c>
-      <c r="AM3" s="9" t="n">
-        <v>75373911966.1301</v>
-      </c>
-      <c r="AN3" s="9" t="n">
-        <v>72930300832.3044</v>
-      </c>
-      <c r="AO3" s="9" t="n">
-        <v>74197001335.624</v>
-      </c>
-      <c r="AP3" s="9" t="n">
-        <v>78622025172.4383</v>
-      </c>
-      <c r="AQ3" s="9" t="n">
-        <v>91452191509.7659</v>
-      </c>
-      <c r="AR3" s="9" t="n">
-        <v>95041873714.4263</v>
-      </c>
-      <c r="AS3" s="9" t="n">
-        <v>100479498333.367</v>
-      </c>
-      <c r="AT3" s="9" t="n">
-        <v>109800145453.743</v>
-      </c>
-      <c r="AU3" s="9" t="n">
-        <v>112542723059.68</v>
-      </c>
-      <c r="AV3" s="9" t="n">
-        <v>111974432319.734</v>
-      </c>
-      <c r="AW3" s="9" t="n">
-        <v>104140748165.532</v>
-      </c>
-      <c r="AX3" s="9" t="n">
-        <v>37572844796.39</v>
-      </c>
-      <c r="AY3" s="9"/>
+      <c r="AE3" s="13" t="n">
+        <v>101677927943.316</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>118362647693.621</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>153115860209.798</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>147184981503.3</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>141175890062.267</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>125525303444.975</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>109148363145.393</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>87698991049.4181</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>75373911966.1924</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>72930300832.5493</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>74197001335.8838</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>78622025175.0228</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>91452191508.7047</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>95041873715.44</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>100479498328.397</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>109800145451.404</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>112550602092.505</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>112002715187.04</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>104162099843.392</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>37568543072.68</v>
+      </c>
+      <c r="AY3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -28087,115 +30406,115 @@
       <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="13" t="n">
         <v>9209787000</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="13" t="n">
         <v>11713307000</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="Q4" s="13" t="n">
         <v>6907467039</v>
       </c>
-      <c r="R4" s="9" t="n">
+      <c r="R4" s="13" t="n">
         <v>7931460004</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="13" t="n">
         <v>6692479944</v>
       </c>
-      <c r="T4" s="9" t="n">
+      <c r="T4" s="13" t="n">
         <v>6644824451</v>
       </c>
-      <c r="U4" s="9" t="n">
+      <c r="U4" s="13" t="n">
         <v>7292808729</v>
       </c>
-      <c r="V4" s="9" t="n">
+      <c r="V4" s="13" t="n">
         <v>8059156410</v>
       </c>
-      <c r="W4" s="9" t="n">
+      <c r="W4" s="13" t="n">
         <v>7839796546</v>
       </c>
-      <c r="X4" s="9" t="n">
+      <c r="X4" s="13" t="n">
         <v>9009714445</v>
       </c>
-      <c r="Y4" s="9" t="n">
+      <c r="Y4" s="13" t="n">
         <v>9580614163.6178</v>
       </c>
-      <c r="Z4" s="9" t="n">
+      <c r="Z4" s="13" t="n">
         <v>11426471526.7901</v>
       </c>
-      <c r="AA4" s="9" t="n">
+      <c r="AA4" s="13" t="n">
         <v>14591296027.8973</v>
       </c>
-      <c r="AB4" s="9" t="n">
+      <c r="AB4" s="13" t="n">
         <v>17678992692.3501</v>
       </c>
-      <c r="AC4" s="9" t="n">
+      <c r="AC4" s="13" t="n">
         <v>19619731983.3795</v>
       </c>
-      <c r="AD4" s="9" t="n">
+      <c r="AD4" s="13" t="n">
         <v>27914804283.873</v>
       </c>
-      <c r="AE4" s="9" t="n">
-        <v>32598809893.9407</v>
-      </c>
-      <c r="AF4" s="9" t="n">
+      <c r="AE4" s="13" t="n">
+        <v>32598809893.9357</v>
+      </c>
+      <c r="AF4" s="13" t="n">
         <v>30639765053.0485</v>
       </c>
-      <c r="AG4" s="9" t="n">
-        <v>35718777232.1161</v>
-      </c>
-      <c r="AH4" s="9" t="n">
-        <v>38025569516.8387</v>
-      </c>
-      <c r="AI4" s="9" t="n">
-        <v>35241646622.5091</v>
-      </c>
-      <c r="AJ4" s="9" t="n">
-        <v>36127582505.7365</v>
-      </c>
-      <c r="AK4" s="9" t="n">
-        <v>43150233026.2928</v>
-      </c>
-      <c r="AL4" s="9" t="n">
-        <v>34083497069.31</v>
-      </c>
-      <c r="AM4" s="9" t="n">
-        <v>32346458659.2243</v>
-      </c>
-      <c r="AN4" s="9" t="n">
-        <v>30903602561.5569</v>
-      </c>
-      <c r="AO4" s="9" t="n">
-        <v>30228928099.4841</v>
-      </c>
-      <c r="AP4" s="9" t="n">
-        <v>35610833121.5627</v>
-      </c>
-      <c r="AQ4" s="9" t="n">
-        <v>45449953575.4856</v>
-      </c>
-      <c r="AR4" s="9" t="n">
-        <v>44237628421.1817</v>
-      </c>
-      <c r="AS4" s="9" t="n">
-        <v>42123907348.3116</v>
-      </c>
-      <c r="AT4" s="9" t="n">
-        <v>39109538688.5545</v>
-      </c>
-      <c r="AU4" s="9" t="n">
-        <v>48302959663.6637</v>
-      </c>
-      <c r="AV4" s="9" t="n">
-        <v>50530369524.0174</v>
-      </c>
-      <c r="AW4" s="9" t="n">
-        <v>53082768297.25</v>
-      </c>
-      <c r="AX4" s="9" t="n">
-        <v>23568245018.5</v>
-      </c>
-      <c r="AY4" s="9"/>
+      <c r="AG4" s="13" t="n">
+        <v>35718777232.1062</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>38025569516.8371</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>35241646622.4366</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>36127582505.7791</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>43150233026.2016</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>34083497069.3136</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>32346366353.5999</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>30903691696.1845</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>30228927986.5049</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>35610979879.0438</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>45449940778.5474</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>44237628561.7852</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>42123895255.2061</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>39109571324.1429</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>48305520445.4362</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>50533052995.1319</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>53061881381.01</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>23566620091.08</v>
+      </c>
+      <c r="AY4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -28210,101 +30529,101 @@
       <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9" t="n">
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13" t="n">
         <v>101268812</v>
       </c>
-      <c r="W5" s="9" t="n">
+      <c r="W5" s="13" t="n">
         <v>651152375</v>
       </c>
-      <c r="X5" s="9" t="n">
+      <c r="X5" s="13" t="n">
         <v>695421838</v>
       </c>
-      <c r="Y5" s="9" t="n">
+      <c r="Y5" s="13" t="n">
         <v>178031456</v>
       </c>
-      <c r="Z5" s="9" t="n">
+      <c r="Z5" s="13" t="n">
         <v>268635741</v>
       </c>
-      <c r="AA5" s="9" t="n">
+      <c r="AA5" s="13" t="n">
         <v>6554622</v>
       </c>
-      <c r="AB5" s="9" t="n">
+      <c r="AB5" s="13" t="n">
         <v>239927692</v>
       </c>
-      <c r="AC5" s="9" t="n">
+      <c r="AC5" s="13" t="n">
         <v>196180520.0938</v>
       </c>
-      <c r="AD5" s="9" t="n">
+      <c r="AD5" s="13" t="n">
         <v>297828365</v>
       </c>
-      <c r="AE5" s="9" t="n">
+      <c r="AE5" s="13" t="n">
         <v>634208177</v>
       </c>
-      <c r="AF5" s="9" t="n">
+      <c r="AF5" s="13" t="n">
         <v>1065862779.7227</v>
       </c>
-      <c r="AG5" s="9" t="n">
+      <c r="AG5" s="13" t="n">
         <v>2725377093.3307</v>
       </c>
-      <c r="AH5" s="9" t="n">
+      <c r="AH5" s="13" t="n">
         <v>3681464083.0004</v>
       </c>
-      <c r="AI5" s="9" t="n">
+      <c r="AI5" s="13" t="n">
         <v>1874856013.4357</v>
       </c>
-      <c r="AJ5" s="9" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>4877655064.5174</v>
       </c>
-      <c r="AK5" s="9" t="n">
+      <c r="AK5" s="13" t="n">
         <v>4691798600.1318</v>
       </c>
-      <c r="AL5" s="9" t="n">
+      <c r="AL5" s="13" t="n">
         <v>12181359822.95</v>
       </c>
-      <c r="AM5" s="9" t="n">
+      <c r="AM5" s="13" t="n">
         <v>3796342018.2</v>
       </c>
-      <c r="AN5" s="9" t="n">
+      <c r="AN5" s="13" t="n">
         <v>11232863388.03</v>
       </c>
-      <c r="AO5" s="9" t="n">
+      <c r="AO5" s="13" t="n">
         <v>10403767371.5552</v>
       </c>
-      <c r="AP5" s="9" t="n">
+      <c r="AP5" s="13" t="n">
         <v>24164351660.1826</v>
       </c>
-      <c r="AQ5" s="9" t="n">
-        <v>15993414874.2596</v>
-      </c>
-      <c r="AR5" s="9" t="n">
+      <c r="AQ5" s="13" t="n">
+        <v>15993414873.2521</v>
+      </c>
+      <c r="AR5" s="13" t="n">
         <v>17024265421.013</v>
       </c>
-      <c r="AS5" s="9" t="n">
-        <v>35959135988.6485</v>
-      </c>
-      <c r="AT5" s="9" t="n">
+      <c r="AS5" s="13" t="n">
+        <v>35959135989.5885</v>
+      </c>
+      <c r="AT5" s="13" t="n">
         <v>9846932188.5915</v>
       </c>
-      <c r="AU5" s="9" t="n">
-        <v>20737931625.7908</v>
-      </c>
-      <c r="AV5" s="9" t="n">
-        <v>36167249992.413</v>
-      </c>
-      <c r="AW5" s="9" t="n">
-        <v>12083973125.57</v>
-      </c>
-      <c r="AX5" s="9" t="n">
-        <v>13781647277.79</v>
-      </c>
-      <c r="AY5" s="9"/>
+      <c r="AU5" s="13" t="n">
+        <v>20737931626.8508</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>36167250027.113</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>12517289790.01</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>13779869218.89</v>
+      </c>
+      <c r="AY5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -28319,113 +30638,113 @@
       <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="13" t="n">
         <v>74831000</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="13" t="n">
         <v>68100000</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="Q6" s="13" t="n">
         <v>1661000</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9" t="n">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="n">
         <v>343747860</v>
       </c>
-      <c r="T6" s="9" t="n">
+      <c r="T6" s="13" t="n">
         <v>251594273</v>
       </c>
-      <c r="U6" s="9" t="n">
+      <c r="U6" s="13" t="n">
         <v>310476090</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="13" t="n">
         <v>431242526</v>
       </c>
-      <c r="W6" s="9" t="n">
+      <c r="W6" s="13" t="n">
         <v>747389215</v>
       </c>
-      <c r="X6" s="9" t="n">
+      <c r="X6" s="13" t="n">
         <v>945575248.63</v>
       </c>
-      <c r="Y6" s="9" t="n">
+      <c r="Y6" s="13" t="n">
         <v>1373879916</v>
       </c>
-      <c r="Z6" s="9" t="n">
+      <c r="Z6" s="13" t="n">
         <v>1673010916</v>
       </c>
-      <c r="AA6" s="9" t="n">
+      <c r="AA6" s="13" t="n">
         <v>2485964875.825</v>
       </c>
-      <c r="AB6" s="9" t="n">
+      <c r="AB6" s="13" t="n">
         <v>2671495076.0938</v>
       </c>
-      <c r="AC6" s="9" t="n">
+      <c r="AC6" s="13" t="n">
         <v>3382922964.5797</v>
       </c>
-      <c r="AD6" s="9" t="n">
+      <c r="AD6" s="13" t="n">
         <v>3841746261.1375</v>
       </c>
-      <c r="AE6" s="9" t="n">
+      <c r="AE6" s="13" t="n">
         <v>3492627141.4845</v>
       </c>
-      <c r="AF6" s="9" t="n">
+      <c r="AF6" s="13" t="n">
         <v>4929029621.6667</v>
       </c>
-      <c r="AG6" s="9" t="n">
+      <c r="AG6" s="13" t="n">
         <v>5760262873.5729</v>
       </c>
-      <c r="AH6" s="9" t="n">
+      <c r="AH6" s="13" t="n">
         <v>5673422751.5254</v>
       </c>
-      <c r="AI6" s="9" t="n">
+      <c r="AI6" s="13" t="n">
         <v>5356951769.0357</v>
       </c>
-      <c r="AJ6" s="9" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>5382146529.484</v>
       </c>
-      <c r="AK6" s="9" t="n">
+      <c r="AK6" s="13" t="n">
         <v>6877002431.1045</v>
       </c>
-      <c r="AL6" s="9" t="n">
+      <c r="AL6" s="13" t="n">
         <v>7706159819.8678</v>
       </c>
-      <c r="AM6" s="9" t="n">
+      <c r="AM6" s="13" t="n">
         <v>6050847486.8864</v>
       </c>
-      <c r="AN6" s="9" t="n">
+      <c r="AN6" s="13" t="n">
         <v>4690777698.051</v>
       </c>
-      <c r="AO6" s="9" t="n">
+      <c r="AO6" s="13" t="n">
         <v>6589241607.8602</v>
       </c>
-      <c r="AP6" s="9" t="n">
-        <v>5412284919.1863</v>
-      </c>
-      <c r="AQ6" s="9" t="n">
+      <c r="AP6" s="13" t="n">
+        <v>5412284919.1813</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
         <v>8293301633.6555</v>
       </c>
-      <c r="AR6" s="9" t="n">
+      <c r="AR6" s="13" t="n">
         <v>8819106629.0813</v>
       </c>
-      <c r="AS6" s="9" t="n">
+      <c r="AS6" s="13" t="n">
         <v>12327823652.2867</v>
       </c>
-      <c r="AT6" s="9" t="n">
-        <v>8817318506.7073</v>
-      </c>
-      <c r="AU6" s="9" t="n">
-        <v>9841222285.8038</v>
-      </c>
-      <c r="AV6" s="9" t="n">
-        <v>7078755082.6783</v>
-      </c>
-      <c r="AW6" s="9" t="n">
+      <c r="AT6" s="13" t="n">
+        <v>8817318506.7272</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>9841769591.9764</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>7078919042.8608</v>
+      </c>
+      <c r="AW6" s="13" t="n">
         <v>8459332539.52</v>
       </c>
-      <c r="AX6" s="9" t="n">
-        <v>4077615844.03</v>
-      </c>
-      <c r="AY6" s="9"/>
+      <c r="AX6" s="13" t="n">
+        <v>4080439773.84</v>
+      </c>
+      <c r="AY6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -28440,115 +30759,115 @@
       <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="13" t="n">
         <v>44416973487.56</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="P7" s="13" t="n">
         <v>42246069844</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="Q7" s="13" t="n">
         <v>41220475613</v>
       </c>
-      <c r="R7" s="9" t="n">
+      <c r="R7" s="13" t="n">
         <v>38245449962</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="13" t="n">
         <v>41252757153.16</v>
       </c>
-      <c r="T7" s="9" t="n">
+      <c r="T7" s="13" t="n">
         <v>39421018145</v>
       </c>
-      <c r="U7" s="9" t="n">
+      <c r="U7" s="13" t="n">
         <v>36936668644</v>
       </c>
-      <c r="V7" s="9" t="n">
-        <v>45447414678</v>
-      </c>
-      <c r="W7" s="9" t="n">
+      <c r="V7" s="13" t="n">
+        <v>45447574678</v>
+      </c>
+      <c r="W7" s="13" t="n">
         <v>48153173352.09</v>
       </c>
-      <c r="X7" s="9" t="n">
+      <c r="X7" s="13" t="n">
         <v>49423055067.05</v>
       </c>
-      <c r="Y7" s="9" t="n">
+      <c r="Y7" s="13" t="n">
         <v>40297993522.9593</v>
       </c>
-      <c r="Z7" s="9" t="n">
+      <c r="Z7" s="13" t="n">
         <v>41940611224.7212</v>
       </c>
-      <c r="AA7" s="9" t="n">
+      <c r="AA7" s="13" t="n">
         <v>47787997916.3768</v>
       </c>
-      <c r="AB7" s="9" t="n">
-        <v>56619600366.3633</v>
-      </c>
-      <c r="AC7" s="9" t="n">
+      <c r="AB7" s="13" t="n">
+        <v>56619600367.3633</v>
+      </c>
+      <c r="AC7" s="13" t="n">
         <v>60624157330.322</v>
       </c>
-      <c r="AD7" s="9" t="n">
-        <v>65286569811.4977</v>
-      </c>
-      <c r="AE7" s="9" t="n">
+      <c r="AD7" s="13" t="n">
+        <v>65286569811.1077</v>
+      </c>
+      <c r="AE7" s="13" t="n">
         <v>74295888295.115</v>
       </c>
-      <c r="AF7" s="9" t="n">
-        <v>84706463044.1078</v>
-      </c>
-      <c r="AG7" s="9" t="n">
-        <v>93702135950.3244</v>
-      </c>
-      <c r="AH7" s="9" t="n">
-        <v>92071694336.7975</v>
-      </c>
-      <c r="AI7" s="9" t="n">
-        <v>86215459904.5379</v>
-      </c>
-      <c r="AJ7" s="9" t="n">
-        <v>99202069231.8364</v>
-      </c>
-      <c r="AK7" s="9" t="n">
-        <v>89920968641.6829</v>
-      </c>
-      <c r="AL7" s="9" t="n">
-        <v>82197957231.9314</v>
-      </c>
-      <c r="AM7" s="9" t="n">
-        <v>80332120166.2806</v>
-      </c>
-      <c r="AN7" s="9" t="n">
-        <v>73506441024.9478</v>
-      </c>
-      <c r="AO7" s="9" t="n">
-        <v>82806903387.9797</v>
-      </c>
-      <c r="AP7" s="9" t="n">
-        <v>85448502641.0506</v>
-      </c>
-      <c r="AQ7" s="9" t="n">
-        <v>92309015366.9482</v>
-      </c>
-      <c r="AR7" s="9" t="n">
-        <v>104803443564.937</v>
-      </c>
-      <c r="AS7" s="9" t="n">
-        <v>114380922794.299</v>
-      </c>
-      <c r="AT7" s="9" t="n">
-        <v>101938176059.912</v>
-      </c>
-      <c r="AU7" s="9" t="n">
-        <v>103255304471.694</v>
-      </c>
-      <c r="AV7" s="9" t="n">
-        <v>115659529630.54</v>
-      </c>
-      <c r="AW7" s="9" t="n">
-        <v>122027612322.873</v>
-      </c>
-      <c r="AX7" s="9" t="n">
-        <v>54505668220.22</v>
-      </c>
-      <c r="AY7" s="9"/>
+      <c r="AF7" s="13" t="n">
+        <v>84706463044.1103</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>93702135950.2294</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>92071694336.7673</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>86215459919.6005</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>99202069231.0295</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>89920968627.0367</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>82197957231.9337</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>80328218894.056</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>73506011252.4841</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>82806908395.2001</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>85448502706.427</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>92309015189.5638</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>104803457437.478</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>114380922838.22</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>101942241454.525</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>103254240851.706</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>115660194539.842</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>122029893223.152</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>54513915433.12</v>
+      </c>
+      <c r="AY7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -28563,115 +30882,115 @@
       <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="13" t="n">
         <v>3335887000</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="13" t="n">
         <v>4015324000</v>
       </c>
-      <c r="Q8" s="9" t="n">
+      <c r="Q8" s="13" t="n">
         <v>6148282864</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="13" t="n">
         <v>5964388298</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="13" t="n">
         <v>5823333448</v>
       </c>
-      <c r="T8" s="9" t="n">
+      <c r="T8" s="13" t="n">
         <v>4520245942</v>
       </c>
-      <c r="U8" s="9" t="n">
+      <c r="U8" s="13" t="n">
         <v>4743335584</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="13" t="n">
         <v>5644509758</v>
       </c>
-      <c r="W8" s="9" t="n">
+      <c r="W8" s="13" t="n">
         <v>7004011243.32</v>
       </c>
-      <c r="X8" s="9" t="n">
+      <c r="X8" s="13" t="n">
         <v>7686591749.53</v>
       </c>
-      <c r="Y8" s="9" t="n">
+      <c r="Y8" s="13" t="n">
         <v>5956028175.0544</v>
       </c>
-      <c r="Z8" s="9" t="n">
+      <c r="Z8" s="13" t="n">
         <v>7495657034.3578</v>
       </c>
-      <c r="AA8" s="9" t="n">
+      <c r="AA8" s="13" t="n">
         <v>11345958996.1904</v>
       </c>
-      <c r="AB8" s="9" t="n">
+      <c r="AB8" s="13" t="n">
         <v>14559345718.7002</v>
       </c>
-      <c r="AC8" s="9" t="n">
+      <c r="AC8" s="13" t="n">
         <v>14824923355.3426</v>
       </c>
-      <c r="AD8" s="9" t="n">
+      <c r="AD8" s="13" t="n">
         <v>17116563570.2447</v>
       </c>
-      <c r="AE8" s="9" t="n">
+      <c r="AE8" s="13" t="n">
         <v>19296642324.7179</v>
       </c>
-      <c r="AF8" s="9" t="n">
-        <v>18557674992.8479</v>
-      </c>
-      <c r="AG8" s="9" t="n">
-        <v>23312286688.247</v>
-      </c>
-      <c r="AH8" s="9" t="n">
-        <v>27105643872.7755</v>
-      </c>
-      <c r="AI8" s="9" t="n">
-        <v>27923149890.8522</v>
-      </c>
-      <c r="AJ8" s="9" t="n">
-        <v>32019518639.3583</v>
-      </c>
-      <c r="AK8" s="9" t="n">
-        <v>32506857047.9409</v>
-      </c>
-      <c r="AL8" s="9" t="n">
-        <v>29165350441.0852</v>
-      </c>
-      <c r="AM8" s="9" t="n">
-        <v>29697489809.6262</v>
-      </c>
-      <c r="AN8" s="9" t="n">
-        <v>28106546989.0464</v>
-      </c>
-      <c r="AO8" s="9" t="n">
-        <v>29077285437.4923</v>
-      </c>
-      <c r="AP8" s="9" t="n">
-        <v>31199266828.0627</v>
-      </c>
-      <c r="AQ8" s="9" t="n">
-        <v>33995668832.1166</v>
-      </c>
-      <c r="AR8" s="9" t="n">
-        <v>37867618809.4804</v>
-      </c>
-      <c r="AS8" s="9" t="n">
-        <v>39306450663.1837</v>
-      </c>
-      <c r="AT8" s="9" t="n">
-        <v>38288018121.4004</v>
-      </c>
-      <c r="AU8" s="9" t="n">
-        <v>40861266319.2816</v>
-      </c>
-      <c r="AV8" s="9" t="n">
-        <v>42925923203.4104</v>
-      </c>
-      <c r="AW8" s="9" t="n">
-        <v>45197196127.54</v>
-      </c>
-      <c r="AX8" s="9" t="n">
-        <v>21221704527.05</v>
-      </c>
-      <c r="AY8" s="9"/>
+      <c r="AF8" s="13" t="n">
+        <v>18557538546.5454</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>23312286688.3719</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>27101376297.008</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>27923078096.5896</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
+        <v>32019518639.1978</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>32506745707.4143</v>
+      </c>
+      <c r="AL8" s="13" t="n">
+        <v>29165300997.5759</v>
+      </c>
+      <c r="AM8" s="13" t="n">
+        <v>29697467386.1097</v>
+      </c>
+      <c r="AN8" s="13" t="n">
+        <v>28104624235.2971</v>
+      </c>
+      <c r="AO8" s="13" t="n">
+        <v>29076175060.0733</v>
+      </c>
+      <c r="AP8" s="13" t="n">
+        <v>31197266828.3478</v>
+      </c>
+      <c r="AQ8" s="13" t="n">
+        <v>33995574095.4882</v>
+      </c>
+      <c r="AR8" s="13" t="n">
+        <v>37867570834.5594</v>
+      </c>
+      <c r="AS8" s="13" t="n">
+        <v>39306434422.25</v>
+      </c>
+      <c r="AT8" s="13" t="n">
+        <v>38287999340.9711</v>
+      </c>
+      <c r="AU8" s="13" t="n">
+        <v>40861139922.4935</v>
+      </c>
+      <c r="AV8" s="13" t="n">
+        <v>42926421135.422</v>
+      </c>
+      <c r="AW8" s="13" t="n">
+        <v>45199750340.83</v>
+      </c>
+      <c r="AX8" s="13" t="n">
+        <v>21307017233.53</v>
+      </c>
+      <c r="AY8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -28686,115 +31005,115 @@
       <c r="N9" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="9" t="str">
+      <c r="O9" s="13" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="9" t="str">
+      <c r="P9" s="13" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="9" t="str">
+      <c r="Q9" s="13" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="9" t="str">
+      <c r="R9" s="13" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="9" t="str">
+      <c r="S9" s="13" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="9" t="str">
+      <c r="T9" s="13" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="9" t="str">
+      <c r="U9" s="13" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="V9" s="13" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="W9" s="13" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="9" t="str">
+      <c r="X9" s="13" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="9" t="str">
+      <c r="Y9" s="13" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="9" t="str">
+      <c r="Z9" s="13" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="9" t="str">
+      <c r="AA9" s="13" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="9" t="str">
+      <c r="AB9" s="13" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="9" t="str">
+      <c r="AC9" s="13" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="9" t="str">
+      <c r="AD9" s="13" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="9" t="str">
+      <c r="AE9" s="13" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="9" t="str">
+      <c r="AF9" s="13" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="9" t="str">
+      <c r="AG9" s="13" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="9" t="str">
+      <c r="AH9" s="13" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="9" t="str">
+      <c r="AI9" s="13" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="9" t="str">
+      <c r="AJ9" s="13" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="9" t="str">
+      <c r="AK9" s="13" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="9" t="str">
+      <c r="AL9" s="13" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="9" t="str">
+      <c r="AM9" s="13" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="9" t="str">
+      <c r="AN9" s="13" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="9" t="str">
+      <c r="AO9" s="13" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="9" t="str">
+      <c r="AP9" s="13" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="9" t="str">
+      <c r="AQ9" s="13" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="9" t="str">
+      <c r="AR9" s="13" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="9" t="str">
+      <c r="AS9" s="13" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="9" t="str">
+      <c r="AT9" s="13" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="9" t="str">
+      <c r="AU9" s="13" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="9" t="str">
+      <c r="AV9" s="13" t="str">
         <f>Sum(AV2:AV8)</f>
       </c>
-      <c r="AW9" s="9" t="str">
+      <c r="AW9" s="13" t="str">
         <f>Sum(AW2:AW8)</f>
       </c>
-      <c r="AX9" s="9" t="str">
+      <c r="AX9" s="13" t="str">
         <f>Sum(AX2:AX8)</f>
       </c>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -28943,16 +31262,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="9" t="str">
+      <c r="C13" s="13" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="13" t="str">
         <f>AV13</f>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="13" t="str">
         <f>AW13</f>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="2" t="str">
         <f>AW13/AV13-1</f>
       </c>
@@ -28970,115 +31289,115 @@
       <c r="N13" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="13" t="n">
         <v>87098816748.7271</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="13" t="n">
         <v>87494979464.3834</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="Q13" s="13" t="n">
         <v>77040635004.8672</v>
       </c>
-      <c r="R13" s="9" t="n">
+      <c r="R13" s="13" t="n">
         <v>76059091995.068</v>
       </c>
-      <c r="S13" s="9" t="n">
+      <c r="S13" s="13" t="n">
         <v>82013015156.3103</v>
       </c>
-      <c r="T13" s="9" t="n">
+      <c r="T13" s="13" t="n">
         <v>68932083334.7083</v>
       </c>
-      <c r="U13" s="9" t="n">
+      <c r="U13" s="13" t="n">
         <v>70530985543.9256</v>
       </c>
-      <c r="V13" s="9" t="n">
+      <c r="V13" s="13" t="n">
         <v>75770329196.7893</v>
       </c>
-      <c r="W13" s="9" t="n">
+      <c r="W13" s="13" t="n">
         <v>71716646753.1509</v>
       </c>
-      <c r="X13" s="9" t="n">
+      <c r="X13" s="13" t="n">
         <v>77627357830.4787</v>
       </c>
-      <c r="Y13" s="9" t="n">
+      <c r="Y13" s="13" t="n">
         <v>63815529088.6921</v>
       </c>
-      <c r="Z13" s="9" t="n">
+      <c r="Z13" s="13" t="n">
         <v>66694581122.0798</v>
       </c>
-      <c r="AA13" s="9" t="n">
+      <c r="AA13" s="13" t="n">
         <v>76619180701.0273</v>
       </c>
-      <c r="AB13" s="9" t="n">
+      <c r="AB13" s="13" t="n">
         <v>88087536928.2891</v>
       </c>
-      <c r="AC13" s="9" t="n">
+      <c r="AC13" s="13" t="n">
         <v>85213273149.2519</v>
       </c>
-      <c r="AD13" s="9" t="n">
+      <c r="AD13" s="13" t="n">
         <v>83482946205.8806</v>
       </c>
-      <c r="AE13" s="9" t="n">
+      <c r="AE13" s="13" t="n">
         <v>91853555939.114</v>
       </c>
-      <c r="AF13" s="9" t="n">
+      <c r="AF13" s="13" t="n">
         <v>98931827019.0245</v>
       </c>
-      <c r="AG13" s="9" t="n">
-        <v>88283798656.439</v>
-      </c>
-      <c r="AH13" s="9" t="n">
-        <v>93097292915.511</v>
-      </c>
-      <c r="AI13" s="9" t="n">
-        <v>88350499212.4189</v>
-      </c>
-      <c r="AJ13" s="9" t="n">
-        <v>87370822969.4415</v>
-      </c>
-      <c r="AK13" s="9" t="n">
-        <v>93701600460.5992</v>
-      </c>
-      <c r="AL13" s="9" t="n">
-        <v>71014298426.692</v>
-      </c>
-      <c r="AM13" s="9" t="n">
-        <v>70545601959.4225</v>
-      </c>
-      <c r="AN13" s="9" t="n">
-        <v>66134790023.8735</v>
-      </c>
-      <c r="AO13" s="9" t="n">
-        <v>80745737746.8069</v>
-      </c>
-      <c r="AP13" s="9" t="n">
-        <v>74943582821.8026</v>
-      </c>
-      <c r="AQ13" s="9" t="n">
-        <v>85823841005.5269</v>
-      </c>
-      <c r="AR13" s="9" t="n">
-        <v>88893334954.7501</v>
-      </c>
-      <c r="AS13" s="9" t="n">
-        <v>90226748877.9924</v>
-      </c>
-      <c r="AT13" s="9" t="n">
-        <v>88581721843.0429</v>
-      </c>
-      <c r="AU13" s="9" t="n">
-        <v>82388594180.1319</v>
-      </c>
-      <c r="AV13" s="9" t="n">
-        <v>92746612140.7301</v>
-      </c>
-      <c r="AW13" s="9" t="n">
-        <v>97249799854.3314</v>
-      </c>
-      <c r="AX13" s="9" t="n">
-        <v>41677642348.3212</v>
-      </c>
-      <c r="AY13" s="9"/>
+      <c r="AG13" s="13" t="n">
+        <v>88283798656.4391</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>93097292915.4981</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>88350499212.3494</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>87370822965.4406</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>93701600453.0657</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>71014298421.691</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>70545601980.441</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>66134790023.8668</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>80746730144.4438</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>74974178246.3725</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>85824172872.2855</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>88893217035.1375</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>90226748879.2771</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>88581608311.3542</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>82406128297.6647</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>92753103729.3151</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>97261880189.3591</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>41760961603.5563</v>
+      </c>
+      <c r="AY13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -29087,16 +31406,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="9" t="str">
+      <c r="C14" s="13" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="13" t="str">
         <f>AV14</f>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="13" t="str">
         <f>AW14</f>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2" t="str">
         <f>AW14/AV14-1</f>
       </c>
@@ -29114,115 +31433,115 @@
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="13" t="n">
         <v>48017415741.6376</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="13" t="n">
         <v>70426901654.4053</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="Q14" s="13" t="n">
         <v>61227699559.4457</v>
       </c>
-      <c r="R14" s="9" t="n">
+      <c r="R14" s="13" t="n">
         <v>58927512669.7591</v>
       </c>
-      <c r="S14" s="9" t="n">
+      <c r="S14" s="13" t="n">
         <v>38744259683.8608</v>
       </c>
-      <c r="T14" s="9" t="n">
+      <c r="T14" s="13" t="n">
         <v>54288029185.1932</v>
       </c>
-      <c r="U14" s="9" t="n">
+      <c r="U14" s="13" t="n">
         <v>57345346595.0983</v>
       </c>
-      <c r="V14" s="9" t="n">
+      <c r="V14" s="13" t="n">
         <v>65209459424.3955</v>
       </c>
-      <c r="W14" s="9" t="n">
+      <c r="W14" s="13" t="n">
         <v>65393026512.0039</v>
       </c>
-      <c r="X14" s="9" t="n">
+      <c r="X14" s="13" t="n">
         <v>74836857164.8788</v>
       </c>
-      <c r="Y14" s="9" t="n">
+      <c r="Y14" s="13" t="n">
         <v>61921820331.202</v>
       </c>
-      <c r="Z14" s="9" t="n">
+      <c r="Z14" s="13" t="n">
         <v>66568290934.309</v>
       </c>
-      <c r="AA14" s="9" t="n">
+      <c r="AA14" s="13" t="n">
         <v>74623430326.5868</v>
       </c>
-      <c r="AB14" s="9" t="n">
+      <c r="AB14" s="13" t="n">
         <v>101801513512.866</v>
       </c>
-      <c r="AC14" s="9" t="n">
+      <c r="AC14" s="13" t="n">
         <v>117737129311.299</v>
       </c>
-      <c r="AD14" s="9" t="n">
+      <c r="AD14" s="13" t="n">
         <v>143634493004.297</v>
       </c>
-      <c r="AE14" s="9" t="n">
-        <v>147918301263.902</v>
-      </c>
-      <c r="AF14" s="9" t="n">
-        <v>167577457753.426</v>
-      </c>
-      <c r="AG14" s="9" t="n">
-        <v>212371924191.586</v>
-      </c>
-      <c r="AH14" s="9" t="n">
-        <v>202079301337.441</v>
-      </c>
-      <c r="AI14" s="9" t="n">
-        <v>192164818171.356</v>
-      </c>
-      <c r="AJ14" s="9" t="n">
-        <v>167499713611.798</v>
-      </c>
-      <c r="AK14" s="9" t="n">
-        <v>143050683896.33</v>
-      </c>
-      <c r="AL14" s="9" t="n">
-        <v>112890602485.371</v>
-      </c>
-      <c r="AM14" s="9" t="n">
-        <v>95286800268.0383</v>
-      </c>
-      <c r="AN14" s="9" t="n">
-        <v>91252581205.9406</v>
-      </c>
-      <c r="AO14" s="9" t="n">
-        <v>92101158805.302</v>
-      </c>
-      <c r="AP14" s="9" t="n">
-        <v>95973906146.432</v>
-      </c>
-      <c r="AQ14" s="9" t="n">
-        <v>109211201465.348</v>
-      </c>
-      <c r="AR14" s="9" t="n">
-        <v>111437532697.036</v>
-      </c>
-      <c r="AS14" s="9" t="n">
-        <v>116294039629.613</v>
-      </c>
-      <c r="AT14" s="9" t="n">
-        <v>122853379977.257</v>
-      </c>
-      <c r="AU14" s="9" t="n">
-        <v>117691169400.022</v>
-      </c>
-      <c r="AV14" s="9" t="n">
-        <v>111974432319.734</v>
-      </c>
-      <c r="AW14" s="9" t="n">
-        <v>101431908825.618</v>
-      </c>
-      <c r="AX14" s="9" t="n">
-        <v>35809784232.2494</v>
-      </c>
-      <c r="AY14" s="9"/>
+      <c r="AE14" s="13" t="n">
+        <v>147918301264.099</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>167577457752.483</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>212371924193.221</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>202079301336.317</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>192164818171.102</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>167499713613.178</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>143050683855.096</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>112890602485.937</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>95286800268.1171</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>91252581206.2471</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>92101158805.6245</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>95973906149.5869</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>109211201464.08</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>111437532698.225</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>116294039623.86</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>122853379974.641</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>117699408871.769</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>112002715187.04</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>101452705117.945</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>35805684361.752</v>
+      </c>
+      <c r="AY14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -29231,16 +31550,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="13" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="13" t="str">
         <f>AV15</f>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="13" t="str">
         <f>AW15</f>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="2" t="str">
         <f>AW15/AV15-1</f>
       </c>
@@ -29258,115 +31577,115 @@
       <c r="N15" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="13" t="n">
         <v>19048436097.7759</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="P15" s="13" t="n">
         <v>23390207516.2443</v>
       </c>
-      <c r="Q15" s="9" t="n">
+      <c r="Q15" s="13" t="n">
         <v>13456662968.0846</v>
       </c>
-      <c r="R15" s="9" t="n">
+      <c r="R15" s="13" t="n">
         <v>15097354163.682</v>
       </c>
-      <c r="S15" s="9" t="n">
+      <c r="S15" s="13" t="n">
         <v>12466824769.8878</v>
       </c>
-      <c r="T15" s="9" t="n">
+      <c r="T15" s="13" t="n">
         <v>12120946224.6207</v>
       </c>
-      <c r="U15" s="9" t="n">
+      <c r="U15" s="13" t="n">
         <v>13057101221.7223</v>
       </c>
-      <c r="V15" s="9" t="n">
+      <c r="V15" s="13" t="n">
         <v>14177564826.994</v>
       </c>
-      <c r="W15" s="9" t="n">
+      <c r="W15" s="13" t="n">
         <v>13620893326.7814</v>
       </c>
-      <c r="X15" s="9" t="n">
+      <c r="X15" s="13" t="n">
         <v>15462053166.7381</v>
       </c>
-      <c r="Y15" s="9" t="n">
+      <c r="Y15" s="13" t="n">
         <v>16106673604.9216</v>
       </c>
-      <c r="Z15" s="9" t="n">
+      <c r="Z15" s="13" t="n">
         <v>18755269308.6936</v>
       </c>
-      <c r="AA15" s="9" t="n">
+      <c r="AA15" s="13" t="n">
         <v>23579024446.386</v>
       </c>
-      <c r="AB15" s="9" t="n">
+      <c r="AB15" s="13" t="n">
         <v>28030583667.8983</v>
       </c>
-      <c r="AC15" s="9" t="n">
+      <c r="AC15" s="13" t="n">
         <v>30366180845.8855</v>
       </c>
-      <c r="AD15" s="9" t="n">
+      <c r="AD15" s="13" t="n">
         <v>41928881023.4268</v>
       </c>
-      <c r="AE15" s="9" t="n">
-        <v>47423867502.7994</v>
-      </c>
-      <c r="AF15" s="9" t="n">
+      <c r="AE15" s="13" t="n">
+        <v>47423867502.7921</v>
+      </c>
+      <c r="AF15" s="13" t="n">
         <v>43379681291.1272</v>
       </c>
-      <c r="AG15" s="9" t="n">
-        <v>49541996761.274</v>
-      </c>
-      <c r="AH15" s="9" t="n">
-        <v>52207639953.4419</v>
-      </c>
-      <c r="AI15" s="9" t="n">
-        <v>47969979946.8434</v>
-      </c>
-      <c r="AJ15" s="9" t="n">
-        <v>48208285956.4644</v>
-      </c>
-      <c r="AK15" s="9" t="n">
-        <v>56553027136.9759</v>
-      </c>
-      <c r="AL15" s="9" t="n">
-        <v>43874011239.3529</v>
-      </c>
-      <c r="AM15" s="9" t="n">
-        <v>40892007131.3915</v>
-      </c>
-      <c r="AN15" s="9" t="n">
-        <v>38667515012.5729</v>
-      </c>
-      <c r="AO15" s="9" t="n">
-        <v>37523339990.6676</v>
-      </c>
-      <c r="AP15" s="9" t="n">
-        <v>43470143999.8422</v>
-      </c>
-      <c r="AQ15" s="9" t="n">
-        <v>54275834778.5794</v>
-      </c>
-      <c r="AR15" s="9" t="n">
-        <v>51869054880.3489</v>
-      </c>
-      <c r="AS15" s="9" t="n">
-        <v>48753819752.0232</v>
-      </c>
-      <c r="AT15" s="9" t="n">
-        <v>43758949474.8382</v>
-      </c>
-      <c r="AU15" s="9" t="n">
-        <v>50512655583.1077</v>
-      </c>
-      <c r="AV15" s="9" t="n">
-        <v>50530369524.0174</v>
-      </c>
-      <c r="AW15" s="9" t="n">
-        <v>51702014907.5531</v>
-      </c>
-      <c r="AX15" s="9" t="n">
-        <v>22462333459.6788</v>
-      </c>
-      <c r="AY15" s="9"/>
+      <c r="AG15" s="13" t="n">
+        <v>49541996761.2603</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>52207639953.4397</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>47969979946.7447</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>48208285956.5213</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>56553027136.8564</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>43874011239.3576</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>40891890439.7223</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>38667626540.4941</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>37523339850.4259</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>43470323146.6994</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>54275819496.6165</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>51869055045.2079</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>48753805755.575</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>43758985990.2028</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>50515333511.9261</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>50533052995.1319</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>51681671287.7786</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>22460784780.0242</v>
+      </c>
+      <c r="AY15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -29375,16 +31694,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="9" t="str">
+      <c r="C16" s="13" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="13" t="str">
         <f>AV16</f>
       </c>
-      <c r="E16" s="9" t="str">
+      <c r="E16" s="13" t="str">
         <f>AW16</f>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="2" t="str">
         <f>AW16/AV16-1</f>
       </c>
@@ -29402,101 +31721,101 @@
       <c r="N16" t="s">
         <v>85</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9" t="n">
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13" t="n">
         <v>178150798.177978</v>
       </c>
-      <c r="W16" s="9" t="n">
+      <c r="W16" s="13" t="n">
         <v>1131314695.13461</v>
       </c>
-      <c r="X16" s="9" t="n">
+      <c r="X16" s="13" t="n">
         <v>1193450635.76726</v>
       </c>
-      <c r="Y16" s="9" t="n">
+      <c r="Y16" s="13" t="n">
         <v>299301746.655263</v>
       </c>
-      <c r="Z16" s="9" t="n">
+      <c r="Z16" s="13" t="n">
         <v>440935389.072888</v>
       </c>
-      <c r="AA16" s="9" t="n">
+      <c r="AA16" s="13" t="n">
         <v>10592040.0819318</v>
       </c>
-      <c r="AB16" s="9" t="n">
+      <c r="AB16" s="13" t="n">
         <v>380412694.426977</v>
       </c>
-      <c r="AC16" s="9" t="n">
+      <c r="AC16" s="13" t="n">
         <v>303635806.883335</v>
       </c>
-      <c r="AD16" s="9" t="n">
+      <c r="AD16" s="13" t="n">
         <v>447347219.57915</v>
       </c>
-      <c r="AE16" s="9" t="n">
+      <c r="AE16" s="13" t="n">
         <v>922628913.542959</v>
       </c>
-      <c r="AF16" s="9" t="n">
+      <c r="AF16" s="13" t="n">
         <v>1509045111.94499</v>
       </c>
-      <c r="AG16" s="9" t="n">
+      <c r="AG16" s="13" t="n">
         <v>3780102052.58756</v>
       </c>
-      <c r="AH16" s="9" t="n">
+      <c r="AH16" s="13" t="n">
         <v>5054508158.29863</v>
       </c>
-      <c r="AI16" s="9" t="n">
+      <c r="AI16" s="13" t="n">
         <v>2552003495.49745</v>
       </c>
-      <c r="AJ16" s="9" t="n">
+      <c r="AJ16" s="13" t="n">
         <v>6508694295.00063</v>
       </c>
-      <c r="AK16" s="9" t="n">
+      <c r="AK16" s="13" t="n">
         <v>6149107315.19809</v>
       </c>
-      <c r="AL16" s="9" t="n">
+      <c r="AL16" s="13" t="n">
         <v>15680466024.2433</v>
       </c>
-      <c r="AM16" s="9" t="n">
+      <c r="AM16" s="13" t="n">
         <v>4799290287.59893</v>
       </c>
-      <c r="AN16" s="9" t="n">
+      <c r="AN16" s="13" t="n">
         <v>14054895794.937</v>
       </c>
-      <c r="AO16" s="9" t="n">
+      <c r="AO16" s="13" t="n">
         <v>12914255476.8041</v>
       </c>
-      <c r="AP16" s="9" t="n">
+      <c r="AP16" s="13" t="n">
         <v>29497424077.2514</v>
       </c>
-      <c r="AQ16" s="9" t="n">
-        <v>19099160174.4736</v>
-      </c>
-      <c r="AR16" s="9" t="n">
+      <c r="AQ16" s="13" t="n">
+        <v>19099160173.2704</v>
+      </c>
+      <c r="AR16" s="13" t="n">
         <v>19961118824.2935</v>
       </c>
-      <c r="AS16" s="9" t="n">
-        <v>41618770545.9695</v>
-      </c>
-      <c r="AT16" s="9" t="n">
+      <c r="AS16" s="13" t="n">
+        <v>41618770547.0575</v>
+      </c>
+      <c r="AT16" s="13" t="n">
         <v>11017552816.3117</v>
       </c>
-      <c r="AU16" s="9" t="n">
-        <v>21686621379.1785</v>
-      </c>
-      <c r="AV16" s="9" t="n">
-        <v>36167249992.413</v>
-      </c>
-      <c r="AW16" s="9" t="n">
-        <v>11769652916.0303</v>
-      </c>
-      <c r="AX16" s="9" t="n">
-        <v>13134960050.4576</v>
-      </c>
-      <c r="AY16" s="9"/>
+      <c r="AU16" s="13" t="n">
+        <v>21686621380.287</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>36167250027.113</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>12191698437.8297</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>13133265424.8335</v>
+      </c>
+      <c r="AY16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -29505,16 +31824,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="9" t="str">
+      <c r="C17" s="13" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="13" t="str">
         <f>AV17</f>
       </c>
-      <c r="E17" s="9" t="str">
+      <c r="E17" s="13" t="str">
         <f>AW17</f>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="2" t="str">
         <f>AW17/AV17-1</f>
       </c>
@@ -29532,113 +31851,113 @@
       <c r="N17" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="13" t="n">
         <v>154771605.644373</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="P17" s="13" t="n">
         <v>135988336.330315</v>
       </c>
-      <c r="Q17" s="9" t="n">
+      <c r="Q17" s="13" t="n">
         <v>3235848.54821463</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9" t="n">
+      <c r="R17" s="13"/>
+      <c r="S17" s="13" t="n">
         <v>640337269.816692</v>
       </c>
-      <c r="T17" s="9" t="n">
+      <c r="T17" s="13" t="n">
         <v>458937730.551573</v>
       </c>
-      <c r="U17" s="9" t="n">
+      <c r="U17" s="13" t="n">
         <v>555878795.769603</v>
       </c>
-      <c r="V17" s="9" t="n">
+      <c r="V17" s="13" t="n">
         <v>758636333.318371</v>
       </c>
-      <c r="W17" s="9" t="n">
+      <c r="W17" s="13" t="n">
         <v>1298516959.129</v>
       </c>
-      <c r="X17" s="9" t="n">
+      <c r="X17" s="13" t="n">
         <v>1622752292.1753</v>
       </c>
-      <c r="Y17" s="9" t="n">
+      <c r="Y17" s="13" t="n">
         <v>2309730357.72614</v>
       </c>
-      <c r="Z17" s="9" t="n">
+      <c r="Z17" s="13" t="n">
         <v>2746059464.84853</v>
       </c>
-      <c r="AA17" s="9" t="n">
+      <c r="AA17" s="13" t="n">
         <v>4017232360.15943</v>
       </c>
-      <c r="AB17" s="9" t="n">
+      <c r="AB17" s="13" t="n">
         <v>4235737157.19836</v>
       </c>
-      <c r="AC17" s="9" t="n">
+      <c r="AC17" s="13" t="n">
         <v>5235874303.33651</v>
       </c>
-      <c r="AD17" s="9" t="n">
+      <c r="AD17" s="13" t="n">
         <v>5770419174.97836</v>
       </c>
-      <c r="AE17" s="9" t="n">
+      <c r="AE17" s="13" t="n">
         <v>5080979561.31918</v>
       </c>
-      <c r="AF17" s="9" t="n">
+      <c r="AF17" s="13" t="n">
         <v>6978504361.64336</v>
       </c>
-      <c r="AG17" s="9" t="n">
+      <c r="AG17" s="13" t="n">
         <v>7989493110.92442</v>
       </c>
-      <c r="AH17" s="9" t="n">
+      <c r="AH17" s="13" t="n">
         <v>7789390562.16214</v>
       </c>
-      <c r="AI17" s="9" t="n">
+      <c r="AI17" s="13" t="n">
         <v>7291738427.81566</v>
       </c>
-      <c r="AJ17" s="9" t="n">
+      <c r="AJ17" s="13" t="n">
         <v>7181882676.80957</v>
       </c>
-      <c r="AK17" s="9" t="n">
+      <c r="AK17" s="13" t="n">
         <v>9013052255.60019</v>
       </c>
-      <c r="AL17" s="9" t="n">
+      <c r="AL17" s="13" t="n">
         <v>9919760928.92085</v>
       </c>
-      <c r="AM17" s="9" t="n">
+      <c r="AM17" s="13" t="n">
         <v>7649409204.00139</v>
       </c>
-      <c r="AN17" s="9" t="n">
+      <c r="AN17" s="13" t="n">
         <v>5869241836.73204</v>
       </c>
-      <c r="AO17" s="9" t="n">
+      <c r="AO17" s="13" t="n">
         <v>8179262999.95439</v>
       </c>
-      <c r="AP17" s="9" t="n">
-        <v>6606776202.11988</v>
-      </c>
-      <c r="AQ17" s="9" t="n">
+      <c r="AP17" s="13" t="n">
+        <v>6606776202.11377</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
         <v>9903769615.28941</v>
       </c>
-      <c r="AR17" s="9" t="n">
+      <c r="AR17" s="13" t="n">
         <v>10340489354.0911</v>
       </c>
-      <c r="AS17" s="9" t="n">
+      <c r="AS17" s="13" t="n">
         <v>14268108779.8567</v>
       </c>
-      <c r="AT17" s="9" t="n">
-        <v>9865536847.95767</v>
-      </c>
-      <c r="AU17" s="9" t="n">
-        <v>10291424693.2484</v>
-      </c>
-      <c r="AV17" s="9" t="n">
-        <v>7078755082.6783</v>
-      </c>
-      <c r="AW17" s="9" t="n">
+      <c r="AT17" s="13" t="n">
+        <v>9865536847.97993</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>10291997036.8147</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>7078919042.8608</v>
+      </c>
+      <c r="AW17" s="13" t="n">
         <v>8239294051.45341</v>
       </c>
-      <c r="AX17" s="9" t="n">
-        <v>3886278623.51123</v>
-      </c>
-      <c r="AY17" s="9"/>
+      <c r="AX17" s="13" t="n">
+        <v>3888970043.81042</v>
+      </c>
+      <c r="AY17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -29647,16 +31966,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="13" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="13" t="str">
         <f>AV18</f>
       </c>
-      <c r="E18" s="9" t="str">
+      <c r="E18" s="13" t="str">
         <f>AW18</f>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="2" t="str">
         <f>AW18/AV18-1</f>
       </c>
@@ -29674,115 +31993,115 @@
       <c r="N18" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="O18" s="13" t="n">
         <v>91866823970.4561</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="P18" s="13" t="n">
         <v>84360833400.5853</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="Q18" s="13" t="n">
         <v>80302959764.6254</v>
       </c>
-      <c r="R18" s="9" t="n">
+      <c r="R18" s="13" t="n">
         <v>72799346265.9452</v>
       </c>
-      <c r="S18" s="9" t="n">
+      <c r="S18" s="13" t="n">
         <v>76846086802.8836</v>
       </c>
-      <c r="T18" s="9" t="n">
+      <c r="T18" s="13" t="n">
         <v>71908602639.3719</v>
       </c>
-      <c r="U18" s="9" t="n">
+      <c r="U18" s="13" t="n">
         <v>66131697566.6873</v>
       </c>
-      <c r="V18" s="9" t="n">
-        <v>79950510330.972</v>
-      </c>
-      <c r="W18" s="9" t="n">
+      <c r="V18" s="13" t="n">
+        <v>79950791800.9245</v>
+      </c>
+      <c r="W18" s="13" t="n">
         <v>83661512607.681</v>
       </c>
-      <c r="X18" s="9" t="n">
+      <c r="X18" s="13" t="n">
         <v>84817549965.0203</v>
       </c>
-      <c r="Y18" s="9" t="n">
+      <c r="Y18" s="13" t="n">
         <v>67747914436.6723</v>
       </c>
-      <c r="Z18" s="9" t="n">
+      <c r="Z18" s="13" t="n">
         <v>68840801523.6037</v>
       </c>
-      <c r="AA18" s="9" t="n">
+      <c r="AA18" s="13" t="n">
         <v>77223734544.194</v>
       </c>
-      <c r="AB18" s="9" t="n">
-        <v>89772108226.4522</v>
-      </c>
-      <c r="AC18" s="9" t="n">
+      <c r="AB18" s="13" t="n">
+        <v>89772108228.0377</v>
+      </c>
+      <c r="AC18" s="13" t="n">
         <v>93830238184.7763</v>
       </c>
-      <c r="AD18" s="9" t="n">
-        <v>98062404099.8699</v>
-      </c>
-      <c r="AE18" s="9" t="n">
+      <c r="AD18" s="13" t="n">
+        <v>98062404099.2841</v>
+      </c>
+      <c r="AE18" s="13" t="n">
         <v>108083650107.89</v>
       </c>
-      <c r="AF18" s="9" t="n">
-        <v>119927139251.56</v>
-      </c>
-      <c r="AG18" s="9" t="n">
-        <v>129965000918.381</v>
-      </c>
-      <c r="AH18" s="9" t="n">
-        <v>126410884279.071</v>
-      </c>
-      <c r="AI18" s="9" t="n">
-        <v>117354161314.557</v>
-      </c>
-      <c r="AJ18" s="9" t="n">
-        <v>132374252283.335</v>
-      </c>
-      <c r="AK18" s="9" t="n">
-        <v>117851112801.12</v>
-      </c>
-      <c r="AL18" s="9" t="n">
-        <v>105809391921.021</v>
-      </c>
-      <c r="AM18" s="9" t="n">
-        <v>101554907921.352</v>
-      </c>
-      <c r="AN18" s="9" t="n">
-        <v>91973465106.2565</v>
-      </c>
-      <c r="AO18" s="9" t="n">
-        <v>102788679081.696</v>
-      </c>
-      <c r="AP18" s="9" t="n">
-        <v>104306987193.968</v>
-      </c>
-      <c r="AQ18" s="9" t="n">
-        <v>110234411093.704</v>
-      </c>
-      <c r="AR18" s="9" t="n">
-        <v>122883069457.594</v>
-      </c>
-      <c r="AS18" s="9" t="n">
-        <v>132383419393.473</v>
-      </c>
-      <c r="AT18" s="9" t="n">
-        <v>114056765825.987</v>
-      </c>
-      <c r="AU18" s="9" t="n">
-        <v>107978883037.909</v>
-      </c>
-      <c r="AV18" s="9" t="n">
-        <v>115659529630.54</v>
-      </c>
-      <c r="AW18" s="9" t="n">
-        <v>118853511861.346</v>
-      </c>
-      <c r="AX18" s="9" t="n">
-        <v>51948055277.0969</v>
-      </c>
-      <c r="AY18" s="9"/>
+      <c r="AF18" s="13" t="n">
+        <v>119927139251.564</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>129965000918.25</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>126410884279.03</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>117354161335.06</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>132374252282.258</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>117851112781.925</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>105809391921.024</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>101549975979.549</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>91972927362.0514</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>102788685297.187</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>104306987273.773</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>110234410881.873</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>122883085723.284</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>132383419444.307</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>114061314521.866</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>107977770760.929</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>115660194539.842</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>118855733432.375</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>51955915499.4481</v>
+      </c>
+      <c r="AY18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -29791,16 +32110,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="13" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="13" t="str">
         <f>AV19</f>
       </c>
-      <c r="E19" s="9" t="str">
+      <c r="E19" s="13" t="str">
         <f>AW19</f>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="2" t="str">
         <f>AW19/AV19-1</f>
       </c>
@@ -29818,115 +32137,115 @@
       <c r="N19" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="13" t="n">
         <v>6899554826.71874</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="P19" s="13" t="n">
         <v>8018167850.03211</v>
       </c>
-      <c r="Q19" s="9" t="n">
+      <c r="Q19" s="13" t="n">
         <v>11977671390.4198</v>
       </c>
-      <c r="R19" s="9" t="n">
+      <c r="R19" s="13" t="n">
         <v>11353077801.4658</v>
       </c>
-      <c r="S19" s="9" t="n">
+      <c r="S19" s="13" t="n">
         <v>10847769179.7835</v>
       </c>
-      <c r="T19" s="9" t="n">
+      <c r="T19" s="13" t="n">
         <v>8245463576.81375</v>
       </c>
-      <c r="U19" s="9" t="n">
+      <c r="U19" s="13" t="n">
         <v>8492504760.55991</v>
       </c>
-      <c r="V19" s="9" t="n">
+      <c r="V19" s="13" t="n">
         <v>9929749335.9662</v>
       </c>
-      <c r="W19" s="9" t="n">
+      <c r="W19" s="13" t="n">
         <v>12168796657.5504</v>
       </c>
-      <c r="X19" s="9" t="n">
+      <c r="X19" s="13" t="n">
         <v>13191371494.3763</v>
       </c>
-      <c r="Y19" s="9" t="n">
+      <c r="Y19" s="13" t="n">
         <v>10013116086.1918</v>
       </c>
-      <c r="Z19" s="9" t="n">
+      <c r="Z19" s="13" t="n">
         <v>12303278925.2026</v>
       </c>
-      <c r="AA19" s="9" t="n">
+      <c r="AA19" s="13" t="n">
         <v>18334673220.7598</v>
       </c>
-      <c r="AB19" s="9" t="n">
+      <c r="AB19" s="13" t="n">
         <v>23084287969.3296</v>
       </c>
-      <c r="AC19" s="9" t="n">
+      <c r="AC19" s="13" t="n">
         <v>22945079169.0775</v>
       </c>
-      <c r="AD19" s="9" t="n">
+      <c r="AD19" s="13" t="n">
         <v>25709596605.7455</v>
       </c>
-      <c r="AE19" s="9" t="n">
+      <c r="AE19" s="13" t="n">
         <v>28072233674.5929</v>
       </c>
-      <c r="AF19" s="9" t="n">
-        <v>26273896855.941</v>
-      </c>
-      <c r="AG19" s="9" t="n">
-        <v>32334176058.2044</v>
-      </c>
-      <c r="AH19" s="9" t="n">
-        <v>37215003325.3132</v>
-      </c>
-      <c r="AI19" s="9" t="n">
-        <v>38008239361.3626</v>
-      </c>
-      <c r="AJ19" s="9" t="n">
-        <v>42726526484.5614</v>
-      </c>
-      <c r="AK19" s="9" t="n">
-        <v>42603736755.0212</v>
-      </c>
-      <c r="AL19" s="9" t="n">
-        <v>37543122715.6569</v>
-      </c>
-      <c r="AM19" s="9" t="n">
-        <v>37543212314.9392</v>
-      </c>
-      <c r="AN19" s="9" t="n">
-        <v>35167755134.2345</v>
-      </c>
-      <c r="AO19" s="9" t="n">
-        <v>36093799419.0847</v>
-      </c>
-      <c r="AP19" s="9" t="n">
-        <v>38084945024.3323</v>
-      </c>
-      <c r="AQ19" s="9" t="n">
-        <v>40597253892.7846</v>
-      </c>
-      <c r="AR19" s="9" t="n">
-        <v>44400155892.5478</v>
-      </c>
-      <c r="AS19" s="9" t="n">
-        <v>45492921510.7929</v>
-      </c>
-      <c r="AT19" s="9" t="n">
-        <v>42839765096.9064</v>
-      </c>
-      <c r="AU19" s="9" t="n">
-        <v>42730530109.2799</v>
-      </c>
-      <c r="AV19" s="9" t="n">
-        <v>42925923203.4104</v>
-      </c>
-      <c r="AW19" s="9" t="n">
-        <v>44021556955.7387</v>
-      </c>
-      <c r="AX19" s="9" t="n">
-        <v>20225901559.2885</v>
-      </c>
-      <c r="AY19" s="9"/>
+      <c r="AF19" s="13" t="n">
+        <v>26273703675.7027</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>32334176058.3776</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>37209144108.4238</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>38008141636.9465</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>42726526484.3472</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>42603590831.271</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>37543059069.4566</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>37543183967.3971</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>35165349327.0372</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>36092421101.2934</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>38082503624.6798</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>40597140759.3447</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>44400099641.4806</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>45492902713.6868</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>42839744083.8267</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>42730397930.2691</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>42926421135.422</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>44024044730.5446</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>20307211069.5977</v>
+      </c>
+      <c r="AY19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -29935,16 +32254,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="13" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="13" t="str">
         <f>AV20</f>
       </c>
-      <c r="E20" s="9" t="str">
+      <c r="E20" s="13" t="str">
         <f>AW20</f>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="2" t="str">
         <f>AW20/AV20-1</f>
       </c>
@@ -29962,115 +32281,115 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="13" t="str">
         <f>Sum(O13:O19)</f>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" s="13" t="str">
         <f>Sum(P13:P19)</f>
       </c>
-      <c r="Q20" s="9" t="str">
+      <c r="Q20" s="13" t="str">
         <f>Sum(Q13:Q19)</f>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="13" t="str">
         <f>Sum(R13:R19)</f>
       </c>
-      <c r="S20" s="9" t="str">
+      <c r="S20" s="13" t="str">
         <f>Sum(S13:S19)</f>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="T20" s="13" t="str">
         <f>Sum(T13:T19)</f>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="U20" s="13" t="str">
         <f>Sum(U13:U19)</f>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="V20" s="13" t="str">
         <f>Sum(V13:V19)</f>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="W20" s="13" t="str">
         <f>Sum(W13:W19)</f>
       </c>
-      <c r="X20" s="9" t="str">
+      <c r="X20" s="13" t="str">
         <f>Sum(X13:X19)</f>
       </c>
-      <c r="Y20" s="9" t="str">
+      <c r="Y20" s="13" t="str">
         <f>Sum(Y13:Y19)</f>
       </c>
-      <c r="Z20" s="9" t="str">
+      <c r="Z20" s="13" t="str">
         <f>Sum(Z13:Z19)</f>
       </c>
-      <c r="AA20" s="9" t="str">
+      <c r="AA20" s="13" t="str">
         <f>Sum(AA13:AA19)</f>
       </c>
-      <c r="AB20" s="9" t="str">
+      <c r="AB20" s="13" t="str">
         <f>Sum(AB13:AB19)</f>
       </c>
-      <c r="AC20" s="9" t="str">
+      <c r="AC20" s="13" t="str">
         <f>Sum(AC13:AC19)</f>
       </c>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="13" t="str">
         <f>Sum(AD13:AD19)</f>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AE20" s="13" t="str">
         <f>Sum(AE13:AE19)</f>
       </c>
-      <c r="AF20" s="9" t="str">
+      <c r="AF20" s="13" t="str">
         <f>Sum(AF13:AF19)</f>
       </c>
-      <c r="AG20" s="9" t="str">
+      <c r="AG20" s="13" t="str">
         <f>Sum(AG13:AG19)</f>
       </c>
-      <c r="AH20" s="9" t="str">
+      <c r="AH20" s="13" t="str">
         <f>Sum(AH13:AH19)</f>
       </c>
-      <c r="AI20" s="9" t="str">
+      <c r="AI20" s="13" t="str">
         <f>Sum(AI13:AI19)</f>
       </c>
-      <c r="AJ20" s="9" t="str">
+      <c r="AJ20" s="13" t="str">
         <f>Sum(AJ13:AJ19)</f>
       </c>
-      <c r="AK20" s="9" t="str">
+      <c r="AK20" s="13" t="str">
         <f>Sum(AK13:AK19)</f>
       </c>
-      <c r="AL20" s="9" t="str">
+      <c r="AL20" s="13" t="str">
         <f>Sum(AL13:AL19)</f>
       </c>
-      <c r="AM20" s="9" t="str">
+      <c r="AM20" s="13" t="str">
         <f>Sum(AM13:AM19)</f>
       </c>
-      <c r="AN20" s="9" t="str">
+      <c r="AN20" s="13" t="str">
         <f>Sum(AN13:AN19)</f>
       </c>
-      <c r="AO20" s="9" t="str">
+      <c r="AO20" s="13" t="str">
         <f>Sum(AO13:AO19)</f>
       </c>
-      <c r="AP20" s="9" t="str">
+      <c r="AP20" s="13" t="str">
         <f>Sum(AP13:AP19)</f>
       </c>
-      <c r="AQ20" s="9" t="str">
+      <c r="AQ20" s="13" t="str">
         <f>Sum(AQ13:AQ19)</f>
       </c>
-      <c r="AR20" s="9" t="str">
+      <c r="AR20" s="13" t="str">
         <f>Sum(AR13:AR19)</f>
       </c>
-      <c r="AS20" s="9" t="str">
+      <c r="AS20" s="13" t="str">
         <f>Sum(AS13:AS19)</f>
       </c>
-      <c r="AT20" s="9" t="str">
+      <c r="AT20" s="13" t="str">
         <f>Sum(AT13:AT19)</f>
       </c>
-      <c r="AU20" s="9" t="str">
+      <c r="AU20" s="13" t="str">
         <f>Sum(AU13:AU19)</f>
       </c>
-      <c r="AV20" s="9" t="str">
+      <c r="AV20" s="13" t="str">
         <f>Sum(AV13:AV19)</f>
       </c>
-      <c r="AW20" s="9" t="str">
+      <c r="AW20" s="13" t="str">
         <f>Sum(AW13:AW19)</f>
       </c>
-      <c r="AX20" s="9" t="str">
+      <c r="AX20" s="13" t="str">
         <f>Sum(AX13:AX19)</f>
       </c>
-      <c r="AY20" s="9"/>
+      <c r="AY20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30219,19 +32538,19 @@
         <v>18969812886.1547</v>
       </c>
       <c r="W2" s="10" t="n">
-        <v>27068248111.3078</v>
+        <v>27067059852.2499</v>
       </c>
       <c r="X2" s="10" t="n">
-        <v>33810739807.283</v>
+        <v>33810739807.464</v>
       </c>
       <c r="Y2" s="10" t="n">
-        <v>562784451.1999</v>
+        <v>562755522.7399</v>
       </c>
       <c r="Z2" s="10" t="n">
-        <v>236360613.8194</v>
+        <v>236360613.8196</v>
       </c>
       <c r="AA2" s="10" t="n">
-        <v>-3047316.6803</v>
+        <v>-3098707.2809</v>
       </c>
       <c r="AB2" s="10" t="n">
         <v>-29000677.0889</v>
@@ -30295,73 +32614,73 @@
         <v>84172927043.2771</v>
       </c>
       <c r="R3" s="10" t="n">
-        <v>109191257120.053</v>
+        <v>109191257121.053</v>
       </c>
       <c r="S3" s="10" t="n">
         <v>109917888362.608</v>
       </c>
       <c r="T3" s="10" t="n">
-        <v>128056315356.922</v>
+        <v>128056315356.532</v>
       </c>
       <c r="U3" s="10" t="n">
-        <v>145648256648.068</v>
+        <v>145648256648.198</v>
       </c>
       <c r="V3" s="10" t="n">
-        <v>166848058226.235</v>
+        <v>166848058226.033</v>
       </c>
       <c r="W3" s="10" t="n">
-        <v>193682868034.757</v>
+        <v>193684056293.58</v>
       </c>
       <c r="X3" s="10" t="n">
-        <v>188836443117.492</v>
+        <v>188836443117.397</v>
       </c>
       <c r="Y3" s="10" t="n">
-        <v>190320219216.651</v>
+        <v>190320219217.446</v>
       </c>
       <c r="Z3" s="10" t="n">
-        <v>185296473793.877</v>
+        <v>185296473795.482</v>
       </c>
       <c r="AA3" s="10" t="n">
-        <v>172059749493.197</v>
+        <v>172059689512.301</v>
       </c>
       <c r="AB3" s="10" t="n">
-        <v>146555746561.524</v>
+        <v>147082159954.008</v>
       </c>
       <c r="AC3" s="10" t="n">
-        <v>145138517154.312</v>
+        <v>145158362806.064</v>
       </c>
       <c r="AD3" s="10" t="n">
-        <v>141026762312.31</v>
+        <v>141026775293.836</v>
       </c>
       <c r="AE3" s="10" t="n">
-        <v>150949746376.045</v>
+        <v>151033551960.284</v>
       </c>
       <c r="AF3" s="10" t="n">
-        <v>156814365075.106</v>
+        <v>156837575662.513</v>
       </c>
       <c r="AG3" s="10" t="n">
-        <v>179967634000.997</v>
+        <v>179959118012.43</v>
       </c>
       <c r="AH3" s="10" t="n">
-        <v>193493963603.113</v>
+        <v>194408303039.076</v>
       </c>
       <c r="AI3" s="10" t="n">
-        <v>214197174064.981</v>
+        <v>214195288774.101</v>
       </c>
       <c r="AJ3" s="10" t="n">
-        <v>211965572372.688</v>
+        <v>211967396615.629</v>
       </c>
       <c r="AK3" s="10" t="n">
-        <v>221225513145.585</v>
+        <v>221239289151.061</v>
       </c>
       <c r="AL3" s="10" t="n">
-        <v>229598736170.408</v>
+        <v>229620345220.999</v>
       </c>
       <c r="AM3" s="10" t="n">
-        <v>223315753675.264</v>
+        <v>223438670719.693</v>
       </c>
       <c r="AN3" s="10" t="n">
-        <v>92192297029.75</v>
+        <v>92263804875.83</v>
       </c>
       <c r="AO3" s="10"/>
     </row>
@@ -30406,55 +32725,55 @@
         <v>22778606116.9706</v>
       </c>
       <c r="X4" s="10" t="n">
-        <v>23367631022.5721</v>
+        <v>23364130340.8021</v>
       </c>
       <c r="Y4" s="10" t="n">
-        <v>32499771660.3511</v>
+        <v>32499771671.836</v>
       </c>
       <c r="Z4" s="10" t="n">
-        <v>50206965242.1954</v>
+        <v>50206965238.8835</v>
       </c>
       <c r="AA4" s="10" t="n">
-        <v>41831109502.0196</v>
+        <v>41831109489.074</v>
       </c>
       <c r="AB4" s="10" t="n">
-        <v>44838078690.2509</v>
+        <v>44838078691.3659</v>
       </c>
       <c r="AC4" s="10" t="n">
-        <v>41026980218.0447</v>
+        <v>41023078963.3686</v>
       </c>
       <c r="AD4" s="10" t="n">
-        <v>41284891994.3465</v>
+        <v>41284508341.3415</v>
       </c>
       <c r="AE4" s="10" t="n">
-        <v>41212668317.811</v>
+        <v>41212668320.6087</v>
       </c>
       <c r="AF4" s="10" t="n">
-        <v>39159231831.4332</v>
+        <v>39159231887.2116</v>
       </c>
       <c r="AG4" s="10" t="n">
-        <v>51100371458.7331</v>
+        <v>51094613957.6616</v>
       </c>
       <c r="AH4" s="10" t="n">
-        <v>62318560844.9668</v>
+        <v>60806420846.779</v>
       </c>
       <c r="AI4" s="10" t="n">
-        <v>60052044882.1014</v>
+        <v>60072398603.4895</v>
       </c>
       <c r="AJ4" s="10" t="n">
-        <v>53449378898.0976</v>
+        <v>53449759515.1976</v>
       </c>
       <c r="AK4" s="10" t="n">
-        <v>55569298721.8894</v>
+        <v>55593373088.2529</v>
       </c>
       <c r="AL4" s="10" t="n">
-        <v>78099249802.9526</v>
+        <v>77919806442.7057</v>
       </c>
       <c r="AM4" s="10" t="n">
-        <v>57576927305.13</v>
+        <v>56946758519.94</v>
       </c>
       <c r="AN4" s="10" t="n">
-        <v>26591368796.92</v>
+        <v>26510868625.35</v>
       </c>
       <c r="AO4" s="10"/>
     </row>
@@ -30493,61 +32812,61 @@
         <v>68417078975.8138</v>
       </c>
       <c r="V5" s="10" t="n">
-        <v>67883864687.3256</v>
+        <v>67883864687.3156</v>
       </c>
       <c r="W5" s="10" t="n">
-        <v>68191630703.8061</v>
+        <v>68191630703.7562</v>
       </c>
       <c r="X5" s="10" t="n">
-        <v>73096520087.5538</v>
+        <v>73096520087.5024</v>
       </c>
       <c r="Y5" s="10" t="n">
-        <v>78965902425.9289</v>
+        <v>78965902425.9485</v>
       </c>
       <c r="Z5" s="10" t="n">
-        <v>83296976874.4863</v>
+        <v>83296976873.8411</v>
       </c>
       <c r="AA5" s="10" t="n">
-        <v>79816344145.2434</v>
+        <v>79816344142.0822</v>
       </c>
       <c r="AB5" s="10" t="n">
-        <v>75490490163.3091</v>
+        <v>75490440720.3392</v>
       </c>
       <c r="AC5" s="10" t="n">
-        <v>72378303350.7381</v>
+        <v>72378302933.9859</v>
       </c>
       <c r="AD5" s="10" t="n">
-        <v>70240802220.0397</v>
+        <v>70233249952.4623</v>
       </c>
       <c r="AE5" s="10" t="n">
-        <v>69260862110.1494</v>
+        <v>69261253104.6503</v>
       </c>
       <c r="AF5" s="10" t="n">
-        <v>74933266510.3498</v>
+        <v>74934460952.7941</v>
       </c>
       <c r="AG5" s="10" t="n">
-        <v>74373436789.2648</v>
+        <v>74379648593.8542</v>
       </c>
       <c r="AH5" s="10" t="n">
-        <v>81660468881.7824</v>
+        <v>82249035206.2671</v>
       </c>
       <c r="AI5" s="10" t="n">
-        <v>81344227842.3498</v>
+        <v>81325731118.9868</v>
       </c>
       <c r="AJ5" s="10" t="n">
-        <v>83105061425.7298</v>
+        <v>83106634317.603</v>
       </c>
       <c r="AK5" s="10" t="n">
-        <v>87942828454.8137</v>
+        <v>87932462103.3317</v>
       </c>
       <c r="AL5" s="10" t="n">
-        <v>93626222058.3428</v>
+        <v>93829120323.6396</v>
       </c>
       <c r="AM5" s="10" t="n">
-        <v>100392399903.2</v>
+        <v>100996518605.14</v>
       </c>
       <c r="AN5" s="10" t="n">
-        <v>47465787861.79</v>
+        <v>47631959089.62</v>
       </c>
       <c r="AO5" s="10"/>
     </row>
@@ -30595,13 +32914,13 @@
         <v>26114943518.5739</v>
       </c>
       <c r="Y6" s="10" t="n">
-        <v>18996712347.6781</v>
+        <v>18996712347.7542</v>
       </c>
       <c r="Z6" s="10" t="n">
-        <v>21554808995.1044</v>
+        <v>21554808995.1127</v>
       </c>
       <c r="AA6" s="10" t="n">
-        <v>28337105757.9386</v>
+        <v>28337105757.8865</v>
       </c>
       <c r="AB6" s="10" t="n">
         <v>18960756509.7747</v>
@@ -30613,34 +32932,34 @@
         <v>9520513433.5626</v>
       </c>
       <c r="AE6" s="10" t="n">
-        <v>7934102502.8472</v>
+        <v>7934101445.811</v>
       </c>
       <c r="AF6" s="10" t="n">
-        <v>9697599565.2086</v>
+        <v>9697599565.249</v>
       </c>
       <c r="AG6" s="10" t="n">
-        <v>10924954464.7171</v>
+        <v>10925092204.724</v>
       </c>
       <c r="AH6" s="10" t="n">
-        <v>10533360721.0038</v>
+        <v>10533360472.3646</v>
       </c>
       <c r="AI6" s="10" t="n">
-        <v>10010599380.3978</v>
+        <v>10010599380.4709</v>
       </c>
       <c r="AJ6" s="10" t="n">
-        <v>11288954329.0549</v>
+        <v>11288954329.1592</v>
       </c>
       <c r="AK6" s="10" t="n">
-        <v>18507285621.6702</v>
+        <v>18507282624.9304</v>
       </c>
       <c r="AL6" s="10" t="n">
-        <v>18571430386.5887</v>
+        <v>18574769196.1874</v>
       </c>
       <c r="AM6" s="10" t="n">
-        <v>19076725553.08</v>
+        <v>19078537124.26</v>
       </c>
       <c r="AN6" s="10" t="n">
-        <v>6769211716.38</v>
+        <v>6762118249.55</v>
       </c>
       <c r="AO6" s="10"/>
     </row>
@@ -30679,61 +32998,61 @@
         <v>14174741719.903</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>15507253755.4937</v>
+        <v>15507117308.7404</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>17350040981.4705</v>
+        <v>17350040982.9547</v>
       </c>
       <c r="X7" s="10" t="n">
-        <v>16370133914.6544</v>
+        <v>16369367019.7665</v>
       </c>
       <c r="Y7" s="10" t="n">
-        <v>16069778282.3114</v>
+        <v>16069735416.3557</v>
       </c>
       <c r="Z7" s="10" t="n">
-        <v>11384884466.4432</v>
+        <v>11384884465.8982</v>
       </c>
       <c r="AA7" s="10" t="n">
-        <v>8346936490.7167</v>
+        <v>8346936490.8459</v>
       </c>
       <c r="AB7" s="10" t="n">
-        <v>4941359843.6483</v>
+        <v>4941359843.6485</v>
       </c>
       <c r="AC7" s="10" t="n">
         <v>2993290039.9096</v>
       </c>
       <c r="AD7" s="10" t="n">
-        <v>2742318747.1662</v>
+        <v>2742170691.7362</v>
       </c>
       <c r="AE7" s="10" t="n">
-        <v>2871150853.9636</v>
+        <v>2871120677.4901</v>
       </c>
       <c r="AF7" s="10" t="n">
-        <v>3263876553.8658</v>
+        <v>3263876553.9397</v>
       </c>
       <c r="AG7" s="10" t="n">
-        <v>4602632244.587</v>
+        <v>4610726379.3604</v>
       </c>
       <c r="AH7" s="10" t="n">
-        <v>4270846359.7238</v>
+        <v>4279946314.9364</v>
       </c>
       <c r="AI7" s="10" t="n">
-        <v>4368895953.3957</v>
+        <v>4368895952.9749</v>
       </c>
       <c r="AJ7" s="10" t="n">
-        <v>3814071747.8028</v>
+        <v>3814271767.9249</v>
       </c>
       <c r="AK7" s="10" t="n">
-        <v>3783816573.1851</v>
+        <v>3783874789.7655</v>
       </c>
       <c r="AL7" s="10" t="n">
-        <v>4971193301.1066</v>
+        <v>4973962502.1594</v>
       </c>
       <c r="AM7" s="10" t="n">
-        <v>5416517046.51</v>
+        <v>5420499565.09</v>
       </c>
       <c r="AN7" s="10" t="n">
-        <v>2404409864.56</v>
+        <v>2406888275.45</v>
       </c>
       <c r="AO7" s="10"/>
     </row>
@@ -30778,55 +33097,55 @@
         <v>17381494286.5692</v>
       </c>
       <c r="X8" s="10" t="n">
-        <v>16642775320.3286</v>
+        <v>16642775320.3249</v>
       </c>
       <c r="Y8" s="10" t="n">
-        <v>24121035775.0006</v>
+        <v>24121035777.5306</v>
       </c>
       <c r="Z8" s="10" t="n">
         <v>15054628189.178</v>
       </c>
       <c r="AA8" s="10" t="n">
-        <v>23677468084.6534</v>
+        <v>23677468079.7059</v>
       </c>
       <c r="AB8" s="10" t="n">
-        <v>16801348506.8392</v>
+        <v>16419236120.949</v>
       </c>
       <c r="AC8" s="10" t="n">
-        <v>8814205991.2047</v>
+        <v>8934126890.2047</v>
       </c>
       <c r="AD8" s="10" t="n">
-        <v>9000638341.6701</v>
+        <v>9006415910.8101</v>
       </c>
       <c r="AE8" s="10" t="n">
-        <v>25497944159.5598</v>
+        <v>25497944158.4669</v>
       </c>
       <c r="AF8" s="10" t="n">
-        <v>37601443386.8689</v>
+        <v>37601443387.8127</v>
       </c>
       <c r="AG8" s="10" t="n">
-        <v>38392384157.5136</v>
+        <v>38392384156.1316</v>
       </c>
       <c r="AH8" s="10" t="n">
-        <v>31331259656.8439</v>
+        <v>31331259656.9938</v>
       </c>
       <c r="AI8" s="10" t="n">
-        <v>52561758304.5505</v>
+        <v>52561758304.7162</v>
       </c>
       <c r="AJ8" s="10" t="n">
-        <v>23346948788.9128</v>
+        <v>23346948795.3375</v>
       </c>
       <c r="AK8" s="10" t="n">
-        <v>27296670278.163</v>
+        <v>27295695223.7072</v>
       </c>
       <c r="AL8" s="10" t="n">
-        <v>32216069499.0735</v>
+        <v>32203682295.9831</v>
       </c>
       <c r="AM8" s="10" t="n">
-        <v>39060248937.3444</v>
+        <v>39408607378.3444</v>
       </c>
       <c r="AN8" s="10" t="n">
-        <v>23034251723.45</v>
+        <v>23057788415.49</v>
       </c>
       <c r="AO8" s="10"/>
     </row>
@@ -30881,19 +33200,19 @@
         <v>3724330778.1915</v>
       </c>
       <c r="AB9" s="10" t="n">
-        <v>641947338.333</v>
+        <v>497646326.6455</v>
       </c>
       <c r="AC9" s="10" t="n">
-        <v>747196910.1428</v>
+        <v>607316046.1428</v>
       </c>
       <c r="AD9" s="10" t="n">
-        <v>410240382.9526</v>
+        <v>410270416.9526</v>
       </c>
       <c r="AE9" s="10" t="n">
-        <v>625689100.7023</v>
+        <v>541217749.7023</v>
       </c>
       <c r="AF9" s="10" t="n">
-        <v>381421623.9651</v>
+        <v>380227198.9651</v>
       </c>
       <c r="AG9" s="10" t="n">
         <v>20204.71</v>
@@ -31144,19 +33463,19 @@
         <v>26857400366.1243</v>
       </c>
       <c r="W14" s="10" t="n">
-        <v>37543700097.8302</v>
+        <v>37542051980.7624</v>
       </c>
       <c r="X14" s="10" t="n">
-        <v>46420841366.6617</v>
+        <v>46420841366.9102</v>
       </c>
       <c r="Y14" s="10" t="n">
-        <v>766047033.148883</v>
+        <v>766007656.508485</v>
       </c>
       <c r="Z14" s="10" t="n">
-        <v>315397246.910773</v>
+        <v>315397246.91104</v>
       </c>
       <c r="AA14" s="10" t="n">
-        <v>-3993836.66852868</v>
+        <v>-4061189.5847585</v>
       </c>
       <c r="AB14" s="10" t="n">
         <v>-37331146.7998669</v>
@@ -31220,73 +33539,73 @@
         <v>136020508437.544</v>
       </c>
       <c r="R15" s="10" t="n">
-        <v>173126078038.995</v>
+        <v>173126078040.581</v>
       </c>
       <c r="S15" s="10" t="n">
         <v>170123958831.057</v>
       </c>
       <c r="T15" s="10" t="n">
-        <v>192344461967.113</v>
+        <v>192344461966.527</v>
       </c>
       <c r="U15" s="10" t="n">
-        <v>211885146965.919</v>
+        <v>211885146966.109</v>
       </c>
       <c r="V15" s="10" t="n">
-        <v>236222946793.692</v>
+        <v>236222946793.406</v>
       </c>
       <c r="W15" s="10" t="n">
-        <v>268638423945.391</v>
+        <v>268640072062.133</v>
       </c>
       <c r="X15" s="10" t="n">
-        <v>259265151255.682</v>
+        <v>259265151255.551</v>
       </c>
       <c r="Y15" s="10" t="n">
-        <v>259058755031.905</v>
+        <v>259058755032.988</v>
       </c>
       <c r="Z15" s="10" t="n">
-        <v>247257767495.551</v>
+        <v>247257767497.693</v>
       </c>
       <c r="AA15" s="10" t="n">
-        <v>225502830456.118</v>
+        <v>225502751844.694</v>
       </c>
       <c r="AB15" s="10" t="n">
-        <v>188654012197.06</v>
+        <v>189331638294.271</v>
       </c>
       <c r="AC15" s="10" t="n">
-        <v>183482381828.566</v>
+        <v>183507470464.744</v>
       </c>
       <c r="AD15" s="10" t="n">
-        <v>176456917539.748</v>
+        <v>176456933782.624</v>
       </c>
       <c r="AE15" s="10" t="n">
-        <v>187374776774.505</v>
+        <v>187478805121.794</v>
       </c>
       <c r="AF15" s="10" t="n">
-        <v>191423295483.954</v>
+        <v>191451628648.008</v>
       </c>
       <c r="AG15" s="10" t="n">
-        <v>214915369546.13</v>
+        <v>214905199846.228</v>
       </c>
       <c r="AH15" s="10" t="n">
-        <v>226873577434.827</v>
+        <v>227945649425.932</v>
       </c>
       <c r="AI15" s="10" t="n">
-        <v>247909823022.992</v>
+        <v>247907641004.809</v>
       </c>
       <c r="AJ15" s="10" t="n">
-        <v>237164412644.327</v>
+        <v>237166453756.48</v>
       </c>
       <c r="AK15" s="10" t="n">
-        <v>231345827036.878</v>
+        <v>231360233247.693</v>
       </c>
       <c r="AL15" s="10" t="n">
-        <v>229598736170.408</v>
+        <v>229620345220.999</v>
       </c>
       <c r="AM15" s="10" t="n">
-        <v>217507013970.258</v>
+        <v>217626733778.914</v>
       </c>
       <c r="AN15" s="10" t="n">
-        <v>87866284344.4846</v>
+        <v>87934436770.8689</v>
       </c>
       <c r="AO15" s="10"/>
     </row>
@@ -31331,55 +33650,55 @@
         <v>31593960317.8414</v>
       </c>
       <c r="X16" s="10" t="n">
-        <v>32082855891.2468</v>
+        <v>32078049590.2298</v>
       </c>
       <c r="Y16" s="10" t="n">
-        <v>44237813616.4692</v>
+        <v>44237813632.1022</v>
       </c>
       <c r="Z16" s="10" t="n">
-        <v>66995673929.129</v>
+        <v>66995673924.7096</v>
       </c>
       <c r="AA16" s="10" t="n">
-        <v>54824173704.8337</v>
+        <v>54824173687.8671</v>
       </c>
       <c r="AB16" s="10" t="n">
-        <v>57717855782.4226</v>
+        <v>57717855783.8579</v>
       </c>
       <c r="AC16" s="10" t="n">
-        <v>51865818924.1163</v>
+        <v>51860887004.4982</v>
       </c>
       <c r="AD16" s="10" t="n">
-        <v>51656895917.0377</v>
+        <v>51656415878.8835</v>
       </c>
       <c r="AE16" s="10" t="n">
-        <v>51157519053.3544</v>
+        <v>51157519056.8272</v>
       </c>
       <c r="AF16" s="10" t="n">
-        <v>47801674305.8132</v>
+        <v>47801674373.9019</v>
       </c>
       <c r="AG16" s="10" t="n">
-        <v>61023501681.0707</v>
+        <v>61016626136.6023</v>
       </c>
       <c r="AH16" s="10" t="n">
-        <v>73069126169.1646</v>
+        <v>71296127133.0043</v>
       </c>
       <c r="AI16" s="10" t="n">
-        <v>69503679886.8975</v>
+        <v>69527237095.293</v>
       </c>
       <c r="AJ16" s="10" t="n">
-        <v>59803535124.484</v>
+        <v>59803960990.0147</v>
       </c>
       <c r="AK16" s="10" t="n">
-        <v>58111404909.3183</v>
+        <v>58136580595.9629</v>
       </c>
       <c r="AL16" s="10" t="n">
-        <v>78099249802.9526</v>
+        <v>77919806442.7057</v>
       </c>
       <c r="AM16" s="10" t="n">
-        <v>56079274863.5747</v>
+        <v>55465497606.4482</v>
       </c>
       <c r="AN16" s="10" t="n">
-        <v>25343600789.828</v>
+        <v>25266877992.0148</v>
       </c>
       <c r="AO16" s="10"/>
     </row>
@@ -31418,61 +33737,61 @@
         <v>99531317211.6951</v>
       </c>
       <c r="V17" s="10" t="n">
-        <v>96109758343.3721</v>
+        <v>96109758343.3579</v>
       </c>
       <c r="W17" s="10" t="n">
-        <v>94581892474.0893</v>
+        <v>94581892474.0201</v>
       </c>
       <c r="X17" s="10" t="n">
-        <v>100358702080.468</v>
+        <v>100358702080.398</v>
       </c>
       <c r="Y17" s="10" t="n">
-        <v>107486258983.052</v>
+        <v>107486258983.078</v>
       </c>
       <c r="Z17" s="10" t="n">
-        <v>111150655592.209</v>
+        <v>111150655591.348</v>
       </c>
       <c r="AA17" s="10" t="n">
-        <v>104607914253.203</v>
+        <v>104607914249.06</v>
       </c>
       <c r="AB17" s="10" t="n">
-        <v>97175199104.5423</v>
+        <v>97175135459.0363</v>
       </c>
       <c r="AC17" s="10" t="n">
-        <v>91499787595.2141</v>
+        <v>91499787068.3609</v>
       </c>
       <c r="AD17" s="10" t="n">
-        <v>87887399824.2914</v>
+        <v>87877950200.4378</v>
       </c>
       <c r="AE17" s="10" t="n">
-        <v>85973901173.5001</v>
+        <v>85974386517.1929</v>
       </c>
       <c r="AF17" s="10" t="n">
-        <v>91471038446.7556</v>
+        <v>91472496502.6476</v>
       </c>
       <c r="AG17" s="10" t="n">
-        <v>88815940381.2136</v>
+        <v>88823358449.9474</v>
       </c>
       <c r="AH17" s="10" t="n">
-        <v>95747703779.6198</v>
+        <v>96437803590.0067</v>
       </c>
       <c r="AI17" s="10" t="n">
-        <v>94147055003.7279</v>
+        <v>94125647067.6268</v>
       </c>
       <c r="AJ17" s="10" t="n">
-        <v>92984737380.6046</v>
+        <v>92986497260.6317</v>
       </c>
       <c r="AK17" s="10" t="n">
-        <v>91965913386.5462</v>
+        <v>91955072809.7843</v>
       </c>
       <c r="AL17" s="10" t="n">
-        <v>93626222058.3428</v>
+        <v>93829120323.6396</v>
       </c>
       <c r="AM17" s="10" t="n">
-        <v>97781060085.9182</v>
+        <v>98369464857.0999</v>
       </c>
       <c r="AN17" s="10" t="n">
-        <v>45238512839.6701</v>
+        <v>45396886682.44</v>
       </c>
       <c r="AO17" s="10"/>
     </row>
@@ -31520,13 +33839,13 @@
         <v>35854809959.3467</v>
       </c>
       <c r="Y18" s="10" t="n">
-        <v>25857813062.3452</v>
+        <v>25857813062.4488</v>
       </c>
       <c r="Z18" s="10" t="n">
-        <v>28762522253.128</v>
+        <v>28762522253.1391</v>
       </c>
       <c r="AA18" s="10" t="n">
-        <v>37138828657.9026</v>
+        <v>37138828657.8343</v>
       </c>
       <c r="AB18" s="10" t="n">
         <v>24407250304.299</v>
@@ -31538,34 +33857,34 @@
         <v>11912352140.3822</v>
       </c>
       <c r="AE18" s="10" t="n">
-        <v>9848646460.61411</v>
+        <v>9848645148.50908</v>
       </c>
       <c r="AF18" s="10" t="n">
-        <v>11837859791.5242</v>
+        <v>11837859791.5735</v>
       </c>
       <c r="AG18" s="10" t="n">
-        <v>13046460487.7026</v>
+        <v>13046624975.3042</v>
       </c>
       <c r="AH18" s="10" t="n">
-        <v>12350469155.1379</v>
+        <v>12350468863.606</v>
       </c>
       <c r="AI18" s="10" t="n">
-        <v>11586174895.0787</v>
+        <v>11586174895.1633</v>
       </c>
       <c r="AJ18" s="10" t="n">
-        <v>12631005086.5785</v>
+        <v>12631005086.6952</v>
       </c>
       <c r="AK18" s="10" t="n">
-        <v>19353930916.3467</v>
+        <v>19353927782.5163</v>
       </c>
       <c r="AL18" s="10" t="n">
-        <v>18571430386.5887</v>
+        <v>18574769196.1874</v>
       </c>
       <c r="AM18" s="10" t="n">
-        <v>18580514554.3575</v>
+        <v>18582279004.1622</v>
       </c>
       <c r="AN18" s="10" t="n">
-        <v>6451574595.95054</v>
+        <v>6444813981.52229</v>
       </c>
       <c r="AO18" s="10"/>
     </row>
@@ -31604,61 +33923,61 @@
         <v>20621031117.3363</v>
       </c>
       <c r="V19" s="10" t="n">
-        <v>21955120231.8055</v>
+        <v>21954927050.9289</v>
       </c>
       <c r="W19" s="10" t="n">
-        <v>24064532459.3901</v>
+        <v>24064532461.4487</v>
       </c>
       <c r="X19" s="10" t="n">
-        <v>22475562319.3874</v>
+        <v>22474509402.2924</v>
       </c>
       <c r="Y19" s="10" t="n">
-        <v>21873749266.3109</v>
+        <v>21873690918.3269</v>
       </c>
       <c r="Z19" s="10" t="n">
-        <v>15191876341.3648</v>
+        <v>15191876340.6376</v>
       </c>
       <c r="AA19" s="10" t="n">
-        <v>10939559134.7672</v>
+        <v>10939559134.9366</v>
       </c>
       <c r="AB19" s="10" t="n">
-        <v>6360769755.43465</v>
+        <v>6360769755.43491</v>
       </c>
       <c r="AC19" s="10" t="n">
         <v>3784081557.36087</v>
       </c>
       <c r="AD19" s="10" t="n">
-        <v>3431271519.69065</v>
+        <v>3431086268.29315</v>
       </c>
       <c r="AE19" s="10" t="n">
-        <v>3563975848.00933</v>
+        <v>3563938389.78153</v>
       </c>
       <c r="AF19" s="10" t="n">
-        <v>3984214110.06935</v>
+        <v>3984214110.15956</v>
       </c>
       <c r="AG19" s="10" t="n">
-        <v>5496412814.56682</v>
+        <v>5506078741.30769</v>
       </c>
       <c r="AH19" s="10" t="n">
-        <v>5007609406.83661</v>
+        <v>5018279193.92007</v>
       </c>
       <c r="AI19" s="10" t="n">
-        <v>5056519663.90376</v>
+        <v>5056519663.41673</v>
       </c>
       <c r="AJ19" s="10" t="n">
-        <v>4267495309.38226</v>
+        <v>4267719108.24849</v>
       </c>
       <c r="AK19" s="10" t="n">
-        <v>3956913296.44824</v>
+        <v>3956974176.23895</v>
       </c>
       <c r="AL19" s="10" t="n">
-        <v>4971193301.1066</v>
+        <v>4973962502.1594</v>
       </c>
       <c r="AM19" s="10" t="n">
-        <v>5275626235.57037</v>
+        <v>5279505163.54639</v>
       </c>
       <c r="AN19" s="10" t="n">
-        <v>2291585822.74979</v>
+        <v>2293947937.18884</v>
       </c>
       <c r="AO19" s="10"/>
     </row>
@@ -31703,55 +34022,55 @@
         <v>24108158240.0042</v>
       </c>
       <c r="X20" s="10" t="n">
-        <v>22849888451.1114</v>
+        <v>22849888451.1063</v>
       </c>
       <c r="Y20" s="10" t="n">
-        <v>32832904058.5984</v>
+        <v>32832904062.0422</v>
       </c>
       <c r="Z20" s="10" t="n">
         <v>20088745783.0012</v>
       </c>
       <c r="AA20" s="10" t="n">
-        <v>31031871700.6782</v>
+        <v>31031871694.194</v>
       </c>
       <c r="AB20" s="10" t="n">
-        <v>21627550474.8337</v>
+        <v>21135675973.8354</v>
       </c>
       <c r="AC20" s="10" t="n">
-        <v>11142814057.2387</v>
+        <v>11294416627.0524</v>
       </c>
       <c r="AD20" s="10" t="n">
-        <v>11261868822.7698</v>
+        <v>11269097890.6758</v>
       </c>
       <c r="AE20" s="10" t="n">
-        <v>31650742779.0187</v>
+        <v>31650742777.662</v>
       </c>
       <c r="AF20" s="10" t="n">
-        <v>45900081951.1683</v>
+        <v>45900081952.3204</v>
       </c>
       <c r="AG20" s="10" t="n">
-        <v>45847762986.7787</v>
+        <v>45847762985.1283</v>
       </c>
       <c r="AH20" s="10" t="n">
-        <v>36736210430.1496</v>
+        <v>36736210430.3254</v>
       </c>
       <c r="AI20" s="10" t="n">
-        <v>60834491659.0976</v>
+        <v>60834491659.2894</v>
       </c>
       <c r="AJ20" s="10" t="n">
-        <v>26122475148.1064</v>
+        <v>26122475155.2949</v>
       </c>
       <c r="AK20" s="10" t="n">
-        <v>28545399990.5462</v>
+        <v>28544380330.6694</v>
       </c>
       <c r="AL20" s="10" t="n">
-        <v>32216069499.0735</v>
+        <v>32203682295.9831</v>
       </c>
       <c r="AM20" s="10" t="n">
-        <v>38044239922.5049</v>
+        <v>38383537097.2283</v>
       </c>
       <c r="AN20" s="10" t="n">
-        <v>21953397157.9207</v>
+        <v>21975829418.9874</v>
       </c>
       <c r="AO20" s="10"/>
     </row>
@@ -31806,19 +34125,19 @@
         <v>4881136550.01121</v>
       </c>
       <c r="AB21" s="10" t="n">
-        <v>826347269.466528</v>
+        <v>640595666.696633</v>
       </c>
       <c r="AC21" s="10" t="n">
-        <v>944597419.458151</v>
+        <v>767761700.021458</v>
       </c>
       <c r="AD21" s="10" t="n">
-        <v>513305079.399265</v>
+        <v>513342658.841454</v>
       </c>
       <c r="AE21" s="10" t="n">
-        <v>776671431.313774</v>
+        <v>671816663.965999</v>
       </c>
       <c r="AF21" s="10" t="n">
-        <v>465601376.46364</v>
+        <v>464143341.86586</v>
       </c>
       <c r="AG21" s="10" t="n">
         <v>24128.2425049737</v>

--- a/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
+++ b/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
@@ -17,12 +17,13 @@
     <sheet name="8-2 PriceUCA" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="6-6 PSRcomp" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="9 Dur" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="5 Comm" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">VendorSize_NTDC</t>
   </si>
@@ -373,6 +374,24 @@
   <si>
     <t xml:space="preserve">&gt;7-12 Months</t>
   </si>
+  <si>
+    <t xml:space="preserve">AnyCommercialText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Classified
+as Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-development
+or Commercial Similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Commercial
+Classification</t>
+  </si>
 </sst>
 </file>
 
@@ -386,11 +405,11 @@
     <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="216" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="214" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="217" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -436,11 +455,11 @@
     <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="216" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="214" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="217" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10023,6 +10042,6088 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="13" t="n">
+        <v>1079359000</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>190498000</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>943162019</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>505522000</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>471753000</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>712511000</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>312721768.51</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>7458839962</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>7385638572</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>9265259032.67</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>34167200892</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>35587628799.4113</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>39412403808.1067</v>
+      </c>
+      <c r="AB2" s="13" t="n">
+        <v>45679579592.3982</v>
+      </c>
+      <c r="AC2" s="13" t="n">
+        <v>43320062631.5422</v>
+      </c>
+      <c r="AD2" s="13" t="n">
+        <v>45896071689.4244</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>54527316613.4816</v>
+      </c>
+      <c r="AF2" s="13" t="n">
+        <v>60156713731.7132</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>54574561251.8431</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>58292118565.9711</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>55952230494.9634</v>
+      </c>
+      <c r="AJ2" s="13" t="n">
+        <v>57003525262.5553</v>
+      </c>
+      <c r="AK2" s="13" t="n">
+        <v>64304206079.6007</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>49045596584.8387</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>49799038510.5672</v>
+      </c>
+      <c r="AN2" s="13" t="n">
+        <v>47126926605.9466</v>
+      </c>
+      <c r="AO2" s="13" t="n">
+        <v>58318894956.8122</v>
+      </c>
+      <c r="AP2" s="13" t="n">
+        <v>54541409102.5996</v>
+      </c>
+      <c r="AQ2" s="13" t="n">
+        <v>64170889257.9532</v>
+      </c>
+      <c r="AR2" s="13" t="n">
+        <v>67245534912.4933</v>
+      </c>
+      <c r="AS2" s="13" t="n">
+        <v>67330773472.8018</v>
+      </c>
+      <c r="AT2" s="13" t="n">
+        <v>67233258687.3384</v>
+      </c>
+      <c r="AU2" s="13" t="n">
+        <v>66273174942.2062</v>
+      </c>
+      <c r="AV2" s="13" t="n">
+        <v>79215520721.2667</v>
+      </c>
+      <c r="AW2" s="13" t="n">
+        <v>84013779017.643</v>
+      </c>
+      <c r="AX2" s="13" t="n">
+        <v>37396834442.56</v>
+      </c>
+      <c r="AY2" s="13"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="13" t="n">
+        <v>390568134.53</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>374418000</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>315106000</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>300044000</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>170513000</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>267800888</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>367009338</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>5676884199.21</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>6308091257</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>9181913610.92</v>
+      </c>
+      <c r="Y3" s="13" t="n">
+        <v>33175477467.8834</v>
+      </c>
+      <c r="Z3" s="13" t="n">
+        <v>36081159030.9361</v>
+      </c>
+      <c r="AA3" s="13" t="n">
+        <v>39070820512.2752</v>
+      </c>
+      <c r="AB3" s="13" t="n">
+        <v>53046233207.4546</v>
+      </c>
+      <c r="AC3" s="13" t="n">
+        <v>59360882778.0754</v>
+      </c>
+      <c r="AD3" s="13" t="n">
+        <v>81315028546.59</v>
+      </c>
+      <c r="AE3" s="13" t="n">
+        <v>82547865604.6033</v>
+      </c>
+      <c r="AF3" s="13" t="n">
+        <v>91210800120.7879</v>
+      </c>
+      <c r="AG3" s="13" t="n">
+        <v>118287913354.452</v>
+      </c>
+      <c r="AH3" s="13" t="n">
+        <v>122073869586.138</v>
+      </c>
+      <c r="AI3" s="13" t="n">
+        <v>117605755219.193</v>
+      </c>
+      <c r="AJ3" s="13" t="n">
+        <v>104814600078.221</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>92148135684.0502</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>74254663233.259</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>62768618374.1778</v>
+      </c>
+      <c r="AN3" s="13" t="n">
+        <v>59849077530.7266</v>
+      </c>
+      <c r="AO3" s="13" t="n">
+        <v>61419697377.8422</v>
+      </c>
+      <c r="AP3" s="13" t="n">
+        <v>65171819191.2072</v>
+      </c>
+      <c r="AQ3" s="13" t="n">
+        <v>77334452344.7116</v>
+      </c>
+      <c r="AR3" s="13" t="n">
+        <v>79505609601.8437</v>
+      </c>
+      <c r="AS3" s="13" t="n">
+        <v>82112796303.0454</v>
+      </c>
+      <c r="AT3" s="13" t="n">
+        <v>65046391368.5598</v>
+      </c>
+      <c r="AU3" s="13" t="n">
+        <v>69003742336.4209</v>
+      </c>
+      <c r="AV3" s="13" t="n">
+        <v>94455499098.5066</v>
+      </c>
+      <c r="AW3" s="13" t="n">
+        <v>88242693728.7019</v>
+      </c>
+      <c r="AX3" s="13" t="n">
+        <v>30814890637.18</v>
+      </c>
+      <c r="AY3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="13" t="n">
+        <v>21197000</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <v>29835000</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <v>5522000</v>
+      </c>
+      <c r="R4" s="13" t="n">
+        <v>5937000</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>8051000</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>8894000</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>67557000</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>98356861</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <v>496281130</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>956284324</v>
+      </c>
+      <c r="Y4" s="13" t="n">
+        <v>3999495821.298</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <v>4428776959.7583</v>
+      </c>
+      <c r="AA4" s="13" t="n">
+        <v>4866490814.8973</v>
+      </c>
+      <c r="AB4" s="13" t="n">
+        <v>6327648200.8416</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <v>5952507044.2322</v>
+      </c>
+      <c r="AD4" s="13" t="n">
+        <v>22207613098.3959</v>
+      </c>
+      <c r="AE4" s="13" t="n">
+        <v>23032741387.4023</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <v>10926781478.8399</v>
+      </c>
+      <c r="AG4" s="13" t="n">
+        <v>8626626893.685</v>
+      </c>
+      <c r="AH4" s="13" t="n">
+        <v>11195573440.0201</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <v>13466853404.9501</v>
+      </c>
+      <c r="AJ4" s="13" t="n">
+        <v>13156196493.1132</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>13569543350.7549</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>11590843629.8784</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>12146564984.2995</v>
+      </c>
+      <c r="AN4" s="13" t="n">
+        <v>13772682900.86</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <v>16413563931.9337</v>
+      </c>
+      <c r="AP4" s="13" t="n">
+        <v>18482074975.2038</v>
+      </c>
+      <c r="AQ4" s="13" t="n">
+        <v>22511621346.9491</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <v>22510343546.9937</v>
+      </c>
+      <c r="AS4" s="13" t="n">
+        <v>19603133983.1765</v>
+      </c>
+      <c r="AT4" s="13" t="n">
+        <v>16151028199.5253</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <v>17743154994.1219</v>
+      </c>
+      <c r="AV4" s="13" t="n">
+        <v>19026935028.8673</v>
+      </c>
+      <c r="AW4" s="13" t="n">
+        <v>21795301474.73</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <v>11652201840.32</v>
+      </c>
+      <c r="AY4" s="13"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="13" t="n">
+        <v>74831000</v>
+      </c>
+      <c r="P5" s="13" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="Q5" s="13" t="n">
+        <v>1661000</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="n">
+        <v>10171000</v>
+      </c>
+      <c r="V5" s="13" t="n">
+        <v>42314262</v>
+      </c>
+      <c r="W5" s="13" t="n">
+        <v>195307726</v>
+      </c>
+      <c r="X5" s="13" t="n">
+        <v>19712506.63</v>
+      </c>
+      <c r="Y5" s="13" t="n">
+        <v>1372578894</v>
+      </c>
+      <c r="Z5" s="13" t="n">
+        <v>1669843243</v>
+      </c>
+      <c r="AA5" s="13" t="n">
+        <v>2458962108.825</v>
+      </c>
+      <c r="AB5" s="13" t="n">
+        <v>2619690623.3438</v>
+      </c>
+      <c r="AC5" s="13" t="n">
+        <v>3320365268.9938</v>
+      </c>
+      <c r="AD5" s="13" t="n">
+        <v>3768654979.1375</v>
+      </c>
+      <c r="AE5" s="13" t="n">
+        <v>3413408847.4845</v>
+      </c>
+      <c r="AF5" s="13" t="n">
+        <v>4812450438.2833</v>
+      </c>
+      <c r="AG5" s="13" t="n">
+        <v>5665058034.96</v>
+      </c>
+      <c r="AH5" s="13" t="n">
+        <v>5493856729.5066</v>
+      </c>
+      <c r="AI5" s="13" t="n">
+        <v>5236754364.5944</v>
+      </c>
+      <c r="AJ5" s="13" t="n">
+        <v>5317961272.141</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>6850619283.0292</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>7689073371.3359</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>6035561981.5764</v>
+      </c>
+      <c r="AN5" s="13" t="n">
+        <v>4675237614.1307</v>
+      </c>
+      <c r="AO5" s="13" t="n">
+        <v>6564169867.7859</v>
+      </c>
+      <c r="AP5" s="13" t="n">
+        <v>5378002483.0826</v>
+      </c>
+      <c r="AQ5" s="13" t="n">
+        <v>8243251314.6542</v>
+      </c>
+      <c r="AR5" s="13" t="n">
+        <v>8742092443.4821</v>
+      </c>
+      <c r="AS5" s="13" t="n">
+        <v>12247332337.4861</v>
+      </c>
+      <c r="AT5" s="13" t="n">
+        <v>8739058523.1676</v>
+      </c>
+      <c r="AU5" s="13" t="n">
+        <v>9764873285.5792</v>
+      </c>
+      <c r="AV5" s="13" t="n">
+        <v>7005689179.8779</v>
+      </c>
+      <c r="AW5" s="13" t="n">
+        <v>8367287242.54</v>
+      </c>
+      <c r="AX5" s="13" t="n">
+        <v>4041546053.1</v>
+      </c>
+      <c r="AY5" s="13"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>431836082.56</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>306120000</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>576223000</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>862709000</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>1121439000</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>789449045</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>1464339106</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>9064605524</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>10743961219.09</v>
+      </c>
+      <c r="X6" s="13" t="n">
+        <v>12267391815.05</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>38162302273.2196</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>39620067731.0789</v>
+      </c>
+      <c r="AA6" s="13" t="n">
+        <v>42689066740.6875</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>50341249205.9042</v>
+      </c>
+      <c r="AC6" s="13" t="n">
+        <v>53265710572.607</v>
+      </c>
+      <c r="AD6" s="13" t="n">
+        <v>59569197099.7877</v>
+      </c>
+      <c r="AE6" s="13" t="n">
+        <v>67784763718.2579</v>
+      </c>
+      <c r="AF6" s="13" t="n">
+        <v>76298079730.8832</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>87669370161.4789</v>
+      </c>
+      <c r="AH6" s="13" t="n">
+        <v>86708687217.7376</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>80242875486.0645</v>
+      </c>
+      <c r="AJ6" s="13" t="n">
+        <v>95977068450.2708</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>87950349205.4497</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>88049335449.7384</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>78116203323.329</v>
+      </c>
+      <c r="AN6" s="13" t="n">
+        <v>78314159919.9366</v>
+      </c>
+      <c r="AO6" s="13" t="n">
+        <v>86830803812.4669</v>
+      </c>
+      <c r="AP6" s="13" t="n">
+        <v>103027095190.357</v>
+      </c>
+      <c r="AQ6" s="13" t="n">
+        <v>101019516969.472</v>
+      </c>
+      <c r="AR6" s="13" t="n">
+        <v>113704998205.886</v>
+      </c>
+      <c r="AS6" s="13" t="n">
+        <v>141839153044.574</v>
+      </c>
+      <c r="AT6" s="13" t="n">
+        <v>103263739434.542</v>
+      </c>
+      <c r="AU6" s="13" t="n">
+        <v>115120809639.107</v>
+      </c>
+      <c r="AV6" s="13" t="n">
+        <v>141682797935.307</v>
+      </c>
+      <c r="AW6" s="13" t="n">
+        <v>124208621679.185</v>
+      </c>
+      <c r="AX6" s="13" t="n">
+        <v>63783501911.96</v>
+      </c>
+      <c r="AY6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>4834000</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>3478000</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>4352000</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>9498000</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>3922000</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>17507000</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>35696000</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>420441040</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>513227101.5</v>
+      </c>
+      <c r="X7" s="13" t="n">
+        <v>615369460.54</v>
+      </c>
+      <c r="Y7" s="13" t="n">
+        <v>5124083333.953</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>6275910906.299</v>
+      </c>
+      <c r="AA7" s="13" t="n">
+        <v>8264606004.1794</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>10703281172.7507</v>
+      </c>
+      <c r="AC7" s="13" t="n">
+        <v>10222388708.2977</v>
+      </c>
+      <c r="AD7" s="13" t="n">
+        <v>12874685793.2682</v>
+      </c>
+      <c r="AE7" s="13" t="n">
+        <v>14002334722.1156</v>
+      </c>
+      <c r="AF7" s="13" t="n">
+        <v>13486353947.9543</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>17732796252.5386</v>
+      </c>
+      <c r="AH7" s="13" t="n">
+        <v>20671586488.9453</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>20113511234.81</v>
+      </c>
+      <c r="AJ7" s="13" t="n">
+        <v>22860842126.8806</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>22638608870.7252</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>20706724339.675</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>21284876490.2422</v>
+      </c>
+      <c r="AN7" s="13" t="n">
+        <v>20015467687.2675</v>
+      </c>
+      <c r="AO7" s="13" t="n">
+        <v>20573567132.2217</v>
+      </c>
+      <c r="AP7" s="13" t="n">
+        <v>21963983429.1028</v>
+      </c>
+      <c r="AQ7" s="13" t="n">
+        <v>23146050554.2316</v>
+      </c>
+      <c r="AR7" s="13" t="n">
+        <v>25748541007.8728</v>
+      </c>
+      <c r="AS7" s="13" t="n">
+        <v>26436136031.4718</v>
+      </c>
+      <c r="AT7" s="13" t="n">
+        <v>25586668885.4696</v>
+      </c>
+      <c r="AU7" s="13" t="n">
+        <v>27029135533.9017</v>
+      </c>
+      <c r="AV7" s="13" t="n">
+        <v>27519857754.4758</v>
+      </c>
+      <c r="AW7" s="13" t="n">
+        <v>27904516416.45</v>
+      </c>
+      <c r="AX7" s="13" t="n">
+        <v>13675704803.78</v>
+      </c>
+      <c r="AY7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13" t="n">
+        <v>96463622</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>152546003</v>
+      </c>
+      <c r="AC8" s="13" t="n">
+        <v>395301213.29</v>
+      </c>
+      <c r="AD8" s="13" t="n">
+        <v>133173391.125</v>
+      </c>
+      <c r="AE8" s="13" t="n">
+        <v>27481406</v>
+      </c>
+      <c r="AF8" s="13" t="n">
+        <v>28084285.1531</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>46336957.4171</v>
+      </c>
+      <c r="AH8" s="13" t="n">
+        <v>37948239.0465</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>46986030.5988</v>
+      </c>
+      <c r="AJ8" s="13" t="n">
+        <v>227243886.9732</v>
+      </c>
+      <c r="AK8" s="13" t="n">
+        <v>235708810.7472</v>
+      </c>
+      <c r="AL8" s="13" t="n">
+        <v>82389110.695</v>
+      </c>
+      <c r="AM8" s="13" t="n">
+        <v>25079569.41</v>
+      </c>
+      <c r="AN8" s="13" t="n">
+        <v>18225507.72</v>
+      </c>
+      <c r="AO8" s="13" t="n">
+        <v>10529618.8774</v>
+      </c>
+      <c r="AP8" s="13" t="n">
+        <v>917834.1066</v>
+      </c>
+      <c r="AQ8" s="13" t="n">
+        <v>443717.6305</v>
+      </c>
+      <c r="AR8" s="13" t="n">
+        <v>35946.4902</v>
+      </c>
+      <c r="AS8" s="13" t="n">
+        <v>3186519.35</v>
+      </c>
+      <c r="AT8" s="13" t="n">
+        <v>21532206.81</v>
+      </c>
+      <c r="AU8" s="13" t="n">
+        <v>31669214.69</v>
+      </c>
+      <c r="AV8" s="13" t="n">
+        <v>16261872.5892</v>
+      </c>
+      <c r="AW8" s="13" t="n">
+        <v>2869178.35</v>
+      </c>
+      <c r="AX8" s="13" t="n">
+        <v>336702.99</v>
+      </c>
+      <c r="AY8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13" t="n">
+        <v>1319748</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>-326562</v>
+      </c>
+      <c r="AA9" s="13" t="n">
+        <v>66788370</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>97672809.4297</v>
+      </c>
+      <c r="AC9" s="13" t="n">
+        <v>322399610</v>
+      </c>
+      <c r="AD9" s="13" t="n">
+        <v>560522486.24</v>
+      </c>
+      <c r="AE9" s="13" t="n">
+        <v>358187275.2813</v>
+      </c>
+      <c r="AF9" s="13" t="n">
+        <v>625933881.9439</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>736925148.0199</v>
+      </c>
+      <c r="AH9" s="13" t="n">
+        <v>541068780.7809</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>142683653.6853</v>
+      </c>
+      <c r="AJ9" s="13" t="n">
+        <v>212299271.6502</v>
+      </c>
+      <c r="AK9" s="13" t="n">
+        <v>267919169.3539</v>
+      </c>
+      <c r="AL9" s="13" t="n">
+        <v>227457223.7214</v>
+      </c>
+      <c r="AM9" s="13" t="n">
+        <v>74259354.6449</v>
+      </c>
+      <c r="AN9" s="13" t="n">
+        <v>44031076.6517</v>
+      </c>
+      <c r="AO9" s="13" t="n">
+        <v>54646283.3761</v>
+      </c>
+      <c r="AP9" s="13" t="n">
+        <v>20866052.1757</v>
+      </c>
+      <c r="AQ9" s="13" t="n">
+        <v>105175015.8324</v>
+      </c>
+      <c r="AR9" s="13" t="n">
+        <v>101687937.4501</v>
+      </c>
+      <c r="AS9" s="13" t="n">
+        <v>-2040216.3673</v>
+      </c>
+      <c r="AT9" s="13" t="n">
+        <v>-258722.2729</v>
+      </c>
+      <c r="AU9" s="13" t="n">
+        <v>-3434867.5615</v>
+      </c>
+      <c r="AV9" s="13" t="n">
+        <v>-931190.0078</v>
+      </c>
+      <c r="AW9" s="13" t="n">
+        <v>917315.5</v>
+      </c>
+      <c r="AX9" s="13" t="n">
+        <v>152312.66</v>
+      </c>
+      <c r="AY9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13" t="n">
+        <v>555200</v>
+      </c>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13" t="n">
+        <v>24935010</v>
+      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13" t="n">
+        <v>56160</v>
+      </c>
+      <c r="AB10" s="13" t="n">
+        <v>8006128</v>
+      </c>
+      <c r="AC10" s="13" t="n">
+        <v>2269047</v>
+      </c>
+      <c r="AD10" s="13" t="n">
+        <v>13605860.47</v>
+      </c>
+      <c r="AE10" s="13" t="n">
+        <v>24234661</v>
+      </c>
+      <c r="AF10" s="13" t="n">
+        <v>49730045.8701</v>
+      </c>
+      <c r="AG10" s="13" t="n">
+        <v>45876418.68</v>
+      </c>
+      <c r="AH10" s="13" t="n">
+        <v>21471821.9168</v>
+      </c>
+      <c r="AI10" s="13" t="n">
+        <v>22838707.3105</v>
+      </c>
+      <c r="AJ10" s="13" t="n">
+        <v>52176061.0384</v>
+      </c>
+      <c r="AK10" s="13" t="n">
+        <v>23133492.8503</v>
+      </c>
+      <c r="AL10" s="13" t="n">
+        <v>207441998.22</v>
+      </c>
+      <c r="AM10" s="13" t="n">
+        <v>15332494.56</v>
+      </c>
+      <c r="AN10" s="13" t="n">
+        <v>26131302.4402</v>
+      </c>
+      <c r="AO10" s="13" t="n">
+        <v>10327549.8218</v>
+      </c>
+      <c r="AP10" s="13" t="n">
+        <v>8514832.6742</v>
+      </c>
+      <c r="AQ10" s="13" t="n">
+        <v>24972062.09</v>
+      </c>
+      <c r="AR10" s="13" t="n">
+        <v>-2042510.3401</v>
+      </c>
+      <c r="AS10" s="13" t="n">
+        <v>12602145.27</v>
+      </c>
+      <c r="AT10" s="13" t="n">
+        <v>63497471.94</v>
+      </c>
+      <c r="AU10" s="13" t="n">
+        <v>11082560.365</v>
+      </c>
+      <c r="AV10" s="13" t="n">
+        <v>15555474.2025</v>
+      </c>
+      <c r="AW10" s="13" t="n">
+        <v>7903994.22</v>
+      </c>
+      <c r="AX10" s="13" t="n">
+        <v>7762241.31</v>
+      </c>
+      <c r="AY10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13" t="n">
+        <v>51312235.1602</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13" t="n">
+        <v>24065.5</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>21247.73</v>
+      </c>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13" t="n">
+        <v>-1007.98</v>
+      </c>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13" t="n">
+        <v>49690772</v>
+      </c>
+      <c r="AB12" s="13" t="n">
+        <v>533648387</v>
+      </c>
+      <c r="AC12" s="13" t="n">
+        <v>287858343.25</v>
+      </c>
+      <c r="AD12" s="13" t="n">
+        <v>237196295.61</v>
+      </c>
+      <c r="AE12" s="13" t="n">
+        <v>96580266.3895</v>
+      </c>
+      <c r="AF12" s="13" t="n">
+        <v>3982736.3001</v>
+      </c>
+      <c r="AG12" s="13" t="n">
+        <v>11657089.6929</v>
+      </c>
+      <c r="AH12" s="13" t="n">
+        <v>2409556.5923</v>
+      </c>
+      <c r="AI12" s="13" t="n">
+        <v>41044379.4958</v>
+      </c>
+      <c r="AJ12" s="13" t="n">
+        <v>398019612.8763</v>
+      </c>
+      <c r="AK12" s="13" t="n">
+        <v>44811839.4983</v>
+      </c>
+      <c r="AL12" s="13" t="n">
+        <v>38037047.2519</v>
+      </c>
+      <c r="AM12" s="13" t="n">
+        <v>39009352.5426</v>
+      </c>
+      <c r="AN12" s="13" t="n">
+        <v>26678517.505</v>
+      </c>
+      <c r="AO12" s="13" t="n">
+        <v>30203009.489</v>
+      </c>
+      <c r="AP12" s="13" t="n">
+        <v>13561319.8333</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>26729499.4703</v>
+      </c>
+      <c r="AR12" s="13" t="n">
+        <v>27810959.019</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>12530350.0835</v>
+      </c>
+      <c r="AT12" s="13" t="n">
+        <v>1295489.1226</v>
+      </c>
+      <c r="AU12" s="13" t="n">
+        <v>92693.9795</v>
+      </c>
+      <c r="AV12" s="13" t="n">
+        <v>21274.86</v>
+      </c>
+      <c r="AW12" s="13" t="n">
+        <v>54373.59</v>
+      </c>
+      <c r="AX12" s="13" t="n">
+        <v>-111307</v>
+      </c>
+      <c r="AY12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13" t="n">
+        <v>5400</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>4324</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>17944654</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>17306067</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>103595757</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>9801914</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>10447743.5</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>17004808</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>21920973.9498</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>11004235.2612</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>134115500.0919</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>175932802.7596</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>149958888.5289</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>113082745.0601</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>124308597.1951</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>3462144.6483</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>-617116.0124</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>-663050.9511</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>-5363995.2987</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>-108740.54</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>5306681.43</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>3935722</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>5507470.25</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>-148521.52</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13" t="n">
+        <v>669318355</v>
+      </c>
+      <c r="W14" s="13" t="n">
+        <v>238722703</v>
+      </c>
+      <c r="X14" s="13" t="n">
+        <v>722021742</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>3791720784.9792</v>
+      </c>
+      <c r="Z14" s="13" t="n">
+        <v>5045417820.1533</v>
+      </c>
+      <c r="AA14" s="13" t="n">
+        <v>7894253339.6702</v>
+      </c>
+      <c r="AB14" s="13" t="n">
+        <v>9725009428.7227</v>
+      </c>
+      <c r="AC14" s="13" t="n">
+        <v>11341331928.0036</v>
+      </c>
+      <c r="AD14" s="13" t="n">
+        <v>9550824014.9314</v>
+      </c>
+      <c r="AE14" s="13" t="n">
+        <v>8584645594.3247</v>
+      </c>
+      <c r="AF14" s="13" t="n">
+        <v>9692339064.6307</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>9029934287.6504</v>
+      </c>
+      <c r="AH14" s="13" t="n">
+        <v>9477587146.4876</v>
+      </c>
+      <c r="AI14" s="13" t="n">
+        <v>8908400188.3526</v>
+      </c>
+      <c r="AJ14" s="13" t="n">
+        <v>8245456620.6347</v>
+      </c>
+      <c r="AK14" s="13" t="n">
+        <v>6954859115.1762</v>
+      </c>
+      <c r="AL14" s="13" t="n">
+        <v>6039425803.0487</v>
+      </c>
+      <c r="AM14" s="13" t="n">
+        <v>5978972991.5463</v>
+      </c>
+      <c r="AN14" s="13" t="n">
+        <v>5710669257.9692</v>
+      </c>
+      <c r="AO14" s="13" t="n">
+        <v>6720411084.2465</v>
+      </c>
+      <c r="AP14" s="13" t="n">
+        <v>6876677103.5739</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>7696832454.0761</v>
+      </c>
+      <c r="AR14" s="13" t="n">
+        <v>8568698908.9329</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>10621804440.1795</v>
+      </c>
+      <c r="AT14" s="13" t="n">
+        <v>11914976180.341</v>
+      </c>
+      <c r="AU14" s="13" t="n">
+        <v>12496395755.1849</v>
+      </c>
+      <c r="AV14" s="13" t="n">
+        <v>13521417956.5186</v>
+      </c>
+      <c r="AW14" s="13" t="n">
+        <v>15842706598.5606</v>
+      </c>
+      <c r="AX14" s="13" t="n">
+        <v>6419851562.6</v>
+      </c>
+      <c r="AY14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="13" t="n">
+        <v>12487000</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13" t="n">
+        <v>205133649</v>
+      </c>
+      <c r="W15" s="13" t="n">
+        <v>241574833</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>652880477.6</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>3655703612.8933</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>4474549082.1569</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>7041221490.1605</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>11062641633.7626</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>16387229518.0399</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>13751345339.3401</v>
+      </c>
+      <c r="AE15" s="13" t="n">
+        <v>18771875063.4314</v>
+      </c>
+      <c r="AF15" s="13" t="n">
+        <v>26525913690.8893</v>
+      </c>
+      <c r="AG15" s="13" t="n">
+        <v>34091021707.3264</v>
+      </c>
+      <c r="AH15" s="13" t="n">
+        <v>24570043236.3813</v>
+      </c>
+      <c r="AI15" s="13" t="n">
+        <v>23427467709.7086</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>20498404096.2138</v>
+      </c>
+      <c r="AK15" s="13" t="n">
+        <v>16732308291.9892</v>
+      </c>
+      <c r="AL15" s="13" t="n">
+        <v>13216870592.4377</v>
+      </c>
+      <c r="AM15" s="13" t="n">
+        <v>12531034237.3697</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>13035773213.631</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>12718752295.0655</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>13427112457.3199</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
+        <v>13999889174.3307</v>
+      </c>
+      <c r="AR15" s="13" t="n">
+        <v>15392456348.4699</v>
+      </c>
+      <c r="AS15" s="13" t="n">
+        <v>18333809105.7255</v>
+      </c>
+      <c r="AT15" s="13" t="n">
+        <v>44734658439.8118</v>
+      </c>
+      <c r="AU15" s="13" t="n">
+        <v>43538256543.4933</v>
+      </c>
+      <c r="AV15" s="13" t="n">
+        <v>17537531960.5708</v>
+      </c>
+      <c r="AW15" s="13" t="n">
+        <v>15915019969.45</v>
+      </c>
+      <c r="AX15" s="13" t="n">
+        <v>6753500122.84</v>
+      </c>
+      <c r="AY15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13" t="n">
+        <v>2133079</v>
+      </c>
+      <c r="W16" s="13" t="n">
+        <v>48271000</v>
+      </c>
+      <c r="X16" s="13" t="n">
+        <v>307143060</v>
+      </c>
+      <c r="Y16" s="13" t="n">
+        <v>5556183332.3198</v>
+      </c>
+      <c r="Z16" s="13" t="n">
+        <v>6997694567.0318</v>
+      </c>
+      <c r="AA16" s="13" t="n">
+        <v>9724749053</v>
+      </c>
+      <c r="AB16" s="13" t="n">
+        <v>11343338363.5085</v>
+      </c>
+      <c r="AC16" s="13" t="n">
+        <v>13664955892.1473</v>
+      </c>
+      <c r="AD16" s="13" t="n">
+        <v>5693585325.0071</v>
+      </c>
+      <c r="AE16" s="13" t="n">
+        <v>9541833845.5334</v>
+      </c>
+      <c r="AF16" s="13" t="n">
+        <v>19663253528.3385</v>
+      </c>
+      <c r="AG16" s="13" t="n">
+        <v>27046273919.7412</v>
+      </c>
+      <c r="AH16" s="13" t="n">
+        <v>26808524254.9002</v>
+      </c>
+      <c r="AI16" s="13" t="n">
+        <v>21751954510.176</v>
+      </c>
+      <c r="AJ16" s="13" t="n">
+        <v>22919209951.6275</v>
+      </c>
+      <c r="AK16" s="13" t="n">
+        <v>29557556182.5964</v>
+      </c>
+      <c r="AL16" s="13" t="n">
+        <v>22285211441.2152</v>
+      </c>
+      <c r="AM16" s="13" t="n">
+        <v>20184468874.7404</v>
+      </c>
+      <c r="AN16" s="13" t="n">
+        <v>17104877492.8843</v>
+      </c>
+      <c r="AO16" s="13" t="n">
+        <v>13805036504.7494</v>
+      </c>
+      <c r="AP16" s="13" t="n">
+        <v>17120390071.1658</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
+        <v>22913347369.5083</v>
+      </c>
+      <c r="AR16" s="13" t="n">
+        <v>21730065270.9728</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>22499168421.3496</v>
+      </c>
+      <c r="AT16" s="13" t="n">
+        <v>22880268333.3276</v>
+      </c>
+      <c r="AU16" s="13" t="n">
+        <v>30536438764.9793</v>
+      </c>
+      <c r="AV16" s="13" t="n">
+        <v>31477263940.2709</v>
+      </c>
+      <c r="AW16" s="13" t="n">
+        <v>31248657246.12</v>
+      </c>
+      <c r="AX16" s="13" t="n">
+        <v>11901659653.66</v>
+      </c>
+      <c r="AY16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13" t="n">
+        <v>1301022</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>3167673</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>27002767</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>51804452.75</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>62557695.5859</v>
+      </c>
+      <c r="AD17" s="13" t="n">
+        <v>73091282</v>
+      </c>
+      <c r="AE17" s="13" t="n">
+        <v>79218294</v>
+      </c>
+      <c r="AF17" s="13" t="n">
+        <v>116579183.3834</v>
+      </c>
+      <c r="AG17" s="13" t="n">
+        <v>95204838.6129</v>
+      </c>
+      <c r="AH17" s="13" t="n">
+        <v>128253786.8586</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>119697404.4413</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>64185257.343</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>26383148.0753</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>17086448.5319</v>
+      </c>
+      <c r="AM17" s="13" t="n">
+        <v>15285505.31</v>
+      </c>
+      <c r="AN17" s="13" t="n">
+        <v>15516018.4203</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>25050492.3443</v>
+      </c>
+      <c r="AP17" s="13" t="n">
+        <v>34282436.0987</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
+        <v>50050319.0013</v>
+      </c>
+      <c r="AR17" s="13" t="n">
+        <v>77014185.5992</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>80492322.7806</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>78259983.5596</v>
+      </c>
+      <c r="AU17" s="13" t="n">
+        <v>76896306.3972</v>
+      </c>
+      <c r="AV17" s="13" t="n">
+        <v>73229862.9829</v>
+      </c>
+      <c r="AW17" s="13" t="n">
+        <v>92045296.98</v>
+      </c>
+      <c r="AX17" s="13" t="n">
+        <v>38893720.74</v>
+      </c>
+      <c r="AY17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13" t="n">
+        <v>38000</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>168586712</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>148036848</v>
+      </c>
+      <c r="X18" s="13" t="n">
+        <v>379910590</v>
+      </c>
+      <c r="Y18" s="13" t="n">
+        <v>2313722705.7397</v>
+      </c>
+      <c r="Z18" s="13" t="n">
+        <v>2589179234.6423</v>
+      </c>
+      <c r="AA18" s="13" t="n">
+        <v>5032730827.3493</v>
+      </c>
+      <c r="AB18" s="13" t="n">
+        <v>5973518634.5491</v>
+      </c>
+      <c r="AC18" s="13" t="n">
+        <v>7266692376.5588</v>
+      </c>
+      <c r="AD18" s="13" t="n">
+        <v>5777390364.6475</v>
+      </c>
+      <c r="AE18" s="13" t="n">
+        <v>7048738161.3076</v>
+      </c>
+      <c r="AF18" s="13" t="n">
+        <v>9470259356.6497</v>
+      </c>
+      <c r="AG18" s="13" t="n">
+        <v>8746001620.5283</v>
+      </c>
+      <c r="AH18" s="13" t="n">
+        <v>9040505779.6378</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>7814331973.4159</v>
+      </c>
+      <c r="AJ18" s="13" t="n">
+        <v>7704219066.8298</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>6617288299.0203</v>
+      </c>
+      <c r="AL18" s="13" t="n">
+        <v>6291785766.8934</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>5969348236.3844</v>
+      </c>
+      <c r="AN18" s="13" t="n">
+        <v>6396600759.2125</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>6348904647.5694</v>
+      </c>
+      <c r="AP18" s="13" t="n">
+        <v>6569219164.4598</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
+        <v>7214483099.1633</v>
+      </c>
+      <c r="AR18" s="13" t="n">
+        <v>8093044272.5559</v>
+      </c>
+      <c r="AS18" s="13" t="n">
+        <v>8486255800.6307</v>
+      </c>
+      <c r="AT18" s="13" t="n">
+        <v>8503008687.4519</v>
+      </c>
+      <c r="AU18" s="13" t="n">
+        <v>8870927654.4704</v>
+      </c>
+      <c r="AV18" s="13" t="n">
+        <v>10141219591.4974</v>
+      </c>
+      <c r="AW18" s="13" t="n">
+        <v>10335167110.3365</v>
+      </c>
+      <c r="AX18" s="13" t="n">
+        <v>4490242916.06</v>
+      </c>
+      <c r="AY18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13" t="n">
+        <v>34148853</v>
+      </c>
+      <c r="W19" s="13" t="n">
+        <v>26378609.82</v>
+      </c>
+      <c r="X19" s="13" t="n">
+        <v>48097303.99</v>
+      </c>
+      <c r="Y19" s="13" t="n">
+        <v>831939441.1014</v>
+      </c>
+      <c r="Z19" s="13" t="n">
+        <v>1219741804.0588</v>
+      </c>
+      <c r="AA19" s="13" t="n">
+        <v>3063408338.011</v>
+      </c>
+      <c r="AB19" s="13" t="n">
+        <v>3838758478.9495</v>
+      </c>
+      <c r="AC19" s="13" t="n">
+        <v>4498938890.0449</v>
+      </c>
+      <c r="AD19" s="13" t="n">
+        <v>4232075862.9765</v>
+      </c>
+      <c r="AE19" s="13" t="n">
+        <v>5283859859.1023</v>
+      </c>
+      <c r="AF19" s="13" t="n">
+        <v>5054179790.5911</v>
+      </c>
+      <c r="AG19" s="13" t="n">
+        <v>5557569461.8835</v>
+      </c>
+      <c r="AH19" s="13" t="n">
+        <v>6418548816.0415</v>
+      </c>
+      <c r="AI19" s="13" t="n">
+        <v>7675622573.8674</v>
+      </c>
+      <c r="AJ19" s="13" t="n">
+        <v>8982743709.5576</v>
+      </c>
+      <c r="AK19" s="13" t="n">
+        <v>9718177948.1602</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>8345493912.8408</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>8288840345.7024</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>8085694403.3813</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>8503225043.864</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>9233946450.1961</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>10853207205.0435</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>12118551256.7162</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>12864501408.9676</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>12696761808.8765</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>13826496918.3418</v>
+      </c>
+      <c r="AV19" s="13" t="n">
+        <v>15406711902.4662</v>
+      </c>
+      <c r="AW19" s="13" t="n">
+        <v>17295233924.38</v>
+      </c>
+      <c r="AX19" s="13" t="n">
+        <v>7631312429.75</v>
+      </c>
+      <c r="AY19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="M20"/>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="13" t="n">
+        <v>41032316000</v>
+      </c>
+      <c r="P20" s="13" t="n">
+        <v>43625084000</v>
+      </c>
+      <c r="Q20" s="13" t="n">
+        <v>38602723036</v>
+      </c>
+      <c r="R20" s="13" t="n">
+        <v>39452449414</v>
+      </c>
+      <c r="S20" s="13" t="n">
+        <v>43554730825</v>
+      </c>
+      <c r="T20" s="13" t="n">
+        <v>37076749369</v>
+      </c>
+      <c r="U20" s="13" t="n">
+        <v>39081089944</v>
+      </c>
+      <c r="V20" s="13" t="n">
+        <v>34943056076</v>
+      </c>
+      <c r="W20" s="13" t="n">
+        <v>33653688998</v>
+      </c>
+      <c r="X20" s="13" t="n">
+        <v>35246060466</v>
+      </c>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13" t="n">
+        <v>10763955</v>
+      </c>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13" t="n">
+        <v>204072.7031</v>
+      </c>
+      <c r="AS20" s="13" t="n">
+        <v>1270102.8412</v>
+      </c>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13" t="n">
+        <v>-96821.0594</v>
+      </c>
+      <c r="AW20" s="13"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="13" t="n">
+        <v>22813033000</v>
+      </c>
+      <c r="P21" s="13" t="n">
+        <v>34893842000</v>
+      </c>
+      <c r="Q21" s="13" t="n">
+        <v>31113808998</v>
+      </c>
+      <c r="R21" s="13" t="n">
+        <v>30657778464</v>
+      </c>
+      <c r="S21" s="13" t="n">
+        <v>20628301908</v>
+      </c>
+      <c r="T21" s="13" t="n">
+        <v>29493441926</v>
+      </c>
+      <c r="U21" s="13" t="n">
+        <v>31662201213</v>
+      </c>
+      <c r="V21" s="13" t="n">
+        <v>31185929950</v>
+      </c>
+      <c r="W21" s="13" t="n">
+        <v>31088689272</v>
+      </c>
+      <c r="X21" s="13" t="n">
+        <v>33772526734</v>
+      </c>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13" t="n">
+        <v>723958.7</v>
+      </c>
+      <c r="AA21" s="13" t="n">
+        <v>33600</v>
+      </c>
+      <c r="AB21" s="13" t="n">
+        <v>43078.51</v>
+      </c>
+      <c r="AC21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AI21" s="13" t="n">
+        <v>-16520.32</v>
+      </c>
+      <c r="AJ21" s="13" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13" t="n">
+        <v>1419011.54</v>
+      </c>
+      <c r="AO21" s="13" t="n">
+        <v>3905379.6</v>
+      </c>
+      <c r="AP21" s="13" t="n">
+        <v>2227474.32</v>
+      </c>
+      <c r="AQ21" s="13" t="n">
+        <v>12674973.83</v>
+      </c>
+      <c r="AR21" s="13" t="n">
+        <v>42119827.6763</v>
+      </c>
+      <c r="AS21" s="13" t="n">
+        <v>34933135.9932</v>
+      </c>
+      <c r="AT21" s="13" t="n">
+        <v>19354365.3057</v>
+      </c>
+      <c r="AU21" s="13" t="n">
+        <v>12038080.1528</v>
+      </c>
+      <c r="AV21" s="13" t="n">
+        <v>10615317.9705</v>
+      </c>
+      <c r="AW21" s="13" t="n">
+        <v>3468829.74</v>
+      </c>
+      <c r="AX21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="13" t="n">
+        <v>9188590000</v>
+      </c>
+      <c r="P22" s="13" t="n">
+        <v>11683472000</v>
+      </c>
+      <c r="Q22" s="13" t="n">
+        <v>6901945039</v>
+      </c>
+      <c r="R22" s="13" t="n">
+        <v>7925523004</v>
+      </c>
+      <c r="S22" s="13" t="n">
+        <v>6684428944</v>
+      </c>
+      <c r="T22" s="13" t="n">
+        <v>6635930451</v>
+      </c>
+      <c r="U22" s="13" t="n">
+        <v>7225251729</v>
+      </c>
+      <c r="V22" s="13" t="n">
+        <v>7958666470</v>
+      </c>
+      <c r="W22" s="13" t="n">
+        <v>7294689216</v>
+      </c>
+      <c r="X22" s="13" t="n">
+        <v>7746287061</v>
+      </c>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13" t="n">
+        <v>-737745.8412</v>
+      </c>
+      <c r="AS22" s="13" t="n">
+        <v>8990705.41</v>
+      </c>
+      <c r="AT22" s="13" t="n">
+        <v>14777319.35</v>
+      </c>
+      <c r="AU22" s="13" t="n">
+        <v>14844125.97</v>
+      </c>
+      <c r="AV22" s="13" t="n">
+        <v>13298551.7912</v>
+      </c>
+      <c r="AW22" s="13" t="n">
+        <v>10018665.94</v>
+      </c>
+      <c r="AX22" s="13" t="n">
+        <v>4996355.79</v>
+      </c>
+      <c r="AY22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="M23"/>
+      <c r="N23" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13" t="n">
+        <v>343747860</v>
+      </c>
+      <c r="T23" s="13" t="n">
+        <v>251594273</v>
+      </c>
+      <c r="U23" s="13" t="n">
+        <v>300305090</v>
+      </c>
+      <c r="V23" s="13" t="n">
+        <v>388928264</v>
+      </c>
+      <c r="W23" s="13" t="n">
+        <v>552081489</v>
+      </c>
+      <c r="X23" s="13" t="n">
+        <v>925862742</v>
+      </c>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="M24"/>
+      <c r="N24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="13" t="n">
+        <v>43985137405</v>
+      </c>
+      <c r="P24" s="13" t="n">
+        <v>41939949844</v>
+      </c>
+      <c r="Q24" s="13" t="n">
+        <v>40644252613</v>
+      </c>
+      <c r="R24" s="13" t="n">
+        <v>37382740962</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <v>40131318153.16</v>
+      </c>
+      <c r="T24" s="13" t="n">
+        <v>38631569100</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>35472291538</v>
+      </c>
+      <c r="V24" s="13" t="n">
+        <v>36315651254</v>
+      </c>
+      <c r="W24" s="13" t="n">
+        <v>37912327660</v>
+      </c>
+      <c r="X24" s="13" t="n">
+        <v>37471174500</v>
+      </c>
+      <c r="Y24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13" t="n">
+        <v>23064198.34</v>
+      </c>
+      <c r="AB24" s="13" t="n">
+        <v>11111831.91</v>
+      </c>
+      <c r="AC24" s="13" t="n">
+        <v>76558</v>
+      </c>
+      <c r="AD24" s="13" t="n">
+        <v>614416.0625</v>
+      </c>
+      <c r="AE24" s="13" t="n">
+        <v>14326.16</v>
+      </c>
+      <c r="AF24" s="13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AG24" s="13" t="n">
+        <v>484171.86</v>
+      </c>
+      <c r="AH24" s="13" t="n">
+        <v>1555865.8</v>
+      </c>
+      <c r="AI24" s="13" t="n">
+        <v>-7935905.94</v>
+      </c>
+      <c r="AJ24" s="13" t="n">
+        <v>417165.57</v>
+      </c>
+      <c r="AK24" s="13" t="n">
+        <v>317883.2002</v>
+      </c>
+      <c r="AL24" s="13" t="n">
+        <v>158791</v>
+      </c>
+      <c r="AM24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="13" t="n">
+        <v>1435443.86</v>
+      </c>
+      <c r="AO24" s="13" t="n">
+        <v>764297.23</v>
+      </c>
+      <c r="AP24" s="13" t="n">
+        <v>2978691.96</v>
+      </c>
+      <c r="AQ24" s="13" t="n">
+        <v>41700494.71</v>
+      </c>
+      <c r="AR24" s="13" t="n">
+        <v>1869421.03</v>
+      </c>
+      <c r="AS24" s="13" t="n">
+        <v>2119632.52</v>
+      </c>
+      <c r="AT24" s="13" t="n">
+        <v>21130032</v>
+      </c>
+      <c r="AU24" s="13" t="n">
+        <v>342491</v>
+      </c>
+      <c r="AV24" s="13" t="n">
+        <v>3405765.29</v>
+      </c>
+      <c r="AW24" s="13" t="n">
+        <v>3339850.05</v>
+      </c>
+      <c r="AX24" s="13" t="n">
+        <v>20151130.99</v>
+      </c>
+      <c r="AY24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="M25"/>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="13" t="n">
+        <v>3331053000</v>
+      </c>
+      <c r="P25" s="13" t="n">
+        <v>4011846000</v>
+      </c>
+      <c r="Q25" s="13" t="n">
+        <v>6143930864</v>
+      </c>
+      <c r="R25" s="13" t="n">
+        <v>5954890298</v>
+      </c>
+      <c r="S25" s="13" t="n">
+        <v>5819411448</v>
+      </c>
+      <c r="T25" s="13" t="n">
+        <v>4502738942</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>4707639584</v>
+      </c>
+      <c r="V25" s="13" t="n">
+        <v>5189919865</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>6464405532</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>7023124985</v>
+      </c>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13" t="n">
+        <v>236756.76</v>
+      </c>
+      <c r="AI25" s="13" t="n">
+        <v>-171212.1797</v>
+      </c>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13" t="n">
+        <v>-558047.03</v>
+      </c>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="13" t="n">
+        <v>1680331.5118</v>
+      </c>
+      <c r="AR25" s="13" t="n">
+        <v>587310.5104</v>
+      </c>
+      <c r="AS25" s="13" t="n">
+        <v>490300.3806</v>
+      </c>
+      <c r="AT25" s="13" t="n">
+        <v>632924.625</v>
+      </c>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="13" t="str">
+        <f>Sum(O2:O25)</f>
+      </c>
+      <c r="P26" s="13" t="str">
+        <f>Sum(P2:P25)</f>
+      </c>
+      <c r="Q26" s="13" t="str">
+        <f>Sum(Q2:Q25)</f>
+      </c>
+      <c r="R26" s="13" t="str">
+        <f>Sum(R2:R25)</f>
+      </c>
+      <c r="S26" s="13" t="str">
+        <f>Sum(S2:S25)</f>
+      </c>
+      <c r="T26" s="13" t="str">
+        <f>Sum(T2:T25)</f>
+      </c>
+      <c r="U26" s="13" t="str">
+        <f>Sum(U2:U25)</f>
+      </c>
+      <c r="V26" s="13" t="str">
+        <f>Sum(V2:V25)</f>
+      </c>
+      <c r="W26" s="13" t="str">
+        <f>Sum(W2:W25)</f>
+      </c>
+      <c r="X26" s="13" t="str">
+        <f>Sum(X2:X25)</f>
+      </c>
+      <c r="Y26" s="13" t="str">
+        <f>Sum(Y2:Y25)</f>
+      </c>
+      <c r="Z26" s="13" t="str">
+        <f>Sum(Z2:Z25)</f>
+      </c>
+      <c r="AA26" s="13" t="str">
+        <f>Sum(AA2:AA25)</f>
+      </c>
+      <c r="AB26" s="13" t="str">
+        <f>Sum(AB2:AB25)</f>
+      </c>
+      <c r="AC26" s="13" t="str">
+        <f>Sum(AC2:AC25)</f>
+      </c>
+      <c r="AD26" s="13" t="str">
+        <f>Sum(AD2:AD25)</f>
+      </c>
+      <c r="AE26" s="13" t="str">
+        <f>Sum(AE2:AE25)</f>
+      </c>
+      <c r="AF26" s="13" t="str">
+        <f>Sum(AF2:AF25)</f>
+      </c>
+      <c r="AG26" s="13" t="str">
+        <f>Sum(AG2:AG25)</f>
+      </c>
+      <c r="AH26" s="13" t="str">
+        <f>Sum(AH2:AH25)</f>
+      </c>
+      <c r="AI26" s="13" t="str">
+        <f>Sum(AI2:AI25)</f>
+      </c>
+      <c r="AJ26" s="13" t="str">
+        <f>Sum(AJ2:AJ25)</f>
+      </c>
+      <c r="AK26" s="13" t="str">
+        <f>Sum(AK2:AK25)</f>
+      </c>
+      <c r="AL26" s="13" t="str">
+        <f>Sum(AL2:AL25)</f>
+      </c>
+      <c r="AM26" s="13" t="str">
+        <f>Sum(AM2:AM25)</f>
+      </c>
+      <c r="AN26" s="13" t="str">
+        <f>Sum(AN2:AN25)</f>
+      </c>
+      <c r="AO26" s="13" t="str">
+        <f>Sum(AO2:AO25)</f>
+      </c>
+      <c r="AP26" s="13" t="str">
+        <f>Sum(AP2:AP25)</f>
+      </c>
+      <c r="AQ26" s="13" t="str">
+        <f>Sum(AQ2:AQ25)</f>
+      </c>
+      <c r="AR26" s="13" t="str">
+        <f>Sum(AR2:AR25)</f>
+      </c>
+      <c r="AS26" s="13" t="str">
+        <f>Sum(AS2:AS25)</f>
+      </c>
+      <c r="AT26" s="13" t="str">
+        <f>Sum(AT2:AT25)</f>
+      </c>
+      <c r="AU26" s="13" t="str">
+        <f>Sum(AU2:AU25)</f>
+      </c>
+      <c r="AV26" s="13" t="str">
+        <f>Sum(AV2:AV25)</f>
+      </c>
+      <c r="AW26" s="13" t="str">
+        <f>Sum(AW2:AW25)</f>
+      </c>
+      <c r="AX26" s="13" t="str">
+        <f>Sum(AX2:AX25)</f>
+      </c>
+      <c r="AY26" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" t="str">
+        <f>AS29</f>
+      </c>
+      <c r="D29" t="str">
+        <f>AV29</f>
+      </c>
+      <c r="E29" t="str">
+        <f>AW29</f>
+      </c>
+      <c r="G29" t="str">
+        <f>AV29&amp;"-"&amp;AW29</f>
+      </c>
+      <c r="H29" t="str">
+        <f>AS29&amp;"-"&amp;AW29</f>
+      </c>
+      <c r="J29" t="str">
+        <f>"Share "&amp;AW29</f>
+      </c>
+      <c r="M29" t="s">
+        <v>116</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>AS30</f>
+      </c>
+      <c r="D30" s="13" t="str">
+        <f>AV30</f>
+      </c>
+      <c r="E30" s="13" t="str">
+        <f>AW30</f>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="2" t="str">
+        <f>AW30/AV30-1</f>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>AW30/AS30-1</f>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="str">
+        <f>AW30/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="13" t="n">
+        <v>2232418723.47964</v>
+      </c>
+      <c r="P30" s="13" t="n">
+        <v>380403907.404587</v>
+      </c>
+      <c r="Q30" s="13" t="n">
+        <v>1837404846.42524</v>
+      </c>
+      <c r="R30" s="13" t="n">
+        <v>962249657.400257</v>
+      </c>
+      <c r="S30" s="13" t="n">
+        <v>878786643.349092</v>
+      </c>
+      <c r="T30" s="13" t="n">
+        <v>1299704390.85882</v>
+      </c>
+      <c r="U30" s="13" t="n">
+        <v>559899475.963767</v>
+      </c>
+      <c r="V30" s="13" t="n">
+        <v>13121495813.6578</v>
+      </c>
+      <c r="W30" s="13" t="n">
+        <v>12831837478.0659</v>
+      </c>
+      <c r="X30" s="13" t="n">
+        <v>15900606910.6049</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>57440988997.4548</v>
+      </c>
+      <c r="Z30" s="13" t="n">
+        <v>58413094595.8153</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>63689067174.3917</v>
+      </c>
+      <c r="AB30" s="13" t="n">
+        <v>72426370662.69</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>67048054338.2992</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>68937288964.6335</v>
+      </c>
+      <c r="AE30" s="13" t="n">
+        <v>79324866360.8912</v>
+      </c>
+      <c r="AF30" s="13" t="n">
+        <v>85169682753.2838</v>
+      </c>
+      <c r="AG30" s="13" t="n">
+        <v>75694997038.021</v>
+      </c>
+      <c r="AH30" s="13" t="n">
+        <v>80032829932.1833</v>
+      </c>
+      <c r="AI30" s="13" t="n">
+        <v>76160668755.7625</v>
+      </c>
+      <c r="AJ30" s="13" t="n">
+        <v>76064935868.5283</v>
+      </c>
+      <c r="AK30" s="13" t="n">
+        <v>84277586849.3099</v>
+      </c>
+      <c r="AL30" s="13" t="n">
+        <v>63133986850.826</v>
+      </c>
+      <c r="AM30" s="13" t="n">
+        <v>62955350363.5191</v>
+      </c>
+      <c r="AN30" s="13" t="n">
+        <v>58966624955.8464</v>
+      </c>
+      <c r="AO30" s="13" t="n">
+        <v>72391575253.4356</v>
+      </c>
+      <c r="AP30" s="13" t="n">
+        <v>66578698104.3331</v>
+      </c>
+      <c r="AQ30" s="13" t="n">
+        <v>76632170309.5815</v>
+      </c>
+      <c r="AR30" s="13" t="n">
+        <v>78846051773.5268</v>
+      </c>
+      <c r="AS30" s="13" t="n">
+        <v>77928012862.4834</v>
+      </c>
+      <c r="AT30" s="13" t="n">
+        <v>75226066800.6541</v>
+      </c>
+      <c r="AU30" s="13" t="n">
+        <v>69304947017.0043</v>
+      </c>
+      <c r="AV30" s="13" t="n">
+        <v>79215520721.2667</v>
+      </c>
+      <c r="AW30" s="13" t="n">
+        <v>81828468908.9035</v>
+      </c>
+      <c r="AX30" s="13" t="n">
+        <v>35642032952.6364</v>
+      </c>
+      <c r="AY30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f>AS31</f>
+      </c>
+      <c r="D31" s="13" t="str">
+        <f>AV31</f>
+      </c>
+      <c r="E31" s="13" t="str">
+        <f>AW31</f>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="2" t="str">
+        <f>AW31/AV31-1</f>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>AW31/AS31-1</f>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="str">
+        <f>AW31/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="M31" t="s">
+        <v>118</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="13" t="n">
+        <v>807805017.903483</v>
+      </c>
+      <c r="P31" s="13" t="n">
+        <v>747672260.089926</v>
+      </c>
+      <c r="Q31" s="13" t="n">
+        <v>613868327.895075</v>
+      </c>
+      <c r="R31" s="13" t="n">
+        <v>571126946.413811</v>
+      </c>
+      <c r="S31" s="13" t="n">
+        <v>317633479.633164</v>
+      </c>
+      <c r="T31" s="13" t="n">
+        <v>488500514.391343</v>
+      </c>
+      <c r="U31" s="13" t="n">
+        <v>657096360.765298</v>
+      </c>
+      <c r="V31" s="13" t="n">
+        <v>9986702038.66136</v>
+      </c>
+      <c r="W31" s="13" t="n">
+        <v>10959702538.5867</v>
+      </c>
+      <c r="X31" s="13" t="n">
+        <v>15757573371.621</v>
+      </c>
+      <c r="Y31" s="13" t="n">
+        <v>55773729965.2249</v>
+      </c>
+      <c r="Z31" s="13" t="n">
+        <v>59223169025.4</v>
+      </c>
+      <c r="AA31" s="13" t="n">
+        <v>63137080505.9362</v>
+      </c>
+      <c r="AB31" s="13" t="n">
+        <v>84106425296.0411</v>
+      </c>
+      <c r="AC31" s="13" t="n">
+        <v>91875021694.3562</v>
+      </c>
+      <c r="AD31" s="13" t="n">
+        <v>122137634305.974</v>
+      </c>
+      <c r="AE31" s="13" t="n">
+        <v>120088403650.566</v>
+      </c>
+      <c r="AF31" s="13" t="n">
+        <v>129135958865.808</v>
+      </c>
+      <c r="AG31" s="13" t="n">
+        <v>164065510479.877</v>
+      </c>
+      <c r="AH31" s="13" t="n">
+        <v>167602713438.764</v>
+      </c>
+      <c r="AI31" s="13" t="n">
+        <v>160081785619.369</v>
+      </c>
+      <c r="AJ31" s="13" t="n">
+        <v>139863557496.022</v>
+      </c>
+      <c r="AK31" s="13" t="n">
+        <v>120770055048.983</v>
+      </c>
+      <c r="AL31" s="13" t="n">
+        <v>95584379814.2373</v>
+      </c>
+      <c r="AM31" s="13" t="n">
+        <v>79351338495.0568</v>
+      </c>
+      <c r="AN31" s="13" t="n">
+        <v>74884962013.6786</v>
+      </c>
+      <c r="AO31" s="13" t="n">
+        <v>76240618894.8533</v>
+      </c>
+      <c r="AP31" s="13" t="n">
+        <v>79555239701.9892</v>
+      </c>
+      <c r="AQ31" s="13" t="n">
+        <v>92351952597.3167</v>
+      </c>
+      <c r="AR31" s="13" t="n">
+        <v>93221110057.4968</v>
+      </c>
+      <c r="AS31" s="13" t="n">
+        <v>95036589013.2396</v>
+      </c>
+      <c r="AT31" s="13" t="n">
+        <v>72779220846.4569</v>
+      </c>
+      <c r="AU31" s="13" t="n">
+        <v>72160428571.154</v>
+      </c>
+      <c r="AV31" s="13" t="n">
+        <v>94455499098.5066</v>
+      </c>
+      <c r="AW31" s="13" t="n">
+        <v>85947383924.9702</v>
+      </c>
+      <c r="AX31" s="13" t="n">
+        <v>29368938946.1348</v>
+      </c>
+      <c r="AY31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="C32" s="13" t="str">
+        <f>AS32</f>
+      </c>
+      <c r="D32" s="13" t="str">
+        <f>AV32</f>
+      </c>
+      <c r="E32" s="13" t="str">
+        <f>AW32</f>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="2" t="str">
+        <f>AW32/AV32-1</f>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f>AW32/AS32-1</f>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="str">
+        <f>AW32/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="M32" t="s">
+        <v>118</v>
+      </c>
+      <c r="N32" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="13" t="n">
+        <v>43841372.2233268</v>
+      </c>
+      <c r="P32" s="13" t="n">
+        <v>59577268.9341403</v>
+      </c>
+      <c r="Q32" s="13" t="n">
+        <v>10757589.2132698</v>
+      </c>
+      <c r="R32" s="13" t="n">
+        <v>11300944.7976257</v>
+      </c>
+      <c r="S32" s="13" t="n">
+        <v>14997490.7750529</v>
+      </c>
+      <c r="T32" s="13" t="n">
+        <v>16223708.619654</v>
+      </c>
+      <c r="U32" s="13" t="n">
+        <v>120954575.94112</v>
+      </c>
+      <c r="V32" s="13" t="n">
+        <v>173028131.241734</v>
+      </c>
+      <c r="W32" s="13" t="n">
+        <v>862240785.479761</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>1641130709.57669</v>
+      </c>
+      <c r="Y32" s="13" t="n">
+        <v>6723845953.68875</v>
+      </c>
+      <c r="Z32" s="13" t="n">
+        <v>7269339830.2055</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>7864079083.39259</v>
+      </c>
+      <c r="AB32" s="13" t="n">
+        <v>10032679768.6536</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>9212914098.148</v>
+      </c>
+      <c r="AD32" s="13" t="n">
+        <v>33356507104.5429</v>
+      </c>
+      <c r="AE32" s="13" t="n">
+        <v>33507409605.9391</v>
+      </c>
+      <c r="AF32" s="13" t="n">
+        <v>15470102243.5779</v>
+      </c>
+      <c r="AG32" s="13" t="n">
+        <v>11965144239.1311</v>
+      </c>
+      <c r="AH32" s="13" t="n">
+        <v>15371090417.7269</v>
+      </c>
+      <c r="AI32" s="13" t="n">
+        <v>18330718047.9452</v>
+      </c>
+      <c r="AJ32" s="13" t="n">
+        <v>17555497452.3615</v>
+      </c>
+      <c r="AK32" s="13" t="n">
+        <v>17784347836.1754</v>
+      </c>
+      <c r="AL32" s="13" t="n">
+        <v>14920323541.2358</v>
+      </c>
+      <c r="AM32" s="13" t="n">
+        <v>15355542539.9943</v>
+      </c>
+      <c r="AN32" s="13" t="n">
+        <v>17232794195.1626</v>
+      </c>
+      <c r="AO32" s="13" t="n">
+        <v>20374250051.1296</v>
+      </c>
+      <c r="AP32" s="13" t="n">
+        <v>22561068926.5653</v>
+      </c>
+      <c r="AQ32" s="13" t="n">
+        <v>26883130668.014</v>
+      </c>
+      <c r="AR32" s="13" t="n">
+        <v>26393599442.0411</v>
+      </c>
+      <c r="AS32" s="13" t="n">
+        <v>22688485493.2351</v>
+      </c>
+      <c r="AT32" s="13" t="n">
+        <v>18071090855.2994</v>
+      </c>
+      <c r="AU32" s="13" t="n">
+        <v>18554843914.6679</v>
+      </c>
+      <c r="AV32" s="13" t="n">
+        <v>19026935028.8673</v>
+      </c>
+      <c r="AW32" s="13" t="n">
+        <v>21228376701.286</v>
+      </c>
+      <c r="AX32" s="13" t="n">
+        <v>11105436279.6763</v>
+      </c>
+      <c r="AY32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f>AS33</f>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>AV33</f>
+      </c>
+      <c r="E33" s="13" t="str">
+        <f>AW33</f>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="2" t="str">
+        <f>AW33/AV33-1</f>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>AW33/AS33-1</f>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="str">
+        <f>AW33/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="M33" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="13" t="n">
+        <v>154771605.644373</v>
+      </c>
+      <c r="P33" s="13" t="n">
+        <v>135988336.330315</v>
+      </c>
+      <c r="Q33" s="13" t="n">
+        <v>3235848.54821463</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="n">
+        <v>18210237.1611696</v>
+      </c>
+      <c r="V33" s="13" t="n">
+        <v>74438708.2334104</v>
+      </c>
+      <c r="W33" s="13" t="n">
+        <v>339328410.64601</v>
+      </c>
+      <c r="X33" s="13" t="n">
+        <v>33829687.6580685</v>
+      </c>
+      <c r="Y33" s="13" t="n">
+        <v>2307543114.15815</v>
+      </c>
+      <c r="Z33" s="13" t="n">
+        <v>2740860085.49003</v>
+      </c>
+      <c r="AA33" s="13" t="n">
+        <v>3973596832.37658</v>
+      </c>
+      <c r="AB33" s="13" t="n">
+        <v>4153599612.80043</v>
+      </c>
+      <c r="AC33" s="13" t="n">
+        <v>5139051456.87395</v>
+      </c>
+      <c r="AD33" s="13" t="n">
+        <v>5660633856.92051</v>
+      </c>
+      <c r="AE33" s="13" t="n">
+        <v>4965734928.44219</v>
+      </c>
+      <c r="AF33" s="13" t="n">
+        <v>6813451926.95282</v>
+      </c>
+      <c r="AG33" s="13" t="n">
+        <v>7857443859.19424</v>
+      </c>
+      <c r="AH33" s="13" t="n">
+        <v>7542853341.43024</v>
+      </c>
+      <c r="AI33" s="13" t="n">
+        <v>7128128959.09608</v>
+      </c>
+      <c r="AJ33" s="13" t="n">
+        <v>7096234509.24427</v>
+      </c>
+      <c r="AK33" s="13" t="n">
+        <v>8978474298.9029</v>
+      </c>
+      <c r="AL33" s="13" t="n">
+        <v>9897766383.19086</v>
+      </c>
+      <c r="AM33" s="13" t="n">
+        <v>7630085450.5504</v>
+      </c>
+      <c r="AN33" s="13" t="n">
+        <v>5849797617.33762</v>
+      </c>
+      <c r="AO33" s="13" t="n">
+        <v>8148141306.72499</v>
+      </c>
+      <c r="AP33" s="13" t="n">
+        <v>6564927632.36005</v>
+      </c>
+      <c r="AQ33" s="13" t="n">
+        <v>9844000074.70631</v>
+      </c>
+      <c r="AR33" s="13" t="n">
+        <v>10250189463.2069</v>
+      </c>
+      <c r="AS33" s="13" t="n">
+        <v>14174948878.4985</v>
+      </c>
+      <c r="AT33" s="13" t="n">
+        <v>9777973179.8488</v>
+      </c>
+      <c r="AU33" s="13" t="n">
+        <v>10211582986.2534</v>
+      </c>
+      <c r="AV33" s="13" t="n">
+        <v>7005689179.8779</v>
+      </c>
+      <c r="AW33" s="13" t="n">
+        <v>8149642975.04419</v>
+      </c>
+      <c r="AX33" s="13" t="n">
+        <v>3851901364.14998</v>
+      </c>
+      <c r="AY33" s="13"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f>AS34</f>
+      </c>
+      <c r="D34" s="13" t="str">
+        <f>AV34</f>
+      </c>
+      <c r="E34" s="13" t="str">
+        <f>AW34</f>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="2" t="str">
+        <f>AW34/AV34-1</f>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>AW34/AS34-1</f>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="str">
+        <f>AW34/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="M34" t="s">
+        <v>118</v>
+      </c>
+      <c r="N34" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" s="13" t="n">
+        <v>893158769.40021</v>
+      </c>
+      <c r="P34" s="13" t="n">
+        <v>611288539.169399</v>
+      </c>
+      <c r="Q34" s="13" t="n">
+        <v>1122558915.1101</v>
+      </c>
+      <c r="R34" s="13" t="n">
+        <v>1642147007.8179</v>
+      </c>
+      <c r="S34" s="13" t="n">
+        <v>2089028823.41132</v>
+      </c>
+      <c r="T34" s="13" t="n">
+        <v>1440048490.68407</v>
+      </c>
+      <c r="U34" s="13" t="n">
+        <v>2621764074.78469</v>
+      </c>
+      <c r="V34" s="13" t="n">
+        <v>15946338042.053</v>
+      </c>
+      <c r="W34" s="13" t="n">
+        <v>18666600442.1974</v>
+      </c>
+      <c r="X34" s="13" t="n">
+        <v>21052727655.1783</v>
+      </c>
+      <c r="Y34" s="13" t="n">
+        <v>64157447135.4138</v>
+      </c>
+      <c r="Z34" s="13" t="n">
+        <v>65031890079.3527</v>
+      </c>
+      <c r="AA34" s="13" t="n">
+        <v>68984039961.0568</v>
+      </c>
+      <c r="AB34" s="13" t="n">
+        <v>79817590423.1926</v>
+      </c>
+      <c r="AC34" s="13" t="n">
+        <v>82441299478.6368</v>
+      </c>
+      <c r="AD34" s="13" t="n">
+        <v>89474737220.3866</v>
+      </c>
+      <c r="AE34" s="13" t="n">
+        <v>98611442066.1947</v>
+      </c>
+      <c r="AF34" s="13" t="n">
+        <v>108022577070.036</v>
+      </c>
+      <c r="AG34" s="13" t="n">
+        <v>121597545861.611</v>
+      </c>
+      <c r="AH34" s="13" t="n">
+        <v>119047682404.721</v>
+      </c>
+      <c r="AI34" s="13" t="n">
+        <v>109224440309.921</v>
+      </c>
+      <c r="AJ34" s="13" t="n">
+        <v>128070843388.957</v>
+      </c>
+      <c r="AK34" s="13" t="n">
+        <v>115268403818.157</v>
+      </c>
+      <c r="AL34" s="13" t="n">
+        <v>113341583619.887</v>
+      </c>
+      <c r="AM34" s="13" t="n">
+        <v>98753572285.2264</v>
+      </c>
+      <c r="AN34" s="13" t="n">
+        <v>97989027278.2689</v>
+      </c>
+      <c r="AO34" s="13" t="n">
+        <v>107783569513.13</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>125765175123.028</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>120636396324.16</v>
+      </c>
+      <c r="AR34" s="13" t="n">
+        <v>133320229917.369</v>
+      </c>
+      <c r="AS34" s="13" t="n">
+        <v>164163320466.329</v>
+      </c>
+      <c r="AT34" s="13" t="n">
+        <v>115539914507.388</v>
+      </c>
+      <c r="AU34" s="13" t="n">
+        <v>120387194661.347</v>
+      </c>
+      <c r="AV34" s="13" t="n">
+        <v>141682797935.307</v>
+      </c>
+      <c r="AW34" s="13" t="n">
+        <v>120977790264.125</v>
+      </c>
+      <c r="AX34" s="13" t="n">
+        <v>60790537778.6035</v>
+      </c>
+      <c r="AY34" s="13"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <f>M35</f>
+      </c>
+      <c r="B35" t="str">
+        <f>N35</f>
+      </c>
+      <c r="C35" s="13" t="str">
+        <f>AS35</f>
+      </c>
+      <c r="D35" s="13" t="str">
+        <f>AV35</f>
+      </c>
+      <c r="E35" s="13" t="str">
+        <f>AW35</f>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="2" t="str">
+        <f>AW35/AV35-1</f>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>AW35/AS35-1</f>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="str">
+        <f>AW35/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="M35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="13" t="n">
+        <v>9998074.88453847</v>
+      </c>
+      <c r="P35" s="13" t="n">
+        <v>6945189.92300788</v>
+      </c>
+      <c r="Q35" s="13" t="n">
+        <v>8478273.86022281</v>
+      </c>
+      <c r="R35" s="13" t="n">
+        <v>18079227.5034274</v>
+      </c>
+      <c r="S35" s="13" t="n">
+        <v>7305944.45655913</v>
+      </c>
+      <c r="T35" s="13" t="n">
+        <v>31934839.9824919</v>
+      </c>
+      <c r="U35" s="13" t="n">
+        <v>63910394.8191043</v>
+      </c>
+      <c r="V35" s="13" t="n">
+        <v>739634497.369034</v>
+      </c>
+      <c r="W35" s="13" t="n">
+        <v>891682782.955823</v>
+      </c>
+      <c r="X35" s="13" t="n">
+        <v>1056068466.336</v>
+      </c>
+      <c r="Y35" s="13" t="n">
+        <v>8614472556.23892</v>
+      </c>
+      <c r="Z35" s="13" t="n">
+        <v>10301202687.902</v>
+      </c>
+      <c r="AA35" s="13" t="n">
+        <v>13355314472.3894</v>
+      </c>
+      <c r="AB35" s="13" t="n">
+        <v>16970379684.7911</v>
+      </c>
+      <c r="AC35" s="13" t="n">
+        <v>15821567004.8943</v>
+      </c>
+      <c r="AD35" s="13" t="n">
+        <v>19338167781.8824</v>
+      </c>
+      <c r="AE35" s="13" t="n">
+        <v>20370218077.0374</v>
+      </c>
+      <c r="AF35" s="13" t="n">
+        <v>19093936752.7358</v>
+      </c>
+      <c r="AG35" s="13" t="n">
+        <v>24595414585.5164</v>
+      </c>
+      <c r="AH35" s="13" t="n">
+        <v>28381290757.6147</v>
+      </c>
+      <c r="AI35" s="13" t="n">
+        <v>27377969620.1309</v>
+      </c>
+      <c r="AJ35" s="13" t="n">
+        <v>30505279844.9289</v>
+      </c>
+      <c r="AK35" s="13" t="n">
+        <v>29670334828.3053</v>
+      </c>
+      <c r="AL35" s="13" t="n">
+        <v>26654748911.5229</v>
+      </c>
+      <c r="AM35" s="13" t="n">
+        <v>26908086922.2623</v>
+      </c>
+      <c r="AN35" s="13" t="n">
+        <v>25043953880.1166</v>
+      </c>
+      <c r="AO35" s="13" t="n">
+        <v>25538085630.5108</v>
+      </c>
+      <c r="AP35" s="13" t="n">
+        <v>26811434577.0563</v>
+      </c>
+      <c r="AQ35" s="13" t="n">
+        <v>27640759050.9777</v>
+      </c>
+      <c r="AR35" s="13" t="n">
+        <v>30190417847.6888</v>
+      </c>
+      <c r="AS35" s="13" t="n">
+        <v>30596938701.8415</v>
+      </c>
+      <c r="AT35" s="13" t="n">
+        <v>28628457111.3171</v>
+      </c>
+      <c r="AU35" s="13" t="n">
+        <v>28265626442.7661</v>
+      </c>
+      <c r="AV35" s="13" t="n">
+        <v>27519857754.4758</v>
+      </c>
+      <c r="AW35" s="13" t="n">
+        <v>27178682838.7038</v>
+      </c>
+      <c r="AX35" s="13" t="n">
+        <v>13033988799.6543</v>
+      </c>
+      <c r="AY35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <f>M36</f>
+      </c>
+      <c r="B36" t="str">
+        <f>N36</f>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f>AS36</f>
+      </c>
+      <c r="D36" s="13" t="str">
+        <f>AV36</f>
+      </c>
+      <c r="E36" s="13" t="str">
+        <f>AW36</f>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="2" t="str">
+        <f>AW36/AV36-1</f>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>AW36/AS36-1</f>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="str">
+        <f>AW36/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="M36" t="s">
+        <v>119</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="13" t="n">
+        <v>155881841.954016</v>
+      </c>
+      <c r="AB36" s="13" t="n">
+        <v>241866353.740008</v>
+      </c>
+      <c r="AC36" s="13" t="n">
+        <v>611822227.823035</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>200030464.666102</v>
+      </c>
+      <c r="AE36" s="13" t="n">
+        <v>39979206.6389787</v>
+      </c>
+      <c r="AF36" s="13" t="n">
+        <v>39761641.028295</v>
+      </c>
+      <c r="AG36" s="13" t="n">
+        <v>64269428.3560518</v>
+      </c>
+      <c r="AH36" s="13" t="n">
+        <v>52101468.2010087</v>
+      </c>
+      <c r="AI36" s="13" t="n">
+        <v>63956119.0130829</v>
+      </c>
+      <c r="AJ36" s="13" t="n">
+        <v>303231977.487645</v>
+      </c>
+      <c r="AK36" s="13" t="n">
+        <v>308921779.460341</v>
+      </c>
+      <c r="AL36" s="13" t="n">
+        <v>106055454.382572</v>
+      </c>
+      <c r="AM36" s="13" t="n">
+        <v>31705292.439285</v>
+      </c>
+      <c r="AN36" s="13" t="n">
+        <v>22804302.2482929</v>
+      </c>
+      <c r="AO36" s="13" t="n">
+        <v>13070475.6651816</v>
+      </c>
+      <c r="AP36" s="13" t="n">
+        <v>1120400.09414185</v>
+      </c>
+      <c r="AQ36" s="13" t="n">
+        <v>529882.715091496</v>
+      </c>
+      <c r="AR36" s="13" t="n">
+        <v>42147.6136828114</v>
+      </c>
+      <c r="AS36" s="13" t="n">
+        <v>3688047.94725343</v>
+      </c>
+      <c r="AT36" s="13" t="n">
+        <v>24091993.4490637</v>
+      </c>
+      <c r="AU36" s="13" t="n">
+        <v>33117973.4194808</v>
+      </c>
+      <c r="AV36" s="13" t="n">
+        <v>16261872.5892</v>
+      </c>
+      <c r="AW36" s="13" t="n">
+        <v>2794547.205855</v>
+      </c>
+      <c r="AX36" s="13" t="n">
+        <v>320903.607048984</v>
+      </c>
+      <c r="AY36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <f>M37</f>
+      </c>
+      <c r="B37" t="str">
+        <f>N37</f>
+      </c>
+      <c r="C37" s="13" t="str">
+        <f>AS37</f>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f>AV37</f>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f>AW37</f>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="2" t="str">
+        <f>AW37/AV37-1</f>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>AW37/AS37-1</f>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="str">
+        <f>AW37/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="M37" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13" t="n">
+        <v>2218725.2209227</v>
+      </c>
+      <c r="Z37" s="13" t="n">
+        <v>-536014.835518184</v>
+      </c>
+      <c r="AA37" s="13" t="n">
+        <v>107927671.808823</v>
+      </c>
+      <c r="AB37" s="13" t="n">
+        <v>154863226.906733</v>
+      </c>
+      <c r="AC37" s="13" t="n">
+        <v>498989734.936054</v>
+      </c>
+      <c r="AD37" s="13" t="n">
+        <v>841921741.507247</v>
+      </c>
+      <c r="AE37" s="13" t="n">
+        <v>521081166.441187</v>
+      </c>
+      <c r="AF37" s="13" t="n">
+        <v>886195186.582961</v>
+      </c>
+      <c r="AG37" s="13" t="n">
+        <v>1022116268.40565</v>
+      </c>
+      <c r="AH37" s="13" t="n">
+        <v>742866562.052361</v>
+      </c>
+      <c r="AI37" s="13" t="n">
+        <v>194217145.394521</v>
+      </c>
+      <c r="AJ37" s="13" t="n">
+        <v>283290031.776604</v>
+      </c>
+      <c r="AK37" s="13" t="n">
+        <v>351136923.078835</v>
+      </c>
+      <c r="AL37" s="13" t="n">
+        <v>292794509.01799</v>
+      </c>
+      <c r="AM37" s="13" t="n">
+        <v>93877790.1996336</v>
+      </c>
+      <c r="AN37" s="13" t="n">
+        <v>55093004.5795794</v>
+      </c>
+      <c r="AO37" s="13" t="n">
+        <v>67832741.657246</v>
+      </c>
+      <c r="AP37" s="13" t="n">
+        <v>25471189.89577</v>
+      </c>
+      <c r="AQ37" s="13" t="n">
+        <v>125598847.371162</v>
+      </c>
+      <c r="AR37" s="13" t="n">
+        <v>119230107.863179</v>
+      </c>
+      <c r="AS37" s="13" t="n">
+        <v>-2361327.5046874</v>
+      </c>
+      <c r="AT37" s="13" t="n">
+        <v>-289479.632015185</v>
+      </c>
+      <c r="AU37" s="13" t="n">
+        <v>-3592001.05574812</v>
+      </c>
+      <c r="AV37" s="13" t="n">
+        <v>-931190.0078</v>
+      </c>
+      <c r="AW37" s="13" t="n">
+        <v>893454.904053798</v>
+      </c>
+      <c r="AX37" s="13" t="n">
+        <v>145165.571571626</v>
+      </c>
+      <c r="AY37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <f>M38</f>
+      </c>
+      <c r="B38" t="str">
+        <f>N38</f>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f>AS38</f>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>AV38</f>
+      </c>
+      <c r="E38" s="13" t="str">
+        <f>AW38</f>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38" s="2" t="str">
+        <f>AW38/AV38-1</f>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>AW38/AS38-1</f>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="str">
+        <f>AW38/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="M38" t="s">
+        <v>119</v>
+      </c>
+      <c r="N38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13" t="n">
+        <v>964606.661749084</v>
+      </c>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13" t="n">
+        <v>41920075.3257135</v>
+      </c>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13" t="n">
+        <v>90752.5973277006</v>
+      </c>
+      <c r="AB38" s="13" t="n">
+        <v>12693960.8305291</v>
+      </c>
+      <c r="AC38" s="13" t="n">
+        <v>3511887.50224433</v>
+      </c>
+      <c r="AD38" s="13" t="n">
+        <v>20436414.2791986</v>
+      </c>
+      <c r="AE38" s="13" t="n">
+        <v>35255929.7710094</v>
+      </c>
+      <c r="AF38" s="13" t="n">
+        <v>70407639.7682246</v>
+      </c>
+      <c r="AG38" s="13" t="n">
+        <v>63630660.4476886</v>
+      </c>
+      <c r="AH38" s="13" t="n">
+        <v>29479983.1276771</v>
+      </c>
+      <c r="AI38" s="13" t="n">
+        <v>31087433.0995862</v>
+      </c>
+      <c r="AJ38" s="13" t="n">
+        <v>69623215.7305775</v>
+      </c>
+      <c r="AK38" s="13" t="n">
+        <v>30318933.5765321</v>
+      </c>
+      <c r="AL38" s="13" t="n">
+        <v>267029892.587321</v>
+      </c>
+      <c r="AM38" s="13" t="n">
+        <v>19383156.7002388</v>
+      </c>
+      <c r="AN38" s="13" t="n">
+        <v>32696269.8731267</v>
+      </c>
+      <c r="AO38" s="13" t="n">
+        <v>12819646.1997795</v>
+      </c>
+      <c r="AP38" s="13" t="n">
+        <v>10394056.2473926</v>
+      </c>
+      <c r="AQ38" s="13" t="n">
+        <v>29821361.9476241</v>
+      </c>
+      <c r="AR38" s="13" t="n">
+        <v>-2394863.48399273</v>
+      </c>
+      <c r="AS38" s="13" t="n">
+        <v>14585606.0764272</v>
+      </c>
+      <c r="AT38" s="13" t="n">
+        <v>71046163.1503614</v>
+      </c>
+      <c r="AU38" s="13" t="n">
+        <v>11589549.7624624</v>
+      </c>
+      <c r="AV38" s="13" t="n">
+        <v>15555474.2025</v>
+      </c>
+      <c r="AW38" s="13" t="n">
+        <v>7698400.82007976</v>
+      </c>
+      <c r="AX38" s="13" t="n">
+        <v>7398007.46991773</v>
+      </c>
+      <c r="AY38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <f>M39</f>
+      </c>
+      <c r="B39" t="str">
+        <f>N39</f>
+      </c>
+      <c r="C39" s="13" t="str">
+        <f>AS39</f>
+      </c>
+      <c r="D39" s="13" t="str">
+        <f>AV39</f>
+      </c>
+      <c r="E39" s="13" t="str">
+        <f>AW39</f>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="2" t="str">
+        <f>AW39/AV39-1</f>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f>AW39/AS39-1</f>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="str">
+        <f>AW39/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="M39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13" t="n">
+        <v>70449719.29385</v>
+      </c>
+      <c r="AI39" s="13" t="n">
+        <v>680586.52963458</v>
+      </c>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13" t="n">
+        <v>30111.4758605086</v>
+      </c>
+      <c r="AO39" s="13" t="n">
+        <v>26374.9278239712</v>
+      </c>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13" t="n">
+        <v>-1166.62670505124</v>
+      </c>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <f>M40</f>
+      </c>
+      <c r="B40" t="str">
+        <f>N40</f>
+      </c>
+      <c r="C40" s="13" t="str">
+        <f>AS40</f>
+      </c>
+      <c r="D40" s="13" t="str">
+        <f>AV40</f>
+      </c>
+      <c r="E40" s="13" t="str">
+        <f>AW40</f>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2" t="str">
+        <f>AW40/AV40-1</f>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f>AW40/AS40-1</f>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="str">
+        <f>AW40/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="M40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" t="s">
+        <v>85</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13" t="n">
+        <v>80298550.9654305</v>
+      </c>
+      <c r="AB40" s="13" t="n">
+        <v>846115840.497811</v>
+      </c>
+      <c r="AC40" s="13" t="n">
+        <v>445528945.886284</v>
+      </c>
+      <c r="AD40" s="13" t="n">
+        <v>356276016.005418</v>
+      </c>
+      <c r="AE40" s="13" t="n">
+        <v>140502361.023065</v>
+      </c>
+      <c r="AF40" s="13" t="n">
+        <v>5638745.30584076</v>
+      </c>
+      <c r="AG40" s="13" t="n">
+        <v>16168400.6162525</v>
+      </c>
+      <c r="AH40" s="13" t="n">
+        <v>3308228.24264432</v>
+      </c>
+      <c r="AI40" s="13" t="n">
+        <v>55868503.6041025</v>
+      </c>
+      <c r="AJ40" s="13" t="n">
+        <v>531113403.748375</v>
+      </c>
+      <c r="AK40" s="13" t="n">
+        <v>58730741.3533775</v>
+      </c>
+      <c r="AL40" s="13" t="n">
+        <v>48963222.1496526</v>
+      </c>
+      <c r="AM40" s="13" t="n">
+        <v>49315158.0878875</v>
+      </c>
+      <c r="AN40" s="13" t="n">
+        <v>33380961.7853759</v>
+      </c>
+      <c r="AO40" s="13" t="n">
+        <v>37491167.0723928</v>
+      </c>
+      <c r="AP40" s="13" t="n">
+        <v>16554303.1236894</v>
+      </c>
+      <c r="AQ40" s="13" t="n">
+        <v>31920074.3418719</v>
+      </c>
+      <c r="AR40" s="13" t="n">
+        <v>32608623.2719686</v>
+      </c>
+      <c r="AS40" s="13" t="n">
+        <v>14502510.9933254</v>
+      </c>
+      <c r="AT40" s="13" t="n">
+        <v>1449499.14936343</v>
+      </c>
+      <c r="AU40" s="13" t="n">
+        <v>96934.4134130437</v>
+      </c>
+      <c r="AV40" s="13" t="n">
+        <v>21274.86</v>
+      </c>
+      <c r="AW40" s="13" t="n">
+        <v>52959.2606213572</v>
+      </c>
+      <c r="AX40" s="13" t="n">
+        <v>-106084.052861548</v>
+      </c>
+      <c r="AY40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <f>M41</f>
+      </c>
+      <c r="B41" t="str">
+        <f>N41</f>
+      </c>
+      <c r="C41" s="13" t="str">
+        <f>AS41</f>
+      </c>
+      <c r="D41" s="13" t="str">
+        <f>AV41</f>
+      </c>
+      <c r="E41" s="13" t="str">
+        <f>AW41</f>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="2" t="str">
+        <f>AW41/AV41-1</f>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f>AW41/AS41-1</f>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="str">
+        <f>AW41/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13" t="n">
+        <v>9078.33631343452</v>
+      </c>
+      <c r="Z41" s="13" t="n">
+        <v>7097.36022188935</v>
+      </c>
+      <c r="AA41" s="13" t="n">
+        <v>28997933.7365903</v>
+      </c>
+      <c r="AB41" s="13" t="n">
+        <v>27439298.575855</v>
+      </c>
+      <c r="AC41" s="13" t="n">
+        <v>160338963.579794</v>
+      </c>
+      <c r="AD41" s="13" t="n">
+        <v>14722771.5347191</v>
+      </c>
+      <c r="AE41" s="13" t="n">
+        <v>15199094.8460769</v>
+      </c>
+      <c r="AF41" s="13" t="n">
+        <v>24075352.7378441</v>
+      </c>
+      <c r="AG41" s="13" t="n">
+        <v>30404423.2356446</v>
+      </c>
+      <c r="AH41" s="13" t="n">
+        <v>15108390.4798663</v>
+      </c>
+      <c r="AI41" s="13" t="n">
+        <v>182554405.555505</v>
+      </c>
+      <c r="AJ41" s="13" t="n">
+        <v>234762978.209526</v>
+      </c>
+      <c r="AK41" s="13" t="n">
+        <v>196537272.168104</v>
+      </c>
+      <c r="AL41" s="13" t="n">
+        <v>145565861.908317</v>
+      </c>
+      <c r="AM41" s="13" t="n">
+        <v>157149445.525027</v>
+      </c>
+      <c r="AN41" s="13" t="n">
+        <v>4331939.29080528</v>
+      </c>
+      <c r="AO41" s="13" t="n">
+        <v>-766029.608154232</v>
+      </c>
+      <c r="AP41" s="13" t="n">
+        <v>-809386.296163253</v>
+      </c>
+      <c r="AQ41" s="13" t="n">
+        <v>-6405624.201613</v>
+      </c>
+      <c r="AR41" s="13" t="n">
+        <v>-127499.353791717</v>
+      </c>
+      <c r="AS41" s="13" t="n">
+        <v>6141903.87848716</v>
+      </c>
+      <c r="AT41" s="13" t="n">
+        <v>4403607.55764707</v>
+      </c>
+      <c r="AU41" s="13" t="n">
+        <v>5759418.25945167</v>
+      </c>
+      <c r="AV41" s="13" t="n">
+        <v>-148521.52</v>
+      </c>
+      <c r="AW41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <f>M42</f>
+      </c>
+      <c r="B42" t="str">
+        <f>N42</f>
+      </c>
+      <c r="C42" s="13" t="str">
+        <f>AS42</f>
+      </c>
+      <c r="D42" s="13" t="str">
+        <f>AV42</f>
+      </c>
+      <c r="E42" s="13" t="str">
+        <f>AW42</f>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="2" t="str">
+        <f>AW42/AV42-1</f>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f>AW42/AS42-1</f>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="str">
+        <f>AW42/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="M42" t="s">
+        <v>120</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13" t="n">
+        <v>1177456285.14356</v>
+      </c>
+      <c r="W42" s="13" t="n">
+        <v>414757762.292053</v>
+      </c>
+      <c r="X42" s="13" t="n">
+        <v>1239100154.67143</v>
+      </c>
+      <c r="Y42" s="13" t="n">
+        <v>6374540091.23725</v>
+      </c>
+      <c r="Z42" s="13" t="n">
+        <v>8281486526.2645</v>
+      </c>
+      <c r="AA42" s="13" t="n">
+        <v>12756837509.5788</v>
+      </c>
+      <c r="AB42" s="13" t="n">
+        <v>15419299911.8591</v>
+      </c>
+      <c r="AC42" s="13" t="n">
+        <v>17553396583.1296</v>
+      </c>
+      <c r="AD42" s="13" t="n">
+        <v>14345626776.581</v>
+      </c>
+      <c r="AE42" s="13" t="n">
+        <v>12488710371.5838</v>
+      </c>
+      <c r="AF42" s="13" t="n">
+        <v>13722382624.7124</v>
+      </c>
+      <c r="AG42" s="13" t="n">
+        <v>12524532190.062</v>
+      </c>
+      <c r="AH42" s="13" t="n">
+        <v>13012361515.1137</v>
+      </c>
+      <c r="AI42" s="13" t="n">
+        <v>12125874337.5739</v>
+      </c>
+      <c r="AJ42" s="13" t="n">
+        <v>11002655119.4247</v>
+      </c>
+      <c r="AK42" s="13" t="n">
+        <v>9115091824.29543</v>
+      </c>
+      <c r="AL42" s="13" t="n">
+        <v>7774256116.4825</v>
+      </c>
+      <c r="AM42" s="13" t="n">
+        <v>7558546324.4826</v>
+      </c>
+      <c r="AN42" s="13" t="n">
+        <v>7145360765.77209</v>
+      </c>
+      <c r="AO42" s="13" t="n">
+        <v>8342084415.34308</v>
+      </c>
+      <c r="AP42" s="13" t="n">
+        <v>8394359741.94522</v>
+      </c>
+      <c r="AQ42" s="13" t="n">
+        <v>9191472679.98895</v>
+      </c>
+      <c r="AR42" s="13" t="n">
+        <v>10046883836.7433</v>
+      </c>
+      <c r="AS42" s="13" t="n">
+        <v>12293577963.5957</v>
+      </c>
+      <c r="AT42" s="13" t="n">
+        <v>13331449517.2511</v>
+      </c>
+      <c r="AU42" s="13" t="n">
+        <v>13068063307.241</v>
+      </c>
+      <c r="AV42" s="13" t="n">
+        <v>13521417956.5186</v>
+      </c>
+      <c r="AW42" s="13" t="n">
+        <v>15430616733.2498</v>
+      </c>
+      <c r="AX42" s="13" t="n">
+        <v>6118607747.31284</v>
+      </c>
+      <c r="AY42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <f>M43</f>
+      </c>
+      <c r="B43" t="str">
+        <f>N43</f>
+      </c>
+      <c r="C43" s="13" t="str">
+        <f>AS43</f>
+      </c>
+      <c r="D43" s="13" t="str">
+        <f>AV43</f>
+      </c>
+      <c r="E43" s="13" t="str">
+        <f>AW43</f>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="2" t="str">
+        <f>AW43/AV43-1</f>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f>AW43/AS43-1</f>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="str">
+        <f>AW43/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="M43" t="s">
+        <v>120</v>
+      </c>
+      <c r="N43" t="s">
+        <v>81</v>
+      </c>
+      <c r="O43" s="13" t="n">
+        <v>25826636.55011</v>
+      </c>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13" t="n">
+        <v>360868490.315767</v>
+      </c>
+      <c r="W43" s="13" t="n">
+        <v>419713064.161964</v>
+      </c>
+      <c r="X43" s="13" t="n">
+        <v>1120443130.33459</v>
+      </c>
+      <c r="Y43" s="13" t="n">
+        <v>6145871640.75612</v>
+      </c>
+      <c r="Z43" s="13" t="n">
+        <v>7344469626.87139</v>
+      </c>
+      <c r="AA43" s="13" t="n">
+        <v>11378367852.4161</v>
+      </c>
+      <c r="AB43" s="13" t="n">
+        <v>17540156687.6227</v>
+      </c>
+      <c r="AC43" s="13" t="n">
+        <v>25363117882.0067</v>
+      </c>
+      <c r="AD43" s="13" t="n">
+        <v>20654936956.8157</v>
+      </c>
+      <c r="AE43" s="13" t="n">
+        <v>27308816447.0921</v>
+      </c>
+      <c r="AF43" s="13" t="n">
+        <v>37555303700.0928</v>
+      </c>
+      <c r="AG43" s="13" t="n">
+        <v>47284297444.9388</v>
+      </c>
+      <c r="AH43" s="13" t="n">
+        <v>33733721472.7964</v>
+      </c>
+      <c r="AI43" s="13" t="n">
+        <v>31888837893.3535</v>
+      </c>
+      <c r="AJ43" s="13" t="n">
+        <v>27352866086.8611</v>
+      </c>
+      <c r="AK43" s="13" t="n">
+        <v>21929491883.034</v>
+      </c>
+      <c r="AL43" s="13" t="n">
+        <v>17013428162.6819</v>
+      </c>
+      <c r="AM43" s="13" t="n">
+        <v>15841583982.8607</v>
+      </c>
+      <c r="AN43" s="13" t="n">
+        <v>16310750678.1623</v>
+      </c>
+      <c r="AO43" s="13" t="n">
+        <v>15787859399.2545</v>
+      </c>
+      <c r="AP43" s="13" t="n">
+        <v>16390476179.799</v>
+      </c>
+      <c r="AQ43" s="13" t="n">
+        <v>16718513705.0226</v>
+      </c>
+      <c r="AR43" s="13" t="n">
+        <v>18047806620.2093</v>
+      </c>
+      <c r="AS43" s="13" t="n">
+        <v>21219380650.4602</v>
+      </c>
+      <c r="AT43" s="13" t="n">
+        <v>50052793361.5015</v>
+      </c>
+      <c r="AU43" s="13" t="n">
+        <v>45529983520.3443</v>
+      </c>
+      <c r="AV43" s="13" t="n">
+        <v>17537531960.5708</v>
+      </c>
+      <c r="AW43" s="13" t="n">
+        <v>15501049137.2044</v>
+      </c>
+      <c r="AX43" s="13" t="n">
+        <v>6436600250.04564</v>
+      </c>
+      <c r="AY43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <f>M44</f>
+      </c>
+      <c r="B44" t="str">
+        <f>N44</f>
+      </c>
+      <c r="C44" s="13" t="str">
+        <f>AS44</f>
+      </c>
+      <c r="D44" s="13" t="str">
+        <f>AV44</f>
+      </c>
+      <c r="E44" s="13" t="str">
+        <f>AW44</f>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="2" t="str">
+        <f>AW44/AV44-1</f>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f>AW44/AS44-1</f>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="str">
+        <f>AW44/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="13" t="n">
+        <v>3752485.28072674</v>
+      </c>
+      <c r="W44" s="13" t="n">
+        <v>83866225.0887789</v>
+      </c>
+      <c r="X44" s="13" t="n">
+        <v>527104643.826993</v>
+      </c>
+      <c r="Y44" s="13" t="n">
+        <v>9340907575.90713</v>
+      </c>
+      <c r="Z44" s="13" t="n">
+        <v>11485929478.4881</v>
+      </c>
+      <c r="AA44" s="13" t="n">
+        <v>15714854610.3961</v>
+      </c>
+      <c r="AB44" s="13" t="n">
+        <v>17985209938.4141</v>
+      </c>
+      <c r="AC44" s="13" t="n">
+        <v>21149754860.2352</v>
+      </c>
+      <c r="AD44" s="13" t="n">
+        <v>8551937504.60462</v>
+      </c>
+      <c r="AE44" s="13" t="n">
+        <v>13881201967.082</v>
+      </c>
+      <c r="AF44" s="13" t="n">
+        <v>27839171407.781</v>
+      </c>
+      <c r="AG44" s="13" t="n">
+        <v>37513221861.6815</v>
+      </c>
+      <c r="AH44" s="13" t="n">
+        <v>36807069552.5852</v>
+      </c>
+      <c r="AI44" s="13" t="n">
+        <v>29608174465.6999</v>
+      </c>
+      <c r="AJ44" s="13" t="n">
+        <v>30583165288.4292</v>
+      </c>
+      <c r="AK44" s="13" t="n">
+        <v>38738360367.1045</v>
+      </c>
+      <c r="AL44" s="13" t="n">
+        <v>28686657805.5344</v>
+      </c>
+      <c r="AM44" s="13" t="n">
+        <v>25516964743.0278</v>
+      </c>
+      <c r="AN44" s="13" t="n">
+        <v>21402136075.4583</v>
+      </c>
+      <c r="AO44" s="13" t="n">
+        <v>17136270153.0965</v>
+      </c>
+      <c r="AP44" s="13" t="n">
+        <v>20898860163.8868</v>
+      </c>
+      <c r="AQ44" s="13" t="n">
+        <v>27362867466.6549</v>
+      </c>
+      <c r="AR44" s="13" t="n">
+        <v>25478715480.9133</v>
+      </c>
+      <c r="AS44" s="13" t="n">
+        <v>26040328897.1923</v>
+      </c>
+      <c r="AT44" s="13" t="n">
+        <v>25600314898.6728</v>
+      </c>
+      <c r="AU44" s="13" t="n">
+        <v>31933376853.3111</v>
+      </c>
+      <c r="AV44" s="13" t="n">
+        <v>31477263940.2709</v>
+      </c>
+      <c r="AW44" s="13" t="n">
+        <v>30435838118.5559</v>
+      </c>
+      <c r="AX44" s="13" t="n">
+        <v>11343188585.0757</v>
+      </c>
+      <c r="AY44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <f>M45</f>
+      </c>
+      <c r="B45" t="str">
+        <f>N45</f>
+      </c>
+      <c r="C45" s="13" t="str">
+        <f>AS45</f>
+      </c>
+      <c r="D45" s="13" t="str">
+        <f>AV45</f>
+      </c>
+      <c r="E45" s="13" t="str">
+        <f>AW45</f>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="2" t="str">
+        <f>AW45/AV45-1</f>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f>AW45/AS45-1</f>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="str">
+        <f>AW45/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="M45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13" t="n">
+        <v>2187243.56799578</v>
+      </c>
+      <c r="Z45" s="13" t="n">
+        <v>5199379.35849974</v>
+      </c>
+      <c r="AA45" s="13" t="n">
+        <v>43635527.7828476</v>
+      </c>
+      <c r="AB45" s="13" t="n">
+        <v>82137544.3979284</v>
+      </c>
+      <c r="AC45" s="13" t="n">
+        <v>96822846.462558</v>
+      </c>
+      <c r="AD45" s="13" t="n">
+        <v>109785318.057854</v>
+      </c>
+      <c r="AE45" s="13" t="n">
+        <v>115244632.876985</v>
+      </c>
+      <c r="AF45" s="13" t="n">
+        <v>165052434.69054</v>
+      </c>
+      <c r="AG45" s="13" t="n">
+        <v>132049251.73018</v>
+      </c>
+      <c r="AH45" s="13" t="n">
+        <v>176087501.438057</v>
+      </c>
+      <c r="AI45" s="13" t="n">
+        <v>162928882.189942</v>
+      </c>
+      <c r="AJ45" s="13" t="n">
+        <v>85648167.5653023</v>
+      </c>
+      <c r="AK45" s="13" t="n">
+        <v>34577956.6972939</v>
+      </c>
+      <c r="AL45" s="13" t="n">
+        <v>21994545.7299984</v>
+      </c>
+      <c r="AM45" s="13" t="n">
+        <v>19323753.4509885</v>
+      </c>
+      <c r="AN45" s="13" t="n">
+        <v>19414107.9185585</v>
+      </c>
+      <c r="AO45" s="13" t="n">
+        <v>31095318.3015718</v>
+      </c>
+      <c r="AP45" s="13" t="n">
+        <v>41848569.7537222</v>
+      </c>
+      <c r="AQ45" s="13" t="n">
+        <v>59769540.5830946</v>
+      </c>
+      <c r="AR45" s="13" t="n">
+        <v>90299890.8842405</v>
+      </c>
+      <c r="AS45" s="13" t="n">
+        <v>93161067.9849322</v>
+      </c>
+      <c r="AT45" s="13" t="n">
+        <v>87563668.1311307</v>
+      </c>
+      <c r="AU45" s="13" t="n">
+        <v>80414050.5613124</v>
+      </c>
+      <c r="AV45" s="13" t="n">
+        <v>73229862.9829</v>
+      </c>
+      <c r="AW45" s="13" t="n">
+        <v>89651076.4092281</v>
+      </c>
+      <c r="AX45" s="13" t="n">
+        <v>37068679.6604387</v>
+      </c>
+      <c r="AY45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <f>M46</f>
+      </c>
+      <c r="B46" t="str">
+        <f>N46</f>
+      </c>
+      <c r="C46" s="13" t="str">
+        <f>AS46</f>
+      </c>
+      <c r="D46" s="13" t="str">
+        <f>AV46</f>
+      </c>
+      <c r="E46" s="13" t="str">
+        <f>AW46</f>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="2" t="str">
+        <f>AW46/AV46-1</f>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f>AW46/AS46-1</f>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="str">
+        <f>AW46/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N46" t="s">
+        <v>85</v>
+      </c>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="13" t="n">
+        <v>68035.4942605884</v>
+      </c>
+      <c r="V46" s="13" t="n">
+        <v>296575586.420436</v>
+      </c>
+      <c r="W46" s="13" t="n">
+        <v>257199801.450174</v>
+      </c>
+      <c r="X46" s="13" t="n">
+        <v>651984896.640844</v>
+      </c>
+      <c r="Y46" s="13" t="n">
+        <v>3889769047.91383</v>
+      </c>
+      <c r="Z46" s="13" t="n">
+        <v>4249846833.32381</v>
+      </c>
+      <c r="AA46" s="13" t="n">
+        <v>8132717133.78092</v>
+      </c>
+      <c r="AB46" s="13" t="n">
+        <v>9471196509.39908</v>
+      </c>
+      <c r="AC46" s="13" t="n">
+        <v>11246927075.504</v>
+      </c>
+      <c r="AD46" s="13" t="n">
+        <v>8677815210.94684</v>
+      </c>
+      <c r="AE46" s="13" t="n">
+        <v>10254313752.9052</v>
+      </c>
+      <c r="AF46" s="13" t="n">
+        <v>13407962884.9799</v>
+      </c>
+      <c r="AG46" s="13" t="n">
+        <v>12130717161.5248</v>
+      </c>
+      <c r="AH46" s="13" t="n">
+        <v>12412265660.6454</v>
+      </c>
+      <c r="AI46" s="13" t="n">
+        <v>10636658158.3993</v>
+      </c>
+      <c r="AJ46" s="13" t="n">
+        <v>10280433122.9748</v>
+      </c>
+      <c r="AK46" s="13" t="n">
+        <v>8672668917.44616</v>
+      </c>
+      <c r="AL46" s="13" t="n">
+        <v>8099106699.37808</v>
+      </c>
+      <c r="AM46" s="13" t="n">
+        <v>7546378823.83393</v>
+      </c>
+      <c r="AN46" s="13" t="n">
+        <v>8003618846.49553</v>
+      </c>
+      <c r="AO46" s="13" t="n">
+        <v>7880931367.29986</v>
+      </c>
+      <c r="AP46" s="13" t="n">
+        <v>8019045835.59654</v>
+      </c>
+      <c r="AQ46" s="13" t="n">
+        <v>8615456384.40967</v>
+      </c>
+      <c r="AR46" s="13" t="n">
+        <v>9489174092.37288</v>
+      </c>
+      <c r="AS46" s="13" t="n">
+        <v>9821913771.01901</v>
+      </c>
+      <c r="AT46" s="13" t="n">
+        <v>9513861324.25051</v>
+      </c>
+      <c r="AU46" s="13" t="n">
+        <v>9276742386.65776</v>
+      </c>
+      <c r="AV46" s="13" t="n">
+        <v>10141219591.4974</v>
+      </c>
+      <c r="AW46" s="13" t="n">
+        <v>10066335670.7105</v>
+      </c>
+      <c r="AX46" s="13" t="n">
+        <v>4279543666.33276</v>
+      </c>
+      <c r="AY46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <f>M47</f>
+      </c>
+      <c r="B47" t="str">
+        <f>N47</f>
+      </c>
+      <c r="C47" s="13" t="str">
+        <f>AS47</f>
+      </c>
+      <c r="D47" s="13" t="str">
+        <f>AV47</f>
+      </c>
+      <c r="E47" s="13" t="str">
+        <f>AW47</f>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="2" t="str">
+        <f>AW47/AV47-1</f>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f>AW47/AS47-1</f>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="str">
+        <f>AW47/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="13" t="n">
+        <v>60074225.209756</v>
+      </c>
+      <c r="W47" s="13" t="n">
+        <v>45830300.3603238</v>
+      </c>
+      <c r="X47" s="13" t="n">
+        <v>82542357.5863558</v>
+      </c>
+      <c r="Y47" s="13" t="n">
+        <v>1398634451.61653</v>
+      </c>
+      <c r="Z47" s="13" t="n">
+        <v>2002069139.94044</v>
+      </c>
+      <c r="AA47" s="13" t="n">
+        <v>4950360814.63377</v>
+      </c>
+      <c r="AB47" s="13" t="n">
+        <v>6086468985.96258</v>
+      </c>
+      <c r="AC47" s="13" t="n">
+        <v>6963173200.60346</v>
+      </c>
+      <c r="AD47" s="13" t="n">
+        <v>6356706052.32839</v>
+      </c>
+      <c r="AE47" s="13" t="n">
+        <v>7686816502.70934</v>
+      </c>
+      <c r="AF47" s="13" t="n">
+        <v>7155691570.22905</v>
+      </c>
+      <c r="AG47" s="13" t="n">
+        <v>7708357049.62558</v>
+      </c>
+      <c r="AH47" s="13" t="n">
+        <v>8812419902.43159</v>
+      </c>
+      <c r="AI47" s="13" t="n">
+        <v>10447850660.6665</v>
+      </c>
+      <c r="AJ47" s="13" t="n">
+        <v>11986483661.2088</v>
+      </c>
+      <c r="AK47" s="13" t="n">
+        <v>12736718730.7976</v>
+      </c>
+      <c r="AL47" s="13" t="n">
+        <v>10742744296.0254</v>
+      </c>
+      <c r="AM47" s="13" t="n">
+        <v>10478653076.0074</v>
+      </c>
+      <c r="AN47" s="13" t="n">
+        <v>10117063507.6298</v>
+      </c>
+      <c r="AO47" s="13" t="n">
+        <v>10555101500.3907</v>
+      </c>
+      <c r="AP47" s="13" t="n">
+        <v>11271878433.9197</v>
+      </c>
+      <c r="AQ47" s="13" t="n">
+        <v>12960780699.1546</v>
+      </c>
+      <c r="AR47" s="13" t="n">
+        <v>14209120665.7896</v>
+      </c>
+      <c r="AS47" s="13" t="n">
+        <v>14889254638.8528</v>
+      </c>
+      <c r="AT47" s="13" t="n">
+        <v>14206175197.1337</v>
+      </c>
+      <c r="AU47" s="13" t="n">
+        <v>14459012069.2436</v>
+      </c>
+      <c r="AV47" s="13" t="n">
+        <v>15406711902.4662</v>
+      </c>
+      <c r="AW47" s="13" t="n">
+        <v>16845361891.8408</v>
+      </c>
+      <c r="AX47" s="13" t="n">
+        <v>7273222269.94338</v>
+      </c>
+      <c r="AY47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <f>M48</f>
+      </c>
+      <c r="B48" t="str">
+        <f>N48</f>
+      </c>
+      <c r="C48" s="13" t="str">
+        <f>AS48</f>
+      </c>
+      <c r="D48" s="13" t="str">
+        <f>AV48</f>
+      </c>
+      <c r="E48" s="13" t="str">
+        <f>AW48</f>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="2" t="str">
+        <f>AW48/AV48-1</f>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f>AW48/AS48-1</f>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="str">
+        <f>AW48/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="M48"/>
+      <c r="N48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O48" s="13" t="n">
+        <v>84866398025.2474</v>
+      </c>
+      <c r="P48" s="13" t="n">
+        <v>87114575556.9788</v>
+      </c>
+      <c r="Q48" s="13" t="n">
+        <v>75203230158.442</v>
+      </c>
+      <c r="R48" s="13" t="n">
+        <v>75096842337.6677</v>
+      </c>
+      <c r="S48" s="13" t="n">
+        <v>81134228512.9612</v>
+      </c>
+      <c r="T48" s="13" t="n">
+        <v>67632378943.8494</v>
+      </c>
+      <c r="U48" s="13" t="n">
+        <v>69971086067.9618</v>
+      </c>
+      <c r="V48" s="13" t="n">
+        <v>61471377097.988</v>
+      </c>
+      <c r="W48" s="13" t="n">
+        <v>58470051512.793</v>
+      </c>
+      <c r="X48" s="13" t="n">
+        <v>60487650765.2023</v>
+      </c>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13" t="n">
+        <v>17394175.1027153</v>
+      </c>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="13" t="n">
+        <v>239277.253651481</v>
+      </c>
+      <c r="AS48" s="13" t="n">
+        <v>1470005.25080395</v>
+      </c>
+      <c r="AT48" s="13"/>
+      <c r="AU48" s="13"/>
+      <c r="AV48" s="13" t="n">
+        <v>-96821.0594</v>
+      </c>
+      <c r="AW48" s="13"/>
+      <c r="AX48" s="13"/>
+      <c r="AY48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <f>M49</f>
+      </c>
+      <c r="B49" t="str">
+        <f>N49</f>
+      </c>
+      <c r="C49" s="13" t="str">
+        <f>AS49</f>
+      </c>
+      <c r="D49" s="13" t="str">
+        <f>AV49</f>
+      </c>
+      <c r="E49" s="13" t="str">
+        <f>AW49</f>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="2" t="str">
+        <f>AW49/AV49-1</f>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f>AW49/AS49-1</f>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="str">
+        <f>AW49/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="M49"/>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
+      <c r="O49" s="13" t="n">
+        <v>47183784087.184</v>
+      </c>
+      <c r="P49" s="13" t="n">
+        <v>69679229394.3154</v>
+      </c>
+      <c r="Q49" s="13" t="n">
+        <v>60613831231.5507</v>
+      </c>
+      <c r="R49" s="13" t="n">
+        <v>58356385723.3453</v>
+      </c>
+      <c r="S49" s="13" t="n">
+        <v>38426626204.2276</v>
+      </c>
+      <c r="T49" s="13" t="n">
+        <v>53799528670.8018</v>
+      </c>
+      <c r="U49" s="13" t="n">
+        <v>56688250234.333</v>
+      </c>
+      <c r="V49" s="13" t="n">
+        <v>54861888895.4184</v>
+      </c>
+      <c r="W49" s="13" t="n">
+        <v>54013610909.2552</v>
+      </c>
+      <c r="X49" s="13" t="n">
+        <v>57958840662.9232</v>
+      </c>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13" t="n">
+        <v>1188296.87318934</v>
+      </c>
+      <c r="AA49" s="13" t="n">
+        <v>54296.4257516157</v>
+      </c>
+      <c r="AB49" s="13" t="n">
+        <v>68302.2952640225</v>
+      </c>
+      <c r="AC49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13" t="n">
+        <v>-137.296142087558</v>
+      </c>
+      <c r="AI49" s="13" t="n">
+        <v>-22487.0145145055</v>
+      </c>
+      <c r="AJ49" s="13" t="n">
+        <v>-1.48117293492247</v>
+      </c>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13" t="n">
+        <v>1775509.82661873</v>
+      </c>
+      <c r="AO49" s="13" t="n">
+        <v>4847769.85942543</v>
+      </c>
+      <c r="AP49" s="13" t="n">
+        <v>2719077.90294633</v>
+      </c>
+      <c r="AQ49" s="13" t="n">
+        <v>15136314.3699877</v>
+      </c>
+      <c r="AR49" s="13" t="n">
+        <v>49385912.6554525</v>
+      </c>
+      <c r="AS49" s="13" t="n">
+        <v>40431287.6652847</v>
+      </c>
+      <c r="AT49" s="13" t="n">
+        <v>21655246.3140544</v>
+      </c>
+      <c r="AU49" s="13" t="n">
+        <v>12588781.3267405</v>
+      </c>
+      <c r="AV49" s="13" t="n">
+        <v>10615317.9705</v>
+      </c>
+      <c r="AW49" s="13" t="n">
+        <v>3378600.86582061</v>
+      </c>
+      <c r="AX49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <f>M50</f>
+      </c>
+      <c r="B50" t="str">
+        <f>N50</f>
+      </c>
+      <c r="C50" s="13" t="str">
+        <f>AS50</f>
+      </c>
+      <c r="D50" s="13" t="str">
+        <f>AV50</f>
+      </c>
+      <c r="E50" s="13" t="str">
+        <f>AW50</f>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="2" t="str">
+        <f>AW50/AV50-1</f>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f>AW50/AS50-1</f>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="str">
+        <f>AW50/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="M50"/>
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" s="13" t="n">
+        <v>19004594725.5526</v>
+      </c>
+      <c r="P50" s="13" t="n">
+        <v>23330630247.3101</v>
+      </c>
+      <c r="Q50" s="13" t="n">
+        <v>13445905378.8714</v>
+      </c>
+      <c r="R50" s="13" t="n">
+        <v>15086053218.8843</v>
+      </c>
+      <c r="S50" s="13" t="n">
+        <v>12451827279.1128</v>
+      </c>
+      <c r="T50" s="13" t="n">
+        <v>12104722516.001</v>
+      </c>
+      <c r="U50" s="13" t="n">
+        <v>12936146645.7812</v>
+      </c>
+      <c r="V50" s="13" t="n">
+        <v>14000784210.4715</v>
+      </c>
+      <c r="W50" s="13" t="n">
+        <v>12673821709.5512</v>
+      </c>
+      <c r="X50" s="13" t="n">
+        <v>13293817813.3344</v>
+      </c>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="13" t="n">
+        <v>-865014.262532878</v>
+      </c>
+      <c r="AS50" s="13" t="n">
+        <v>10405759.0711667</v>
+      </c>
+      <c r="AT50" s="13" t="n">
+        <v>16534073.0802186</v>
+      </c>
+      <c r="AU50" s="13" t="n">
+        <v>15523194.1847019</v>
+      </c>
+      <c r="AV50" s="13" t="n">
+        <v>13298551.7912</v>
+      </c>
+      <c r="AW50" s="13" t="n">
+        <v>9758067.11667878</v>
+      </c>
+      <c r="AX50" s="13" t="n">
+        <v>4761907.80221785</v>
+      </c>
+      <c r="AY50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <f>M51</f>
+      </c>
+      <c r="B51" t="str">
+        <f>N51</f>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>AS51</f>
+      </c>
+      <c r="D51" s="13" t="str">
+        <f>AV51</f>
+      </c>
+      <c r="E51" s="13" t="str">
+        <f>AW51</f>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="2" t="str">
+        <f>AW51/AV51-1</f>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f>AW51/AS51-1</f>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="str">
+        <f>AW51/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="M51"/>
+      <c r="N51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13" t="n">
+        <v>640337269.816692</v>
+      </c>
+      <c r="T51" s="13" t="n">
+        <v>458937730.551573</v>
+      </c>
+      <c r="U51" s="13" t="n">
+        <v>537668558.608433</v>
+      </c>
+      <c r="V51" s="13" t="n">
+        <v>684197625.084961</v>
+      </c>
+      <c r="W51" s="13" t="n">
+        <v>959188548.482985</v>
+      </c>
+      <c r="X51" s="13" t="n">
+        <v>1588922604.51723</v>
+      </c>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="13"/>
+      <c r="AU51" s="13"/>
+      <c r="AV51" s="13"/>
+      <c r="AW51" s="13"/>
+      <c r="AX51" s="13"/>
+      <c r="AY51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <f>M52</f>
+      </c>
+      <c r="B52" t="str">
+        <f>N52</f>
+      </c>
+      <c r="C52" s="13" t="str">
+        <f>AS52</f>
+      </c>
+      <c r="D52" s="13" t="str">
+        <f>AV52</f>
+      </c>
+      <c r="E52" s="13" t="str">
+        <f>AW52</f>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="2" t="str">
+        <f>AW52/AV52-1</f>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f>AW52/AS52-1</f>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="str">
+        <f>AW52/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="M52"/>
+      <c r="N52" t="s">
+        <v>85</v>
+      </c>
+      <c r="O52" s="13" t="n">
+        <v>90973665201.0559</v>
+      </c>
+      <c r="P52" s="13" t="n">
+        <v>83749544861.4159</v>
+      </c>
+      <c r="Q52" s="13" t="n">
+        <v>79180400849.5152</v>
+      </c>
+      <c r="R52" s="13" t="n">
+        <v>71157199258.1273</v>
+      </c>
+      <c r="S52" s="13" t="n">
+        <v>74757057979.4722</v>
+      </c>
+      <c r="T52" s="13" t="n">
+        <v>70468554148.6879</v>
+      </c>
+      <c r="U52" s="13" t="n">
+        <v>63509865456.4083</v>
+      </c>
+      <c r="V52" s="13" t="n">
+        <v>63886028970.6291</v>
+      </c>
+      <c r="W52" s="13" t="n">
+        <v>65869027059.168</v>
+      </c>
+      <c r="X52" s="13" t="n">
+        <v>64306288048.9684</v>
+      </c>
+      <c r="Y52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="13" t="n">
+        <v>37270938.4728675</v>
+      </c>
+      <c r="AB52" s="13" t="n">
+        <v>17618149.3751991</v>
+      </c>
+      <c r="AC52" s="13" t="n">
+        <v>118491.632565047</v>
+      </c>
+      <c r="AD52" s="13" t="n">
+        <v>922871.524423619</v>
+      </c>
+      <c r="AE52" s="13" t="n">
+        <v>20841.3103384547</v>
+      </c>
+      <c r="AF52" s="13" t="n">
+        <v>5663.18719690197</v>
+      </c>
+      <c r="AG52" s="13" t="n">
+        <v>671547.084720821</v>
+      </c>
+      <c r="AH52" s="13" t="n">
+        <v>2136143.71945972</v>
+      </c>
+      <c r="AI52" s="13" t="n">
+        <v>-10802141.3664221</v>
+      </c>
+      <c r="AJ52" s="13" t="n">
+        <v>556661.578077033</v>
+      </c>
+      <c r="AK52" s="13" t="n">
+        <v>416620.166021937</v>
+      </c>
+      <c r="AL52" s="13" t="n">
+        <v>204403.852824751</v>
+      </c>
+      <c r="AM52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="13" t="n">
+        <v>1796070.43857411</v>
+      </c>
+      <c r="AO52" s="13" t="n">
+        <v>948726.488773677</v>
+      </c>
+      <c r="AP52" s="13" t="n">
+        <v>3636089.27627049</v>
+      </c>
+      <c r="AQ52" s="13" t="n">
+        <v>49798272.2315861</v>
+      </c>
+      <c r="AR52" s="13" t="n">
+        <v>2191914.56369121</v>
+      </c>
+      <c r="AS52" s="13" t="n">
+        <v>2453243.02340032</v>
+      </c>
+      <c r="AT52" s="13" t="n">
+        <v>23642007.3898828</v>
+      </c>
+      <c r="AU52" s="13" t="n">
+        <v>358158.796971779</v>
+      </c>
+      <c r="AV52" s="13" t="n">
+        <v>3405765.29</v>
+      </c>
+      <c r="AW52" s="13" t="n">
+        <v>3252976.10906697</v>
+      </c>
+      <c r="AX52" s="13" t="n">
+        <v>19205563.3981972</v>
+      </c>
+      <c r="AY52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <f>M53</f>
+      </c>
+      <c r="B53" t="str">
+        <f>N53</f>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>AS53</f>
+      </c>
+      <c r="D53" s="13" t="str">
+        <f>AV53</f>
+      </c>
+      <c r="E53" s="13" t="str">
+        <f>AW53</f>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="2" t="str">
+        <f>AW53/AV53-1</f>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f>AW53/AS53-1</f>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="str">
+        <f>AW53/Sum(AW$29:AW$53)</f>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="M53"/>
+      <c r="N53" t="s">
+        <v>86</v>
+      </c>
+      <c r="O53" s="13" t="n">
+        <v>6889556751.8342</v>
+      </c>
+      <c r="P53" s="13" t="n">
+        <v>8011222660.1091</v>
+      </c>
+      <c r="Q53" s="13" t="n">
+        <v>11969193116.5596</v>
+      </c>
+      <c r="R53" s="13" t="n">
+        <v>11334998573.9624</v>
+      </c>
+      <c r="S53" s="13" t="n">
+        <v>10840463235.327</v>
+      </c>
+      <c r="T53" s="13" t="n">
+        <v>8213528736.83126</v>
+      </c>
+      <c r="U53" s="13" t="n">
+        <v>8428594365.74081</v>
+      </c>
+      <c r="V53" s="13" t="n">
+        <v>9130040613.38741</v>
+      </c>
+      <c r="W53" s="13" t="n">
+        <v>11231283574.2342</v>
+      </c>
+      <c r="X53" s="13" t="n">
+        <v>12052760670.454</v>
+      </c>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="13"/>
+      <c r="AF53" s="13"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="13" t="n">
+        <v>325057.897611498</v>
+      </c>
+      <c r="AI53" s="13" t="n">
+        <v>-233049.40642639</v>
+      </c>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13" t="n">
+        <v>-705476.397611901</v>
+      </c>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="13" t="n">
+        <v>2006633.41396434</v>
+      </c>
+      <c r="AR53" s="13" t="n">
+        <v>688627.356008014</v>
+      </c>
+      <c r="AS53" s="13" t="n">
+        <v>567469.113975223</v>
+      </c>
+      <c r="AT53" s="13" t="n">
+        <v>708167.81827348</v>
+      </c>
+      <c r="AU53" s="13"/>
+      <c r="AV53" s="13"/>
+      <c r="AW53" s="13"/>
+      <c r="AX53" s="13"/>
+      <c r="AY53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <f>M54</f>
+      </c>
+      <c r="B54" t="str">
+        <f>N54</f>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f>AS54</f>
+      </c>
+      <c r="D54" s="13" t="str">
+        <f>AV54</f>
+      </c>
+      <c r="E54" s="13" t="str">
+        <f>AW54</f>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="2" t="str">
+        <f>AW54/AV54-1</f>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f>AW54/AS54-1</f>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="str">
+        <f>Sum(J$29:J$53)</f>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="M54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54" s="13" t="str">
+        <f>Sum(O30:O53)</f>
+      </c>
+      <c r="P54" s="13" t="str">
+        <f>Sum(P30:P53)</f>
+      </c>
+      <c r="Q54" s="13" t="str">
+        <f>Sum(Q30:Q53)</f>
+      </c>
+      <c r="R54" s="13" t="str">
+        <f>Sum(R30:R53)</f>
+      </c>
+      <c r="S54" s="13" t="str">
+        <f>Sum(S30:S53)</f>
+      </c>
+      <c r="T54" s="13" t="str">
+        <f>Sum(T30:T53)</f>
+      </c>
+      <c r="U54" s="13" t="str">
+        <f>Sum(U30:U53)</f>
+      </c>
+      <c r="V54" s="13" t="str">
+        <f>Sum(V30:V53)</f>
+      </c>
+      <c r="W54" s="13" t="str">
+        <f>Sum(W30:W53)</f>
+      </c>
+      <c r="X54" s="13" t="str">
+        <f>Sum(X30:X53)</f>
+      </c>
+      <c r="Y54" s="13" t="str">
+        <f>Sum(Y30:Y53)</f>
+      </c>
+      <c r="Z54" s="13" t="str">
+        <f>Sum(Z30:Z53)</f>
+      </c>
+      <c r="AA54" s="13" t="str">
+        <f>Sum(AA30:AA53)</f>
+      </c>
+      <c r="AB54" s="13" t="str">
+        <f>Sum(AB30:AB53)</f>
+      </c>
+      <c r="AC54" s="13" t="str">
+        <f>Sum(AC30:AC53)</f>
+      </c>
+      <c r="AD54" s="13" t="str">
+        <f>Sum(AD30:AD53)</f>
+      </c>
+      <c r="AE54" s="13" t="str">
+        <f>Sum(AE30:AE53)</f>
+      </c>
+      <c r="AF54" s="13" t="str">
+        <f>Sum(AF30:AF53)</f>
+      </c>
+      <c r="AG54" s="13" t="str">
+        <f>Sum(AG30:AG53)</f>
+      </c>
+      <c r="AH54" s="13" t="str">
+        <f>Sum(AH30:AH53)</f>
+      </c>
+      <c r="AI54" s="13" t="str">
+        <f>Sum(AI30:AI53)</f>
+      </c>
+      <c r="AJ54" s="13" t="str">
+        <f>Sum(AJ30:AJ53)</f>
+      </c>
+      <c r="AK54" s="13" t="str">
+        <f>Sum(AK30:AK53)</f>
+      </c>
+      <c r="AL54" s="13" t="str">
+        <f>Sum(AL30:AL53)</f>
+      </c>
+      <c r="AM54" s="13" t="str">
+        <f>Sum(AM30:AM53)</f>
+      </c>
+      <c r="AN54" s="13" t="str">
+        <f>Sum(AN30:AN53)</f>
+      </c>
+      <c r="AO54" s="13" t="str">
+        <f>Sum(AO30:AO53)</f>
+      </c>
+      <c r="AP54" s="13" t="str">
+        <f>Sum(AP30:AP53)</f>
+      </c>
+      <c r="AQ54" s="13" t="str">
+        <f>Sum(AQ30:AQ53)</f>
+      </c>
+      <c r="AR54" s="13" t="str">
+        <f>Sum(AR30:AR53)</f>
+      </c>
+      <c r="AS54" s="13" t="str">
+        <f>Sum(AS30:AS53)</f>
+      </c>
+      <c r="AT54" s="13" t="str">
+        <f>Sum(AT30:AT53)</f>
+      </c>
+      <c r="AU54" s="13" t="str">
+        <f>Sum(AU30:AU53)</f>
+      </c>
+      <c r="AV54" s="13" t="str">
+        <f>Sum(AV30:AV53)</f>
+      </c>
+      <c r="AW54" s="13" t="str">
+        <f>Sum(AW30:AW53)</f>
+      </c>
+      <c r="AX54" s="13" t="str">
+        <f>Sum(AX30:AX53)</f>
+      </c>
+      <c r="AY54" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -30160,115 +36261,115 @@
       <c r="N2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="13" t="n">
+      <c r="O2" s="9" t="n">
         <v>42111675000</v>
       </c>
-      <c r="P2" s="13" t="n">
+      <c r="P2" s="9" t="n">
         <v>43815582000</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="Q2" s="9" t="n">
         <v>39545885055</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="R2" s="9" t="n">
         <v>39957971414</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="S2" s="9" t="n">
         <v>44026483825</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="T2" s="9" t="n">
         <v>37789260369</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="U2" s="9" t="n">
         <v>39393811712.51</v>
       </c>
-      <c r="V2" s="13" t="n">
+      <c r="V2" s="9" t="n">
         <v>43071214393</v>
       </c>
-      <c r="W2" s="13" t="n">
+      <c r="W2" s="9" t="n">
         <v>41278050273</v>
       </c>
-      <c r="X2" s="13" t="n">
+      <c r="X2" s="9" t="n">
         <v>45233341240.67</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="Y2" s="9" t="n">
         <v>37958921676.9792</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="Z2" s="9" t="n">
         <v>40633046619.5646</v>
       </c>
-      <c r="AA2" s="13" t="n">
+      <c r="AA2" s="9" t="n">
         <v>47413884724.7769</v>
       </c>
-      <c r="AB2" s="13" t="n">
+      <c r="AB2" s="9" t="n">
         <v>55557135024.1209</v>
       </c>
-      <c r="AC2" s="13" t="n">
+      <c r="AC2" s="9" t="n">
         <v>55056695772.8358</v>
       </c>
-      <c r="AD2" s="13" t="n">
+      <c r="AD2" s="9" t="n">
         <v>55580069095.4808</v>
       </c>
-      <c r="AE2" s="13" t="n">
+      <c r="AE2" s="9" t="n">
         <v>63139443613.8063</v>
       </c>
-      <c r="AF2" s="13" t="n">
+      <c r="AF2" s="9" t="n">
         <v>69877137081.497</v>
       </c>
-      <c r="AG2" s="13" t="n">
+      <c r="AG2" s="9" t="n">
         <v>63650832496.9106</v>
       </c>
-      <c r="AH2" s="13" t="n">
+      <c r="AH2" s="9" t="n">
         <v>67807653951.5052</v>
       </c>
-      <c r="AI2" s="13" t="n">
+      <c r="AI2" s="9" t="n">
         <v>64907616713.9148</v>
       </c>
-      <c r="AJ2" s="13" t="n">
+      <c r="AJ2" s="9" t="n">
         <v>65476225770.1632</v>
       </c>
-      <c r="AK2" s="13" t="n">
+      <c r="AK2" s="9" t="n">
         <v>71494774005.5241</v>
       </c>
-      <c r="AL2" s="13" t="n">
+      <c r="AL2" s="9" t="n">
         <v>55167411498.5824</v>
       </c>
-      <c r="AM2" s="13" t="n">
+      <c r="AM2" s="9" t="n">
         <v>55803091071.5235</v>
       </c>
-      <c r="AN2" s="13" t="n">
+      <c r="AN2" s="9" t="n">
         <v>52855821371.6358</v>
       </c>
-      <c r="AO2" s="13" t="n">
+      <c r="AO2" s="9" t="n">
         <v>65049835659.9361</v>
       </c>
-      <c r="AP2" s="13" t="n">
+      <c r="AP2" s="9" t="n">
         <v>61419004040.2801</v>
       </c>
-      <c r="AQ2" s="13" t="n">
+      <c r="AQ2" s="9" t="n">
         <v>71868165429.6598</v>
       </c>
-      <c r="AR2" s="13" t="n">
+      <c r="AR2" s="9" t="n">
         <v>75814473840.6195</v>
       </c>
-      <c r="AS2" s="13" t="n">
+      <c r="AS2" s="9" t="n">
         <v>77957034535.1725</v>
       </c>
-      <c r="AT2" s="13" t="n">
+      <c r="AT2" s="9" t="n">
         <v>79169767074.4894</v>
       </c>
-      <c r="AU2" s="13" t="n">
+      <c r="AU2" s="9" t="n">
         <v>78801239912.0811</v>
       </c>
-      <c r="AV2" s="13" t="n">
+      <c r="AV2" s="9" t="n">
         <v>92753103729.3151</v>
       </c>
-      <c r="AW2" s="13" t="n">
+      <c r="AW2" s="9" t="n">
         <v>99859354794.5536</v>
       </c>
-      <c r="AX2" s="13" t="n">
+      <c r="AX2" s="9" t="n">
         <v>43817022708.15</v>
       </c>
-      <c r="AY2" s="13"/>
+      <c r="AY2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -30283,115 +36384,115 @@
       <c r="N3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="9" t="n">
         <v>23216088134.53</v>
       </c>
-      <c r="P3" s="13" t="n">
+      <c r="P3" s="9" t="n">
         <v>35268260000</v>
       </c>
-      <c r="Q3" s="13" t="n">
+      <c r="Q3" s="9" t="n">
         <v>31428914998</v>
       </c>
-      <c r="R3" s="13" t="n">
+      <c r="R3" s="9" t="n">
         <v>30957822464</v>
       </c>
-      <c r="S3" s="13" t="n">
+      <c r="S3" s="9" t="n">
         <v>20798814908</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="9" t="n">
         <v>29761242814</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="9" t="n">
         <v>32029210551</v>
       </c>
-      <c r="V3" s="13" t="n">
+      <c r="V3" s="9" t="n">
         <v>37067947798.21</v>
       </c>
-      <c r="W3" s="13" t="n">
+      <c r="W3" s="9" t="n">
         <v>37638355362</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="9" t="n">
         <v>43607320822.52</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="9" t="n">
         <v>36832500828.7767</v>
       </c>
-      <c r="Z3" s="13" t="n">
+      <c r="Z3" s="9" t="n">
         <v>40556105509.793</v>
       </c>
-      <c r="AA3" s="13" t="n">
+      <c r="AA3" s="9" t="n">
         <v>46178863972.4357</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="9" t="n">
         <v>64206590729.1569</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="9" t="n">
         <v>76070511906.1153</v>
       </c>
-      <c r="AD3" s="13" t="n">
+      <c r="AD3" s="9" t="n">
         <v>95626896372.1701</v>
       </c>
-      <c r="AE3" s="13" t="n">
+      <c r="AE3" s="9" t="n">
         <v>101677927943.316</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="9" t="n">
         <v>118362647693.621</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="9" t="n">
         <v>153115860209.798</v>
       </c>
-      <c r="AH3" s="13" t="n">
+      <c r="AH3" s="9" t="n">
         <v>147184981503.3</v>
       </c>
-      <c r="AI3" s="13" t="n">
+      <c r="AI3" s="9" t="n">
         <v>141175890062.267</v>
       </c>
-      <c r="AJ3" s="13" t="n">
+      <c r="AJ3" s="9" t="n">
         <v>125525303444.975</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="9" t="n">
         <v>109148363145.393</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="9" t="n">
         <v>87698991049.4181</v>
       </c>
-      <c r="AM3" s="13" t="n">
+      <c r="AM3" s="9" t="n">
         <v>75373911966.1924</v>
       </c>
-      <c r="AN3" s="13" t="n">
+      <c r="AN3" s="9" t="n">
         <v>72930300832.5493</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="9" t="n">
         <v>74197001335.8838</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="9" t="n">
         <v>78622025175.0228</v>
       </c>
-      <c r="AQ3" s="13" t="n">
+      <c r="AQ3" s="9" t="n">
         <v>91452191508.7047</v>
       </c>
-      <c r="AR3" s="13" t="n">
+      <c r="AR3" s="9" t="n">
         <v>95041873715.44</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="9" t="n">
         <v>100479498328.397</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="9" t="n">
         <v>109800145451.404</v>
       </c>
-      <c r="AU3" s="13" t="n">
+      <c r="AU3" s="9" t="n">
         <v>112550602092.505</v>
       </c>
-      <c r="AV3" s="13" t="n">
+      <c r="AV3" s="9" t="n">
         <v>112002715187.04</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="9" t="n">
         <v>104162099843.392</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="9" t="n">
         <v>37568543072.68</v>
       </c>
-      <c r="AY3" s="13"/>
+      <c r="AY3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -30406,115 +36507,115 @@
       <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="13" t="n">
+      <c r="O4" s="9" t="n">
         <v>9209787000</v>
       </c>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="9" t="n">
         <v>11713307000</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="9" t="n">
         <v>6907467039</v>
       </c>
-      <c r="R4" s="13" t="n">
+      <c r="R4" s="9" t="n">
         <v>7931460004</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="9" t="n">
         <v>6692479944</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="9" t="n">
         <v>6644824451</v>
       </c>
-      <c r="U4" s="13" t="n">
+      <c r="U4" s="9" t="n">
         <v>7292808729</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="9" t="n">
         <v>8059156410</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="9" t="n">
         <v>7839796546</v>
       </c>
-      <c r="X4" s="13" t="n">
+      <c r="X4" s="9" t="n">
         <v>9009714445</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="9" t="n">
         <v>9580614163.6178</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="9" t="n">
         <v>11426471526.7901</v>
       </c>
-      <c r="AA4" s="13" t="n">
+      <c r="AA4" s="9" t="n">
         <v>14591296027.8973</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="9" t="n">
         <v>17678992692.3501</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="9" t="n">
         <v>19619731983.3795</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="9" t="n">
         <v>27914804283.873</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="9" t="n">
         <v>32598809893.9357</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="9" t="n">
         <v>30639765053.0485</v>
       </c>
-      <c r="AG4" s="13" t="n">
+      <c r="AG4" s="9" t="n">
         <v>35718777232.1062</v>
       </c>
-      <c r="AH4" s="13" t="n">
+      <c r="AH4" s="9" t="n">
         <v>38025569516.8371</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="9" t="n">
         <v>35241646622.4366</v>
       </c>
-      <c r="AJ4" s="13" t="n">
+      <c r="AJ4" s="9" t="n">
         <v>36127582505.7791</v>
       </c>
-      <c r="AK4" s="13" t="n">
+      <c r="AK4" s="9" t="n">
         <v>43150233026.2016</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="9" t="n">
         <v>34083497069.3136</v>
       </c>
-      <c r="AM4" s="13" t="n">
+      <c r="AM4" s="9" t="n">
         <v>32346366353.5999</v>
       </c>
-      <c r="AN4" s="13" t="n">
+      <c r="AN4" s="9" t="n">
         <v>30903691696.1845</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="9" t="n">
         <v>30228927986.5049</v>
       </c>
-      <c r="AP4" s="13" t="n">
+      <c r="AP4" s="9" t="n">
         <v>35610979879.0438</v>
       </c>
-      <c r="AQ4" s="13" t="n">
+      <c r="AQ4" s="9" t="n">
         <v>45449940778.5474</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="9" t="n">
         <v>44237628561.7852</v>
       </c>
-      <c r="AS4" s="13" t="n">
+      <c r="AS4" s="9" t="n">
         <v>42123895255.2061</v>
       </c>
-      <c r="AT4" s="13" t="n">
+      <c r="AT4" s="9" t="n">
         <v>39109571324.1429</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="9" t="n">
         <v>48305520445.4362</v>
       </c>
-      <c r="AV4" s="13" t="n">
+      <c r="AV4" s="9" t="n">
         <v>50533052995.1319</v>
       </c>
-      <c r="AW4" s="13" t="n">
+      <c r="AW4" s="9" t="n">
         <v>53061881381.01</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="9" t="n">
         <v>23566620091.08</v>
       </c>
-      <c r="AY4" s="13"/>
+      <c r="AY4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -30529,101 +36630,101 @@
       <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13" t="n">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="n">
         <v>101268812</v>
       </c>
-      <c r="W5" s="13" t="n">
+      <c r="W5" s="9" t="n">
         <v>651152375</v>
       </c>
-      <c r="X5" s="13" t="n">
+      <c r="X5" s="9" t="n">
         <v>695421838</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="9" t="n">
         <v>178031456</v>
       </c>
-      <c r="Z5" s="13" t="n">
+      <c r="Z5" s="9" t="n">
         <v>268635741</v>
       </c>
-      <c r="AA5" s="13" t="n">
+      <c r="AA5" s="9" t="n">
         <v>6554622</v>
       </c>
-      <c r="AB5" s="13" t="n">
+      <c r="AB5" s="9" t="n">
         <v>239927692</v>
       </c>
-      <c r="AC5" s="13" t="n">
+      <c r="AC5" s="9" t="n">
         <v>196180520.0938</v>
       </c>
-      <c r="AD5" s="13" t="n">
+      <c r="AD5" s="9" t="n">
         <v>297828365</v>
       </c>
-      <c r="AE5" s="13" t="n">
+      <c r="AE5" s="9" t="n">
         <v>634208177</v>
       </c>
-      <c r="AF5" s="13" t="n">
+      <c r="AF5" s="9" t="n">
         <v>1065862779.7227</v>
       </c>
-      <c r="AG5" s="13" t="n">
+      <c r="AG5" s="9" t="n">
         <v>2725377093.3307</v>
       </c>
-      <c r="AH5" s="13" t="n">
+      <c r="AH5" s="9" t="n">
         <v>3681464083.0004</v>
       </c>
-      <c r="AI5" s="13" t="n">
+      <c r="AI5" s="9" t="n">
         <v>1874856013.4357</v>
       </c>
-      <c r="AJ5" s="13" t="n">
+      <c r="AJ5" s="9" t="n">
         <v>4877655064.5174</v>
       </c>
-      <c r="AK5" s="13" t="n">
+      <c r="AK5" s="9" t="n">
         <v>4691798600.1318</v>
       </c>
-      <c r="AL5" s="13" t="n">
+      <c r="AL5" s="9" t="n">
         <v>12181359822.95</v>
       </c>
-      <c r="AM5" s="13" t="n">
+      <c r="AM5" s="9" t="n">
         <v>3796342018.2</v>
       </c>
-      <c r="AN5" s="13" t="n">
+      <c r="AN5" s="9" t="n">
         <v>11232863388.03</v>
       </c>
-      <c r="AO5" s="13" t="n">
+      <c r="AO5" s="9" t="n">
         <v>10403767371.5552</v>
       </c>
-      <c r="AP5" s="13" t="n">
+      <c r="AP5" s="9" t="n">
         <v>24164351660.1826</v>
       </c>
-      <c r="AQ5" s="13" t="n">
+      <c r="AQ5" s="9" t="n">
         <v>15993414873.2521</v>
       </c>
-      <c r="AR5" s="13" t="n">
+      <c r="AR5" s="9" t="n">
         <v>17024265421.013</v>
       </c>
-      <c r="AS5" s="13" t="n">
+      <c r="AS5" s="9" t="n">
         <v>35959135989.5885</v>
       </c>
-      <c r="AT5" s="13" t="n">
+      <c r="AT5" s="9" t="n">
         <v>9846932188.5915</v>
       </c>
-      <c r="AU5" s="13" t="n">
+      <c r="AU5" s="9" t="n">
         <v>20737931626.8508</v>
       </c>
-      <c r="AV5" s="13" t="n">
+      <c r="AV5" s="9" t="n">
         <v>36167250027.113</v>
       </c>
-      <c r="AW5" s="13" t="n">
+      <c r="AW5" s="9" t="n">
         <v>12517289790.01</v>
       </c>
-      <c r="AX5" s="13" t="n">
+      <c r="AX5" s="9" t="n">
         <v>13779869218.89</v>
       </c>
-      <c r="AY5" s="13"/>
+      <c r="AY5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -30638,113 +36739,113 @@
       <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="9" t="n">
         <v>74831000</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="9" t="n">
         <v>68100000</v>
       </c>
-      <c r="Q6" s="13" t="n">
+      <c r="Q6" s="9" t="n">
         <v>1661000</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="n">
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="n">
         <v>343747860</v>
       </c>
-      <c r="T6" s="13" t="n">
+      <c r="T6" s="9" t="n">
         <v>251594273</v>
       </c>
-      <c r="U6" s="13" t="n">
+      <c r="U6" s="9" t="n">
         <v>310476090</v>
       </c>
-      <c r="V6" s="13" t="n">
+      <c r="V6" s="9" t="n">
         <v>431242526</v>
       </c>
-      <c r="W6" s="13" t="n">
+      <c r="W6" s="9" t="n">
         <v>747389215</v>
       </c>
-      <c r="X6" s="13" t="n">
+      <c r="X6" s="9" t="n">
         <v>945575248.63</v>
       </c>
-      <c r="Y6" s="13" t="n">
+      <c r="Y6" s="9" t="n">
         <v>1373879916</v>
       </c>
-      <c r="Z6" s="13" t="n">
+      <c r="Z6" s="9" t="n">
         <v>1673010916</v>
       </c>
-      <c r="AA6" s="13" t="n">
+      <c r="AA6" s="9" t="n">
         <v>2485964875.825</v>
       </c>
-      <c r="AB6" s="13" t="n">
+      <c r="AB6" s="9" t="n">
         <v>2671495076.0938</v>
       </c>
-      <c r="AC6" s="13" t="n">
+      <c r="AC6" s="9" t="n">
         <v>3382922964.5797</v>
       </c>
-      <c r="AD6" s="13" t="n">
+      <c r="AD6" s="9" t="n">
         <v>3841746261.1375</v>
       </c>
-      <c r="AE6" s="13" t="n">
+      <c r="AE6" s="9" t="n">
         <v>3492627141.4845</v>
       </c>
-      <c r="AF6" s="13" t="n">
+      <c r="AF6" s="9" t="n">
         <v>4929029621.6667</v>
       </c>
-      <c r="AG6" s="13" t="n">
+      <c r="AG6" s="9" t="n">
         <v>5760262873.5729</v>
       </c>
-      <c r="AH6" s="13" t="n">
+      <c r="AH6" s="9" t="n">
         <v>5673422751.5254</v>
       </c>
-      <c r="AI6" s="13" t="n">
+      <c r="AI6" s="9" t="n">
         <v>5356951769.0357</v>
       </c>
-      <c r="AJ6" s="13" t="n">
+      <c r="AJ6" s="9" t="n">
         <v>5382146529.484</v>
       </c>
-      <c r="AK6" s="13" t="n">
+      <c r="AK6" s="9" t="n">
         <v>6877002431.1045</v>
       </c>
-      <c r="AL6" s="13" t="n">
+      <c r="AL6" s="9" t="n">
         <v>7706159819.8678</v>
       </c>
-      <c r="AM6" s="13" t="n">
+      <c r="AM6" s="9" t="n">
         <v>6050847486.8864</v>
       </c>
-      <c r="AN6" s="13" t="n">
+      <c r="AN6" s="9" t="n">
         <v>4690777698.051</v>
       </c>
-      <c r="AO6" s="13" t="n">
+      <c r="AO6" s="9" t="n">
         <v>6589241607.8602</v>
       </c>
-      <c r="AP6" s="13" t="n">
+      <c r="AP6" s="9" t="n">
         <v>5412284919.1813</v>
       </c>
-      <c r="AQ6" s="13" t="n">
+      <c r="AQ6" s="9" t="n">
         <v>8293301633.6555</v>
       </c>
-      <c r="AR6" s="13" t="n">
+      <c r="AR6" s="9" t="n">
         <v>8819106629.0813</v>
       </c>
-      <c r="AS6" s="13" t="n">
+      <c r="AS6" s="9" t="n">
         <v>12327823652.2867</v>
       </c>
-      <c r="AT6" s="13" t="n">
+      <c r="AT6" s="9" t="n">
         <v>8817318506.7272</v>
       </c>
-      <c r="AU6" s="13" t="n">
+      <c r="AU6" s="9" t="n">
         <v>9841769591.9764</v>
       </c>
-      <c r="AV6" s="13" t="n">
+      <c r="AV6" s="9" t="n">
         <v>7078919042.8608</v>
       </c>
-      <c r="AW6" s="13" t="n">
+      <c r="AW6" s="9" t="n">
         <v>8459332539.52</v>
       </c>
-      <c r="AX6" s="13" t="n">
+      <c r="AX6" s="9" t="n">
         <v>4080439773.84</v>
       </c>
-      <c r="AY6" s="13"/>
+      <c r="AY6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -30759,115 +36860,115 @@
       <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="13" t="n">
+      <c r="O7" s="9" t="n">
         <v>44416973487.56</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="9" t="n">
         <v>42246069844</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="9" t="n">
         <v>41220475613</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="9" t="n">
         <v>38245449962</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="9" t="n">
         <v>41252757153.16</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="9" t="n">
         <v>39421018145</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="9" t="n">
         <v>36936668644</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="9" t="n">
         <v>45447574678</v>
       </c>
-      <c r="W7" s="13" t="n">
+      <c r="W7" s="9" t="n">
         <v>48153173352.09</v>
       </c>
-      <c r="X7" s="13" t="n">
+      <c r="X7" s="9" t="n">
         <v>49423055067.05</v>
       </c>
-      <c r="Y7" s="13" t="n">
+      <c r="Y7" s="9" t="n">
         <v>40297993522.9593</v>
       </c>
-      <c r="Z7" s="13" t="n">
+      <c r="Z7" s="9" t="n">
         <v>41940611224.7212</v>
       </c>
-      <c r="AA7" s="13" t="n">
+      <c r="AA7" s="9" t="n">
         <v>47787997916.3768</v>
       </c>
-      <c r="AB7" s="13" t="n">
+      <c r="AB7" s="9" t="n">
         <v>56619600367.3633</v>
       </c>
-      <c r="AC7" s="13" t="n">
+      <c r="AC7" s="9" t="n">
         <v>60624157330.322</v>
       </c>
-      <c r="AD7" s="13" t="n">
+      <c r="AD7" s="9" t="n">
         <v>65286569811.1077</v>
       </c>
-      <c r="AE7" s="13" t="n">
+      <c r="AE7" s="9" t="n">
         <v>74295888295.115</v>
       </c>
-      <c r="AF7" s="13" t="n">
+      <c r="AF7" s="9" t="n">
         <v>84706463044.1103</v>
       </c>
-      <c r="AG7" s="13" t="n">
+      <c r="AG7" s="9" t="n">
         <v>93702135950.2294</v>
       </c>
-      <c r="AH7" s="13" t="n">
+      <c r="AH7" s="9" t="n">
         <v>92071694336.7673</v>
       </c>
-      <c r="AI7" s="13" t="n">
+      <c r="AI7" s="9" t="n">
         <v>86215459919.6005</v>
       </c>
-      <c r="AJ7" s="13" t="n">
+      <c r="AJ7" s="9" t="n">
         <v>99202069231.0295</v>
       </c>
-      <c r="AK7" s="13" t="n">
+      <c r="AK7" s="9" t="n">
         <v>89920968627.0367</v>
       </c>
-      <c r="AL7" s="13" t="n">
+      <c r="AL7" s="9" t="n">
         <v>82197957231.9337</v>
       </c>
-      <c r="AM7" s="13" t="n">
+      <c r="AM7" s="9" t="n">
         <v>80328218894.056</v>
       </c>
-      <c r="AN7" s="13" t="n">
+      <c r="AN7" s="9" t="n">
         <v>73506011252.4841</v>
       </c>
-      <c r="AO7" s="13" t="n">
+      <c r="AO7" s="9" t="n">
         <v>82806908395.2001</v>
       </c>
-      <c r="AP7" s="13" t="n">
+      <c r="AP7" s="9" t="n">
         <v>85448502706.427</v>
       </c>
-      <c r="AQ7" s="13" t="n">
+      <c r="AQ7" s="9" t="n">
         <v>92309015189.5638</v>
       </c>
-      <c r="AR7" s="13" t="n">
+      <c r="AR7" s="9" t="n">
         <v>104803457437.478</v>
       </c>
-      <c r="AS7" s="13" t="n">
+      <c r="AS7" s="9" t="n">
         <v>114380922838.22</v>
       </c>
-      <c r="AT7" s="13" t="n">
+      <c r="AT7" s="9" t="n">
         <v>101942241454.525</v>
       </c>
-      <c r="AU7" s="13" t="n">
+      <c r="AU7" s="9" t="n">
         <v>103254240851.706</v>
       </c>
-      <c r="AV7" s="13" t="n">
+      <c r="AV7" s="9" t="n">
         <v>115660194539.842</v>
       </c>
-      <c r="AW7" s="13" t="n">
+      <c r="AW7" s="9" t="n">
         <v>122029893223.152</v>
       </c>
-      <c r="AX7" s="13" t="n">
+      <c r="AX7" s="9" t="n">
         <v>54513915433.12</v>
       </c>
-      <c r="AY7" s="13"/>
+      <c r="AY7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -30882,115 +36983,115 @@
       <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="13" t="n">
+      <c r="O8" s="9" t="n">
         <v>3335887000</v>
       </c>
-      <c r="P8" s="13" t="n">
+      <c r="P8" s="9" t="n">
         <v>4015324000</v>
       </c>
-      <c r="Q8" s="13" t="n">
+      <c r="Q8" s="9" t="n">
         <v>6148282864</v>
       </c>
-      <c r="R8" s="13" t="n">
+      <c r="R8" s="9" t="n">
         <v>5964388298</v>
       </c>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="9" t="n">
         <v>5823333448</v>
       </c>
-      <c r="T8" s="13" t="n">
+      <c r="T8" s="9" t="n">
         <v>4520245942</v>
       </c>
-      <c r="U8" s="13" t="n">
+      <c r="U8" s="9" t="n">
         <v>4743335584</v>
       </c>
-      <c r="V8" s="13" t="n">
+      <c r="V8" s="9" t="n">
         <v>5644509758</v>
       </c>
-      <c r="W8" s="13" t="n">
+      <c r="W8" s="9" t="n">
         <v>7004011243.32</v>
       </c>
-      <c r="X8" s="13" t="n">
+      <c r="X8" s="9" t="n">
         <v>7686591749.53</v>
       </c>
-      <c r="Y8" s="13" t="n">
+      <c r="Y8" s="9" t="n">
         <v>5956028175.0544</v>
       </c>
-      <c r="Z8" s="13" t="n">
+      <c r="Z8" s="9" t="n">
         <v>7495657034.3578</v>
       </c>
-      <c r="AA8" s="13" t="n">
+      <c r="AA8" s="9" t="n">
         <v>11345958996.1904</v>
       </c>
-      <c r="AB8" s="13" t="n">
+      <c r="AB8" s="9" t="n">
         <v>14559345718.7002</v>
       </c>
-      <c r="AC8" s="13" t="n">
+      <c r="AC8" s="9" t="n">
         <v>14824923355.3426</v>
       </c>
-      <c r="AD8" s="13" t="n">
+      <c r="AD8" s="9" t="n">
         <v>17116563570.2447</v>
       </c>
-      <c r="AE8" s="13" t="n">
+      <c r="AE8" s="9" t="n">
         <v>19296642324.7179</v>
       </c>
-      <c r="AF8" s="13" t="n">
+      <c r="AF8" s="9" t="n">
         <v>18557538546.5454</v>
       </c>
-      <c r="AG8" s="13" t="n">
+      <c r="AG8" s="9" t="n">
         <v>23312286688.3719</v>
       </c>
-      <c r="AH8" s="13" t="n">
+      <c r="AH8" s="9" t="n">
         <v>27101376297.008</v>
       </c>
-      <c r="AI8" s="13" t="n">
+      <c r="AI8" s="9" t="n">
         <v>27923078096.5896</v>
       </c>
-      <c r="AJ8" s="13" t="n">
+      <c r="AJ8" s="9" t="n">
         <v>32019518639.1978</v>
       </c>
-      <c r="AK8" s="13" t="n">
+      <c r="AK8" s="9" t="n">
         <v>32506745707.4143</v>
       </c>
-      <c r="AL8" s="13" t="n">
+      <c r="AL8" s="9" t="n">
         <v>29165300997.5759</v>
       </c>
-      <c r="AM8" s="13" t="n">
+      <c r="AM8" s="9" t="n">
         <v>29697467386.1097</v>
       </c>
-      <c r="AN8" s="13" t="n">
+      <c r="AN8" s="9" t="n">
         <v>28104624235.2971</v>
       </c>
-      <c r="AO8" s="13" t="n">
+      <c r="AO8" s="9" t="n">
         <v>29076175060.0733</v>
       </c>
-      <c r="AP8" s="13" t="n">
+      <c r="AP8" s="9" t="n">
         <v>31197266828.3478</v>
       </c>
-      <c r="AQ8" s="13" t="n">
+      <c r="AQ8" s="9" t="n">
         <v>33995574095.4882</v>
       </c>
-      <c r="AR8" s="13" t="n">
+      <c r="AR8" s="9" t="n">
         <v>37867570834.5594</v>
       </c>
-      <c r="AS8" s="13" t="n">
+      <c r="AS8" s="9" t="n">
         <v>39306434422.25</v>
       </c>
-      <c r="AT8" s="13" t="n">
+      <c r="AT8" s="9" t="n">
         <v>38287999340.9711</v>
       </c>
-      <c r="AU8" s="13" t="n">
+      <c r="AU8" s="9" t="n">
         <v>40861139922.4935</v>
       </c>
-      <c r="AV8" s="13" t="n">
+      <c r="AV8" s="9" t="n">
         <v>42926421135.422</v>
       </c>
-      <c r="AW8" s="13" t="n">
+      <c r="AW8" s="9" t="n">
         <v>45199750340.83</v>
       </c>
-      <c r="AX8" s="13" t="n">
+      <c r="AX8" s="9" t="n">
         <v>21307017233.53</v>
       </c>
-      <c r="AY8" s="13"/>
+      <c r="AY8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -31005,115 +37106,115 @@
       <c r="N9" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="O9" s="9" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="13" t="str">
+      <c r="P9" s="9" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="Q9" s="9" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="13" t="str">
+      <c r="R9" s="9" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="13" t="str">
+      <c r="S9" s="9" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="13" t="str">
+      <c r="T9" s="9" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="13" t="str">
+      <c r="U9" s="9" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="13" t="str">
+      <c r="V9" s="9" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="13" t="str">
+      <c r="W9" s="9" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="13" t="str">
+      <c r="X9" s="9" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="13" t="str">
+      <c r="Y9" s="9" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="13" t="str">
+      <c r="Z9" s="9" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="13" t="str">
+      <c r="AA9" s="9" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="13" t="str">
+      <c r="AB9" s="9" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="13" t="str">
+      <c r="AC9" s="9" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="13" t="str">
+      <c r="AD9" s="9" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="13" t="str">
+      <c r="AE9" s="9" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="13" t="str">
+      <c r="AF9" s="9" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="13" t="str">
+      <c r="AG9" s="9" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="13" t="str">
+      <c r="AH9" s="9" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="13" t="str">
+      <c r="AI9" s="9" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="13" t="str">
+      <c r="AJ9" s="9" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="13" t="str">
+      <c r="AK9" s="9" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="13" t="str">
+      <c r="AL9" s="9" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="13" t="str">
+      <c r="AM9" s="9" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="13" t="str">
+      <c r="AN9" s="9" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="13" t="str">
+      <c r="AO9" s="9" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="13" t="str">
+      <c r="AP9" s="9" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="13" t="str">
+      <c r="AQ9" s="9" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="13" t="str">
+      <c r="AR9" s="9" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="13" t="str">
+      <c r="AS9" s="9" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="13" t="str">
+      <c r="AT9" s="9" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="13" t="str">
+      <c r="AU9" s="9" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="13" t="str">
+      <c r="AV9" s="9" t="str">
         <f>Sum(AV2:AV8)</f>
       </c>
-      <c r="AW9" s="13" t="str">
+      <c r="AW9" s="9" t="str">
         <f>Sum(AW2:AW8)</f>
       </c>
-      <c r="AX9" s="13" t="str">
+      <c r="AX9" s="9" t="str">
         <f>Sum(AX2:AX8)</f>
       </c>
-      <c r="AY9" s="13"/>
+      <c r="AY9" s="9"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -31262,16 +37363,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="9" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="13" t="str">
+      <c r="D13" s="9" t="str">
         <f>AV13</f>
       </c>
-      <c r="E13" s="13" t="str">
+      <c r="E13" s="9" t="str">
         <f>AW13</f>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="2" t="str">
         <f>AW13/AV13-1</f>
       </c>
@@ -31289,115 +37390,115 @@
       <c r="N13" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="13" t="n">
+      <c r="O13" s="9" t="n">
         <v>87098816748.7271</v>
       </c>
-      <c r="P13" s="13" t="n">
+      <c r="P13" s="9" t="n">
         <v>87494979464.3834</v>
       </c>
-      <c r="Q13" s="13" t="n">
+      <c r="Q13" s="9" t="n">
         <v>77040635004.8672</v>
       </c>
-      <c r="R13" s="13" t="n">
+      <c r="R13" s="9" t="n">
         <v>76059091995.068</v>
       </c>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="9" t="n">
         <v>82013015156.3103</v>
       </c>
-      <c r="T13" s="13" t="n">
+      <c r="T13" s="9" t="n">
         <v>68932083334.7083</v>
       </c>
-      <c r="U13" s="13" t="n">
+      <c r="U13" s="9" t="n">
         <v>70530985543.9256</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="9" t="n">
         <v>75770329196.7893</v>
       </c>
-      <c r="W13" s="13" t="n">
+      <c r="W13" s="9" t="n">
         <v>71716646753.1509</v>
       </c>
-      <c r="X13" s="13" t="n">
+      <c r="X13" s="9" t="n">
         <v>77627357830.4787</v>
       </c>
-      <c r="Y13" s="13" t="n">
+      <c r="Y13" s="9" t="n">
         <v>63815529088.6921</v>
       </c>
-      <c r="Z13" s="13" t="n">
+      <c r="Z13" s="9" t="n">
         <v>66694581122.0798</v>
       </c>
-      <c r="AA13" s="13" t="n">
+      <c r="AA13" s="9" t="n">
         <v>76619180701.0273</v>
       </c>
-      <c r="AB13" s="13" t="n">
+      <c r="AB13" s="9" t="n">
         <v>88087536928.2891</v>
       </c>
-      <c r="AC13" s="13" t="n">
+      <c r="AC13" s="9" t="n">
         <v>85213273149.2519</v>
       </c>
-      <c r="AD13" s="13" t="n">
+      <c r="AD13" s="9" t="n">
         <v>83482946205.8806</v>
       </c>
-      <c r="AE13" s="13" t="n">
+      <c r="AE13" s="9" t="n">
         <v>91853555939.114</v>
       </c>
-      <c r="AF13" s="13" t="n">
+      <c r="AF13" s="9" t="n">
         <v>98931827019.0245</v>
       </c>
-      <c r="AG13" s="13" t="n">
+      <c r="AG13" s="9" t="n">
         <v>88283798656.4391</v>
       </c>
-      <c r="AH13" s="13" t="n">
+      <c r="AH13" s="9" t="n">
         <v>93097292915.4981</v>
       </c>
-      <c r="AI13" s="13" t="n">
+      <c r="AI13" s="9" t="n">
         <v>88350499212.3494</v>
       </c>
-      <c r="AJ13" s="13" t="n">
+      <c r="AJ13" s="9" t="n">
         <v>87370822965.4406</v>
       </c>
-      <c r="AK13" s="13" t="n">
+      <c r="AK13" s="9" t="n">
         <v>93701600453.0657</v>
       </c>
-      <c r="AL13" s="13" t="n">
+      <c r="AL13" s="9" t="n">
         <v>71014298421.691</v>
       </c>
-      <c r="AM13" s="13" t="n">
+      <c r="AM13" s="9" t="n">
         <v>70545601980.441</v>
       </c>
-      <c r="AN13" s="13" t="n">
+      <c r="AN13" s="9" t="n">
         <v>66134790023.8668</v>
       </c>
-      <c r="AO13" s="13" t="n">
+      <c r="AO13" s="9" t="n">
         <v>80746730144.4438</v>
       </c>
-      <c r="AP13" s="13" t="n">
+      <c r="AP13" s="9" t="n">
         <v>74974178246.3725</v>
       </c>
-      <c r="AQ13" s="13" t="n">
+      <c r="AQ13" s="9" t="n">
         <v>85824172872.2855</v>
       </c>
-      <c r="AR13" s="13" t="n">
+      <c r="AR13" s="9" t="n">
         <v>88893217035.1375</v>
       </c>
-      <c r="AS13" s="13" t="n">
+      <c r="AS13" s="9" t="n">
         <v>90226748879.2771</v>
       </c>
-      <c r="AT13" s="13" t="n">
+      <c r="AT13" s="9" t="n">
         <v>88581608311.3542</v>
       </c>
-      <c r="AU13" s="13" t="n">
+      <c r="AU13" s="9" t="n">
         <v>82406128297.6647</v>
       </c>
-      <c r="AV13" s="13" t="n">
+      <c r="AV13" s="9" t="n">
         <v>92753103729.3151</v>
       </c>
-      <c r="AW13" s="13" t="n">
+      <c r="AW13" s="9" t="n">
         <v>97261880189.3591</v>
       </c>
-      <c r="AX13" s="13" t="n">
+      <c r="AX13" s="9" t="n">
         <v>41760961603.5563</v>
       </c>
-      <c r="AY13" s="13"/>
+      <c r="AY13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -31406,16 +37507,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="9" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="13" t="str">
+      <c r="D14" s="9" t="str">
         <f>AV14</f>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="9" t="str">
         <f>AW14</f>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="2" t="str">
         <f>AW14/AV14-1</f>
       </c>
@@ -31433,115 +37534,115 @@
       <c r="N14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="13" t="n">
+      <c r="O14" s="9" t="n">
         <v>48017415741.6376</v>
       </c>
-      <c r="P14" s="13" t="n">
+      <c r="P14" s="9" t="n">
         <v>70426901654.4053</v>
       </c>
-      <c r="Q14" s="13" t="n">
+      <c r="Q14" s="9" t="n">
         <v>61227699559.4457</v>
       </c>
-      <c r="R14" s="13" t="n">
+      <c r="R14" s="9" t="n">
         <v>58927512669.7591</v>
       </c>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="9" t="n">
         <v>38744259683.8608</v>
       </c>
-      <c r="T14" s="13" t="n">
+      <c r="T14" s="9" t="n">
         <v>54288029185.1932</v>
       </c>
-      <c r="U14" s="13" t="n">
+      <c r="U14" s="9" t="n">
         <v>57345346595.0983</v>
       </c>
-      <c r="V14" s="13" t="n">
+      <c r="V14" s="9" t="n">
         <v>65209459424.3955</v>
       </c>
-      <c r="W14" s="13" t="n">
+      <c r="W14" s="9" t="n">
         <v>65393026512.0039</v>
       </c>
-      <c r="X14" s="13" t="n">
+      <c r="X14" s="9" t="n">
         <v>74836857164.8788</v>
       </c>
-      <c r="Y14" s="13" t="n">
+      <c r="Y14" s="9" t="n">
         <v>61921820331.202</v>
       </c>
-      <c r="Z14" s="13" t="n">
+      <c r="Z14" s="9" t="n">
         <v>66568290934.309</v>
       </c>
-      <c r="AA14" s="13" t="n">
+      <c r="AA14" s="9" t="n">
         <v>74623430326.5868</v>
       </c>
-      <c r="AB14" s="13" t="n">
+      <c r="AB14" s="9" t="n">
         <v>101801513512.866</v>
       </c>
-      <c r="AC14" s="13" t="n">
+      <c r="AC14" s="9" t="n">
         <v>117737129311.299</v>
       </c>
-      <c r="AD14" s="13" t="n">
+      <c r="AD14" s="9" t="n">
         <v>143634493004.297</v>
       </c>
-      <c r="AE14" s="13" t="n">
+      <c r="AE14" s="9" t="n">
         <v>147918301264.099</v>
       </c>
-      <c r="AF14" s="13" t="n">
+      <c r="AF14" s="9" t="n">
         <v>167577457752.483</v>
       </c>
-      <c r="AG14" s="13" t="n">
+      <c r="AG14" s="9" t="n">
         <v>212371924193.221</v>
       </c>
-      <c r="AH14" s="13" t="n">
+      <c r="AH14" s="9" t="n">
         <v>202079301336.317</v>
       </c>
-      <c r="AI14" s="13" t="n">
+      <c r="AI14" s="9" t="n">
         <v>192164818171.102</v>
       </c>
-      <c r="AJ14" s="13" t="n">
+      <c r="AJ14" s="9" t="n">
         <v>167499713613.178</v>
       </c>
-      <c r="AK14" s="13" t="n">
+      <c r="AK14" s="9" t="n">
         <v>143050683855.096</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="9" t="n">
         <v>112890602485.937</v>
       </c>
-      <c r="AM14" s="13" t="n">
+      <c r="AM14" s="9" t="n">
         <v>95286800268.1171</v>
       </c>
-      <c r="AN14" s="13" t="n">
+      <c r="AN14" s="9" t="n">
         <v>91252581206.2471</v>
       </c>
-      <c r="AO14" s="13" t="n">
+      <c r="AO14" s="9" t="n">
         <v>92101158805.6245</v>
       </c>
-      <c r="AP14" s="13" t="n">
+      <c r="AP14" s="9" t="n">
         <v>95973906149.5869</v>
       </c>
-      <c r="AQ14" s="13" t="n">
+      <c r="AQ14" s="9" t="n">
         <v>109211201464.08</v>
       </c>
-      <c r="AR14" s="13" t="n">
+      <c r="AR14" s="9" t="n">
         <v>111437532698.225</v>
       </c>
-      <c r="AS14" s="13" t="n">
+      <c r="AS14" s="9" t="n">
         <v>116294039623.86</v>
       </c>
-      <c r="AT14" s="13" t="n">
+      <c r="AT14" s="9" t="n">
         <v>122853379974.641</v>
       </c>
-      <c r="AU14" s="13" t="n">
+      <c r="AU14" s="9" t="n">
         <v>117699408871.769</v>
       </c>
-      <c r="AV14" s="13" t="n">
+      <c r="AV14" s="9" t="n">
         <v>112002715187.04</v>
       </c>
-      <c r="AW14" s="13" t="n">
+      <c r="AW14" s="9" t="n">
         <v>101452705117.945</v>
       </c>
-      <c r="AX14" s="13" t="n">
+      <c r="AX14" s="9" t="n">
         <v>35805684361.752</v>
       </c>
-      <c r="AY14" s="13"/>
+      <c r="AY14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -31550,16 +37651,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="9" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="13" t="str">
+      <c r="D15" s="9" t="str">
         <f>AV15</f>
       </c>
-      <c r="E15" s="13" t="str">
+      <c r="E15" s="9" t="str">
         <f>AW15</f>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="2" t="str">
         <f>AW15/AV15-1</f>
       </c>
@@ -31577,115 +37678,115 @@
       <c r="N15" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="13" t="n">
+      <c r="O15" s="9" t="n">
         <v>19048436097.7759</v>
       </c>
-      <c r="P15" s="13" t="n">
+      <c r="P15" s="9" t="n">
         <v>23390207516.2443</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="Q15" s="9" t="n">
         <v>13456662968.0846</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="R15" s="9" t="n">
         <v>15097354163.682</v>
       </c>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="9" t="n">
         <v>12466824769.8878</v>
       </c>
-      <c r="T15" s="13" t="n">
+      <c r="T15" s="9" t="n">
         <v>12120946224.6207</v>
       </c>
-      <c r="U15" s="13" t="n">
+      <c r="U15" s="9" t="n">
         <v>13057101221.7223</v>
       </c>
-      <c r="V15" s="13" t="n">
+      <c r="V15" s="9" t="n">
         <v>14177564826.994</v>
       </c>
-      <c r="W15" s="13" t="n">
+      <c r="W15" s="9" t="n">
         <v>13620893326.7814</v>
       </c>
-      <c r="X15" s="13" t="n">
+      <c r="X15" s="9" t="n">
         <v>15462053166.7381</v>
       </c>
-      <c r="Y15" s="13" t="n">
+      <c r="Y15" s="9" t="n">
         <v>16106673604.9216</v>
       </c>
-      <c r="Z15" s="13" t="n">
+      <c r="Z15" s="9" t="n">
         <v>18755269308.6936</v>
       </c>
-      <c r="AA15" s="13" t="n">
+      <c r="AA15" s="9" t="n">
         <v>23579024446.386</v>
       </c>
-      <c r="AB15" s="13" t="n">
+      <c r="AB15" s="9" t="n">
         <v>28030583667.8983</v>
       </c>
-      <c r="AC15" s="13" t="n">
+      <c r="AC15" s="9" t="n">
         <v>30366180845.8855</v>
       </c>
-      <c r="AD15" s="13" t="n">
+      <c r="AD15" s="9" t="n">
         <v>41928881023.4268</v>
       </c>
-      <c r="AE15" s="13" t="n">
+      <c r="AE15" s="9" t="n">
         <v>47423867502.7921</v>
       </c>
-      <c r="AF15" s="13" t="n">
+      <c r="AF15" s="9" t="n">
         <v>43379681291.1272</v>
       </c>
-      <c r="AG15" s="13" t="n">
+      <c r="AG15" s="9" t="n">
         <v>49541996761.2603</v>
       </c>
-      <c r="AH15" s="13" t="n">
+      <c r="AH15" s="9" t="n">
         <v>52207639953.4397</v>
       </c>
-      <c r="AI15" s="13" t="n">
+      <c r="AI15" s="9" t="n">
         <v>47969979946.7447</v>
       </c>
-      <c r="AJ15" s="13" t="n">
+      <c r="AJ15" s="9" t="n">
         <v>48208285956.5213</v>
       </c>
-      <c r="AK15" s="13" t="n">
+      <c r="AK15" s="9" t="n">
         <v>56553027136.8564</v>
       </c>
-      <c r="AL15" s="13" t="n">
+      <c r="AL15" s="9" t="n">
         <v>43874011239.3576</v>
       </c>
-      <c r="AM15" s="13" t="n">
+      <c r="AM15" s="9" t="n">
         <v>40891890439.7223</v>
       </c>
-      <c r="AN15" s="13" t="n">
+      <c r="AN15" s="9" t="n">
         <v>38667626540.4941</v>
       </c>
-      <c r="AO15" s="13" t="n">
+      <c r="AO15" s="9" t="n">
         <v>37523339850.4259</v>
       </c>
-      <c r="AP15" s="13" t="n">
+      <c r="AP15" s="9" t="n">
         <v>43470323146.6994</v>
       </c>
-      <c r="AQ15" s="13" t="n">
+      <c r="AQ15" s="9" t="n">
         <v>54275819496.6165</v>
       </c>
-      <c r="AR15" s="13" t="n">
+      <c r="AR15" s="9" t="n">
         <v>51869055045.2079</v>
       </c>
-      <c r="AS15" s="13" t="n">
+      <c r="AS15" s="9" t="n">
         <v>48753805755.575</v>
       </c>
-      <c r="AT15" s="13" t="n">
+      <c r="AT15" s="9" t="n">
         <v>43758985990.2028</v>
       </c>
-      <c r="AU15" s="13" t="n">
+      <c r="AU15" s="9" t="n">
         <v>50515333511.9261</v>
       </c>
-      <c r="AV15" s="13" t="n">
+      <c r="AV15" s="9" t="n">
         <v>50533052995.1319</v>
       </c>
-      <c r="AW15" s="13" t="n">
+      <c r="AW15" s="9" t="n">
         <v>51681671287.7786</v>
       </c>
-      <c r="AX15" s="13" t="n">
+      <c r="AX15" s="9" t="n">
         <v>22460784780.0242</v>
       </c>
-      <c r="AY15" s="13"/>
+      <c r="AY15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -31694,16 +37795,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="9" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="13" t="str">
+      <c r="D16" s="9" t="str">
         <f>AV16</f>
       </c>
-      <c r="E16" s="13" t="str">
+      <c r="E16" s="9" t="str">
         <f>AW16</f>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2" t="str">
         <f>AW16/AV16-1</f>
       </c>
@@ -31721,101 +37822,101 @@
       <c r="N16" t="s">
         <v>85</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13" t="n">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9" t="n">
         <v>178150798.177978</v>
       </c>
-      <c r="W16" s="13" t="n">
+      <c r="W16" s="9" t="n">
         <v>1131314695.13461</v>
       </c>
-      <c r="X16" s="13" t="n">
+      <c r="X16" s="9" t="n">
         <v>1193450635.76726</v>
       </c>
-      <c r="Y16" s="13" t="n">
+      <c r="Y16" s="9" t="n">
         <v>299301746.655263</v>
       </c>
-      <c r="Z16" s="13" t="n">
+      <c r="Z16" s="9" t="n">
         <v>440935389.072888</v>
       </c>
-      <c r="AA16" s="13" t="n">
+      <c r="AA16" s="9" t="n">
         <v>10592040.0819318</v>
       </c>
-      <c r="AB16" s="13" t="n">
+      <c r="AB16" s="9" t="n">
         <v>380412694.426977</v>
       </c>
-      <c r="AC16" s="13" t="n">
+      <c r="AC16" s="9" t="n">
         <v>303635806.883335</v>
       </c>
-      <c r="AD16" s="13" t="n">
+      <c r="AD16" s="9" t="n">
         <v>447347219.57915</v>
       </c>
-      <c r="AE16" s="13" t="n">
+      <c r="AE16" s="9" t="n">
         <v>922628913.542959</v>
       </c>
-      <c r="AF16" s="13" t="n">
+      <c r="AF16" s="9" t="n">
         <v>1509045111.94499</v>
       </c>
-      <c r="AG16" s="13" t="n">
+      <c r="AG16" s="9" t="n">
         <v>3780102052.58756</v>
       </c>
-      <c r="AH16" s="13" t="n">
+      <c r="AH16" s="9" t="n">
         <v>5054508158.29863</v>
       </c>
-      <c r="AI16" s="13" t="n">
+      <c r="AI16" s="9" t="n">
         <v>2552003495.49745</v>
       </c>
-      <c r="AJ16" s="13" t="n">
+      <c r="AJ16" s="9" t="n">
         <v>6508694295.00063</v>
       </c>
-      <c r="AK16" s="13" t="n">
+      <c r="AK16" s="9" t="n">
         <v>6149107315.19809</v>
       </c>
-      <c r="AL16" s="13" t="n">
+      <c r="AL16" s="9" t="n">
         <v>15680466024.2433</v>
       </c>
-      <c r="AM16" s="13" t="n">
+      <c r="AM16" s="9" t="n">
         <v>4799290287.59893</v>
       </c>
-      <c r="AN16" s="13" t="n">
+      <c r="AN16" s="9" t="n">
         <v>14054895794.937</v>
       </c>
-      <c r="AO16" s="13" t="n">
+      <c r="AO16" s="9" t="n">
         <v>12914255476.8041</v>
       </c>
-      <c r="AP16" s="13" t="n">
+      <c r="AP16" s="9" t="n">
         <v>29497424077.2514</v>
       </c>
-      <c r="AQ16" s="13" t="n">
+      <c r="AQ16" s="9" t="n">
         <v>19099160173.2704</v>
       </c>
-      <c r="AR16" s="13" t="n">
+      <c r="AR16" s="9" t="n">
         <v>19961118824.2935</v>
       </c>
-      <c r="AS16" s="13" t="n">
+      <c r="AS16" s="9" t="n">
         <v>41618770547.0575</v>
       </c>
-      <c r="AT16" s="13" t="n">
+      <c r="AT16" s="9" t="n">
         <v>11017552816.3117</v>
       </c>
-      <c r="AU16" s="13" t="n">
+      <c r="AU16" s="9" t="n">
         <v>21686621380.287</v>
       </c>
-      <c r="AV16" s="13" t="n">
+      <c r="AV16" s="9" t="n">
         <v>36167250027.113</v>
       </c>
-      <c r="AW16" s="13" t="n">
+      <c r="AW16" s="9" t="n">
         <v>12191698437.8297</v>
       </c>
-      <c r="AX16" s="13" t="n">
+      <c r="AX16" s="9" t="n">
         <v>13133265424.8335</v>
       </c>
-      <c r="AY16" s="13"/>
+      <c r="AY16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -31824,16 +37925,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="9" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="13" t="str">
+      <c r="D17" s="9" t="str">
         <f>AV17</f>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E17" s="9" t="str">
         <f>AW17</f>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="2" t="str">
         <f>AW17/AV17-1</f>
       </c>
@@ -31851,113 +37952,113 @@
       <c r="N17" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="13" t="n">
+      <c r="O17" s="9" t="n">
         <v>154771605.644373</v>
       </c>
-      <c r="P17" s="13" t="n">
+      <c r="P17" s="9" t="n">
         <v>135988336.330315</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="9" t="n">
         <v>3235848.54821463</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13" t="n">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9" t="n">
         <v>640337269.816692</v>
       </c>
-      <c r="T17" s="13" t="n">
+      <c r="T17" s="9" t="n">
         <v>458937730.551573</v>
       </c>
-      <c r="U17" s="13" t="n">
+      <c r="U17" s="9" t="n">
         <v>555878795.769603</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="9" t="n">
         <v>758636333.318371</v>
       </c>
-      <c r="W17" s="13" t="n">
+      <c r="W17" s="9" t="n">
         <v>1298516959.129</v>
       </c>
-      <c r="X17" s="13" t="n">
+      <c r="X17" s="9" t="n">
         <v>1622752292.1753</v>
       </c>
-      <c r="Y17" s="13" t="n">
+      <c r="Y17" s="9" t="n">
         <v>2309730357.72614</v>
       </c>
-      <c r="Z17" s="13" t="n">
+      <c r="Z17" s="9" t="n">
         <v>2746059464.84853</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="9" t="n">
         <v>4017232360.15943</v>
       </c>
-      <c r="AB17" s="13" t="n">
+      <c r="AB17" s="9" t="n">
         <v>4235737157.19836</v>
       </c>
-      <c r="AC17" s="13" t="n">
+      <c r="AC17" s="9" t="n">
         <v>5235874303.33651</v>
       </c>
-      <c r="AD17" s="13" t="n">
+      <c r="AD17" s="9" t="n">
         <v>5770419174.97836</v>
       </c>
-      <c r="AE17" s="13" t="n">
+      <c r="AE17" s="9" t="n">
         <v>5080979561.31918</v>
       </c>
-      <c r="AF17" s="13" t="n">
+      <c r="AF17" s="9" t="n">
         <v>6978504361.64336</v>
       </c>
-      <c r="AG17" s="13" t="n">
+      <c r="AG17" s="9" t="n">
         <v>7989493110.92442</v>
       </c>
-      <c r="AH17" s="13" t="n">
+      <c r="AH17" s="9" t="n">
         <v>7789390562.16214</v>
       </c>
-      <c r="AI17" s="13" t="n">
+      <c r="AI17" s="9" t="n">
         <v>7291738427.81566</v>
       </c>
-      <c r="AJ17" s="13" t="n">
+      <c r="AJ17" s="9" t="n">
         <v>7181882676.80957</v>
       </c>
-      <c r="AK17" s="13" t="n">
+      <c r="AK17" s="9" t="n">
         <v>9013052255.60019</v>
       </c>
-      <c r="AL17" s="13" t="n">
+      <c r="AL17" s="9" t="n">
         <v>9919760928.92085</v>
       </c>
-      <c r="AM17" s="13" t="n">
+      <c r="AM17" s="9" t="n">
         <v>7649409204.00139</v>
       </c>
-      <c r="AN17" s="13" t="n">
+      <c r="AN17" s="9" t="n">
         <v>5869241836.73204</v>
       </c>
-      <c r="AO17" s="13" t="n">
+      <c r="AO17" s="9" t="n">
         <v>8179262999.95439</v>
       </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AP17" s="9" t="n">
         <v>6606776202.11377</v>
       </c>
-      <c r="AQ17" s="13" t="n">
+      <c r="AQ17" s="9" t="n">
         <v>9903769615.28941</v>
       </c>
-      <c r="AR17" s="13" t="n">
+      <c r="AR17" s="9" t="n">
         <v>10340489354.0911</v>
       </c>
-      <c r="AS17" s="13" t="n">
+      <c r="AS17" s="9" t="n">
         <v>14268108779.8567</v>
       </c>
-      <c r="AT17" s="13" t="n">
+      <c r="AT17" s="9" t="n">
         <v>9865536847.97993</v>
       </c>
-      <c r="AU17" s="13" t="n">
+      <c r="AU17" s="9" t="n">
         <v>10291997036.8147</v>
       </c>
-      <c r="AV17" s="13" t="n">
+      <c r="AV17" s="9" t="n">
         <v>7078919042.8608</v>
       </c>
-      <c r="AW17" s="13" t="n">
+      <c r="AW17" s="9" t="n">
         <v>8239294051.45341</v>
       </c>
-      <c r="AX17" s="13" t="n">
+      <c r="AX17" s="9" t="n">
         <v>3888970043.81042</v>
       </c>
-      <c r="AY17" s="13"/>
+      <c r="AY17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -31966,16 +38067,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="9" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="9" t="str">
         <f>AV18</f>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="9" t="str">
         <f>AW18</f>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="2" t="str">
         <f>AW18/AV18-1</f>
       </c>
@@ -31993,115 +38094,115 @@
       <c r="N18" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="13" t="n">
+      <c r="O18" s="9" t="n">
         <v>91866823970.4561</v>
       </c>
-      <c r="P18" s="13" t="n">
+      <c r="P18" s="9" t="n">
         <v>84360833400.5853</v>
       </c>
-      <c r="Q18" s="13" t="n">
+      <c r="Q18" s="9" t="n">
         <v>80302959764.6254</v>
       </c>
-      <c r="R18" s="13" t="n">
+      <c r="R18" s="9" t="n">
         <v>72799346265.9452</v>
       </c>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="9" t="n">
         <v>76846086802.8836</v>
       </c>
-      <c r="T18" s="13" t="n">
+      <c r="T18" s="9" t="n">
         <v>71908602639.3719</v>
       </c>
-      <c r="U18" s="13" t="n">
+      <c r="U18" s="9" t="n">
         <v>66131697566.6873</v>
       </c>
-      <c r="V18" s="13" t="n">
+      <c r="V18" s="9" t="n">
         <v>79950791800.9245</v>
       </c>
-      <c r="W18" s="13" t="n">
+      <c r="W18" s="9" t="n">
         <v>83661512607.681</v>
       </c>
-      <c r="X18" s="13" t="n">
+      <c r="X18" s="9" t="n">
         <v>84817549965.0203</v>
       </c>
-      <c r="Y18" s="13" t="n">
+      <c r="Y18" s="9" t="n">
         <v>67747914436.6723</v>
       </c>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="9" t="n">
         <v>68840801523.6037</v>
       </c>
-      <c r="AA18" s="13" t="n">
+      <c r="AA18" s="9" t="n">
         <v>77223734544.194</v>
       </c>
-      <c r="AB18" s="13" t="n">
+      <c r="AB18" s="9" t="n">
         <v>89772108228.0377</v>
       </c>
-      <c r="AC18" s="13" t="n">
+      <c r="AC18" s="9" t="n">
         <v>93830238184.7763</v>
       </c>
-      <c r="AD18" s="13" t="n">
+      <c r="AD18" s="9" t="n">
         <v>98062404099.2841</v>
       </c>
-      <c r="AE18" s="13" t="n">
+      <c r="AE18" s="9" t="n">
         <v>108083650107.89</v>
       </c>
-      <c r="AF18" s="13" t="n">
+      <c r="AF18" s="9" t="n">
         <v>119927139251.564</v>
       </c>
-      <c r="AG18" s="13" t="n">
+      <c r="AG18" s="9" t="n">
         <v>129965000918.25</v>
       </c>
-      <c r="AH18" s="13" t="n">
+      <c r="AH18" s="9" t="n">
         <v>126410884279.03</v>
       </c>
-      <c r="AI18" s="13" t="n">
+      <c r="AI18" s="9" t="n">
         <v>117354161335.06</v>
       </c>
-      <c r="AJ18" s="13" t="n">
+      <c r="AJ18" s="9" t="n">
         <v>132374252282.258</v>
       </c>
-      <c r="AK18" s="13" t="n">
+      <c r="AK18" s="9" t="n">
         <v>117851112781.925</v>
       </c>
-      <c r="AL18" s="13" t="n">
+      <c r="AL18" s="9" t="n">
         <v>105809391921.024</v>
       </c>
-      <c r="AM18" s="13" t="n">
+      <c r="AM18" s="9" t="n">
         <v>101549975979.549</v>
       </c>
-      <c r="AN18" s="13" t="n">
+      <c r="AN18" s="9" t="n">
         <v>91972927362.0514</v>
       </c>
-      <c r="AO18" s="13" t="n">
+      <c r="AO18" s="9" t="n">
         <v>102788685297.187</v>
       </c>
-      <c r="AP18" s="13" t="n">
+      <c r="AP18" s="9" t="n">
         <v>104306987273.773</v>
       </c>
-      <c r="AQ18" s="13" t="n">
+      <c r="AQ18" s="9" t="n">
         <v>110234410881.873</v>
       </c>
-      <c r="AR18" s="13" t="n">
+      <c r="AR18" s="9" t="n">
         <v>122883085723.284</v>
       </c>
-      <c r="AS18" s="13" t="n">
+      <c r="AS18" s="9" t="n">
         <v>132383419444.307</v>
       </c>
-      <c r="AT18" s="13" t="n">
+      <c r="AT18" s="9" t="n">
         <v>114061314521.866</v>
       </c>
-      <c r="AU18" s="13" t="n">
+      <c r="AU18" s="9" t="n">
         <v>107977770760.929</v>
       </c>
-      <c r="AV18" s="13" t="n">
+      <c r="AV18" s="9" t="n">
         <v>115660194539.842</v>
       </c>
-      <c r="AW18" s="13" t="n">
+      <c r="AW18" s="9" t="n">
         <v>118855733432.375</v>
       </c>
-      <c r="AX18" s="13" t="n">
+      <c r="AX18" s="9" t="n">
         <v>51955915499.4481</v>
       </c>
-      <c r="AY18" s="13"/>
+      <c r="AY18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -32110,16 +38211,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="9" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="9" t="str">
         <f>AV19</f>
       </c>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="9" t="str">
         <f>AW19</f>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="2" t="str">
         <f>AW19/AV19-1</f>
       </c>
@@ -32137,115 +38238,115 @@
       <c r="N19" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="13" t="n">
+      <c r="O19" s="9" t="n">
         <v>6899554826.71874</v>
       </c>
-      <c r="P19" s="13" t="n">
+      <c r="P19" s="9" t="n">
         <v>8018167850.03211</v>
       </c>
-      <c r="Q19" s="13" t="n">
+      <c r="Q19" s="9" t="n">
         <v>11977671390.4198</v>
       </c>
-      <c r="R19" s="13" t="n">
+      <c r="R19" s="9" t="n">
         <v>11353077801.4658</v>
       </c>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="9" t="n">
         <v>10847769179.7835</v>
       </c>
-      <c r="T19" s="13" t="n">
+      <c r="T19" s="9" t="n">
         <v>8245463576.81375</v>
       </c>
-      <c r="U19" s="13" t="n">
+      <c r="U19" s="9" t="n">
         <v>8492504760.55991</v>
       </c>
-      <c r="V19" s="13" t="n">
+      <c r="V19" s="9" t="n">
         <v>9929749335.9662</v>
       </c>
-      <c r="W19" s="13" t="n">
+      <c r="W19" s="9" t="n">
         <v>12168796657.5504</v>
       </c>
-      <c r="X19" s="13" t="n">
+      <c r="X19" s="9" t="n">
         <v>13191371494.3763</v>
       </c>
-      <c r="Y19" s="13" t="n">
+      <c r="Y19" s="9" t="n">
         <v>10013116086.1918</v>
       </c>
-      <c r="Z19" s="13" t="n">
+      <c r="Z19" s="9" t="n">
         <v>12303278925.2026</v>
       </c>
-      <c r="AA19" s="13" t="n">
+      <c r="AA19" s="9" t="n">
         <v>18334673220.7598</v>
       </c>
-      <c r="AB19" s="13" t="n">
+      <c r="AB19" s="9" t="n">
         <v>23084287969.3296</v>
       </c>
-      <c r="AC19" s="13" t="n">
+      <c r="AC19" s="9" t="n">
         <v>22945079169.0775</v>
       </c>
-      <c r="AD19" s="13" t="n">
+      <c r="AD19" s="9" t="n">
         <v>25709596605.7455</v>
       </c>
-      <c r="AE19" s="13" t="n">
+      <c r="AE19" s="9" t="n">
         <v>28072233674.5929</v>
       </c>
-      <c r="AF19" s="13" t="n">
+      <c r="AF19" s="9" t="n">
         <v>26273703675.7027</v>
       </c>
-      <c r="AG19" s="13" t="n">
+      <c r="AG19" s="9" t="n">
         <v>32334176058.3776</v>
       </c>
-      <c r="AH19" s="13" t="n">
+      <c r="AH19" s="9" t="n">
         <v>37209144108.4238</v>
       </c>
-      <c r="AI19" s="13" t="n">
+      <c r="AI19" s="9" t="n">
         <v>38008141636.9465</v>
       </c>
-      <c r="AJ19" s="13" t="n">
+      <c r="AJ19" s="9" t="n">
         <v>42726526484.3472</v>
       </c>
-      <c r="AK19" s="13" t="n">
+      <c r="AK19" s="9" t="n">
         <v>42603590831.271</v>
       </c>
-      <c r="AL19" s="13" t="n">
+      <c r="AL19" s="9" t="n">
         <v>37543059069.4566</v>
       </c>
-      <c r="AM19" s="13" t="n">
+      <c r="AM19" s="9" t="n">
         <v>37543183967.3971</v>
       </c>
-      <c r="AN19" s="13" t="n">
+      <c r="AN19" s="9" t="n">
         <v>35165349327.0372</v>
       </c>
-      <c r="AO19" s="13" t="n">
+      <c r="AO19" s="9" t="n">
         <v>36092421101.2934</v>
       </c>
-      <c r="AP19" s="13" t="n">
+      <c r="AP19" s="9" t="n">
         <v>38082503624.6798</v>
       </c>
-      <c r="AQ19" s="13" t="n">
+      <c r="AQ19" s="9" t="n">
         <v>40597140759.3447</v>
       </c>
-      <c r="AR19" s="13" t="n">
+      <c r="AR19" s="9" t="n">
         <v>44400099641.4806</v>
       </c>
-      <c r="AS19" s="13" t="n">
+      <c r="AS19" s="9" t="n">
         <v>45492902713.6868</v>
       </c>
-      <c r="AT19" s="13" t="n">
+      <c r="AT19" s="9" t="n">
         <v>42839744083.8267</v>
       </c>
-      <c r="AU19" s="13" t="n">
+      <c r="AU19" s="9" t="n">
         <v>42730397930.2691</v>
       </c>
-      <c r="AV19" s="13" t="n">
+      <c r="AV19" s="9" t="n">
         <v>42926421135.422</v>
       </c>
-      <c r="AW19" s="13" t="n">
+      <c r="AW19" s="9" t="n">
         <v>44024044730.5446</v>
       </c>
-      <c r="AX19" s="13" t="n">
+      <c r="AX19" s="9" t="n">
         <v>20307211069.5977</v>
       </c>
-      <c r="AY19" s="13"/>
+      <c r="AY19" s="9"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -32254,16 +38355,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="9" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="9" t="str">
         <f>AV20</f>
       </c>
-      <c r="E20" s="13" t="str">
+      <c r="E20" s="9" t="str">
         <f>AW20</f>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="2" t="str">
         <f>AW20/AV20-1</f>
       </c>
@@ -32281,115 +38382,115 @@
       <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="13" t="str">
+      <c r="O20" s="9" t="str">
         <f>Sum(O13:O19)</f>
       </c>
-      <c r="P20" s="13" t="str">
+      <c r="P20" s="9" t="str">
         <f>Sum(P13:P19)</f>
       </c>
-      <c r="Q20" s="13" t="str">
+      <c r="Q20" s="9" t="str">
         <f>Sum(Q13:Q19)</f>
       </c>
-      <c r="R20" s="13" t="str">
+      <c r="R20" s="9" t="str">
         <f>Sum(R13:R19)</f>
       </c>
-      <c r="S20" s="13" t="str">
+      <c r="S20" s="9" t="str">
         <f>Sum(S13:S19)</f>
       </c>
-      <c r="T20" s="13" t="str">
+      <c r="T20" s="9" t="str">
         <f>Sum(T13:T19)</f>
       </c>
-      <c r="U20" s="13" t="str">
+      <c r="U20" s="9" t="str">
         <f>Sum(U13:U19)</f>
       </c>
-      <c r="V20" s="13" t="str">
+      <c r="V20" s="9" t="str">
         <f>Sum(V13:V19)</f>
       </c>
-      <c r="W20" s="13" t="str">
+      <c r="W20" s="9" t="str">
         <f>Sum(W13:W19)</f>
       </c>
-      <c r="X20" s="13" t="str">
+      <c r="X20" s="9" t="str">
         <f>Sum(X13:X19)</f>
       </c>
-      <c r="Y20" s="13" t="str">
+      <c r="Y20" s="9" t="str">
         <f>Sum(Y13:Y19)</f>
       </c>
-      <c r="Z20" s="13" t="str">
+      <c r="Z20" s="9" t="str">
         <f>Sum(Z13:Z19)</f>
       </c>
-      <c r="AA20" s="13" t="str">
+      <c r="AA20" s="9" t="str">
         <f>Sum(AA13:AA19)</f>
       </c>
-      <c r="AB20" s="13" t="str">
+      <c r="AB20" s="9" t="str">
         <f>Sum(AB13:AB19)</f>
       </c>
-      <c r="AC20" s="13" t="str">
+      <c r="AC20" s="9" t="str">
         <f>Sum(AC13:AC19)</f>
       </c>
-      <c r="AD20" s="13" t="str">
+      <c r="AD20" s="9" t="str">
         <f>Sum(AD13:AD19)</f>
       </c>
-      <c r="AE20" s="13" t="str">
+      <c r="AE20" s="9" t="str">
         <f>Sum(AE13:AE19)</f>
       </c>
-      <c r="AF20" s="13" t="str">
+      <c r="AF20" s="9" t="str">
         <f>Sum(AF13:AF19)</f>
       </c>
-      <c r="AG20" s="13" t="str">
+      <c r="AG20" s="9" t="str">
         <f>Sum(AG13:AG19)</f>
       </c>
-      <c r="AH20" s="13" t="str">
+      <c r="AH20" s="9" t="str">
         <f>Sum(AH13:AH19)</f>
       </c>
-      <c r="AI20" s="13" t="str">
+      <c r="AI20" s="9" t="str">
         <f>Sum(AI13:AI19)</f>
       </c>
-      <c r="AJ20" s="13" t="str">
+      <c r="AJ20" s="9" t="str">
         <f>Sum(AJ13:AJ19)</f>
       </c>
-      <c r="AK20" s="13" t="str">
+      <c r="AK20" s="9" t="str">
         <f>Sum(AK13:AK19)</f>
       </c>
-      <c r="AL20" s="13" t="str">
+      <c r="AL20" s="9" t="str">
         <f>Sum(AL13:AL19)</f>
       </c>
-      <c r="AM20" s="13" t="str">
+      <c r="AM20" s="9" t="str">
         <f>Sum(AM13:AM19)</f>
       </c>
-      <c r="AN20" s="13" t="str">
+      <c r="AN20" s="9" t="str">
         <f>Sum(AN13:AN19)</f>
       </c>
-      <c r="AO20" s="13" t="str">
+      <c r="AO20" s="9" t="str">
         <f>Sum(AO13:AO19)</f>
       </c>
-      <c r="AP20" s="13" t="str">
+      <c r="AP20" s="9" t="str">
         <f>Sum(AP13:AP19)</f>
       </c>
-      <c r="AQ20" s="13" t="str">
+      <c r="AQ20" s="9" t="str">
         <f>Sum(AQ13:AQ19)</f>
       </c>
-      <c r="AR20" s="13" t="str">
+      <c r="AR20" s="9" t="str">
         <f>Sum(AR13:AR19)</f>
       </c>
-      <c r="AS20" s="13" t="str">
+      <c r="AS20" s="9" t="str">
         <f>Sum(AS13:AS19)</f>
       </c>
-      <c r="AT20" s="13" t="str">
+      <c r="AT20" s="9" t="str">
         <f>Sum(AT13:AT19)</f>
       </c>
-      <c r="AU20" s="13" t="str">
+      <c r="AU20" s="9" t="str">
         <f>Sum(AU13:AU19)</f>
       </c>
-      <c r="AV20" s="13" t="str">
+      <c r="AV20" s="9" t="str">
         <f>Sum(AV13:AV19)</f>
       </c>
-      <c r="AW20" s="13" t="str">
+      <c r="AW20" s="9" t="str">
         <f>Sum(AW13:AW19)</f>
       </c>
-      <c r="AX20" s="13" t="str">
+      <c r="AX20" s="9" t="str">
         <f>Sum(AX13:AX19)</f>
       </c>
-      <c r="AY20" s="13"/>
+      <c r="AY20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
+++ b/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
@@ -397,11 +397,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="209" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="218" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
@@ -410,6 +410,7 @@
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="217" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -445,13 +446,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="218" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -460,6 +461,7 @@
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="217" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16219,64 +16221,64 @@
       <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="14" t="n">
         <v>38458531931.5283</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <v>45589347086.7226</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>46171765940.5143</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>41537077393.4175</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>43951617546.5592</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>50101389458.1014</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>35393898321.0689</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>34094016249.2388</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>28967950508.5641</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>27014082627.1919</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>29427177294.0275</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>34883959963.3852</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>35385249256.4251</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>35893793617.0317</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>55321393273.3887</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>53864800045.8811</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>47257123941.4428</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>55250603112.5316</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>22247056375.08</v>
-      </c>
-      <c r="AH2" s="3"/>
+      <c r="P2" s="14" t="n">
+        <v>45589347086.7127</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>46171765940.5432</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>41537077393.3721</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>43906671723.3848</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>50019506501.0055</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>35333632585.5214</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>34094016249.2305</v>
+      </c>
+      <c r="W2" s="14" t="n">
+        <v>28967950508.5571</v>
+      </c>
+      <c r="X2" s="14" t="n">
+        <v>27014082625.1669</v>
+      </c>
+      <c r="Y2" s="14" t="n">
+        <v>29427176288.1624</v>
+      </c>
+      <c r="Z2" s="14" t="n">
+        <v>34883868743.9904</v>
+      </c>
+      <c r="AA2" s="14" t="n">
+        <v>35385252514.0587</v>
+      </c>
+      <c r="AB2" s="14" t="n">
+        <v>35823417306.806</v>
+      </c>
+      <c r="AC2" s="14" t="n">
+        <v>55227643036.408</v>
+      </c>
+      <c r="AD2" s="14" t="n">
+        <v>53713894356.6786</v>
+      </c>
+      <c r="AE2" s="14" t="n">
+        <v>46690873758.407</v>
+      </c>
+      <c r="AF2" s="14" t="n">
+        <v>53417487421.7671</v>
+      </c>
+      <c r="AG2" s="14" t="n">
+        <v>13649528149.12</v>
+      </c>
+      <c r="AH2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -16291,64 +16293,64 @@
       <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="3" t="n">
-        <v>26885034553.1204</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>31507304958.5718</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>26716409044.8531</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>27078631485.5039</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>25970000116.6182</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>22254007219.4983</v>
-      </c>
-      <c r="U3" s="3" t="n">
-        <v>19729548027.9564</v>
-      </c>
-      <c r="V3" s="3" t="n">
-        <v>18127364076.753</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>19979382087.195</v>
-      </c>
-      <c r="X3" s="3" t="n">
-        <v>19987335700.7425</v>
-      </c>
-      <c r="Y3" s="3" t="n">
-        <v>22831087399.949</v>
-      </c>
-      <c r="Z3" s="3" t="n">
-        <v>26667229642.5153</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>29232331824.2047</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>35335982667.2566</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>44238922301.0971</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>52718506537.9604</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>38512324740.3191</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>33600856923.06</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>14542883317.99</v>
-      </c>
-      <c r="AH3" s="3"/>
+      <c r="O3" s="14" t="n">
+        <v>26884898106.8179</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>31507304958.6379</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>26716409044.9751</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>27078631485.5262</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>26014945939.4882</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>22335786123.8161</v>
+      </c>
+      <c r="U3" s="14" t="n">
+        <v>19789813763.5069</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>18127271196.8167</v>
+      </c>
+      <c r="W3" s="14" t="n">
+        <v>19979382084.6919</v>
+      </c>
+      <c r="X3" s="14" t="n">
+        <v>19987305416.0587</v>
+      </c>
+      <c r="Y3" s="14" t="n">
+        <v>22831052761.688</v>
+      </c>
+      <c r="Z3" s="14" t="n">
+        <v>26667055595.9681</v>
+      </c>
+      <c r="AA3" s="14" t="n">
+        <v>29232331824.0789</v>
+      </c>
+      <c r="AB3" s="14" t="n">
+        <v>35381555250.352</v>
+      </c>
+      <c r="AC3" s="14" t="n">
+        <v>44312104193.1971</v>
+      </c>
+      <c r="AD3" s="14" t="n">
+        <v>52881198148.498</v>
+      </c>
+      <c r="AE3" s="14" t="n">
+        <v>39114223706.041</v>
+      </c>
+      <c r="AF3" s="14" t="n">
+        <v>35475606096.38</v>
+      </c>
+      <c r="AG3" s="14" t="n">
+        <v>30358069766.84</v>
+      </c>
+      <c r="AH3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -16363,64 +16365,64 @@
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="14" t="n">
         <v>16298883220.0048</v>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>18594143778.9783</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>17422399137.8866</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>17732451038.6698</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>15556551552.9918</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>15660755028.1871</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>13063990710.8698</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>14563611572.8474</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>13556842872.2055</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>15333656152.2369</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>17438108160.5209</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>13060596542.8858</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>16342368196.0317</v>
-      </c>
-      <c r="AB4" s="3" t="n">
-        <v>16971436248.6669</v>
-      </c>
-      <c r="AC4" s="3" t="n">
-        <v>15449905870.4065</v>
-      </c>
-      <c r="AD4" s="3" t="n">
-        <v>17384744667.6243</v>
-      </c>
-      <c r="AE4" s="3" t="n">
-        <v>19402939775.4253</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>22087257707.7547</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>7920890433.99</v>
-      </c>
-      <c r="AH4" s="3"/>
+      <c r="P4" s="14" t="n">
+        <v>18594143778.9811</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>17422399137.8864</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>17732451038.6449</v>
+      </c>
+      <c r="S4" s="14" t="n">
+        <v>15556194604.0244</v>
+      </c>
+      <c r="T4" s="14" t="n">
+        <v>15657694387.4465</v>
+      </c>
+      <c r="U4" s="14" t="n">
+        <v>13061429250.7624</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>14563611572.8224</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <v>13556842872.2039</v>
+      </c>
+      <c r="X4" s="14" t="n">
+        <v>15333656152.1918</v>
+      </c>
+      <c r="Y4" s="14" t="n">
+        <v>17438305694.2172</v>
+      </c>
+      <c r="Z4" s="14" t="n">
+        <v>13060596540.9059</v>
+      </c>
+      <c r="AA4" s="14" t="n">
+        <v>16342368196.0406</v>
+      </c>
+      <c r="AB4" s="14" t="n">
+        <v>16969731699.0356</v>
+      </c>
+      <c r="AC4" s="14" t="n">
+        <v>15449878605.6075</v>
+      </c>
+      <c r="AD4" s="14" t="n">
+        <v>17381858697.1079</v>
+      </c>
+      <c r="AE4" s="14" t="n">
+        <v>19400021131.4488</v>
+      </c>
+      <c r="AF4" s="14" t="n">
+        <v>22084704807.5847</v>
+      </c>
+      <c r="AG4" s="14" t="n">
+        <v>5733627101.17</v>
+      </c>
+      <c r="AH4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -16435,64 +16437,64 @@
       <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="14" t="n">
         <v>15775637594.727</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="14" t="n">
         <v>21513034969.1407</v>
       </c>
-      <c r="Q5" s="3" t="n">
-        <v>22416888947.1566</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>23218747476.5418</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>29872709266.7337</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>29162775523.9155</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>23884448317.5309</v>
-      </c>
-      <c r="V5" s="3" t="n">
+      <c r="Q5" s="14" t="n">
+        <v>22416888947.1738</v>
+      </c>
+      <c r="R5" s="14" t="n">
+        <v>23218747476.5474</v>
+      </c>
+      <c r="S5" s="14" t="n">
+        <v>29873066215.6737</v>
+      </c>
+      <c r="T5" s="14" t="n">
+        <v>29165828845.2882</v>
+      </c>
+      <c r="U5" s="14" t="n">
+        <v>23887009777.6058</v>
+      </c>
+      <c r="V5" s="14" t="n">
         <v>23226064658.9208</v>
       </c>
-      <c r="W5" s="3" t="n">
-        <v>20097084839.477</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>20574181474.6864</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>19699511085.846</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>19950867478.0183</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>21277644542.9216</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>24415879206.1808</v>
-      </c>
-      <c r="AC5" s="3" t="n">
-        <v>18532651979.4445</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>20204075653.1678</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>21056533550.3347</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>18631140329.4987</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>4886622629.23</v>
-      </c>
-      <c r="AH5" s="3"/>
+      <c r="W5" s="14" t="n">
+        <v>20097084839.4543</v>
+      </c>
+      <c r="X5" s="14" t="n">
+        <v>20574182531.8884</v>
+      </c>
+      <c r="Y5" s="14" t="n">
+        <v>19699511085.6587</v>
+      </c>
+      <c r="Z5" s="14" t="n">
+        <v>19943650080.2456</v>
+      </c>
+      <c r="AA5" s="14" t="n">
+        <v>21269332421.3369</v>
+      </c>
+      <c r="AB5" s="14" t="n">
+        <v>24397876964.658</v>
+      </c>
+      <c r="AC5" s="14" t="n">
+        <v>18522721754.3268</v>
+      </c>
+      <c r="AD5" s="14" t="n">
+        <v>20185604418.1837</v>
+      </c>
+      <c r="AE5" s="14" t="n">
+        <v>21065777387.7495</v>
+      </c>
+      <c r="AF5" s="14" t="n">
+        <v>18645754489.6387</v>
+      </c>
+      <c r="AG5" s="14" t="n">
+        <v>9904579584.02</v>
+      </c>
+      <c r="AH5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -16507,64 +16509,64 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="3" t="n">
-        <v>9102319716.0299</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>9512376474.8531</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>8294963553.5883</v>
-      </c>
-      <c r="R6" s="3" t="n">
-        <v>7172101858.9769</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>6356912021.0867</v>
-      </c>
-      <c r="T6" s="3" t="n">
-        <v>6114669335.5265</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>5454909817.9815</v>
-      </c>
-      <c r="V6" s="3" t="n">
-        <v>6950680281.049</v>
-      </c>
-      <c r="W6" s="3" t="n">
-        <v>7430200791.92</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>7509048187.69</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>6787085230.7303</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>12715662964.686</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>12959959891.9003</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>11920230838.9849</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>11293764712.0929</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>11923316006.9859</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>12698134067.0759</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>15723494261.8742</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>7902293342.87</v>
-      </c>
-      <c r="AH6" s="3"/>
+      <c r="O6" s="14" t="n">
+        <v>9101932929.9299</v>
+      </c>
+      <c r="P6" s="14" t="n">
+        <v>9511931174.7731</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>8294963553.5881</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>7172101858.9683</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>6353415482.8076</v>
+      </c>
+      <c r="T6" s="14" t="n">
+        <v>6108743175.7487</v>
+      </c>
+      <c r="U6" s="14" t="n">
+        <v>5449553180.0262</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>6950680855.369</v>
+      </c>
+      <c r="W6" s="14" t="n">
+        <v>7430289929.33</v>
+      </c>
+      <c r="X6" s="14" t="n">
+        <v>7509048183.1951</v>
+      </c>
+      <c r="Y6" s="14" t="n">
+        <v>6788253830.8597</v>
+      </c>
+      <c r="Z6" s="14" t="n">
+        <v>12715687952.1946</v>
+      </c>
+      <c r="AA6" s="14" t="n">
+        <v>12962385449.1936</v>
+      </c>
+      <c r="AB6" s="14" t="n">
+        <v>11918185521.5725</v>
+      </c>
+      <c r="AC6" s="14" t="n">
+        <v>11293438093.1043</v>
+      </c>
+      <c r="AD6" s="14" t="n">
+        <v>11918418166.9751</v>
+      </c>
+      <c r="AE6" s="14" t="n">
+        <v>12754740985.2619</v>
+      </c>
+      <c r="AF6" s="14" t="n">
+        <v>15437151021.6843</v>
+      </c>
+      <c r="AG6" s="14" t="n">
+        <v>7690721183.71</v>
+      </c>
+      <c r="AH6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -16579,64 +16581,64 @@
       <c r="N7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>11571667801.0441</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>11146416438.7398</v>
-      </c>
-      <c r="Q7" s="3" t="n">
-        <v>11482975371.2298</v>
-      </c>
-      <c r="R7" s="3" t="n">
-        <v>10838776257.7843</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>14377872983.1101</v>
-      </c>
-      <c r="T7" s="3" t="n">
-        <v>13208323237.57</v>
-      </c>
-      <c r="U7" s="3" t="n">
-        <v>10812847561.4631</v>
-      </c>
-      <c r="V7" s="3" t="n">
-        <v>11069031654.4008</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>10883909134.8884</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>10117359797.162</v>
-      </c>
-      <c r="Y7" s="3" t="n">
-        <v>11241573903.0588</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>13809155700.8501</v>
-      </c>
-      <c r="AA7" s="3" t="n">
-        <v>13764588272.2772</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>13028373823.6532</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>10931765841.5129</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>11541673171.0799</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>8250444390.1778</v>
-      </c>
-      <c r="AF7" s="3" t="n">
-        <v>6507142373.8825</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>2309343786.02</v>
-      </c>
-      <c r="AH7" s="3"/>
+      <c r="O7" s="14" t="n">
+        <v>11567307994.0441</v>
+      </c>
+      <c r="P7" s="14" t="n">
+        <v>11143281319.2398</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>11482340492.4412</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>10838747329.2396</v>
+      </c>
+      <c r="S7" s="14" t="n">
+        <v>14381453821.9107</v>
+      </c>
+      <c r="T7" s="14" t="n">
+        <v>13214352446.2868</v>
+      </c>
+      <c r="U7" s="14" t="n">
+        <v>10818218219.3685</v>
+      </c>
+      <c r="V7" s="14" t="n">
+        <v>11069031237.8014</v>
+      </c>
+      <c r="W7" s="14" t="n">
+        <v>10884699709.4386</v>
+      </c>
+      <c r="X7" s="14" t="n">
+        <v>10115719106.3671</v>
+      </c>
+      <c r="Y7" s="14" t="n">
+        <v>11242109063.429</v>
+      </c>
+      <c r="Z7" s="14" t="n">
+        <v>13804147898.7688</v>
+      </c>
+      <c r="AA7" s="14" t="n">
+        <v>13762835077.7648</v>
+      </c>
+      <c r="AB7" s="14" t="n">
+        <v>13027497845.3901</v>
+      </c>
+      <c r="AC7" s="14" t="n">
+        <v>10921318493.2821</v>
+      </c>
+      <c r="AD7" s="14" t="n">
+        <v>11510748545.3875</v>
+      </c>
+      <c r="AE7" s="14" t="n">
+        <v>8170328329.393</v>
+      </c>
+      <c r="AF7" s="14" t="n">
+        <v>6779022595.1381</v>
+      </c>
+      <c r="AG7" s="14" t="n">
+        <v>4707432683.46</v>
+      </c>
+      <c r="AH7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -16651,64 +16653,64 @@
       <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="14" t="n">
         <v>374232.125</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="14" t="n">
         <v>10010929.3706</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="14" t="n">
         <v>16756903.16</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="14" t="n">
         <v>347910181.6678</v>
       </c>
-      <c r="S8" s="3" t="n">
-        <v>631989460.5883</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>730784460.3282</v>
-      </c>
-      <c r="U8" s="3" t="n">
-        <v>574806467.1401</v>
-      </c>
-      <c r="V8" s="3" t="n">
+      <c r="S8" s="14" t="n">
+        <v>620838561.0883</v>
+      </c>
+      <c r="T8" s="14" t="n">
+        <v>724532632.328</v>
+      </c>
+      <c r="U8" s="14" t="n">
+        <v>570206994.3276</v>
+      </c>
+      <c r="V8" s="14" t="n">
         <v>436938681.7882</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="14" t="n">
         <v>483698726.3219</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="14" t="n">
         <v>753315498.5144</v>
       </c>
-      <c r="Y8" s="3" t="n">
-        <v>1215869231.8993</v>
-      </c>
-      <c r="Z8" s="3" t="n">
-        <v>2160974912.4065</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>1688998497.9529</v>
-      </c>
-      <c r="AB8" s="3" t="n">
-        <v>1495222717.3292</v>
-      </c>
-      <c r="AC8" s="3" t="n">
-        <v>1700626837.0681</v>
-      </c>
-      <c r="AD8" s="3" t="n">
-        <v>3129470158.2138</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>1908806663.7062</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>418032673.26</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>310655970.58</v>
-      </c>
-      <c r="AH8" s="3"/>
+      <c r="Y8" s="14" t="n">
+        <v>1215869231.913</v>
+      </c>
+      <c r="Z8" s="14" t="n">
+        <v>2160974912.3844</v>
+      </c>
+      <c r="AA8" s="14" t="n">
+        <v>1688998498.1471</v>
+      </c>
+      <c r="AB8" s="14" t="n">
+        <v>1495222717.3211</v>
+      </c>
+      <c r="AC8" s="14" t="n">
+        <v>1700626837.1609</v>
+      </c>
+      <c r="AD8" s="14" t="n">
+        <v>3129470157.8487</v>
+      </c>
+      <c r="AE8" s="14" t="n">
+        <v>1908806663.6234</v>
+      </c>
+      <c r="AF8" s="14" t="n">
+        <v>368208495.37</v>
+      </c>
+      <c r="AG8" s="14" t="n">
+        <v>253411286.23</v>
+      </c>
+      <c r="AH8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -16723,64 +16725,64 @@
       <c r="N9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="14" t="n">
         <v>127174783.5722</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="14" t="n">
         <v>54479568.8788</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="14" t="n">
         <v>391366344.5801</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="14" t="n">
         <v>10479699918.8507</v>
       </c>
-      <c r="S9" s="3" t="n">
-        <v>42883540501.1991</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>55922320410.9551</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>47319115626.4257</v>
-      </c>
-      <c r="V9" s="3" t="n">
-        <v>44650490870.6004</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>44701851932.5913</v>
-      </c>
-      <c r="X9" s="3" t="n">
-        <v>51712759744.6184</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>59012138441.6715</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>74692834541.858</v>
-      </c>
-      <c r="AA9" s="3" t="n">
-        <v>76903683893.58</v>
-      </c>
-      <c r="AB9" s="3" t="n">
-        <v>83299993411.8082</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>78567870330.8299</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>79475855182.6356</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>54819900396.6547</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>32156247142.23</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>10960703037.6</v>
-      </c>
-      <c r="AH9" s="3"/>
+      <c r="S9" s="14" t="n">
+        <v>42894671294.1591</v>
+      </c>
+      <c r="T9" s="14" t="n">
+        <v>55928572235.856</v>
+      </c>
+      <c r="U9" s="14" t="n">
+        <v>47323715094.6138</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>44646481123.335</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>44698032284.8284</v>
+      </c>
+      <c r="X9" s="14" t="n">
+        <v>51709969801.6687</v>
+      </c>
+      <c r="Y9" s="14" t="n">
+        <v>59011828591.117</v>
+      </c>
+      <c r="Z9" s="14" t="n">
+        <v>74616950035.2017</v>
+      </c>
+      <c r="AA9" s="14" t="n">
+        <v>76655677484.6571</v>
+      </c>
+      <c r="AB9" s="14" t="n">
+        <v>82925288354.4684</v>
+      </c>
+      <c r="AC9" s="14" t="n">
+        <v>78113565685.7188</v>
+      </c>
+      <c r="AD9" s="14" t="n">
+        <v>78683255802.6288</v>
+      </c>
+      <c r="AE9" s="14" t="n">
+        <v>54125665537.1827</v>
+      </c>
+      <c r="AF9" s="14" t="n">
+        <v>31782689935.12</v>
+      </c>
+      <c r="AG9" s="14" t="n">
+        <v>12088048647.58</v>
+      </c>
+      <c r="AH9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -16793,66 +16795,34 @@
         <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>78448417799.941</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>88779673446.9173</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>105250702910.8</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>130120446440.626</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>117264791849.97</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>114685542347.414</v>
-      </c>
-      <c r="U10" s="3" t="n">
-        <v>115113680996.145</v>
-      </c>
-      <c r="V10" s="3" t="n">
-        <v>96329378653.5186</v>
-      </c>
-      <c r="W10" s="3" t="n">
-        <v>96690973730.429</v>
-      </c>
-      <c r="X10" s="3" t="n">
-        <v>115300031350.791</v>
-      </c>
-      <c r="Y10" s="3" t="n">
-        <v>121605359784.587</v>
-      </c>
-      <c r="Z10" s="3" t="n">
-        <v>124562642318.791</v>
-      </c>
-      <c r="AA10" s="3" t="n">
-        <v>138898604551.736</v>
-      </c>
-      <c r="AB10" s="3" t="n">
-        <v>161056532829.975</v>
-      </c>
-      <c r="AC10" s="3" t="n">
-        <v>114931552428.534</v>
-      </c>
-      <c r="AD10" s="3" t="n">
-        <v>127373436728.414</v>
-      </c>
-      <c r="AE10" s="3" t="n">
-        <v>200309215715.959</v>
-      </c>
-      <c r="AF10" s="3" t="n">
-        <v>197167619097.032</v>
-      </c>
-      <c r="AG10" s="3" t="n">
-        <v>105822856351.73</v>
-      </c>
-      <c r="AH10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14" t="n">
+        <v>11320744</v>
+      </c>
+      <c r="AD10" s="14" t="n">
+        <v>2509500</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14" t="n">
+        <v>416412515.92</v>
+      </c>
+      <c r="AH10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -16862,69 +16832,69 @@
         <f>N11</f>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>3480708</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>7309532</v>
-      </c>
-      <c r="Q11" s="3" t="n">
-        <v>4777682.7812</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>-389371.9688</v>
-      </c>
-      <c r="S11" s="3" t="n">
-        <v>566868.625</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>2744757.5625</v>
-      </c>
-      <c r="U11" s="3" t="n">
-        <v>740760.72</v>
-      </c>
-      <c r="V11" s="3" t="n">
-        <v>1661330.44</v>
-      </c>
-      <c r="W11" s="3" t="n">
-        <v>688122.1</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>7466648.5097</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>15539948.7242</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>10103095.36</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>50250051.2266</v>
-      </c>
-      <c r="AB11" s="3" t="n">
-        <v>4643277.8061</v>
-      </c>
-      <c r="AC11" s="3" t="n">
-        <v>18838219.6248</v>
-      </c>
-      <c r="AD11" s="3" t="n">
-        <v>6404705</v>
-      </c>
-      <c r="AE11" s="3" t="n">
-        <v>3009276.34</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>12328930.43</v>
-      </c>
-      <c r="AG11" s="3" t="n">
-        <v>3940092.97</v>
-      </c>
-      <c r="AH11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O11" s="14" t="n">
+        <v>78448417799.8878</v>
+      </c>
+      <c r="P11" s="14" t="n">
+        <v>88779673446.9866</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>105250702910.806</v>
+      </c>
+      <c r="R11" s="14" t="n">
+        <v>130120446455.715</v>
+      </c>
+      <c r="S11" s="14" t="n">
+        <v>117264791846.016</v>
+      </c>
+      <c r="T11" s="14" t="n">
+        <v>114685542326.57</v>
+      </c>
+      <c r="U11" s="14" t="n">
+        <v>115113680997.26</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>96329378653.8111</v>
+      </c>
+      <c r="W11" s="14" t="n">
+        <v>96690973730.5302</v>
+      </c>
+      <c r="X11" s="14" t="n">
+        <v>115298951162.67</v>
+      </c>
+      <c r="Y11" s="14" t="n">
+        <v>121630423673.677</v>
+      </c>
+      <c r="Z11" s="14" t="n">
+        <v>124658471097.781</v>
+      </c>
+      <c r="AA11" s="14" t="n">
+        <v>139159717323.827</v>
+      </c>
+      <c r="AB11" s="14" t="n">
+        <v>161414630542.016</v>
+      </c>
+      <c r="AC11" s="14" t="n">
+        <v>115325814634.204</v>
+      </c>
+      <c r="AD11" s="14" t="n">
+        <v>127879439366.814</v>
+      </c>
+      <c r="AE11" s="14" t="n">
+        <v>200739602072.63</v>
+      </c>
+      <c r="AF11" s="14" t="n">
+        <v>197896158384.79</v>
+      </c>
+      <c r="AG11" s="14" t="n">
+        <v>126108017211.25</v>
+      </c>
+      <c r="AH11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -16937,66 +16907,66 @@
         <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>91464160.72</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>271822115.94</v>
-      </c>
-      <c r="Q12" s="3" t="n">
-        <v>119963397.1512</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>2242431224.5039</v>
-      </c>
-      <c r="S12" s="3" t="n">
-        <v>465110921.2987</v>
-      </c>
-      <c r="T12" s="3" t="n">
-        <v>326628724.6698</v>
-      </c>
-      <c r="U12" s="3" t="n">
-        <v>205092408.93</v>
-      </c>
-      <c r="V12" s="3" t="n">
-        <v>253019515.28</v>
-      </c>
-      <c r="W12" s="3" t="n">
-        <v>124594106.6619</v>
-      </c>
-      <c r="X12" s="3" t="n">
-        <v>187804273.4166</v>
-      </c>
-      <c r="Y12" s="3" t="n">
-        <v>125983398.2222</v>
-      </c>
-      <c r="Z12" s="3" t="n">
-        <v>139199496.0481</v>
-      </c>
-      <c r="AA12" s="3" t="n">
-        <v>313186484.9009</v>
-      </c>
-      <c r="AB12" s="3" t="n">
-        <v>328108845.2027</v>
-      </c>
-      <c r="AC12" s="3" t="n">
-        <v>292784519.3691</v>
-      </c>
-      <c r="AD12" s="3" t="n">
-        <v>340300306.28</v>
-      </c>
-      <c r="AE12" s="3" t="n">
-        <v>643485537.8743</v>
-      </c>
-      <c r="AF12" s="3" t="n">
-        <v>639157488.48</v>
-      </c>
-      <c r="AG12" s="3" t="n">
-        <v>329021461.26</v>
-      </c>
-      <c r="AH12" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O12" s="14" t="n">
+        <v>3480708</v>
+      </c>
+      <c r="P12" s="14" t="n">
+        <v>7309532</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>4777682.7812</v>
+      </c>
+      <c r="R12" s="14" t="n">
+        <v>-389371.9688</v>
+      </c>
+      <c r="S12" s="14" t="n">
+        <v>566868.625</v>
+      </c>
+      <c r="T12" s="14" t="n">
+        <v>2744757.5625</v>
+      </c>
+      <c r="U12" s="14" t="n">
+        <v>740760.72</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>1661330.44</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>688122.1</v>
+      </c>
+      <c r="X12" s="14" t="n">
+        <v>7466648.5097</v>
+      </c>
+      <c r="Y12" s="14" t="n">
+        <v>15539948.7242</v>
+      </c>
+      <c r="Z12" s="14" t="n">
+        <v>10103095.36</v>
+      </c>
+      <c r="AA12" s="14" t="n">
+        <v>50250051.2266</v>
+      </c>
+      <c r="AB12" s="14" t="n">
+        <v>4643277.8061</v>
+      </c>
+      <c r="AC12" s="14" t="n">
+        <v>18838219.6248</v>
+      </c>
+      <c r="AD12" s="14" t="n">
+        <v>6404705</v>
+      </c>
+      <c r="AE12" s="14" t="n">
+        <v>3009276.34</v>
+      </c>
+      <c r="AF12" s="14" t="n">
+        <v>12328930.43</v>
+      </c>
+      <c r="AG12" s="14" t="n">
+        <v>3940092.97</v>
+      </c>
+      <c r="AH12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -17006,69 +16976,69 @@
         <f>N13</f>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>11600417419.8762</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>10085334690.4032</v>
-      </c>
-      <c r="Q13" s="3" t="n">
-        <v>7158346042.9192</v>
-      </c>
-      <c r="R13" s="3" t="n">
-        <v>4750785969.8192</v>
-      </c>
-      <c r="S13" s="3" t="n">
-        <v>3128841482.5024</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>2341947704.7324</v>
-      </c>
-      <c r="U13" s="3" t="n">
-        <v>2173772435.1936</v>
-      </c>
-      <c r="V13" s="3" t="n">
-        <v>1301637890.0825</v>
-      </c>
-      <c r="W13" s="3" t="n">
-        <v>1902920591.0923</v>
-      </c>
-      <c r="X13" s="3" t="n">
-        <v>1090029098.2218</v>
-      </c>
-      <c r="Y13" s="3" t="n">
-        <v>1231057315.4443</v>
-      </c>
-      <c r="Z13" s="3" t="n">
-        <v>1462284082.9167</v>
-      </c>
-      <c r="AA13" s="3" t="n">
-        <v>1770992085.2035</v>
-      </c>
-      <c r="AB13" s="3" t="n">
-        <v>1890189753.3654</v>
-      </c>
-      <c r="AC13" s="3" t="n">
-        <v>1876366487.9784</v>
-      </c>
-      <c r="AD13" s="3" t="n">
-        <v>2310387364.9206</v>
-      </c>
-      <c r="AE13" s="3" t="n">
-        <v>4673380158.5765</v>
-      </c>
-      <c r="AF13" s="3" t="n">
-        <v>7294686922.0053</v>
-      </c>
-      <c r="AG13" s="3" t="n">
-        <v>3358304694.3</v>
-      </c>
-      <c r="AH13" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O13" s="14" t="n">
+        <v>91464160.72</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>271822115.94</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>119963397.1512</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>2242431224.5039</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>465110921.2987</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>326628724.6698</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>205092408.93</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>253019515.28</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>124594106.6619</v>
+      </c>
+      <c r="X13" s="14" t="n">
+        <v>187804273.4166</v>
+      </c>
+      <c r="Y13" s="14" t="n">
+        <v>125983398.2222</v>
+      </c>
+      <c r="Z13" s="14" t="n">
+        <v>139199496.0481</v>
+      </c>
+      <c r="AA13" s="14" t="n">
+        <v>313186484.9009</v>
+      </c>
+      <c r="AB13" s="14" t="n">
+        <v>328108845.2027</v>
+      </c>
+      <c r="AC13" s="14" t="n">
+        <v>292784519.0891</v>
+      </c>
+      <c r="AD13" s="14" t="n">
+        <v>340300303.03</v>
+      </c>
+      <c r="AE13" s="14" t="n">
+        <v>643485539.0043</v>
+      </c>
+      <c r="AF13" s="14" t="n">
+        <v>639157488.48</v>
+      </c>
+      <c r="AG13" s="14" t="n">
+        <v>329245259.18</v>
+      </c>
+      <c r="AH13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -17081,66 +17051,66 @@
         <v>54</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>104322156932.281</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>118673878857.327</v>
-      </c>
-      <c r="Q14" s="3" t="n">
-        <v>111481116044.47</v>
-      </c>
-      <c r="R14" s="3" t="n">
-        <v>72896596088.7241</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>51898258468.7557</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>32605768490.6113</v>
-      </c>
-      <c r="U14" s="3" t="n">
-        <v>18580607831.3382</v>
-      </c>
-      <c r="V14" s="3" t="n">
-        <v>16092481706.8943</v>
-      </c>
-      <c r="W14" s="3" t="n">
-        <v>12793553837.2693</v>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>10993583628.0701</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>12326503685.3794</v>
-      </c>
-      <c r="Z14" s="3" t="n">
-        <v>11895205308.68</v>
-      </c>
-      <c r="AA14" s="3" t="n">
-        <v>11155803867.1343</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>14003108112.5204</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>12666937544.0539</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>12483145724.7508</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>25559011289.8336</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>32519754624.81</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>12158881568.92</v>
-      </c>
-      <c r="AH14" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O14" s="14" t="n">
+        <v>11600804205.9762</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>10085779990.4832</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>7158346042.9191</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>4750785969.8317</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>3133290098.891</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>2341947704.7602</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>2173772435.1936</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>1301637890.0825</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>1902920591.0923</v>
+      </c>
+      <c r="X14" s="14" t="n">
+        <v>1090029098.2277</v>
+      </c>
+      <c r="Y14" s="14" t="n">
+        <v>1231057315.4576</v>
+      </c>
+      <c r="Z14" s="14" t="n">
+        <v>1462284082.9148</v>
+      </c>
+      <c r="AA14" s="14" t="n">
+        <v>1770992085.2035</v>
+      </c>
+      <c r="AB14" s="14" t="n">
+        <v>1890189753.3654</v>
+      </c>
+      <c r="AC14" s="14" t="n">
+        <v>1876366487.9784</v>
+      </c>
+      <c r="AD14" s="14" t="n">
+        <v>2310387364.9206</v>
+      </c>
+      <c r="AE14" s="14" t="n">
+        <v>4669036581.7704</v>
+      </c>
+      <c r="AF14" s="14" t="n">
+        <v>7348620583.2753</v>
+      </c>
+      <c r="AG14" s="14" t="n">
+        <v>2166164425</v>
+      </c>
+      <c r="AH14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -17150,69 +17120,69 @@
         <f>N15</f>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>7118956755.1289</v>
-      </c>
-      <c r="P15" s="3" t="n">
-        <v>6846788859.6083</v>
-      </c>
-      <c r="Q15" s="3" t="n">
-        <v>6002155611.9454</v>
-      </c>
-      <c r="R15" s="3" t="n">
-        <v>4909662083.3065</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>3896380343.5901</v>
-      </c>
-      <c r="T15" s="3" t="n">
-        <v>3937119101.625</v>
-      </c>
-      <c r="U15" s="3" t="n">
-        <v>3214744940.9492</v>
-      </c>
-      <c r="V15" s="3" t="n">
-        <v>3590484857.1239</v>
-      </c>
-      <c r="W15" s="3" t="n">
-        <v>3259602843.8125</v>
-      </c>
-      <c r="X15" s="3" t="n">
-        <v>4207391459.1499</v>
-      </c>
-      <c r="Y15" s="3" t="n">
-        <v>4996739675.4462</v>
-      </c>
-      <c r="Z15" s="3" t="n">
-        <v>6190179188.1279</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>6479170494.2582</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>6349513824.5816</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>6622991438.8266</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>6610307272.0564</v>
-      </c>
-      <c r="AE15" s="3" t="n">
-        <v>9071190872.5847</v>
-      </c>
-      <c r="AF15" s="3" t="n">
-        <v>11360146162.8075</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>4726293375.58</v>
-      </c>
-      <c r="AH15" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O15" s="14" t="n">
+        <v>104352953520.921</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>118687397601.378</v>
+      </c>
+      <c r="Q15" s="14" t="n">
+        <v>111478827143.061</v>
+      </c>
+      <c r="R15" s="14" t="n">
+        <v>72896532448.6496</v>
+      </c>
+      <c r="S15" s="14" t="n">
+        <v>51893809851.7193</v>
+      </c>
+      <c r="T15" s="14" t="n">
+        <v>32603750213.4551</v>
+      </c>
+      <c r="U15" s="14" t="n">
+        <v>18580017223.5482</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>16092477129.0482</v>
+      </c>
+      <c r="W15" s="14" t="n">
+        <v>12793405781.8393</v>
+      </c>
+      <c r="X15" s="14" t="n">
+        <v>10993583643.4669</v>
+      </c>
+      <c r="Y15" s="14" t="n">
+        <v>12326503699.0296</v>
+      </c>
+      <c r="Z15" s="14" t="n">
+        <v>11910304049.1261</v>
+      </c>
+      <c r="AA15" s="14" t="n">
+        <v>11187065924.6792</v>
+      </c>
+      <c r="AB15" s="14" t="n">
+        <v>14121902159.664</v>
+      </c>
+      <c r="AC15" s="14" t="n">
+        <v>12798217241.3856</v>
+      </c>
+      <c r="AD15" s="14" t="n">
+        <v>12870164731.8382</v>
+      </c>
+      <c r="AE15" s="14" t="n">
+        <v>25914486931.4536</v>
+      </c>
+      <c r="AF15" s="14" t="n">
+        <v>32595963059.24</v>
+      </c>
+      <c r="AG15" s="14" t="n">
+        <v>16400570387.48</v>
+      </c>
+      <c r="AH15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -17225,66 +17195,66 @@
         <v>55</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>13019470274.672</v>
-      </c>
-      <c r="P16" s="3" t="n">
-        <v>12987564099.5642</v>
-      </c>
-      <c r="Q16" s="3" t="n">
-        <v>13855498781.173</v>
-      </c>
-      <c r="R16" s="3" t="n">
-        <v>11002630451.4123</v>
-      </c>
-      <c r="S16" s="3" t="n">
-        <v>14927116228.6622</v>
-      </c>
-      <c r="T16" s="3" t="n">
-        <v>14114634004.8275</v>
-      </c>
-      <c r="U16" s="3" t="n">
-        <v>12292502698.7727</v>
-      </c>
-      <c r="V16" s="3" t="n">
-        <v>12517331417.26</v>
-      </c>
-      <c r="W16" s="3" t="n">
-        <v>12356709146.3551</v>
-      </c>
-      <c r="X16" s="3" t="n">
-        <v>12553211806.0981</v>
-      </c>
-      <c r="Y16" s="3" t="n">
-        <v>13056799042.7061</v>
-      </c>
-      <c r="Z16" s="3" t="n">
-        <v>16210787715.33</v>
-      </c>
-      <c r="AA16" s="3" t="n">
-        <v>16145541035.1906</v>
-      </c>
-      <c r="AB16" s="3" t="n">
-        <v>15602455556.8652</v>
-      </c>
-      <c r="AC16" s="3" t="n">
-        <v>14045821740.906</v>
-      </c>
-      <c r="AD16" s="3" t="n">
-        <v>14563916180.0915</v>
-      </c>
-      <c r="AE16" s="3" t="n">
-        <v>10581984360.929</v>
-      </c>
-      <c r="AF16" s="3" t="n">
-        <v>8259613405.5204</v>
-      </c>
-      <c r="AG16" s="3" t="n">
-        <v>2207416903.05</v>
-      </c>
-      <c r="AH16" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O16" s="14" t="n">
+        <v>7118956755.1289</v>
+      </c>
+      <c r="P16" s="14" t="n">
+        <v>6846788859.4591</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <v>6002155611.728</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <v>4909662083.3086</v>
+      </c>
+      <c r="S16" s="14" t="n">
+        <v>3895941989.5063</v>
+      </c>
+      <c r="T16" s="14" t="n">
+        <v>3932965101.6487</v>
+      </c>
+      <c r="U16" s="14" t="n">
+        <v>3214744940.9492</v>
+      </c>
+      <c r="V16" s="14" t="n">
+        <v>3590484857.094</v>
+      </c>
+      <c r="W16" s="14" t="n">
+        <v>3259602843.8125</v>
+      </c>
+      <c r="X16" s="14" t="n">
+        <v>4207391459.2054</v>
+      </c>
+      <c r="Y16" s="14" t="n">
+        <v>4995373043.5724</v>
+      </c>
+      <c r="Z16" s="14" t="n">
+        <v>6190179188.1101</v>
+      </c>
+      <c r="AA16" s="14" t="n">
+        <v>6476674590.8357</v>
+      </c>
+      <c r="AB16" s="14" t="n">
+        <v>6349513936.8082</v>
+      </c>
+      <c r="AC16" s="14" t="n">
+        <v>6622991438.7629</v>
+      </c>
+      <c r="AD16" s="14" t="n">
+        <v>6613193156.8725</v>
+      </c>
+      <c r="AE16" s="14" t="n">
+        <v>9074057410.0124</v>
+      </c>
+      <c r="AF16" s="14" t="n">
+        <v>11353750061.6675</v>
+      </c>
+      <c r="AG16" s="14" t="n">
+        <v>3842609585.28</v>
+      </c>
+      <c r="AH16" s="14"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -17294,69 +17264,69 @@
         <f>N17</f>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>80590302.4486</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>1618676564.2469</v>
-      </c>
-      <c r="Q17" s="3" t="n">
-        <v>1501908613.8103</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>1302140199.4716</v>
-      </c>
-      <c r="S17" s="3" t="n">
-        <v>922234502.2338</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>549689994.2138</v>
-      </c>
-      <c r="U17" s="3" t="n">
-        <v>364638239.2408</v>
-      </c>
-      <c r="V17" s="3" t="n">
-        <v>352379458.2254</v>
-      </c>
-      <c r="W17" s="3" t="n">
-        <v>349516713.7907</v>
-      </c>
-      <c r="X17" s="3" t="n">
-        <v>437236685.6504</v>
-      </c>
-      <c r="Y17" s="3" t="n">
-        <v>233177590.0969</v>
-      </c>
-      <c r="Z17" s="3" t="n">
-        <v>283502173.9509</v>
-      </c>
-      <c r="AA17" s="3" t="n">
-        <v>398711505.07</v>
-      </c>
-      <c r="AB17" s="3" t="n">
-        <v>218510888.3346</v>
-      </c>
-      <c r="AC17" s="3" t="n">
-        <v>161249067.14</v>
-      </c>
-      <c r="AD17" s="3" t="n">
-        <v>163668103.46</v>
-      </c>
-      <c r="AE17" s="3" t="n">
-        <v>927875675.1603</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>1019523509.9311</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>562383522.07</v>
-      </c>
-      <c r="AH17" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O17" s="14" t="n">
+        <v>12993033492.4219</v>
+      </c>
+      <c r="P17" s="14" t="n">
+        <v>12977180476.727</v>
+      </c>
+      <c r="Q17" s="14" t="n">
+        <v>13854154984.7788</v>
+      </c>
+      <c r="R17" s="14" t="n">
+        <v>11002651225.4685</v>
+      </c>
+      <c r="S17" s="14" t="n">
+        <v>14927490390.81</v>
+      </c>
+      <c r="T17" s="14" t="n">
+        <v>14120703236.609</v>
+      </c>
+      <c r="U17" s="14" t="n">
+        <v>12293029843.2027</v>
+      </c>
+      <c r="V17" s="14" t="n">
+        <v>12517422479.6808</v>
+      </c>
+      <c r="W17" s="14" t="n">
+        <v>12357533748.6751</v>
+      </c>
+      <c r="X17" s="14" t="n">
+        <v>12558445842.4871</v>
+      </c>
+      <c r="Y17" s="14" t="n">
+        <v>13054756634.1725</v>
+      </c>
+      <c r="Z17" s="14" t="n">
+        <v>16188290679.5383</v>
+      </c>
+      <c r="AA17" s="14" t="n">
+        <v>16111098249.4672</v>
+      </c>
+      <c r="AB17" s="14" t="n">
+        <v>15545660356.7443</v>
+      </c>
+      <c r="AC17" s="14" t="n">
+        <v>13999435721.7689</v>
+      </c>
+      <c r="AD17" s="14" t="n">
+        <v>14514910520.9079</v>
+      </c>
+      <c r="AE17" s="14" t="n">
+        <v>10526983209.9236</v>
+      </c>
+      <c r="AF17" s="14" t="n">
+        <v>8252227878.8504</v>
+      </c>
+      <c r="AG17" s="14" t="n">
+        <v>4577357253.84</v>
+      </c>
+      <c r="AH17" s="14"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -17369,66 +17339,66 @@
         <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>803607590.7026</v>
-      </c>
-      <c r="P18" s="3" t="n">
-        <v>6592919949.8717</v>
-      </c>
-      <c r="Q18" s="3" t="n">
-        <v>9089548900.0971</v>
-      </c>
-      <c r="R18" s="3" t="n">
-        <v>3035471365.2616</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>2324804303.2736</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>1853514292.1212</v>
-      </c>
-      <c r="U18" s="3" t="n">
-        <v>1088343303.9874</v>
-      </c>
-      <c r="V18" s="3" t="n">
-        <v>904507828.6181</v>
-      </c>
-      <c r="W18" s="3" t="n">
-        <v>642652964.7289</v>
-      </c>
-      <c r="X18" s="3" t="n">
-        <v>631746553.3797</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>704749220.9899</v>
-      </c>
-      <c r="Z18" s="3" t="n">
-        <v>646257334.6142</v>
-      </c>
-      <c r="AA18" s="3" t="n">
-        <v>783990472.2517</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>638347491.2011</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>336607334.5752</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>339110433.4569</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>1467117436.8929</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>2401746913.97</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>1064100331.37</v>
-      </c>
-      <c r="AH18" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O18" s="14" t="n">
+        <v>80590302.4486</v>
+      </c>
+      <c r="P18" s="14" t="n">
+        <v>1618676564.2469</v>
+      </c>
+      <c r="Q18" s="14" t="n">
+        <v>1501908613.8103</v>
+      </c>
+      <c r="R18" s="14" t="n">
+        <v>1302140199.4716</v>
+      </c>
+      <c r="S18" s="14" t="n">
+        <v>922234502.2338</v>
+      </c>
+      <c r="T18" s="14" t="n">
+        <v>549689994.2138</v>
+      </c>
+      <c r="U18" s="14" t="n">
+        <v>364638239.2408</v>
+      </c>
+      <c r="V18" s="14" t="n">
+        <v>352379458.2254</v>
+      </c>
+      <c r="W18" s="14" t="n">
+        <v>349516713.7907</v>
+      </c>
+      <c r="X18" s="14" t="n">
+        <v>437236685.6504</v>
+      </c>
+      <c r="Y18" s="14" t="n">
+        <v>233177590.0969</v>
+      </c>
+      <c r="Z18" s="14" t="n">
+        <v>283591865.6209</v>
+      </c>
+      <c r="AA18" s="14" t="n">
+        <v>398783743.58</v>
+      </c>
+      <c r="AB18" s="14" t="n">
+        <v>220522795.3146</v>
+      </c>
+      <c r="AC18" s="14" t="n">
+        <v>170354665.22</v>
+      </c>
+      <c r="AD18" s="14" t="n">
+        <v>178814051.58</v>
+      </c>
+      <c r="AE18" s="14" t="n">
+        <v>926419474.4362</v>
+      </c>
+      <c r="AF18" s="14" t="n">
+        <v>1016834699.6411</v>
+      </c>
+      <c r="AG18" s="14" t="n">
+        <v>469528621.27</v>
+      </c>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -17438,69 +17408,141 @@
         <f>N19</f>
       </c>
       <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="14" t="n">
+        <v>803607590.7026</v>
+      </c>
+      <c r="P19" s="14" t="n">
+        <v>6592919949.3779</v>
+      </c>
+      <c r="Q19" s="14" t="n">
+        <v>9089548900.1059</v>
+      </c>
+      <c r="R19" s="14" t="n">
+        <v>3035471365.2616</v>
+      </c>
+      <c r="S19" s="14" t="n">
+        <v>2324804303.2736</v>
+      </c>
+      <c r="T19" s="14" t="n">
+        <v>1853514292.1212</v>
+      </c>
+      <c r="U19" s="14" t="n">
+        <v>1088343303.9874</v>
+      </c>
+      <c r="V19" s="14" t="n">
+        <v>904507828.6181</v>
+      </c>
+      <c r="W19" s="14" t="n">
+        <v>642652964.7289</v>
+      </c>
+      <c r="X19" s="14" t="n">
+        <v>631746553.3797</v>
+      </c>
+      <c r="Y19" s="14" t="n">
+        <v>704749220.9899</v>
+      </c>
+      <c r="Z19" s="14" t="n">
+        <v>646257334.6142</v>
+      </c>
+      <c r="AA19" s="14" t="n">
+        <v>783990472.2517</v>
+      </c>
+      <c r="AB19" s="14" t="n">
+        <v>638347491.2011</v>
+      </c>
+      <c r="AC19" s="14" t="n">
+        <v>336607334.5752</v>
+      </c>
+      <c r="AD19" s="14" t="n">
+        <v>339110433.4569</v>
+      </c>
+      <c r="AE19" s="14" t="n">
+        <v>1453744617.7426</v>
+      </c>
+      <c r="AF19" s="14" t="n">
+        <v>2394705121.96</v>
+      </c>
+      <c r="AG19" s="14" t="n">
+        <v>1500969930.47</v>
+      </c>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="M20" t="s">
         <v>43</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="3" t="str">
-        <f>Sum(O2:O18)</f>
-      </c>
-      <c r="P19" s="3" t="str">
-        <f>Sum(P2:P18)</f>
-      </c>
-      <c r="Q19" s="3" t="str">
-        <f>Sum(Q2:Q18)</f>
-      </c>
-      <c r="R19" s="3" t="str">
-        <f>Sum(R2:R18)</f>
-      </c>
-      <c r="S19" s="3" t="str">
-        <f>Sum(S2:S18)</f>
-      </c>
-      <c r="T19" s="3" t="str">
-        <f>Sum(T2:T18)</f>
-      </c>
-      <c r="U19" s="3" t="str">
-        <f>Sum(U2:U18)</f>
-      </c>
-      <c r="V19" s="3" t="str">
-        <f>Sum(V2:V18)</f>
-      </c>
-      <c r="W19" s="3" t="str">
-        <f>Sum(W2:W18)</f>
-      </c>
-      <c r="X19" s="3" t="str">
-        <f>Sum(X2:X18)</f>
-      </c>
-      <c r="Y19" s="3" t="str">
-        <f>Sum(Y2:Y18)</f>
-      </c>
-      <c r="Z19" s="3" t="str">
-        <f>Sum(Z2:Z18)</f>
-      </c>
-      <c r="AA19" s="3" t="str">
-        <f>Sum(AA2:AA18)</f>
-      </c>
-      <c r="AB19" s="3" t="str">
-        <f>Sum(AB2:AB18)</f>
-      </c>
-      <c r="AC19" s="3" t="str">
-        <f>Sum(AC2:AC18)</f>
-      </c>
-      <c r="AD19" s="3" t="str">
-        <f>Sum(AD2:AD18)</f>
-      </c>
-      <c r="AE19" s="3" t="str">
-        <f>Sum(AE2:AE18)</f>
-      </c>
-      <c r="AF19" s="3" t="str">
-        <f>Sum(AF2:AF18)</f>
-      </c>
-      <c r="AG19" s="3" t="str">
-        <f>Sum(AG2:AG18)</f>
-      </c>
-      <c r="AH19" s="3"/>
+      <c r="O20" s="14" t="str">
+        <f>Sum(O2:O19)</f>
+      </c>
+      <c r="P20" s="14" t="str">
+        <f>Sum(P2:P19)</f>
+      </c>
+      <c r="Q20" s="14" t="str">
+        <f>Sum(Q2:Q19)</f>
+      </c>
+      <c r="R20" s="14" t="str">
+        <f>Sum(R2:R19)</f>
+      </c>
+      <c r="S20" s="14" t="str">
+        <f>Sum(S2:S19)</f>
+      </c>
+      <c r="T20" s="14" t="str">
+        <f>Sum(T2:T19)</f>
+      </c>
+      <c r="U20" s="14" t="str">
+        <f>Sum(U2:U19)</f>
+      </c>
+      <c r="V20" s="14" t="str">
+        <f>Sum(V2:V19)</f>
+      </c>
+      <c r="W20" s="14" t="str">
+        <f>Sum(W2:W19)</f>
+      </c>
+      <c r="X20" s="14" t="str">
+        <f>Sum(X2:X19)</f>
+      </c>
+      <c r="Y20" s="14" t="str">
+        <f>Sum(Y2:Y19)</f>
+      </c>
+      <c r="Z20" s="14" t="str">
+        <f>Sum(Z2:Z19)</f>
+      </c>
+      <c r="AA20" s="14" t="str">
+        <f>Sum(AA2:AA19)</f>
+      </c>
+      <c r="AB20" s="14" t="str">
+        <f>Sum(AB2:AB19)</f>
+      </c>
+      <c r="AC20" s="14" t="str">
+        <f>Sum(AC2:AC19)</f>
+      </c>
+      <c r="AD20" s="14" t="str">
+        <f>Sum(AD2:AD19)</f>
+      </c>
+      <c r="AE20" s="14" t="str">
+        <f>Sum(AE2:AE19)</f>
+      </c>
+      <c r="AF20" s="14" t="str">
+        <f>Sum(AF2:AF19)</f>
+      </c>
+      <c r="AG20" s="14" t="str">
+        <f>Sum(AG2:AG19)</f>
+      </c>
+      <c r="AH20" s="14"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -17620,82 +17662,82 @@
         <f>AG23</f>
       </c>
       <c r="G23" s="2" t="str">
-        <f>AF23/AE23-1</f>
+        <f>AE23&amp;"-"&amp;AF23</f>
       </c>
       <c r="H23" s="2" t="str">
-        <f>AF23/AB23-1</f>
+        <f>AB23&amp;"-"&amp;AF23</f>
       </c>
       <c r="I23" s="2" t="str">
-        <f>AG23/AF23</f>
+        <f>AG23&amp;"/"&amp;AF23</f>
       </c>
       <c r="J23" s="2" t="str">
-        <f>AF23/Sum(AF$22:AF$39)</f>
+        <f>"Share "&amp;AF23</f>
       </c>
       <c r="K23" s="2" t="str">
-        <f>AG23/Sum(AG22:AG$39)</f>
+        <f>"Share "&amp;AG23</f>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>54449466411.5692</v>
-      </c>
-      <c r="P23" s="3" t="n">
-        <v>63232491723.9392</v>
-      </c>
-      <c r="Q23" s="3" t="n">
-        <v>63392053370.0231</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>56539150708.698</v>
-      </c>
-      <c r="S23" s="3" t="n">
-        <v>58648600320.7452</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>65663266195.9841</v>
-      </c>
-      <c r="U23" s="3" t="n">
-        <v>45560826390.1228</v>
-      </c>
-      <c r="V23" s="3" t="n">
-        <v>43101248587.6586</v>
-      </c>
-      <c r="W23" s="3" t="n">
-        <v>36245569070.5381</v>
-      </c>
-      <c r="X23" s="3" t="n">
-        <v>33532734062.5554</v>
-      </c>
-      <c r="Y23" s="3" t="n">
-        <v>35921755329.7199</v>
-      </c>
-      <c r="Z23" s="3" t="n">
-        <v>41658041393.8309</v>
-      </c>
-      <c r="AA23" s="3" t="n">
-        <v>41489553150.5826</v>
-      </c>
-      <c r="AB23" s="3" t="n">
-        <v>41543143890.9768</v>
-      </c>
-      <c r="AC23" s="3" t="n">
-        <v>61898097863.1774</v>
-      </c>
-      <c r="AD23" s="3" t="n">
-        <v>56328931223.1802</v>
-      </c>
-      <c r="AE23" s="3" t="n">
-        <v>47257123941.4428</v>
-      </c>
-      <c r="AF23" s="3" t="n">
-        <v>53813461456.6323</v>
-      </c>
-      <c r="AG23" s="3" t="n">
-        <v>21203140004.7421</v>
+        <v>45</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="AH23" s="3"/>
     </row>
@@ -17706,16 +17748,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="14" t="str">
         <f>AB24</f>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="D24" s="14" t="str">
         <f>AE24</f>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="14" t="str">
         <f>AF24</f>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="14" t="str">
         <f>AG24</f>
       </c>
       <c r="G24" s="2" t="str">
@@ -17728,75 +17770,75 @@
         <f>AG24/AF24</f>
       </c>
       <c r="J24" s="2" t="str">
-        <f>AF24/Sum(AF$22:AF$39)</f>
+        <f>AF24/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K24" s="2" t="str">
-        <f>AG24/Sum(AG22:AG$39)</f>
+        <f>AG24/Sum(AG23:AG$41)</f>
       </c>
       <c r="M24" t="s">
         <v>46</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>38063745867.3747</v>
-      </c>
-      <c r="P24" s="3" t="n">
-        <v>43700678499.446</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>36680598922.9146</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>36858703659.9455</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>34654109272.6742</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>29166272947.4458</v>
-      </c>
-      <c r="U24" s="3" t="n">
-        <v>25396877854.5715</v>
-      </c>
-      <c r="V24" s="3" t="n">
-        <v>22916397399.4577</v>
-      </c>
-      <c r="W24" s="3" t="n">
-        <v>24998802494.2947</v>
-      </c>
-      <c r="X24" s="3" t="n">
-        <v>24810393227.915</v>
-      </c>
-      <c r="Y24" s="3" t="n">
-        <v>27869908394.4716</v>
-      </c>
-      <c r="Z24" s="3" t="n">
-        <v>31845712398.2691</v>
-      </c>
-      <c r="AA24" s="3" t="n">
-        <v>34275196880.6772</v>
-      </c>
-      <c r="AB24" s="3" t="n">
-        <v>40897538670.2605</v>
-      </c>
-      <c r="AC24" s="3" t="n">
-        <v>49498123238.1943</v>
-      </c>
-      <c r="AD24" s="3" t="n">
-        <v>55130198690.724</v>
-      </c>
-      <c r="AE24" s="3" t="n">
-        <v>38512324740.3191</v>
-      </c>
-      <c r="AF24" s="3" t="n">
-        <v>32726853954.0845</v>
-      </c>
-      <c r="AG24" s="3" t="n">
-        <v>13860476004.7884</v>
-      </c>
-      <c r="AH24" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O24" s="14" t="n">
+        <v>54449466411.5692</v>
+      </c>
+      <c r="P24" s="14" t="n">
+        <v>63232491723.9254</v>
+      </c>
+      <c r="Q24" s="14" t="n">
+        <v>63392053370.0628</v>
+      </c>
+      <c r="R24" s="14" t="n">
+        <v>56539150708.6362</v>
+      </c>
+      <c r="S24" s="14" t="n">
+        <v>58588625062.3454</v>
+      </c>
+      <c r="T24" s="14" t="n">
+        <v>65555949762.91</v>
+      </c>
+      <c r="U24" s="14" t="n">
+        <v>45483249269.6359</v>
+      </c>
+      <c r="V24" s="14" t="n">
+        <v>43101248587.6481</v>
+      </c>
+      <c r="W24" s="14" t="n">
+        <v>36245569070.5294</v>
+      </c>
+      <c r="X24" s="14" t="n">
+        <v>33532734060.0418</v>
+      </c>
+      <c r="Y24" s="14" t="n">
+        <v>35921754101.8604</v>
+      </c>
+      <c r="Z24" s="14" t="n">
+        <v>41657932460.6327</v>
+      </c>
+      <c r="AA24" s="14" t="n">
+        <v>41489556970.19</v>
+      </c>
+      <c r="AB24" s="14" t="n">
+        <v>41461691002.1176</v>
+      </c>
+      <c r="AC24" s="14" t="n">
+        <v>61793202433.0379</v>
+      </c>
+      <c r="AD24" s="14" t="n">
+        <v>56171122112.573</v>
+      </c>
+      <c r="AE24" s="14" t="n">
+        <v>46690873758.407</v>
+      </c>
+      <c r="AF24" s="14" t="n">
+        <v>52028027542.552</v>
+      </c>
+      <c r="AG24" s="14" t="n">
+        <v>13009040453.0392</v>
+      </c>
+      <c r="AH24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -17805,16 +17847,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="14" t="str">
         <f>AB25</f>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="14" t="str">
         <f>AE25</f>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="14" t="str">
         <f>AF25</f>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="14" t="str">
         <f>AG25</f>
       </c>
       <c r="G25" s="2" t="str">
@@ -17827,75 +17869,75 @@
         <f>AG25/AF25</f>
       </c>
       <c r="J25" s="2" t="str">
-        <f>AF25/Sum(AF$22:AF$39)</f>
+        <f>AF25/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K25" s="2" t="str">
-        <f>AG25/Sum(AG22:AG$39)</f>
+        <f>AG25/Sum(AG23:AG$41)</f>
       </c>
       <c r="M25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>23075906693.8329</v>
-      </c>
-      <c r="P25" s="3" t="n">
-        <v>25790104876.5054</v>
-      </c>
-      <c r="Q25" s="3" t="n">
-        <v>23920281875.4142</v>
-      </c>
-      <c r="R25" s="3" t="n">
-        <v>24136934628.6468</v>
-      </c>
-      <c r="S25" s="3" t="n">
-        <v>20758507316.2321</v>
-      </c>
-      <c r="T25" s="3" t="n">
-        <v>20525105937.5493</v>
-      </c>
-      <c r="U25" s="3" t="n">
-        <v>16816633402.1988</v>
-      </c>
-      <c r="V25" s="3" t="n">
-        <v>18411144000.948</v>
-      </c>
-      <c r="W25" s="3" t="n">
-        <v>16962728673.4589</v>
-      </c>
-      <c r="X25" s="3" t="n">
-        <v>19033754396.015</v>
-      </c>
-      <c r="Y25" s="3" t="n">
-        <v>21286698635.637</v>
-      </c>
-      <c r="Z25" s="3" t="n">
-        <v>15596820773.2934</v>
-      </c>
-      <c r="AA25" s="3" t="n">
-        <v>19161587614.1534</v>
-      </c>
-      <c r="AB25" s="3" t="n">
-        <v>19642582938.9168</v>
-      </c>
-      <c r="AC25" s="3" t="n">
-        <v>17286617869.8236</v>
-      </c>
-      <c r="AD25" s="3" t="n">
-        <v>18180037536.221</v>
-      </c>
-      <c r="AE25" s="3" t="n">
-        <v>19402939775.4253</v>
-      </c>
-      <c r="AF25" s="3" t="n">
-        <v>21512738764.4638</v>
-      </c>
-      <c r="AG25" s="3" t="n">
-        <v>7549212174.52564</v>
-      </c>
-      <c r="AH25" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O25" s="14" t="n">
+        <v>38063552687.1363</v>
+      </c>
+      <c r="P25" s="14" t="n">
+        <v>43700678499.5377</v>
+      </c>
+      <c r="Q25" s="14" t="n">
+        <v>36680598923.0822</v>
+      </c>
+      <c r="R25" s="14" t="n">
+        <v>36858703659.9759</v>
+      </c>
+      <c r="S25" s="14" t="n">
+        <v>34714084530.6678</v>
+      </c>
+      <c r="T25" s="14" t="n">
+        <v>29273453008.149</v>
+      </c>
+      <c r="U25" s="14" t="n">
+        <v>25474454975.0622</v>
+      </c>
+      <c r="V25" s="14" t="n">
+        <v>22916279981.7503</v>
+      </c>
+      <c r="W25" s="14" t="n">
+        <v>24998802491.1628</v>
+      </c>
+      <c r="X25" s="14" t="n">
+        <v>24810355635.3652</v>
+      </c>
+      <c r="Y25" s="14" t="n">
+        <v>27869866111.5463</v>
+      </c>
+      <c r="Z25" s="14" t="n">
+        <v>31845504553.7963</v>
+      </c>
+      <c r="AA25" s="14" t="n">
+        <v>34275196880.5297</v>
+      </c>
+      <c r="AB25" s="14" t="n">
+        <v>40950283955.3428</v>
+      </c>
+      <c r="AC25" s="14" t="n">
+        <v>49580005122.4165</v>
+      </c>
+      <c r="AD25" s="14" t="n">
+        <v>55300332888.433</v>
+      </c>
+      <c r="AE25" s="14" t="n">
+        <v>39114223706.041</v>
+      </c>
+      <c r="AF25" s="14" t="n">
+        <v>34552838408.4773</v>
+      </c>
+      <c r="AG25" s="14" t="n">
+        <v>28933553845.8499</v>
+      </c>
+      <c r="AH25" s="14"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -17904,16 +17946,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="14" t="str">
         <f>AB26</f>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="14" t="str">
         <f>AE26</f>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="14" t="str">
         <f>AF26</f>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="14" t="str">
         <f>AG26</f>
       </c>
       <c r="G26" s="2" t="str">
@@ -17926,75 +17968,75 @@
         <f>AG26/AF26</f>
       </c>
       <c r="J26" s="2" t="str">
-        <f>AF26/Sum(AF$22:AF$39)</f>
+        <f>AF26/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K26" s="2" t="str">
-        <f>AG26/Sum(AG22:AG$39)</f>
+        <f>AG26/Sum(AG23:AG$41)</f>
       </c>
       <c r="M26" t="s">
         <v>49</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>22335097212.3559</v>
-      </c>
-      <c r="P26" s="3" t="n">
-        <v>29838611267.1305</v>
-      </c>
-      <c r="Q26" s="3" t="n">
-        <v>30777523700.4982</v>
-      </c>
-      <c r="R26" s="3" t="n">
-        <v>31604733535.0425</v>
-      </c>
-      <c r="S26" s="3" t="n">
-        <v>39861845458.2826</v>
-      </c>
-      <c r="T26" s="3" t="n">
-        <v>38220957800.821</v>
-      </c>
-      <c r="U26" s="3" t="n">
-        <v>30745276865.1685</v>
-      </c>
-      <c r="V26" s="3" t="n">
-        <v>29362113845.9899</v>
-      </c>
-      <c r="W26" s="3" t="n">
-        <v>25146075710.4779</v>
-      </c>
-      <c r="X26" s="3" t="n">
-        <v>25538848217.2985</v>
-      </c>
-      <c r="Y26" s="3" t="n">
-        <v>24047193187.1117</v>
-      </c>
-      <c r="Z26" s="3" t="n">
-        <v>23825106556.5513</v>
-      </c>
-      <c r="AA26" s="3" t="n">
-        <v>24948247722.8122</v>
-      </c>
-      <c r="AB26" s="3" t="n">
-        <v>28258712185.9915</v>
-      </c>
-      <c r="AC26" s="3" t="n">
-        <v>20735846261.48</v>
-      </c>
-      <c r="AD26" s="3" t="n">
-        <v>21128343313.7378</v>
-      </c>
-      <c r="AE26" s="3" t="n">
-        <v>21056533550.3347</v>
-      </c>
-      <c r="AF26" s="3" t="n">
-        <v>18146519594.9541</v>
-      </c>
-      <c r="AG26" s="3" t="n">
-        <v>4657323738.07283</v>
-      </c>
-      <c r="AH26" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O26" s="14" t="n">
+        <v>23075906693.8329</v>
+      </c>
+      <c r="P26" s="14" t="n">
+        <v>25790104876.5093</v>
+      </c>
+      <c r="Q26" s="14" t="n">
+        <v>23920281875.414</v>
+      </c>
+      <c r="R26" s="14" t="n">
+        <v>24136934628.6129</v>
+      </c>
+      <c r="S26" s="14" t="n">
+        <v>20758031007.0883</v>
+      </c>
+      <c r="T26" s="14" t="n">
+        <v>20521094638.2649</v>
+      </c>
+      <c r="U26" s="14" t="n">
+        <v>16813336160.4483</v>
+      </c>
+      <c r="V26" s="14" t="n">
+        <v>18411144000.9164</v>
+      </c>
+      <c r="W26" s="14" t="n">
+        <v>16962728673.4569</v>
+      </c>
+      <c r="X26" s="14" t="n">
+        <v>19033754395.959</v>
+      </c>
+      <c r="Y26" s="14" t="n">
+        <v>21286939765.0202</v>
+      </c>
+      <c r="Z26" s="14" t="n">
+        <v>15596820770.929</v>
+      </c>
+      <c r="AA26" s="14" t="n">
+        <v>19161587614.1639</v>
+      </c>
+      <c r="AB26" s="14" t="n">
+        <v>19640610108.9798</v>
+      </c>
+      <c r="AC26" s="14" t="n">
+        <v>17286587363.7373</v>
+      </c>
+      <c r="AD26" s="14" t="n">
+        <v>18177019542.381</v>
+      </c>
+      <c r="AE26" s="14" t="n">
+        <v>19400021131.4488</v>
+      </c>
+      <c r="AF26" s="14" t="n">
+        <v>21510252268.6219</v>
+      </c>
+      <c r="AG26" s="14" t="n">
+        <v>5464583543.61292</v>
+      </c>
+      <c r="AH26" s="14"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -18003,16 +18045,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="14" t="str">
         <f>AB27</f>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="14" t="str">
         <f>AE27</f>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" s="14" t="str">
         <f>AF27</f>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="14" t="str">
         <f>AG27</f>
       </c>
       <c r="G27" s="2" t="str">
@@ -18025,75 +18067,75 @@
         <f>AG27/AF27</f>
       </c>
       <c r="J27" s="2" t="str">
-        <f>AF27/Sum(AF$22:AF$39)</f>
+        <f>AF27/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K27" s="2" t="str">
-        <f>AG27/Sum(AG22:AG$39)</f>
+        <f>AG27/Sum(AG23:AG$41)</f>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>12887035119.4822</v>
-      </c>
-      <c r="P27" s="3" t="n">
-        <v>13193680216.0591</v>
-      </c>
-      <c r="Q27" s="3" t="n">
-        <v>11388664946.6457</v>
-      </c>
-      <c r="R27" s="3" t="n">
-        <v>9762471828.77361</v>
-      </c>
-      <c r="S27" s="3" t="n">
-        <v>8482600031.81706</v>
-      </c>
-      <c r="T27" s="3" t="n">
-        <v>8013932639.82969</v>
-      </c>
-      <c r="U27" s="3" t="n">
-        <v>7021837406.4461</v>
-      </c>
-      <c r="V27" s="3" t="n">
-        <v>8786967087.03301</v>
-      </c>
-      <c r="W27" s="3" t="n">
-        <v>9296890228.11207</v>
-      </c>
-      <c r="X27" s="3" t="n">
-        <v>9321024127.1442</v>
-      </c>
-      <c r="Y27" s="3" t="n">
-        <v>8284994942.74403</v>
-      </c>
-      <c r="Z27" s="3" t="n">
-        <v>15184904887.1999</v>
-      </c>
-      <c r="AA27" s="3" t="n">
-        <v>15195680574.9159</v>
-      </c>
-      <c r="AB27" s="3" t="n">
-        <v>13796364637.3292</v>
-      </c>
-      <c r="AC27" s="3" t="n">
-        <v>12636387336.4176</v>
-      </c>
-      <c r="AD27" s="3" t="n">
-        <v>12468767112.0597</v>
-      </c>
-      <c r="AE27" s="3" t="n">
-        <v>12698134067.0759</v>
-      </c>
-      <c r="AF27" s="3" t="n">
-        <v>15314505267.9621</v>
-      </c>
-      <c r="AG27" s="3" t="n">
-        <v>7531487729.54514</v>
-      </c>
-      <c r="AH27" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O27" s="14" t="n">
+        <v>22335097212.3559</v>
+      </c>
+      <c r="P27" s="14" t="n">
+        <v>29838611267.1305</v>
+      </c>
+      <c r="Q27" s="14" t="n">
+        <v>30777523700.5218</v>
+      </c>
+      <c r="R27" s="14" t="n">
+        <v>31604733535.0501</v>
+      </c>
+      <c r="S27" s="14" t="n">
+        <v>39862321767.3899</v>
+      </c>
+      <c r="T27" s="14" t="n">
+        <v>38224959507.2856</v>
+      </c>
+      <c r="U27" s="14" t="n">
+        <v>30748574106.8772</v>
+      </c>
+      <c r="V27" s="14" t="n">
+        <v>29362113845.9899</v>
+      </c>
+      <c r="W27" s="14" t="n">
+        <v>25146075710.4495</v>
+      </c>
+      <c r="X27" s="14" t="n">
+        <v>25538849529.6093</v>
+      </c>
+      <c r="Y27" s="14" t="n">
+        <v>24047193186.883</v>
+      </c>
+      <c r="Z27" s="14" t="n">
+        <v>23816487619.4958</v>
+      </c>
+      <c r="AA27" s="14" t="n">
+        <v>24938501678.4143</v>
+      </c>
+      <c r="AB27" s="14" t="n">
+        <v>28237876558.5869</v>
+      </c>
+      <c r="AC27" s="14" t="n">
+        <v>20724735513.7246</v>
+      </c>
+      <c r="AD27" s="14" t="n">
+        <v>21109027082.653</v>
+      </c>
+      <c r="AE27" s="14" t="n">
+        <v>21065777387.7495</v>
+      </c>
+      <c r="AF27" s="14" t="n">
+        <v>18160753621.3558</v>
+      </c>
+      <c r="AG27" s="14" t="n">
+        <v>9439819096.39634</v>
+      </c>
+      <c r="AH27" s="14"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -18102,16 +18144,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="14" t="str">
         <f>AB28</f>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D28" s="14" t="str">
         <f>AE28</f>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="14" t="str">
         <f>AF28</f>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="14" t="str">
         <f>AG28</f>
       </c>
       <c r="G28" s="2" t="str">
@@ -18124,75 +18166,75 @@
         <f>AG28/AF28</f>
       </c>
       <c r="J28" s="2" t="str">
-        <f>AF28/Sum(AF$22:AF$39)</f>
+        <f>AF28/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K28" s="2" t="str">
-        <f>AG28/Sum(AG22:AG$39)</f>
+        <f>AG28/Sum(AG23:AG$41)</f>
       </c>
       <c r="M28" t="s">
         <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>16383130234.4189</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>15460096058.701</v>
-      </c>
-      <c r="Q28" s="3" t="n">
-        <v>15765682181.5629</v>
-      </c>
-      <c r="R28" s="3" t="n">
-        <v>14753450237.5422</v>
-      </c>
-      <c r="S28" s="3" t="n">
-        <v>19185690382.2844</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>17310929978.8275</v>
-      </c>
-      <c r="U28" s="3" t="n">
-        <v>13918847425.6713</v>
-      </c>
-      <c r="V28" s="3" t="n">
-        <v>13993337759.7203</v>
-      </c>
-      <c r="W28" s="3" t="n">
-        <v>13618273760.4937</v>
-      </c>
-      <c r="X28" s="3" t="n">
-        <v>12558736129.4263</v>
-      </c>
-      <c r="Y28" s="3" t="n">
-        <v>13722589266.1</v>
-      </c>
-      <c r="Z28" s="3" t="n">
-        <v>16490741888.3543</v>
-      </c>
-      <c r="AA28" s="3" t="n">
-        <v>16139115273.1483</v>
-      </c>
-      <c r="AB28" s="3" t="n">
-        <v>15078919052.0291</v>
-      </c>
-      <c r="AC28" s="3" t="n">
-        <v>12231353403.0387</v>
-      </c>
-      <c r="AD28" s="3" t="n">
-        <v>12069665416.0122</v>
-      </c>
-      <c r="AE28" s="3" t="n">
-        <v>8250444390.1778</v>
-      </c>
-      <c r="AF28" s="3" t="n">
-        <v>6337882947.92968</v>
-      </c>
-      <c r="AG28" s="3" t="n">
-        <v>2200980605.63696</v>
-      </c>
-      <c r="AH28" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O28" s="14" t="n">
+        <v>12886487508.9599</v>
+      </c>
+      <c r="P28" s="14" t="n">
+        <v>13193062584.1906</v>
+      </c>
+      <c r="Q28" s="14" t="n">
+        <v>11388664946.6454</v>
+      </c>
+      <c r="R28" s="14" t="n">
+        <v>9762471828.76191</v>
+      </c>
+      <c r="S28" s="14" t="n">
+        <v>8477934285.99281</v>
+      </c>
+      <c r="T28" s="14" t="n">
+        <v>8006165769.26545</v>
+      </c>
+      <c r="U28" s="14" t="n">
+        <v>7014942069.58034</v>
+      </c>
+      <c r="V28" s="14" t="n">
+        <v>8786967813.0815</v>
+      </c>
+      <c r="W28" s="14" t="n">
+        <v>9297001759.51468</v>
+      </c>
+      <c r="X28" s="14" t="n">
+        <v>9321024121.56466</v>
+      </c>
+      <c r="Y28" s="14" t="n">
+        <v>8286421452.92226</v>
+      </c>
+      <c r="Z28" s="14" t="n">
+        <v>15184934727.0079</v>
+      </c>
+      <c r="AA28" s="14" t="n">
+        <v>15198524564.7239</v>
+      </c>
+      <c r="AB28" s="14" t="n">
+        <v>13793997405.9222</v>
+      </c>
+      <c r="AC28" s="14" t="n">
+        <v>12636021888.3888</v>
+      </c>
+      <c r="AD28" s="14" t="n">
+        <v>12463645212.5469</v>
+      </c>
+      <c r="AE28" s="14" t="n">
+        <v>12754740985.2619</v>
+      </c>
+      <c r="AF28" s="14" t="n">
+        <v>15035610196.2116</v>
+      </c>
+      <c r="AG28" s="14" t="n">
+        <v>7329843339.55744</v>
+      </c>
+      <c r="AH28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -18201,16 +18243,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="14" t="str">
         <f>AB29</f>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="14" t="str">
         <f>AE29</f>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="E29" s="14" t="str">
         <f>AF29</f>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="14" t="str">
         <f>AG29</f>
       </c>
       <c r="G29" s="2" t="str">
@@ -18223,75 +18265,75 @@
         <f>AG29/AF29</f>
       </c>
       <c r="J29" s="2" t="str">
-        <f>AF29/Sum(AF$22:AF$39)</f>
+        <f>AF29/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K29" s="2" t="str">
-        <f>AG29/Sum(AG22:AG$39)</f>
+        <f>AG29/Sum(AG23:AG$41)</f>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>529836.644742355</v>
-      </c>
-      <c r="P29" s="3" t="n">
-        <v>13885173.8185951</v>
-      </c>
-      <c r="Q29" s="3" t="n">
-        <v>23006581.5720281</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>473565966.331648</v>
-      </c>
-      <c r="S29" s="3" t="n">
-        <v>843320436.197877</v>
-      </c>
-      <c r="T29" s="3" t="n">
-        <v>957771731.870799</v>
-      </c>
-      <c r="U29" s="3" t="n">
-        <v>739920124.641953</v>
-      </c>
-      <c r="V29" s="3" t="n">
-        <v>552372668.67137</v>
-      </c>
-      <c r="W29" s="3" t="n">
-        <v>605218363.275255</v>
-      </c>
-      <c r="X29" s="3" t="n">
-        <v>935094803.162324</v>
-      </c>
-      <c r="Y29" s="3" t="n">
-        <v>1484211571.66459</v>
-      </c>
-      <c r="Z29" s="3" t="n">
-        <v>2580612477.67022</v>
-      </c>
-      <c r="AA29" s="3" t="n">
-        <v>1980367368.455</v>
-      </c>
-      <c r="AB29" s="3" t="n">
-        <v>1730556907.9104</v>
-      </c>
-      <c r="AC29" s="3" t="n">
-        <v>1902800348.30979</v>
-      </c>
-      <c r="AD29" s="3" t="n">
-        <v>3272632761.22566</v>
-      </c>
-      <c r="AE29" s="3" t="n">
-        <v>1908806663.7062</v>
-      </c>
-      <c r="AF29" s="3" t="n">
-        <v>407159087.5537</v>
-      </c>
-      <c r="AG29" s="3" t="n">
-        <v>296078812.696095</v>
-      </c>
-      <c r="AH29" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="O29" s="14" t="n">
+        <v>16376957633.6231</v>
+      </c>
+      <c r="P29" s="14" t="n">
+        <v>15455747643.3254</v>
+      </c>
+      <c r="Q29" s="14" t="n">
+        <v>15764810517.4793</v>
+      </c>
+      <c r="R29" s="14" t="n">
+        <v>14753410860.7865</v>
+      </c>
+      <c r="S29" s="14" t="n">
+        <v>19190468617.8842</v>
+      </c>
+      <c r="T29" s="14" t="n">
+        <v>17318831906.1235</v>
+      </c>
+      <c r="U29" s="14" t="n">
+        <v>13925760809.73</v>
+      </c>
+      <c r="V29" s="14" t="n">
+        <v>13993337233.0603</v>
+      </c>
+      <c r="W29" s="14" t="n">
+        <v>13619262951.0979</v>
+      </c>
+      <c r="X29" s="14" t="n">
+        <v>12556699530.6322</v>
+      </c>
+      <c r="Y29" s="14" t="n">
+        <v>13723242536.364</v>
+      </c>
+      <c r="Z29" s="14" t="n">
+        <v>16484761626.1761</v>
+      </c>
+      <c r="AA29" s="14" t="n">
+        <v>16137059635.3209</v>
+      </c>
+      <c r="AB29" s="14" t="n">
+        <v>15077905202.9103</v>
+      </c>
+      <c r="AC29" s="14" t="n">
+        <v>12219664055.6644</v>
+      </c>
+      <c r="AD29" s="14" t="n">
+        <v>12037326094.0014</v>
+      </c>
+      <c r="AE29" s="14" t="n">
+        <v>8170328329.393</v>
+      </c>
+      <c r="AF29" s="14" t="n">
+        <v>6602691203.1004</v>
+      </c>
+      <c r="AG29" s="14" t="n">
+        <v>4486542065.04847</v>
+      </c>
+      <c r="AH29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -18300,16 +18342,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="14" t="str">
         <f>AB30</f>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="14" t="str">
         <f>AE30</f>
       </c>
-      <c r="E30" s="3" t="str">
+      <c r="E30" s="14" t="str">
         <f>AF30</f>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="14" t="str">
         <f>AG30</f>
       </c>
       <c r="G30" s="2" t="str">
@@ -18322,75 +18364,75 @@
         <f>AG30/AF30</f>
       </c>
       <c r="J30" s="2" t="str">
-        <f>AF30/Sum(AF$22:AF$39)</f>
+        <f>AF30/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K30" s="2" t="str">
-        <f>AG30/Sum(AG22:AG$39)</f>
+        <f>AG30/Sum(AG23:AG$41)</f>
       </c>
       <c r="M30" t="s">
         <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>180053651.523716</v>
-      </c>
-      <c r="P30" s="3" t="n">
-        <v>75563242.4763499</v>
-      </c>
-      <c r="Q30" s="3" t="n">
-        <v>537330892.537575</v>
-      </c>
-      <c r="R30" s="3" t="n">
-        <v>14264685198.7648</v>
-      </c>
-      <c r="S30" s="3" t="n">
-        <v>57223368958.5836</v>
-      </c>
-      <c r="T30" s="3" t="n">
-        <v>73292223053.2649</v>
-      </c>
-      <c r="U30" s="3" t="n">
-        <v>60911572735.8686</v>
-      </c>
-      <c r="V30" s="3" t="n">
-        <v>56446617861.2119</v>
-      </c>
-      <c r="W30" s="3" t="n">
-        <v>55932298742.5257</v>
-      </c>
-      <c r="X30" s="3" t="n">
-        <v>64191342126.5554</v>
-      </c>
-      <c r="Y30" s="3" t="n">
-        <v>72036117409.5865</v>
-      </c>
-      <c r="Z30" s="3" t="n">
-        <v>89197361665.1673</v>
-      </c>
-      <c r="AA30" s="3" t="n">
-        <v>90170326546.4192</v>
-      </c>
-      <c r="AB30" s="3" t="n">
-        <v>96410639938.1015</v>
-      </c>
-      <c r="AC30" s="3" t="n">
-        <v>87908157023.5595</v>
-      </c>
-      <c r="AD30" s="3" t="n">
-        <v>83111604919.5923</v>
-      </c>
-      <c r="AE30" s="3" t="n">
-        <v>54819900396.6547</v>
-      </c>
-      <c r="AF30" s="3" t="n">
-        <v>31319820394.6094</v>
-      </c>
-      <c r="AG30" s="3" t="n">
-        <v>10446385226.8095</v>
-      </c>
-      <c r="AH30" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="O30" s="14" t="n">
+        <v>529836.644742355</v>
+      </c>
+      <c r="P30" s="14" t="n">
+        <v>13885173.8185951</v>
+      </c>
+      <c r="Q30" s="14" t="n">
+        <v>23006581.5720281</v>
+      </c>
+      <c r="R30" s="14" t="n">
+        <v>473565966.331648</v>
+      </c>
+      <c r="S30" s="14" t="n">
+        <v>828440787.063246</v>
+      </c>
+      <c r="T30" s="14" t="n">
+        <v>949578038.030593</v>
+      </c>
+      <c r="U30" s="14" t="n">
+        <v>733999449.264648</v>
+      </c>
+      <c r="V30" s="14" t="n">
+        <v>552372668.67137</v>
+      </c>
+      <c r="W30" s="14" t="n">
+        <v>605218363.275255</v>
+      </c>
+      <c r="X30" s="14" t="n">
+        <v>935094803.162324</v>
+      </c>
+      <c r="Y30" s="14" t="n">
+        <v>1484211571.68132</v>
+      </c>
+      <c r="Z30" s="14" t="n">
+        <v>2580612477.64383</v>
+      </c>
+      <c r="AA30" s="14" t="n">
+        <v>1980367368.6827</v>
+      </c>
+      <c r="AB30" s="14" t="n">
+        <v>1730556907.90102</v>
+      </c>
+      <c r="AC30" s="14" t="n">
+        <v>1902800348.41363</v>
+      </c>
+      <c r="AD30" s="14" t="n">
+        <v>3272632760.84386</v>
+      </c>
+      <c r="AE30" s="14" t="n">
+        <v>1908806663.6234</v>
+      </c>
+      <c r="AF30" s="14" t="n">
+        <v>358630902.783826</v>
+      </c>
+      <c r="AG30" s="14" t="n">
+        <v>241520266.32769</v>
+      </c>
+      <c r="AH30" s="14"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -18399,16 +18441,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="14" t="str">
         <f>AB31</f>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="14" t="str">
         <f>AE31</f>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="E31" s="14" t="str">
         <f>AF31</f>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="14" t="str">
         <f>AG31</f>
       </c>
       <c r="G31" s="2" t="str">
@@ -18421,75 +18463,75 @@
         <f>AG31/AF31</f>
       </c>
       <c r="J31" s="2" t="str">
-        <f>AF31/Sum(AF$22:AF$39)</f>
+        <f>AF31/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K31" s="2" t="str">
-        <f>AG31/Sum(AG22:AG$39)</f>
+        <f>AG31/Sum(AG23:AG$41)</f>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N31" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="3" t="n">
-        <v>111067018825.461</v>
-      </c>
-      <c r="P31" s="3" t="n">
-        <v>123137538157.926</v>
-      </c>
-      <c r="Q31" s="3" t="n">
-        <v>144505154616.565</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>177116446155.055</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>156476969286.03</v>
-      </c>
-      <c r="T31" s="3" t="n">
-        <v>150307753486.293</v>
-      </c>
-      <c r="U31" s="3" t="n">
-        <v>148180185957.966</v>
-      </c>
-      <c r="V31" s="3" t="n">
-        <v>121778451247.518</v>
-      </c>
-      <c r="W31" s="3" t="n">
-        <v>120982648248.027</v>
-      </c>
-      <c r="X31" s="3" t="n">
-        <v>143122583211.417</v>
-      </c>
-      <c r="Y31" s="3" t="n">
-        <v>148443662717.561</v>
-      </c>
-      <c r="Z31" s="3" t="n">
-        <v>148751337729.078</v>
-      </c>
-      <c r="AA31" s="3" t="n">
-        <v>162859981410.04</v>
-      </c>
-      <c r="AB31" s="3" t="n">
-        <v>186405337628.137</v>
-      </c>
-      <c r="AC31" s="3" t="n">
-        <v>128594817643.726</v>
-      </c>
-      <c r="AD31" s="3" t="n">
-        <v>133200337716.348</v>
-      </c>
-      <c r="AE31" s="3" t="n">
-        <v>200309215715.958</v>
-      </c>
-      <c r="AF31" s="3" t="n">
-        <v>192039027142.63</v>
-      </c>
-      <c r="AG31" s="3" t="n">
-        <v>100857246059.789</v>
-      </c>
-      <c r="AH31" s="3"/>
+      <c r="O31" s="14" t="n">
+        <v>180053651.523716</v>
+      </c>
+      <c r="P31" s="14" t="n">
+        <v>75563242.4763499</v>
+      </c>
+      <c r="Q31" s="14" t="n">
+        <v>537330892.537575</v>
+      </c>
+      <c r="R31" s="14" t="n">
+        <v>14264685198.7648</v>
+      </c>
+      <c r="S31" s="14" t="n">
+        <v>57238221777.7517</v>
+      </c>
+      <c r="T31" s="14" t="n">
+        <v>73300416743.0431</v>
+      </c>
+      <c r="U31" s="14" t="n">
+        <v>60917493405.2932</v>
+      </c>
+      <c r="V31" s="14" t="n">
+        <v>56441548786.5568</v>
+      </c>
+      <c r="W31" s="14" t="n">
+        <v>55927519484.6084</v>
+      </c>
+      <c r="X31" s="14" t="n">
+        <v>64187878954.5398</v>
+      </c>
+      <c r="Y31" s="14" t="n">
+        <v>72035739175.0146</v>
+      </c>
+      <c r="Z31" s="14" t="n">
+        <v>89106741221.7671</v>
+      </c>
+      <c r="AA31" s="14" t="n">
+        <v>89879536590.1262</v>
+      </c>
+      <c r="AB31" s="14" t="n">
+        <v>95976959779.3579</v>
+      </c>
+      <c r="AC31" s="14" t="n">
+        <v>87399843842.7288</v>
+      </c>
+      <c r="AD31" s="14" t="n">
+        <v>82282746816.9741</v>
+      </c>
+      <c r="AE31" s="14" t="n">
+        <v>54125665537.1827</v>
+      </c>
+      <c r="AF31" s="14" t="n">
+        <v>30955979907.1903</v>
+      </c>
+      <c r="AG31" s="14" t="n">
+        <v>11520831499.5718</v>
+      </c>
+      <c r="AH31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -18498,16 +18540,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="14" t="str">
         <f>AB32</f>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="14" t="str">
         <f>AE32</f>
       </c>
-      <c r="E32" s="3" t="str">
+      <c r="E32" s="14" t="str">
         <f>AF32</f>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="14" t="str">
         <f>AG32</f>
       </c>
       <c r="G32" s="2" t="str">
@@ -18520,75 +18562,43 @@
         <f>AG32/AF32</f>
       </c>
       <c r="J32" s="2" t="str">
-        <f>AF32/Sum(AF$22:AF$39)</f>
+        <f>AF32/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K32" s="2" t="str">
-        <f>AG32/Sum(AG22:AG$39)</f>
+        <f>AG32/Sum(AG23:AG$41)</f>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N32" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="3" t="n">
-        <v>4927975.24543857</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>10138331.6768421</v>
-      </c>
-      <c r="Q32" s="3" t="n">
-        <v>6559574.13976913</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>-530002.633965152</v>
-      </c>
-      <c r="S32" s="3" t="n">
-        <v>756423.842348394</v>
-      </c>
-      <c r="T32" s="3" t="n">
-        <v>3597300.3627095</v>
-      </c>
-      <c r="U32" s="3" t="n">
-        <v>953544.880939329</v>
-      </c>
-      <c r="V32" s="3" t="n">
-        <v>2100234.12194165</v>
-      </c>
-      <c r="W32" s="3" t="n">
-        <v>860999.023632689</v>
-      </c>
-      <c r="X32" s="3" t="n">
-        <v>9268393.16624881</v>
-      </c>
-      <c r="Y32" s="3" t="n">
-        <v>18969615.411275</v>
-      </c>
-      <c r="Z32" s="3" t="n">
-        <v>12065005.3822576</v>
-      </c>
-      <c r="AA32" s="3" t="n">
-        <v>58918679.8170415</v>
-      </c>
-      <c r="AB32" s="3" t="n">
-        <v>5374086.67589434</v>
-      </c>
-      <c r="AC32" s="3" t="n">
-        <v>21077740.3262691</v>
-      </c>
-      <c r="AD32" s="3" t="n">
-        <v>6697698.44392739</v>
-      </c>
-      <c r="AE32" s="3" t="n">
-        <v>3009276.34</v>
-      </c>
-      <c r="AF32" s="3" t="n">
-        <v>12008238.5552426</v>
-      </c>
-      <c r="AG32" s="3" t="n">
-        <v>3755208.84498634</v>
-      </c>
-      <c r="AH32" s="3"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14" t="n">
+        <v>12666573.9695506</v>
+      </c>
+      <c r="AD32" s="14" t="n">
+        <v>2624301.07944641</v>
+      </c>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14" t="n">
+        <v>396872859.308647</v>
+      </c>
+      <c r="AH32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -18597,16 +18607,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="14" t="str">
         <f>AB33</f>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="14" t="str">
         <f>AE33</f>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="14" t="str">
         <f>AF33</f>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="14" t="str">
         <f>AG33</f>
       </c>
       <c r="G33" s="2" t="str">
@@ -18619,75 +18629,75 @@
         <f>AG33/AF33</f>
       </c>
       <c r="J33" s="2" t="str">
-        <f>AF33/Sum(AF$22:AF$39)</f>
+        <f>AF33/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K33" s="2" t="str">
-        <f>AG33/Sum(AG22:AG$39)</f>
+        <f>AG33/Sum(AG23:AG$41)</f>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N33" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="3" t="n">
-        <v>129494665.991222</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>377017676.165963</v>
-      </c>
-      <c r="Q33" s="3" t="n">
-        <v>164705116.205773</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>3052336970.05866</v>
-      </c>
-      <c r="S33" s="3" t="n">
-        <v>620639376.904947</v>
-      </c>
-      <c r="T33" s="3" t="n">
-        <v>428082117.626377</v>
-      </c>
-      <c r="U33" s="3" t="n">
-        <v>264005381.730712</v>
-      </c>
-      <c r="V33" s="3" t="n">
-        <v>319864252.59757</v>
-      </c>
-      <c r="W33" s="3" t="n">
-        <v>155895885.608503</v>
-      </c>
-      <c r="X33" s="3" t="n">
-        <v>233122510.329159</v>
-      </c>
-      <c r="Y33" s="3" t="n">
-        <v>153787934.239382</v>
-      </c>
-      <c r="Z33" s="3" t="n">
-        <v>166230507.501403</v>
-      </c>
-      <c r="AA33" s="3" t="n">
-        <v>367214237.129632</v>
-      </c>
-      <c r="AB33" s="3" t="n">
-        <v>379750134.900486</v>
-      </c>
-      <c r="AC33" s="3" t="n">
-        <v>327591258.289034</v>
-      </c>
-      <c r="AD33" s="3" t="n">
-        <v>355867886.474017</v>
-      </c>
-      <c r="AE33" s="3" t="n">
-        <v>643485537.8743</v>
-      </c>
-      <c r="AF33" s="3" t="n">
-        <v>622532152.291294</v>
-      </c>
-      <c r="AG33" s="3" t="n">
-        <v>313582524.808769</v>
-      </c>
-      <c r="AH33" s="3"/>
+      <c r="O33" s="14" t="n">
+        <v>111067018825.385</v>
+      </c>
+      <c r="P33" s="14" t="n">
+        <v>123137538158.022</v>
+      </c>
+      <c r="Q33" s="14" t="n">
+        <v>144505154616.573</v>
+      </c>
+      <c r="R33" s="14" t="n">
+        <v>177116446175.595</v>
+      </c>
+      <c r="S33" s="14" t="n">
+        <v>156476969280.753</v>
+      </c>
+      <c r="T33" s="14" t="n">
+        <v>150307753458.974</v>
+      </c>
+      <c r="U33" s="14" t="n">
+        <v>148180185959.401</v>
+      </c>
+      <c r="V33" s="14" t="n">
+        <v>121778451247.887</v>
+      </c>
+      <c r="W33" s="14" t="n">
+        <v>120982648248.153</v>
+      </c>
+      <c r="X33" s="14" t="n">
+        <v>143121242367.773</v>
+      </c>
+      <c r="Y33" s="14" t="n">
+        <v>148474258206.98</v>
+      </c>
+      <c r="Z33" s="14" t="n">
+        <v>148865775403.186</v>
+      </c>
+      <c r="AA33" s="14" t="n">
+        <v>163166138706.189</v>
+      </c>
+      <c r="AB33" s="14" t="n">
+        <v>186819796599.431</v>
+      </c>
+      <c r="AC33" s="14" t="n">
+        <v>129035950434.249</v>
+      </c>
+      <c r="AD33" s="14" t="n">
+        <v>133729488252.374</v>
+      </c>
+      <c r="AE33" s="14" t="n">
+        <v>200739602072.629</v>
+      </c>
+      <c r="AF33" s="14" t="n">
+        <v>192748616154.745</v>
+      </c>
+      <c r="AG33" s="14" t="n">
+        <v>120190550137.038</v>
+      </c>
+      <c r="AH33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -18696,16 +18706,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="14" t="str">
         <f>AB34</f>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="14" t="str">
         <f>AE34</f>
       </c>
-      <c r="E34" s="3" t="str">
+      <c r="E34" s="14" t="str">
         <f>AF34</f>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="14" t="str">
         <f>AG34</f>
       </c>
       <c r="G34" s="2" t="str">
@@ -18718,75 +18728,75 @@
         <f>AG34/AF34</f>
       </c>
       <c r="J34" s="2" t="str">
-        <f>AF34/Sum(AF$22:AF$39)</f>
+        <f>AF34/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K34" s="2" t="str">
-        <f>AG34/Sum(AG22:AG$39)</f>
+        <f>AG34/Sum(AG23:AG$41)</f>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="3" t="n">
-        <v>16423833852.7404</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>13988374107.0248</v>
-      </c>
-      <c r="Q34" s="3" t="n">
-        <v>9828132954.20541</v>
-      </c>
-      <c r="R34" s="3" t="n">
-        <v>6466641872.4718</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>4175094884.27501</v>
-      </c>
-      <c r="T34" s="3" t="n">
-        <v>3069374666.37567</v>
-      </c>
-      <c r="U34" s="3" t="n">
-        <v>2798190457.37992</v>
-      </c>
-      <c r="V34" s="3" t="n">
-        <v>1645515091.60537</v>
-      </c>
-      <c r="W34" s="3" t="n">
-        <v>2380991354.55904</v>
-      </c>
-      <c r="X34" s="3" t="n">
-        <v>1353059305.23535</v>
-      </c>
-      <c r="Y34" s="3" t="n">
-        <v>1502751665.25154</v>
-      </c>
-      <c r="Z34" s="3" t="n">
-        <v>1746243572.10656</v>
-      </c>
-      <c r="AA34" s="3" t="n">
-        <v>2076505656.80189</v>
-      </c>
-      <c r="AB34" s="3" t="n">
-        <v>2187688092.90887</v>
-      </c>
-      <c r="AC34" s="3" t="n">
-        <v>2099432238.19603</v>
-      </c>
-      <c r="AD34" s="3" t="n">
-        <v>2416079719.34667</v>
-      </c>
-      <c r="AE34" s="3" t="n">
-        <v>4673380158.5765</v>
-      </c>
-      <c r="AF34" s="3" t="n">
-        <v>7104942415.12625</v>
-      </c>
-      <c r="AG34" s="3" t="n">
-        <v>3200720284.57605</v>
-      </c>
-      <c r="AH34" s="3"/>
+      <c r="O34" s="14" t="n">
+        <v>4927975.24543857</v>
+      </c>
+      <c r="P34" s="14" t="n">
+        <v>10138331.6768421</v>
+      </c>
+      <c r="Q34" s="14" t="n">
+        <v>6559574.13976913</v>
+      </c>
+      <c r="R34" s="14" t="n">
+        <v>-530002.633965152</v>
+      </c>
+      <c r="S34" s="14" t="n">
+        <v>756423.842348394</v>
+      </c>
+      <c r="T34" s="14" t="n">
+        <v>3597300.3627095</v>
+      </c>
+      <c r="U34" s="14" t="n">
+        <v>953544.880939329</v>
+      </c>
+      <c r="V34" s="14" t="n">
+        <v>2100234.12194165</v>
+      </c>
+      <c r="W34" s="14" t="n">
+        <v>860999.023632689</v>
+      </c>
+      <c r="X34" s="14" t="n">
+        <v>9268393.16624881</v>
+      </c>
+      <c r="Y34" s="14" t="n">
+        <v>18969615.411275</v>
+      </c>
+      <c r="Z34" s="14" t="n">
+        <v>12065005.3822576</v>
+      </c>
+      <c r="AA34" s="14" t="n">
+        <v>58918679.8170415</v>
+      </c>
+      <c r="AB34" s="14" t="n">
+        <v>5374086.67589434</v>
+      </c>
+      <c r="AC34" s="14" t="n">
+        <v>21077740.3262691</v>
+      </c>
+      <c r="AD34" s="14" t="n">
+        <v>6697698.44392739</v>
+      </c>
+      <c r="AE34" s="14" t="n">
+        <v>3009276.34</v>
+      </c>
+      <c r="AF34" s="14" t="n">
+        <v>12008238.5552426</v>
+      </c>
+      <c r="AG34" s="14" t="n">
+        <v>3755208.84498634</v>
+      </c>
+      <c r="AH34" s="14"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -18795,16 +18805,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="14" t="str">
         <f>AB35</f>
       </c>
-      <c r="D35" s="3" t="str">
+      <c r="D35" s="14" t="str">
         <f>AE35</f>
       </c>
-      <c r="E35" s="3" t="str">
+      <c r="E35" s="14" t="str">
         <f>AF35</f>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="14" t="str">
         <f>AG35</f>
       </c>
       <c r="G35" s="2" t="str">
@@ -18817,75 +18827,75 @@
         <f>AG35/AF35</f>
       </c>
       <c r="J35" s="2" t="str">
-        <f>AF35/Sum(AF$22:AF$39)</f>
+        <f>AF35/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K35" s="2" t="str">
-        <f>AG35/Sum(AG22:AG$39)</f>
+        <f>AG35/Sum(AG23:AG$41)</f>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" t="s">
         <v>48</v>
       </c>
-      <c r="O35" s="3" t="n">
-        <v>147698975873.023</v>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>164600845202.26</v>
-      </c>
-      <c r="Q35" s="3" t="n">
-        <v>153059271485.211</v>
-      </c>
-      <c r="R35" s="3" t="n">
-        <v>99224882708.3968</v>
-      </c>
-      <c r="S35" s="3" t="n">
-        <v>69252518750.9297</v>
-      </c>
-      <c r="T35" s="3" t="n">
-        <v>42733370852.2018</v>
-      </c>
-      <c r="U35" s="3" t="n">
-        <v>23917903587.428</v>
-      </c>
-      <c r="V35" s="3" t="n">
-        <v>20343923384.4058</v>
-      </c>
-      <c r="W35" s="3" t="n">
-        <v>16007678524.9029</v>
-      </c>
-      <c r="X35" s="3" t="n">
-        <v>13646397743.0596</v>
-      </c>
-      <c r="Y35" s="3" t="n">
-        <v>15046963051.6332</v>
-      </c>
-      <c r="Z35" s="3" t="n">
-        <v>14205123376.395</v>
-      </c>
-      <c r="AA35" s="3" t="n">
-        <v>13080289872.4502</v>
-      </c>
-      <c r="AB35" s="3" t="n">
-        <v>16207067479.3011</v>
-      </c>
-      <c r="AC35" s="3" t="n">
-        <v>14172805371.2227</v>
-      </c>
-      <c r="AD35" s="3" t="n">
-        <v>13054207133.0346</v>
-      </c>
-      <c r="AE35" s="3" t="n">
-        <v>25559011289.8336</v>
-      </c>
-      <c r="AF35" s="3" t="n">
-        <v>31673872564.197</v>
-      </c>
-      <c r="AG35" s="3" t="n">
-        <v>11588340671.2481</v>
-      </c>
-      <c r="AH35" s="3"/>
+      <c r="O35" s="14" t="n">
+        <v>129494665.991222</v>
+      </c>
+      <c r="P35" s="14" t="n">
+        <v>377017676.165963</v>
+      </c>
+      <c r="Q35" s="14" t="n">
+        <v>164705116.205773</v>
+      </c>
+      <c r="R35" s="14" t="n">
+        <v>3052336970.05866</v>
+      </c>
+      <c r="S35" s="14" t="n">
+        <v>620639376.904947</v>
+      </c>
+      <c r="T35" s="14" t="n">
+        <v>428082117.626377</v>
+      </c>
+      <c r="U35" s="14" t="n">
+        <v>264005381.730712</v>
+      </c>
+      <c r="V35" s="14" t="n">
+        <v>319864252.59757</v>
+      </c>
+      <c r="W35" s="14" t="n">
+        <v>155895885.608503</v>
+      </c>
+      <c r="X35" s="14" t="n">
+        <v>233122510.329159</v>
+      </c>
+      <c r="Y35" s="14" t="n">
+        <v>153787934.239382</v>
+      </c>
+      <c r="Z35" s="14" t="n">
+        <v>166230507.501403</v>
+      </c>
+      <c r="AA35" s="14" t="n">
+        <v>367214237.129632</v>
+      </c>
+      <c r="AB35" s="14" t="n">
+        <v>379750134.900486</v>
+      </c>
+      <c r="AC35" s="14" t="n">
+        <v>327591257.975747</v>
+      </c>
+      <c r="AD35" s="14" t="n">
+        <v>355867883.075341</v>
+      </c>
+      <c r="AE35" s="14" t="n">
+        <v>643485539.0043</v>
+      </c>
+      <c r="AF35" s="14" t="n">
+        <v>622532152.291294</v>
+      </c>
+      <c r="AG35" s="14" t="n">
+        <v>313795821.28047</v>
+      </c>
+      <c r="AH35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -18894,16 +18904,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="14" t="str">
         <f>AB36</f>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="D36" s="14" t="str">
         <f>AE36</f>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="E36" s="14" t="str">
         <f>AF36</f>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="14" t="str">
         <f>AG36</f>
       </c>
       <c r="G36" s="2" t="str">
@@ -18916,75 +18926,75 @@
         <f>AG36/AF36</f>
       </c>
       <c r="J36" s="2" t="str">
-        <f>AF36/Sum(AF$22:AF$39)</f>
+        <f>AF36/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K36" s="2" t="str">
-        <f>AG36/Sum(AG22:AG$39)</f>
+        <f>AG36/Sum(AG23:AG$41)</f>
       </c>
       <c r="M36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N36" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="3" t="n">
-        <v>10078996187.7362</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>9496506257.85842</v>
-      </c>
-      <c r="Q36" s="3" t="n">
-        <v>8240728097.29288</v>
-      </c>
-      <c r="R36" s="3" t="n">
-        <v>6682899757.9121</v>
-      </c>
-      <c r="S36" s="3" t="n">
-        <v>5199291089.26989</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>5160018562.58884</v>
-      </c>
-      <c r="U36" s="3" t="n">
-        <v>4138183220.57859</v>
-      </c>
-      <c r="V36" s="3" t="n">
-        <v>4539048120.52104</v>
-      </c>
-      <c r="W36" s="3" t="n">
-        <v>4078512906.28931</v>
-      </c>
-      <c r="X36" s="3" t="n">
-        <v>5222658894.02169</v>
-      </c>
-      <c r="Y36" s="3" t="n">
-        <v>6099520122.98889</v>
-      </c>
-      <c r="Z36" s="3" t="n">
-        <v>7392243917.40297</v>
-      </c>
-      <c r="AA36" s="3" t="n">
-        <v>7596891197.3794</v>
-      </c>
-      <c r="AB36" s="3" t="n">
-        <v>7348868421.84261</v>
-      </c>
-      <c r="AC36" s="3" t="n">
-        <v>7410344316.55708</v>
-      </c>
-      <c r="AD36" s="3" t="n">
-        <v>6912706319.79679</v>
-      </c>
-      <c r="AE36" s="3" t="n">
-        <v>9071190872.5847</v>
-      </c>
-      <c r="AF36" s="3" t="n">
-        <v>11064653655.071</v>
-      </c>
-      <c r="AG36" s="3" t="n">
-        <v>4504517741.86901</v>
-      </c>
-      <c r="AH36" s="3"/>
+      <c r="O36" s="14" t="n">
+        <v>16424381463.2627</v>
+      </c>
+      <c r="P36" s="14" t="n">
+        <v>13988991738.8933</v>
+      </c>
+      <c r="Q36" s="14" t="n">
+        <v>9828132954.20528</v>
+      </c>
+      <c r="R36" s="14" t="n">
+        <v>6466641872.48882</v>
+      </c>
+      <c r="S36" s="14" t="n">
+        <v>4181031073.63776</v>
+      </c>
+      <c r="T36" s="14" t="n">
+        <v>3069374666.41211</v>
+      </c>
+      <c r="U36" s="14" t="n">
+        <v>2798190457.37992</v>
+      </c>
+      <c r="V36" s="14" t="n">
+        <v>1645515091.60537</v>
+      </c>
+      <c r="W36" s="14" t="n">
+        <v>2380991354.55904</v>
+      </c>
+      <c r="X36" s="14" t="n">
+        <v>1353059305.24268</v>
+      </c>
+      <c r="Y36" s="14" t="n">
+        <v>1502751665.26777</v>
+      </c>
+      <c r="Z36" s="14" t="n">
+        <v>1746243572.10429</v>
+      </c>
+      <c r="AA36" s="14" t="n">
+        <v>2076505656.80189</v>
+      </c>
+      <c r="AB36" s="14" t="n">
+        <v>2187688092.90887</v>
+      </c>
+      <c r="AC36" s="14" t="n">
+        <v>2099432238.19603</v>
+      </c>
+      <c r="AD36" s="14" t="n">
+        <v>2416079719.34667</v>
+      </c>
+      <c r="AE36" s="14" t="n">
+        <v>4669036581.7704</v>
+      </c>
+      <c r="AF36" s="14" t="n">
+        <v>7157473190.14886</v>
+      </c>
+      <c r="AG36" s="14" t="n">
+        <v>2064519763.97266</v>
+      </c>
+      <c r="AH36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -18993,16 +19003,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="14" t="str">
         <f>AB37</f>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="14" t="str">
         <f>AE37</f>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="E37" s="14" t="str">
         <f>AF37</f>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="14" t="str">
         <f>AG37</f>
       </c>
       <c r="G37" s="2" t="str">
@@ -19015,75 +19025,75 @@
         <f>AG37/AF37</f>
       </c>
       <c r="J37" s="2" t="str">
-        <f>AF37/Sum(AF$22:AF$39)</f>
+        <f>AF37/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K37" s="2" t="str">
-        <f>AG37/Sum(AG22:AG$39)</f>
+        <f>AG37/Sum(AG23:AG$41)</f>
       </c>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" t="s">
         <v>48</v>
       </c>
-      <c r="O37" s="3" t="n">
-        <v>18432924342.4921</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>18013770582.7991</v>
-      </c>
-      <c r="Q37" s="3" t="n">
-        <v>19023065293.5391</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>14976484151.5569</v>
-      </c>
-      <c r="S37" s="3" t="n">
-        <v>19918595093.9968</v>
-      </c>
-      <c r="T37" s="3" t="n">
-        <v>18498747837.9806</v>
-      </c>
-      <c r="U37" s="3" t="n">
-        <v>15823534787.7889</v>
-      </c>
-      <c r="V37" s="3" t="n">
-        <v>15824261041.1579</v>
-      </c>
-      <c r="W37" s="3" t="n">
-        <v>15461085336.9262</v>
-      </c>
-      <c r="X37" s="3" t="n">
-        <v>15582373050.9029</v>
-      </c>
-      <c r="Y37" s="3" t="n">
-        <v>15938434594.4931</v>
-      </c>
-      <c r="Z37" s="3" t="n">
-        <v>19358744430.9832</v>
-      </c>
-      <c r="AA37" s="3" t="n">
-        <v>18930805830.1389</v>
-      </c>
-      <c r="AB37" s="3" t="n">
-        <v>18058137380.7159</v>
-      </c>
-      <c r="AC37" s="3" t="n">
-        <v>15715613748.0282</v>
-      </c>
-      <c r="AD37" s="3" t="n">
-        <v>15230165751.0983</v>
-      </c>
-      <c r="AE37" s="3" t="n">
-        <v>10581984360.929</v>
-      </c>
-      <c r="AF37" s="3" t="n">
-        <v>8044769877.70368</v>
-      </c>
-      <c r="AG37" s="3" t="n">
-        <v>2103836519.09252</v>
-      </c>
-      <c r="AH37" s="3"/>
+      <c r="O37" s="14" t="n">
+        <v>147742577584.646</v>
+      </c>
+      <c r="P37" s="14" t="n">
+        <v>164619595720.22</v>
+      </c>
+      <c r="Q37" s="14" t="n">
+        <v>153056128911.88</v>
+      </c>
+      <c r="R37" s="14" t="n">
+        <v>99224796083.2419</v>
+      </c>
+      <c r="S37" s="14" t="n">
+        <v>69246582560.7025</v>
+      </c>
+      <c r="T37" s="14" t="n">
+        <v>42730725682.6447</v>
+      </c>
+      <c r="U37" s="14" t="n">
+        <v>23917143327.0368</v>
+      </c>
+      <c r="V37" s="14" t="n">
+        <v>20343917597.1474</v>
+      </c>
+      <c r="W37" s="14" t="n">
+        <v>16007493273.5054</v>
+      </c>
+      <c r="X37" s="14" t="n">
+        <v>13646397762.1718</v>
+      </c>
+      <c r="Y37" s="14" t="n">
+        <v>15046963068.296</v>
+      </c>
+      <c r="Z37" s="14" t="n">
+        <v>14223154126.2054</v>
+      </c>
+      <c r="AA37" s="14" t="n">
+        <v>13116944942.7227</v>
+      </c>
+      <c r="AB37" s="14" t="n">
+        <v>16344558607.8938</v>
+      </c>
+      <c r="AC37" s="14" t="n">
+        <v>14319691830.0059</v>
+      </c>
+      <c r="AD37" s="14" t="n">
+        <v>13458930941.7876</v>
+      </c>
+      <c r="AE37" s="14" t="n">
+        <v>25914486931.4536</v>
+      </c>
+      <c r="AF37" s="14" t="n">
+        <v>31748098715.9101</v>
+      </c>
+      <c r="AG37" s="14" t="n">
+        <v>15630993342.2423</v>
+      </c>
+      <c r="AH37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -19092,16 +19102,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="14" t="str">
         <f>AB38</f>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="14" t="str">
         <f>AE38</f>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="E38" s="14" t="str">
         <f>AF38</f>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="14" t="str">
         <f>AG38</f>
       </c>
       <c r="G38" s="2" t="str">
@@ -19114,75 +19124,75 @@
         <f>AG38/AF38</f>
       </c>
       <c r="J38" s="2" t="str">
-        <f>AF38/Sum(AF$22:AF$39)</f>
+        <f>AF38/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K38" s="2" t="str">
-        <f>AG38/Sum(AG22:AG$39)</f>
+        <f>AG38/Sum(AG23:AG$41)</f>
       </c>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="3" t="n">
-        <v>114099492.255342</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>2245106784.65684</v>
-      </c>
-      <c r="Q38" s="3" t="n">
-        <v>2062062584.44226</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>1772438158.91211</v>
-      </c>
-      <c r="S38" s="3" t="n">
-        <v>1230620526.45081</v>
-      </c>
-      <c r="T38" s="3" t="n">
-        <v>720427932.353346</v>
-      </c>
-      <c r="U38" s="3" t="n">
-        <v>469380890.529394</v>
-      </c>
-      <c r="V38" s="3" t="n">
-        <v>445473907.067095</v>
-      </c>
-      <c r="W38" s="3" t="n">
-        <v>437325802.088174</v>
-      </c>
-      <c r="X38" s="3" t="n">
-        <v>542744379.094694</v>
-      </c>
-      <c r="Y38" s="3" t="n">
-        <v>284639884.285965</v>
-      </c>
-      <c r="Z38" s="3" t="n">
-        <v>338555178.657577</v>
-      </c>
-      <c r="AA38" s="3" t="n">
-        <v>467493165.343377</v>
-      </c>
-      <c r="AB38" s="3" t="n">
-        <v>252902475.917789</v>
-      </c>
-      <c r="AC38" s="3" t="n">
-        <v>180418640.016049</v>
-      </c>
-      <c r="AD38" s="3" t="n">
-        <v>171155361.857352</v>
-      </c>
-      <c r="AE38" s="3" t="n">
-        <v>927875675.1603</v>
-      </c>
-      <c r="AF38" s="3" t="n">
-        <v>993004347.736501</v>
-      </c>
-      <c r="AG38" s="3" t="n">
-        <v>535994351.511922</v>
-      </c>
-      <c r="AH38" s="3"/>
+      <c r="O38" s="14" t="n">
+        <v>10078996187.7362</v>
+      </c>
+      <c r="P38" s="14" t="n">
+        <v>9496506257.65148</v>
+      </c>
+      <c r="Q38" s="14" t="n">
+        <v>8240728096.9944</v>
+      </c>
+      <c r="R38" s="14" t="n">
+        <v>6682899757.91496</v>
+      </c>
+      <c r="S38" s="14" t="n">
+        <v>5198706153.95022</v>
+      </c>
+      <c r="T38" s="14" t="n">
+        <v>5154574298.28456</v>
+      </c>
+      <c r="U38" s="14" t="n">
+        <v>4138183220.57859</v>
+      </c>
+      <c r="V38" s="14" t="n">
+        <v>4539048120.48324</v>
+      </c>
+      <c r="W38" s="14" t="n">
+        <v>4078512906.28931</v>
+      </c>
+      <c r="X38" s="14" t="n">
+        <v>5222658894.09059</v>
+      </c>
+      <c r="Y38" s="14" t="n">
+        <v>6097851875.46023</v>
+      </c>
+      <c r="Z38" s="14" t="n">
+        <v>7392243917.38171</v>
+      </c>
+      <c r="AA38" s="14" t="n">
+        <v>7593964726.04226</v>
+      </c>
+      <c r="AB38" s="14" t="n">
+        <v>7348868551.73263</v>
+      </c>
+      <c r="AC38" s="14" t="n">
+        <v>7410344316.48581</v>
+      </c>
+      <c r="AD38" s="14" t="n">
+        <v>6915724224.01597</v>
+      </c>
+      <c r="AE38" s="14" t="n">
+        <v>9074057410.0124</v>
+      </c>
+      <c r="AF38" s="14" t="n">
+        <v>11058423925.0268</v>
+      </c>
+      <c r="AG38" s="14" t="n">
+        <v>3662299750.87941</v>
+      </c>
+      <c r="AH38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -19191,16 +19201,16 @@
       <c r="B39" t="str">
         <f>N39</f>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="14" t="str">
         <f>AB39</f>
       </c>
-      <c r="D39" s="3" t="str">
+      <c r="D39" s="14" t="str">
         <f>AE39</f>
       </c>
-      <c r="E39" s="3" t="str">
+      <c r="E39" s="14" t="str">
         <f>AF39</f>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" s="14" t="str">
         <f>AG39</f>
       </c>
       <c r="G39" s="2" t="str">
@@ -19213,75 +19223,75 @@
         <f>AG39/AF39</f>
       </c>
       <c r="J39" s="2" t="str">
-        <f>AF39/Sum(AF$22:AF$39)</f>
+        <f>AF39/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K39" s="2" t="str">
-        <f>AG39/Sum(AG22:AG$39)</f>
+        <f>AG39/Sum(AG23:AG$41)</f>
       </c>
       <c r="M39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N39" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="3" t="n">
-        <v>1137745054.75005</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>9144389705.20526</v>
-      </c>
-      <c r="Q39" s="3" t="n">
-        <v>12479599972.9954</v>
-      </c>
-      <c r="R39" s="3" t="n">
-        <v>4131801844.57706</v>
-      </c>
-      <c r="S39" s="3" t="n">
-        <v>3102195687.38753</v>
-      </c>
-      <c r="T39" s="3" t="n">
-        <v>2429230080.80238</v>
-      </c>
-      <c r="U39" s="3" t="n">
-        <v>1400970864.41325</v>
-      </c>
-      <c r="V39" s="3" t="n">
-        <v>1143468005.81532</v>
-      </c>
-      <c r="W39" s="3" t="n">
-        <v>804106676.9491</v>
-      </c>
-      <c r="X39" s="3" t="n">
-        <v>784190581.696594</v>
-      </c>
-      <c r="Y39" s="3" t="n">
-        <v>860287374.227632</v>
-      </c>
-      <c r="Z39" s="3" t="n">
-        <v>771753402.557588</v>
-      </c>
-      <c r="AA39" s="3" t="n">
-        <v>919236547.758132</v>
-      </c>
-      <c r="AB39" s="3" t="n">
-        <v>738817466.951391</v>
-      </c>
-      <c r="AC39" s="3" t="n">
-        <v>376623806.888491</v>
-      </c>
-      <c r="AD39" s="3" t="n">
-        <v>354623581.021112</v>
-      </c>
-      <c r="AE39" s="3" t="n">
-        <v>1467117436.8929</v>
-      </c>
-      <c r="AF39" s="3" t="n">
-        <v>2339274283.03847</v>
-      </c>
-      <c r="AG39" s="3" t="n">
-        <v>1014168702.80437</v>
-      </c>
-      <c r="AH39" s="3"/>
+      <c r="O39" s="14" t="n">
+        <v>18395495230.8006</v>
+      </c>
+      <c r="P39" s="14" t="n">
+        <v>17999368482.5921</v>
+      </c>
+      <c r="Q39" s="14" t="n">
+        <v>19021220312.9324</v>
+      </c>
+      <c r="R39" s="14" t="n">
+        <v>14976512428.6425</v>
+      </c>
+      <c r="S39" s="14" t="n">
+        <v>19919094372.237</v>
+      </c>
+      <c r="T39" s="14" t="n">
+        <v>18506702219.8128</v>
+      </c>
+      <c r="U39" s="14" t="n">
+        <v>15824213354.9148</v>
+      </c>
+      <c r="V39" s="14" t="n">
+        <v>15824376161.1838</v>
+      </c>
+      <c r="W39" s="14" t="n">
+        <v>15462117104.0972</v>
+      </c>
+      <c r="X39" s="14" t="n">
+        <v>15588870089.9743</v>
+      </c>
+      <c r="Y39" s="14" t="n">
+        <v>15935941426.3957</v>
+      </c>
+      <c r="Z39" s="14" t="n">
+        <v>19331878718.2248</v>
+      </c>
+      <c r="AA39" s="14" t="n">
+        <v>18890421324.7602</v>
+      </c>
+      <c r="AB39" s="14" t="n">
+        <v>17992403142.7551</v>
+      </c>
+      <c r="AC39" s="14" t="n">
+        <v>15663713277.3036</v>
+      </c>
+      <c r="AD39" s="14" t="n">
+        <v>15178918249.8851</v>
+      </c>
+      <c r="AE39" s="14" t="n">
+        <v>10526983209.9236</v>
+      </c>
+      <c r="AF39" s="14" t="n">
+        <v>8037576458.4032</v>
+      </c>
+      <c r="AG39" s="14" t="n">
+        <v>4362570268.55951</v>
+      </c>
+      <c r="AH39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -19290,16 +19300,16 @@
       <c r="B40" t="str">
         <f>N40</f>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="14" t="str">
         <f>AB40</f>
       </c>
-      <c r="D40" s="3" t="str">
+      <c r="D40" s="14" t="str">
         <f>AE40</f>
       </c>
-      <c r="E40" s="3" t="str">
+      <c r="E40" s="14" t="str">
         <f>AF40</f>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" s="14" t="str">
         <f>AG40</f>
       </c>
       <c r="G40" s="2" t="str">
@@ -19312,75 +19322,273 @@
         <f>AG40/AF40</f>
       </c>
       <c r="J40" s="2" t="str">
-        <f>Sum(J$22:J$39)</f>
+        <f>AF40/Sum(AF$23:AF$41)</f>
       </c>
       <c r="K40" s="2" t="str">
-        <f>Sum(K$22:K$39)</f>
+        <f>AG40/Sum(AG23:AG$41)</f>
       </c>
       <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="14" t="n">
+        <v>114099492.255342</v>
+      </c>
+      <c r="P40" s="14" t="n">
+        <v>2245106784.65684</v>
+      </c>
+      <c r="Q40" s="14" t="n">
+        <v>2062062584.44226</v>
+      </c>
+      <c r="R40" s="14" t="n">
+        <v>1772438158.91211</v>
+      </c>
+      <c r="S40" s="14" t="n">
+        <v>1230620526.45081</v>
+      </c>
+      <c r="T40" s="14" t="n">
+        <v>720427932.353346</v>
+      </c>
+      <c r="U40" s="14" t="n">
+        <v>469380890.529394</v>
+      </c>
+      <c r="V40" s="14" t="n">
+        <v>445473907.067095</v>
+      </c>
+      <c r="W40" s="14" t="n">
+        <v>437325802.088174</v>
+      </c>
+      <c r="X40" s="14" t="n">
+        <v>542744379.094694</v>
+      </c>
+      <c r="Y40" s="14" t="n">
+        <v>284639884.285965</v>
+      </c>
+      <c r="Z40" s="14" t="n">
+        <v>338662287.463615</v>
+      </c>
+      <c r="AA40" s="14" t="n">
+        <v>467577865.7076</v>
+      </c>
+      <c r="AB40" s="14" t="n">
+        <v>255231038.400127</v>
+      </c>
+      <c r="AC40" s="14" t="n">
+        <v>190606727.620302</v>
+      </c>
+      <c r="AD40" s="14" t="n">
+        <v>186994185.527627</v>
+      </c>
+      <c r="AE40" s="14" t="n">
+        <v>926419474.4362</v>
+      </c>
+      <c r="AF40" s="14" t="n">
+        <v>990385476.977563</v>
+      </c>
+      <c r="AG40" s="14" t="n">
+        <v>447496555.282385</v>
+      </c>
+      <c r="AH40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <f>M41</f>
+      </c>
+      <c r="B41" t="str">
+        <f>N41</f>
+      </c>
+      <c r="C41" s="14" t="str">
+        <f>AB41</f>
+      </c>
+      <c r="D41" s="14" t="str">
+        <f>AE41</f>
+      </c>
+      <c r="E41" s="14" t="str">
+        <f>AF41</f>
+      </c>
+      <c r="F41" s="14" t="str">
+        <f>AG41</f>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f>AF41/AE41-1</f>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f>AF41/AB41-1</f>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>AG41/AF41</f>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>AF41/Sum(AF$23:AF$41)</f>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f>AG41/Sum(AG23:AG$41)</f>
+      </c>
+      <c r="M41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="14" t="n">
+        <v>1137745054.75005</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>9144389704.52036</v>
+      </c>
+      <c r="Q41" s="14" t="n">
+        <v>12479599973.0074</v>
+      </c>
+      <c r="R41" s="14" t="n">
+        <v>4131801844.57706</v>
+      </c>
+      <c r="S41" s="14" t="n">
+        <v>3102195687.38753</v>
+      </c>
+      <c r="T41" s="14" t="n">
+        <v>2429230080.80238</v>
+      </c>
+      <c r="U41" s="14" t="n">
+        <v>1400970864.41325</v>
+      </c>
+      <c r="V41" s="14" t="n">
+        <v>1143468005.81532</v>
+      </c>
+      <c r="W41" s="14" t="n">
+        <v>804106676.9491</v>
+      </c>
+      <c r="X41" s="14" t="n">
+        <v>784190581.696594</v>
+      </c>
+      <c r="Y41" s="14" t="n">
+        <v>860287374.227632</v>
+      </c>
+      <c r="Z41" s="14" t="n">
+        <v>771753402.557588</v>
+      </c>
+      <c r="AA41" s="14" t="n">
+        <v>919236547.758132</v>
+      </c>
+      <c r="AB41" s="14" t="n">
+        <v>738817466.951391</v>
+      </c>
+      <c r="AC41" s="14" t="n">
+        <v>376623806.888491</v>
+      </c>
+      <c r="AD41" s="14" t="n">
+        <v>354623581.021112</v>
+      </c>
+      <c r="AE41" s="14" t="n">
+        <v>1453744617.7426</v>
+      </c>
+      <c r="AF41" s="14" t="n">
+        <v>2332415657.4024</v>
+      </c>
+      <c r="AG41" s="14" t="n">
+        <v>1430538721.26258</v>
+      </c>
+      <c r="AH41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <f>M42</f>
+      </c>
+      <c r="B42" t="str">
+        <f>N42</f>
+      </c>
+      <c r="C42" s="14" t="str">
+        <f>AB42</f>
+      </c>
+      <c r="D42" s="14" t="str">
+        <f>AE42</f>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f>AF42</f>
+      </c>
+      <c r="F42" s="14" t="str">
+        <f>AG42</f>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f>AF42/AE42-1</f>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f>AF42/AB42-1</f>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>AG42/AF42</f>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>Sum(J$23:J$41)</f>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f>Sum(K$23:K$41)</f>
+      </c>
+      <c r="M42" t="s">
         <v>43</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N42" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="3" t="str">
-        <f>Sum(O23:O39)</f>
-      </c>
-      <c r="P40" s="3" t="str">
-        <f>Sum(P23:P39)</f>
-      </c>
-      <c r="Q40" s="3" t="str">
-        <f>Sum(Q23:Q39)</f>
-      </c>
-      <c r="R40" s="3" t="str">
-        <f>Sum(R23:R39)</f>
-      </c>
-      <c r="S40" s="3" t="str">
-        <f>Sum(S23:S39)</f>
-      </c>
-      <c r="T40" s="3" t="str">
-        <f>Sum(T23:T39)</f>
-      </c>
-      <c r="U40" s="3" t="str">
-        <f>Sum(U23:U39)</f>
-      </c>
-      <c r="V40" s="3" t="str">
-        <f>Sum(V23:V39)</f>
-      </c>
-      <c r="W40" s="3" t="str">
-        <f>Sum(W23:W39)</f>
-      </c>
-      <c r="X40" s="3" t="str">
-        <f>Sum(X23:X39)</f>
-      </c>
-      <c r="Y40" s="3" t="str">
-        <f>Sum(Y23:Y39)</f>
-      </c>
-      <c r="Z40" s="3" t="str">
-        <f>Sum(Z23:Z39)</f>
-      </c>
-      <c r="AA40" s="3" t="str">
-        <f>Sum(AA23:AA39)</f>
-      </c>
-      <c r="AB40" s="3" t="str">
-        <f>Sum(AB23:AB39)</f>
-      </c>
-      <c r="AC40" s="3" t="str">
-        <f>Sum(AC23:AC39)</f>
-      </c>
-      <c r="AD40" s="3" t="str">
-        <f>Sum(AD23:AD39)</f>
-      </c>
-      <c r="AE40" s="3" t="str">
-        <f>Sum(AE23:AE39)</f>
-      </c>
-      <c r="AF40" s="3" t="str">
-        <f>Sum(AF23:AF39)</f>
-      </c>
-      <c r="AG40" s="3" t="str">
-        <f>Sum(AG23:AG39)</f>
-      </c>
-      <c r="AH40" s="3"/>
+      <c r="O42" s="14" t="str">
+        <f>Sum(O24:O41)</f>
+      </c>
+      <c r="P42" s="14" t="str">
+        <f>Sum(P24:P41)</f>
+      </c>
+      <c r="Q42" s="14" t="str">
+        <f>Sum(Q24:Q41)</f>
+      </c>
+      <c r="R42" s="14" t="str">
+        <f>Sum(R24:R41)</f>
+      </c>
+      <c r="S42" s="14" t="str">
+        <f>Sum(S24:S41)</f>
+      </c>
+      <c r="T42" s="14" t="str">
+        <f>Sum(T24:T41)</f>
+      </c>
+      <c r="U42" s="14" t="str">
+        <f>Sum(U24:U41)</f>
+      </c>
+      <c r="V42" s="14" t="str">
+        <f>Sum(V24:V41)</f>
+      </c>
+      <c r="W42" s="14" t="str">
+        <f>Sum(W24:W41)</f>
+      </c>
+      <c r="X42" s="14" t="str">
+        <f>Sum(X24:X41)</f>
+      </c>
+      <c r="Y42" s="14" t="str">
+        <f>Sum(Y24:Y41)</f>
+      </c>
+      <c r="Z42" s="14" t="str">
+        <f>Sum(Z24:Z41)</f>
+      </c>
+      <c r="AA42" s="14" t="str">
+        <f>Sum(AA24:AA41)</f>
+      </c>
+      <c r="AB42" s="14" t="str">
+        <f>Sum(AB24:AB41)</f>
+      </c>
+      <c r="AC42" s="14" t="str">
+        <f>Sum(AC24:AC41)</f>
+      </c>
+      <c r="AD42" s="14" t="str">
+        <f>Sum(AD24:AD41)</f>
+      </c>
+      <c r="AE42" s="14" t="str">
+        <f>Sum(AE24:AE41)</f>
+      </c>
+      <c r="AF42" s="14" t="str">
+        <f>Sum(AF24:AF41)</f>
+      </c>
+      <c r="AG42" s="14" t="str">
+        <f>Sum(AG24:AG41)</f>
+      </c>
+      <c r="AH42" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19523,61 +19731,61 @@
         <v>61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>26668</v>
+        <v>26660</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26504</v>
+        <v>26499</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>25808</v>
+        <v>25805</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>24010</v>
+        <v>24008</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>22617</v>
+        <v>22616</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20808</v>
+        <v>20806</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17578</v>
+        <v>17574</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16853</v>
+        <v>16847</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16495</v>
+        <v>16487</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15658</v>
+        <v>15636</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>15181</v>
+        <v>15139</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14277</v>
+        <v>14185</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13644</v>
+        <v>13535</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12445</v>
+        <v>12309</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11576</v>
+        <v>11464</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10278</v>
+        <v>10143</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>10089</v>
+        <v>9971</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>10183</v>
+        <v>10079</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6870</v>
+        <v>6950</v>
       </c>
       <c r="AH2" s="4"/>
     </row>
@@ -19619,58 +19827,58 @@
         <v>12039</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12318</v>
+        <v>12319</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11687</v>
+        <v>11686</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>10901</v>
+        <v>10900</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>10104</v>
+        <v>10109</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9547</v>
+        <v>9554</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8339</v>
+        <v>8341</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7636</v>
+        <v>7634</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7677</v>
+        <v>7684</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>6904</v>
+        <v>6897</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6434</v>
+        <v>6406</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5700</v>
+        <v>5674</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5065</v>
+        <v>5039</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4898</v>
+        <v>4865</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4453</v>
+        <v>4422</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>4501</v>
+        <v>4481</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5004</v>
+        <v>4959</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3142</v>
+        <v>3295</v>
       </c>
       <c r="AH3" s="4"/>
     </row>
@@ -19712,58 +19920,58 @@
         <v>3673</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>3780</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>3458</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2330</v>
+        <v>2505</v>
       </c>
       <c r="AH4" s="4"/>
     </row>
@@ -19802,7 +20010,7 @@
         <v>62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>2468</v>
@@ -19811,16 +20019,16 @@
         <v>2715</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>2086</v>
@@ -19829,34 +20037,34 @@
         <v>2171</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2105</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>1854</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1951</v>
+        <v>1933</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1201</v>
+        <v>1301</v>
       </c>
       <c r="AH5" s="4"/>
     </row>
@@ -19895,13 +20103,13 @@
         <v>61</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8219</v>
+        <v>8218</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8184</v>
+        <v>8183</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8160</v>
+        <v>8159</v>
       </c>
       <c r="R6" s="4" t="n">
         <v>8340</v>
@@ -19910,46 +20118,46 @@
         <v>8114</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>7770</v>
+        <v>7769</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>6960</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="X6" s="4" t="n">
         <v>6286</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>6118</v>
+        <v>6115</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>6146</v>
+        <v>6142</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5925</v>
+        <v>5920</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6306</v>
+        <v>6301</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6220</v>
+        <v>6216</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>5839</v>
+        <v>5835</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6040</v>
+        <v>6028</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4187</v>
+        <v>4388</v>
       </c>
       <c r="AH6" s="4"/>
     </row>
@@ -19988,19 +20196,19 @@
         <v>62</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4898</v>
+        <v>4897</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="R7" s="4" t="n">
         <v>4758</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>4280</v>
@@ -20009,40 +20217,40 @@
         <v>3869</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="W7" s="4" t="n">
         <v>3761</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="AC7" s="4" t="n">
         <v>3135</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>3439</v>
+        <v>3421</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2246</v>
+        <v>2354</v>
       </c>
       <c r="AH7" s="4"/>
     </row>
@@ -20081,7 +20289,7 @@
         <v>61</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>3463</v>
@@ -20090,52 +20298,52 @@
         <v>3473</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6466</v>
+        <v>6460</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6518</v>
+        <v>6509</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>6527</v>
+        <v>6524</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>6705</v>
+        <v>6703</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6887</v>
+        <v>6882</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5873</v>
+        <v>5870</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6125</v>
+        <v>6120</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>6197</v>
+        <v>6196</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>6499</v>
+        <v>6491</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5573</v>
+        <v>6021</v>
       </c>
       <c r="AH8" s="4"/>
     </row>
@@ -20174,61 +20382,61 @@
         <v>62</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4571</v>
+        <v>4568</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>4776</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5328</v>
+        <v>5325</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>5774</v>
+        <v>5771</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>5911</v>
+        <v>5907</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>5667</v>
+        <v>5663</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5593</v>
+        <v>5590</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5525</v>
+        <v>5521</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5598</v>
+        <v>5587</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>5589</v>
+        <v>5584</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5592</v>
+        <v>5586</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5397</v>
+        <v>5393</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5556</v>
+        <v>5549</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5291</v>
+        <v>5288</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>5269</v>
+        <v>5263</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>6268</v>
+        <v>6262</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4537</v>
+        <v>4914</v>
       </c>
       <c r="AH9" s="4"/>
     </row>
@@ -20427,61 +20635,61 @@
         <v>61</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>1603713321.2095</v>
+        <v>1603679916.4495</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>1749370702.7036</v>
+        <v>1749306335.7536</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>1506027116.1951</v>
+        <v>1506022070.5974</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>1396515618.9719</v>
+        <v>1396637729.7719</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>1394952123.3586</v>
+        <v>1394656726.3083</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>1277990855.0224</v>
+        <v>1277980765.7825</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>1045708992.3594</v>
+        <v>1045755297.0694</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>1073107916.6352</v>
+        <v>1073063515.1052</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>1046811089.6594</v>
+        <v>1046287389.2594</v>
       </c>
       <c r="X2" s="5" t="n">
-        <v>1087022430.2634</v>
+        <v>1086993096.2234</v>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>1071645707.0943</v>
+        <v>1071175248.8091</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>1097112219.6142</v>
+        <v>1095945242.7542</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>1189301458.9544</v>
+        <v>1190315481.8041</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>922779313.4705</v>
+        <v>917019181.5896</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>972231964.0083</v>
+        <v>973253083.8328</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>984525920.6648</v>
+        <v>985681420.6314</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>925383212.9216</v>
+        <v>926777893.2337</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>1232250195.6401</v>
+        <v>1234234831.7401</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>771088453.3</v>
+        <v>568532860.64</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
@@ -20499,61 +20707,61 @@
         <v>62</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>1178460868.4359</v>
+        <v>1178405542.4659</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>1199226981.5447</v>
+        <v>1199225060.7447</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>1135988181.9147</v>
+        <v>1135857892.0745</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>1017232986.1506</v>
+        <v>1016867319.0283</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>871714640.1024</v>
+        <v>872038941.9286</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>945761004.0222</v>
+        <v>945796214.7327</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>867741468.9302</v>
+        <v>867847737.2402</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>737908698.6439</v>
+        <v>737855146.1639</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>803292483.6121</v>
+        <v>803311214.1321</v>
       </c>
       <c r="X3" s="5" t="n">
-        <v>827259949.0949</v>
+        <v>833735542.3682</v>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>761776562.2455</v>
+        <v>761579398.8757</v>
       </c>
       <c r="Z3" s="5" t="n">
-        <v>803643068.4669</v>
+        <v>803474580.8465</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>662537419.5803</v>
+        <v>662169150.7921</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>539564929.3426</v>
+        <v>539506241.2141</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>550460986.4459</v>
+        <v>550881497.3173</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>730781385.4379</v>
+        <v>731465962.6988</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>634305495.9726</v>
+        <v>634320325.8798</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>732395210.7046</v>
+        <v>726875125.8846</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>564841155.51</v>
+        <v>350082649.88</v>
       </c>
       <c r="AH3" s="5"/>
     </row>
@@ -20574,22 +20782,22 @@
         <v>5999982656.0989</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>6046841018.1236</v>
+        <v>6046830018.1236</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>6751809683.3162</v>
+        <v>6751809683.316</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>6066338117.1134</v>
+        <v>6066338587.0334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5230386996.1996</v>
+        <v>5230382582.3197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5028436766.7599</v>
+        <v>5027216153.8049</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>3533406811.1536</v>
+        <v>3533390661.1536</v>
       </c>
       <c r="V4" s="5" t="n">
         <v>4123223364.355</v>
@@ -20598,34 +20806,34 @@
         <v>3540965916.1068</v>
       </c>
       <c r="X4" s="5" t="n">
-        <v>3465395080.791</v>
+        <v>3464662829.517</v>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>3649490144.793</v>
+        <v>3649373394.7892</v>
       </c>
       <c r="Z4" s="5" t="n">
-        <v>3889193797.8711</v>
+        <v>3889193797.8782</v>
       </c>
       <c r="AA4" s="5" t="n">
-        <v>3830838548.5789</v>
+        <v>3830382989.741</v>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>4014135910.2841</v>
+        <v>4014633824.3231</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>3462027407.5753</v>
+        <v>3463669460.4728</v>
       </c>
       <c r="AD4" s="5" t="n">
-        <v>3657698278.8895</v>
+        <v>3658226697.5696</v>
       </c>
       <c r="AE4" s="5" t="n">
-        <v>3867543143.6415</v>
+        <v>3871195138.9082</v>
       </c>
       <c r="AF4" s="5" t="n">
-        <v>4343106613.7604</v>
+        <v>4348639122.7004</v>
       </c>
       <c r="AG4" s="5" t="n">
-        <v>1742366295.84</v>
+        <v>1677354132.2</v>
       </c>
       <c r="AH4" s="5"/>
     </row>
@@ -20643,7 +20851,7 @@
         <v>62</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>5453967621.685</v>
+        <v>5456832730.685</v>
       </c>
       <c r="P5" s="5" t="n">
         <v>5488289388.1671</v>
@@ -20652,52 +20860,52 @@
         <v>5123685268.2764</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>4827283654.9535</v>
+        <v>4827278412.4566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4158612530.2826</v>
+        <v>4156968630.7311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3789869348.9368</v>
+        <v>3788566428.3907</v>
       </c>
       <c r="U5" s="5" t="n">
-        <v>3044671387.1023</v>
+        <v>3043148007.0823</v>
       </c>
       <c r="V5" s="5" t="n">
-        <v>2550123603.7925</v>
+        <v>2553559490.2925</v>
       </c>
       <c r="W5" s="5" t="n">
-        <v>3008088905.1815</v>
+        <v>3008088794.3015</v>
       </c>
       <c r="X5" s="5" t="n">
-        <v>3003988651.992</v>
+        <v>3097293622.699</v>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2967959410.2609</v>
+        <v>2968060911.6581</v>
       </c>
       <c r="Z5" s="5" t="n">
-        <v>3270884590.9479</v>
+        <v>3277439089.15</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>3222268092.5278</v>
+        <v>3222079724.2428</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>2849662624.9818</v>
+        <v>2849253776.4235</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>2848050073.0005</v>
+        <v>2846378415.83</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>3133767191.2426</v>
+        <v>3132815426.7574</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>3459183716.0211</v>
+        <v>3462645503.4253</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>3833893607.6158</v>
+        <v>3796874027.7858</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>2081972059.03</v>
+        <v>1841090841.77</v>
       </c>
       <c r="AH5" s="5"/>
     </row>
@@ -20715,13 +20923,13 @@
         <v>61</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>3718111313.4572</v>
+        <v>3718111313.4697</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>3610592314.4973</v>
+        <v>3610568974.9875</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>3137557516.3095</v>
+        <v>3137052722.4466</v>
       </c>
       <c r="R6" s="5" t="n">
         <v>2981608669.6882</v>
@@ -20730,46 +20938,46 @@
         <v>3028019481.5055</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2469695513.1072</v>
+        <v>2469663173.1072</v>
       </c>
       <c r="U6" s="5" t="n">
         <v>1955875473.4952</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>2083799227.2093</v>
+        <v>2083660917.2093</v>
       </c>
       <c r="W6" s="5" t="n">
-        <v>1923822847.9198</v>
+        <v>1923815398.9194</v>
       </c>
       <c r="X6" s="5" t="n">
-        <v>1900837801.3426</v>
+        <v>1900837801.3427</v>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>1868540499.68</v>
+        <v>1868274306.0888</v>
       </c>
       <c r="Z6" s="5" t="n">
-        <v>2188931429.3429</v>
+        <v>2189212078.0905</v>
       </c>
       <c r="AA6" s="5" t="n">
-        <v>2194889970.2331</v>
+        <v>2195090147.4818</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>2397347812.7466</v>
+        <v>2403791847.0163</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>2131127300.4322</v>
+        <v>2131378735.4381</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>2678315029.8218</v>
+        <v>2678414884.901</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>2553972151.0207</v>
+        <v>2553615953.0667</v>
       </c>
       <c r="AF6" s="5" t="n">
-        <v>3211908764.84</v>
+        <v>3211833764.55</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>1426713506.43</v>
+        <v>1297824497.62</v>
       </c>
       <c r="AH6" s="5"/>
     </row>
@@ -20787,61 +20995,61 @@
         <v>62</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>3231447069.5941</v>
+        <v>3231449093.5941</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>3070233826.3334</v>
+        <v>3070226626.3334</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>3185303448.5923</v>
+        <v>3185022514.7324</v>
       </c>
       <c r="R7" s="5" t="n">
         <v>2673847804.1681</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2505265716.9186</v>
+        <v>2505952459.1394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2269318527.9162</v>
+        <v>2269318527.9168</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>2017106481.6782</v>
+        <v>2017106481.6776</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>1785005784.2355</v>
+        <v>1790958432.5253</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>2012042558.3397</v>
+        <v>2017170187.3588</v>
       </c>
       <c r="X7" s="5" t="n">
-        <v>2075097978.3987</v>
+        <v>2077987998.049</v>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>1964377807.7329</v>
+        <v>1971597759.8254</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>2812551982.7554</v>
+        <v>2813901798.297</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>2437134954.3202</v>
+        <v>2438041713.7476</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1723114299.3683</v>
+        <v>1723967783.7015</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>1711904256.1557</v>
+        <v>1711870155.0831</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>2143513750.6174</v>
+        <v>2143441031.0854</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>2012026029.8876</v>
+        <v>2011202052.6715</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>2665923382.9198</v>
+        <v>2674387889.3398</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>1559797904.05</v>
+        <v>1264369206.59</v>
       </c>
       <c r="AH7" s="5"/>
     </row>
@@ -20859,61 +21067,61 @@
         <v>61</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>16232600406.2299</v>
+        <v>16232597219.2299</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>18013318202.9621</v>
+        <v>18013318203.0658</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>21359436179.4041</v>
+        <v>21359436179.1467</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>22503657652.4199</v>
+        <v>22503318043.6628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21565136493.3633</v>
+        <v>21564787931.1273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24197412366.222</v>
+        <v>24197409865.2486</v>
       </c>
       <c r="U8" s="5" t="n">
-        <v>20762854716.936</v>
+        <v>20762647453.0861</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>24865750776.2857</v>
+        <v>24865731284.4558</v>
       </c>
       <c r="W8" s="5" t="n">
-        <v>22677464972.5479</v>
+        <v>22677462471.5252</v>
       </c>
       <c r="X8" s="5" t="n">
-        <v>24171570915.8529</v>
+        <v>24171541469.5748</v>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>24535075416.5126</v>
+        <v>24534867230.8348</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>30446369323.9432</v>
+        <v>30446361823.8658</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>29836018893.081</v>
+        <v>29841985237.8672</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>33750456437.2664</v>
+        <v>33740474482.0263</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>39533121849.6505</v>
+        <v>39526564389.212</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>38006795509.8669</v>
+        <v>38007317055.303</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>41323209288.0265</v>
+        <v>41336809508.7483</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>45262933926.611</v>
+        <v>45346459203.6791</v>
       </c>
       <c r="AG8" s="5" t="n">
-        <v>15623599795.75</v>
+        <v>17373741014.39</v>
       </c>
       <c r="AH8" s="5"/>
     </row>
@@ -20931,61 +21139,61 @@
         <v>62</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>296184552141.297</v>
+        <v>296157760976.03</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>344535256724.079</v>
+        <v>344535256725.175</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>345115774373.335</v>
+        <v>345005377463.537</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>327134805579.901</v>
+        <v>326990612189.563</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>335616663292.43</v>
+        <v>335575513371.367</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>323478130191.268</v>
+        <v>323306468598.232</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>275995030917.57</v>
+        <v>275994633856.702</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>247196996625.705</v>
+        <v>247183513097.948</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>239156341008.849</v>
+        <v>239098098359.064</v>
       </c>
       <c r="X9" s="5" t="n">
-        <v>261821707468.751</v>
+        <v>261662892832.461</v>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>285087288047.885</v>
+        <v>285000984377.899</v>
       </c>
       <c r="Z9" s="5" t="n">
-        <v>314790769967.597</v>
+        <v>314665652474.159</v>
       </c>
       <c r="AA9" s="5" t="n">
-        <v>340149233230.903</v>
+        <v>340129710221.631</v>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>376266638908.401</v>
+        <v>376258815022.514</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>335774032955.627</v>
+        <v>335784156917.117</v>
       </c>
       <c r="AD9" s="5" t="n">
-        <v>363078451353.951</v>
+        <v>362900997433.558</v>
       </c>
       <c r="AE9" s="5" t="n">
-        <v>402360947452.223</v>
+        <v>401952379002.733</v>
       </c>
       <c r="AF9" s="5" t="n">
-        <v>383726616903.297</v>
+        <v>383563605312.117</v>
       </c>
       <c r="AG9" s="5" t="n">
-        <v>177492394503.2</v>
+        <v>203227525866.59</v>
       </c>
       <c r="AH9" s="5"/>
     </row>

--- a/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
+++ b/Output/AcqTrends/NPS2025/DoD_2025_NPS.xlsx
@@ -401,8 +401,8 @@
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="224" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="225" formatCode="0.00,&quot;K&quot;"/>
-    <numFmt numFmtId="223" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="227" formatCode="0.00,&quot;K&quot;"/>
+    <numFmt numFmtId="226" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="182" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
@@ -411,7 +411,7 @@
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="217" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="226" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="228" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -453,8 +453,8 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="224" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="225" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="223" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="227" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="226" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -463,7 +463,7 @@
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="217" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="226" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="228" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
